--- a/StatsTest.xlsx
+++ b/StatsTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A1E991-85A1-4CFA-AD8F-8DE2ABD22DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE8B68-8169-45A6-975F-9AE9E2782636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2340" windowWidth="30540" windowHeight="16590" tabRatio="387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>player</t>
   </si>
@@ -306,17 +306,42 @@
   </si>
   <si>
     <t>Rating1.5ify=[0.5*(kpr-okpr+1.25*okpr)+(mkpr/3)-(dpr-.2tdpr+.5spr)+(adr/250)+(efr/18)]*10</t>
+  </si>
+  <si>
+    <t>1v1</t>
+  </si>
+  <si>
+    <t>1v2</t>
+  </si>
+  <si>
+    <t>1v1PR</t>
+  </si>
+  <si>
+    <t>1v2PR</t>
+  </si>
+  <si>
+    <t>PadRating</t>
+  </si>
+  <si>
+    <t>PadRating=[0.5*(kpr-okpr+1.25*okpr)+(mkpr/3)+((.25*1v1PR+1v2PR)/4)-(dpr-.2tdpr+.5spr)+(adr/250)+(efr/20)]+1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +573,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -568,100 +605,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -671,45 +708,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,7 +796,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -802,7 +849,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -855,7 +902,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -908,7 +955,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -961,7 +1008,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1014,7 +1061,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1067,7 +1114,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1120,7 +1167,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1173,7 +1220,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1226,7 +1273,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1279,7 +1326,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1332,7 +1379,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1385,7 +1432,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1438,7 +1485,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1491,7 +1538,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1544,7 +1591,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1597,7 +1644,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1650,7 +1697,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1703,7 +1750,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1756,7 +1803,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1809,7 +1856,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2061,27 +2108,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="AF26" sqref="AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" customWidth="1"/>
-    <col min="28" max="28" width="8.5703125" customWidth="1"/>
-    <col min="29" max="30" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="20" width="8.5703125" customWidth="1"/>
+    <col min="21" max="22" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="8.5703125" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" customWidth="1"/>
+    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2100,110 +2168,125 @@
       <c r="F1" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="J1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="K1" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="Q1" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="R1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="S1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="T1" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="U1" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="X1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="Y1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AE1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AF1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="65" t="s">
+      <c r="AG1" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH1" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AI1" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AK1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AL1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="67" t="s">
+      <c r="AN1" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>21</v>
       </c>
@@ -2223,134 +2306,152 @@
         <v>15</v>
       </c>
       <c r="G2" s="29">
+        <v>13</v>
+      </c>
+      <c r="H2" s="29">
+        <v>5</v>
+      </c>
+      <c r="I2" s="29">
         <v>29</v>
       </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="29">
-        <v>0</v>
-      </c>
       <c r="J2" s="29">
+        <v>0</v>
+      </c>
+      <c r="K2" s="29">
+        <v>0</v>
+      </c>
+      <c r="L2" s="29">
         <v>304</v>
       </c>
-      <c r="K2" s="29">
+      <c r="M2" s="29">
         <v>21</v>
       </c>
-      <c r="L2" s="29">
+      <c r="N2" s="29">
         <v>5829</v>
       </c>
-      <c r="M2" s="29">
+      <c r="O2" s="29">
         <v>71</v>
       </c>
-      <c r="N2" s="30">
-        <f t="shared" ref="N2:N15" si="0">ROUND(IMDIV(B2,M2),2)</f>
+      <c r="P2" s="30">
+        <f t="shared" ref="P2:P15" si="0">ROUND(IMDIV(B2,O2),2)</f>
         <v>0.83</v>
       </c>
-      <c r="O2" s="52">
-        <f>(D2/M2)</f>
+      <c r="Q2" s="52">
+        <f>(D2/O2)</f>
         <v>0.29577464788732394</v>
       </c>
-      <c r="P2" s="52">
-        <f t="shared" ref="P2:P15" si="1">(E2/M2)*100</f>
+      <c r="R2" s="52">
+        <f t="shared" ref="R2:R15" si="1">(E2/O2)*100</f>
         <v>49.295774647887328</v>
       </c>
-      <c r="Q2" s="30">
-        <f t="shared" ref="Q2:Q15" si="2">ROUND((D2/E2)*100,2)</f>
+      <c r="S2" s="30">
+        <f t="shared" ref="S2:S15" si="2">ROUND((D2/E2)*100,2)</f>
         <v>60</v>
       </c>
-      <c r="R2" s="52">
-        <f>F2/M2</f>
+      <c r="T2" s="52">
+        <f>F2/O2</f>
         <v>0.21126760563380281</v>
       </c>
-      <c r="S2" s="30">
-        <f t="shared" ref="S2:S15" si="3">ROUND(IMDIV(G2,M2),2)</f>
+      <c r="U2" s="52">
+        <f>G2/O2</f>
+        <v>0.18309859154929578</v>
+      </c>
+      <c r="V2" s="52">
+        <f>H2/O2</f>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="W2" s="30">
+        <f>ROUND(IMDIV(I2,O2),2)</f>
         <v>0.41</v>
       </c>
-      <c r="T2" s="30">
-        <f t="shared" ref="T2:T15" si="4">ROUND(IMDIV(H2,M2),2)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="30">
-        <f>ROUND(IMDIV(I2,M2),2)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="30">
-        <f t="shared" ref="V2:V15" si="5">ROUND(IMDIV(J2,M2),2)</f>
+      <c r="X2" s="30">
+        <f>ROUND(IMDIV(J2,O2),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="30">
+        <f>ROUND(IMDIV(K2,O2),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="30">
+        <f>ROUND(IMDIV(L2,O2),2)</f>
         <v>4.28</v>
       </c>
-      <c r="W2" s="30">
-        <f t="shared" ref="W2:W15" si="6">ROUND(IMDIV(K2,M2),2)</f>
+      <c r="AA2" s="30">
+        <f>ROUND(IMDIV(M2,O2),2)</f>
         <v>0.3</v>
       </c>
-      <c r="X2" s="30">
-        <f t="shared" ref="X2:X15" si="7">ROUND(IMDIV(B2,G2),2)</f>
+      <c r="AB2" s="30">
+        <f>ROUND(IMDIV(B2,I2),2)</f>
         <v>2.0299999999999998</v>
       </c>
-      <c r="Y2" s="30">
-        <f t="shared" ref="Y2:Y15" si="8">ROUND(IMDIV(C2,B2),4)*100</f>
+      <c r="AC2" s="30">
+        <f>ROUND(IMDIV(C2,B2),4)*100</f>
         <v>52.54</v>
       </c>
-      <c r="Z2" s="30">
-        <f t="shared" ref="Z2:Z15" si="9">ROUND(IMDIV(L2,M2),2)</f>
+      <c r="AD2" s="30">
+        <f>ROUND(IMDIV(N2,O2),2)</f>
         <v>82.1</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AE2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AF2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="66">
-        <f>(((N2-O2+1.25*O2)/2)+(R2/3)-(S2-0.2*T2+0.5*U2)+(Z2/250)+(W2/20))+1</f>
+      <c r="AG2" s="76">
+        <f>(((P2-Q2+1.25*Q2)/2)+(T2/3)+0.25*((U2/4)+V2)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/20))+1</f>
+        <v>1.484843661971831</v>
+      </c>
+      <c r="AH2" s="66">
+        <f>(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/20))+1</f>
         <v>1.4557943661971833</v>
       </c>
-      <c r="AD2" s="62">
-        <f t="shared" ref="AD2:AD15" si="10">(((N2-O2+1.25*O2+R2)/2)+(1-(S2-0.25*T2+0.5*U2))+(Z2/200)+(W2/18))</f>
+      <c r="AI2" s="62">
+        <f>(((P2-Q2+1.25*Q2+T2)/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
         <v>1.5747723004694834</v>
       </c>
-      <c r="AE2" s="23">
-        <f t="shared" ref="AE2:AE15" si="11">((N2/2)+(1-(S2-0.25*T2+0.5*U2))+(Z2/200)+(W2/18))</f>
+      <c r="AJ2" s="23">
+        <f>((P2/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
         <v>1.4321666666666668</v>
       </c>
-      <c r="AF2" s="20">
-        <f t="shared" ref="AF2:AF15" si="12">(((N2/2)+(1-S2)+(Z2/200)+(W2/9)))/1.06</f>
+      <c r="AK2" s="20">
+        <f>(((P2/2)+(1-W2)+(AD2/200)+(AA2/9)))/1.06</f>
         <v>1.3668238993710693</v>
       </c>
-      <c r="AG2" s="18">
-        <f t="shared" ref="AG2:AG15" si="13">((N2/2)+(1-S2)+(Z2/200)+(W2/9))</f>
+      <c r="AL2" s="18">
+        <f>((P2/2)+(1-W2)+(AD2/200)+(AA2/9))</f>
         <v>1.4488333333333336</v>
       </c>
-      <c r="AH2" s="15">
-        <f t="shared" ref="AH2:AH15" si="14">((N2/2)+(1-S2)+(Z2/200))</f>
+      <c r="AM2" s="15">
+        <f>((P2/2)+(1-W2)+(AD2/200))</f>
         <v>1.4155000000000002</v>
       </c>
-      <c r="AI2" s="68">
-        <f>(((N2-O2+1.25*O2)/2)+(R2/3)-(S2-0.2*T2+0.5*U2)+(Z2/250)+(W2/18))*10</f>
+      <c r="AN2" s="68">
+        <f>(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/18))*10</f>
         <v>4.5746103286384985</v>
       </c>
-      <c r="AJ2" s="10">
-        <f>(((N2-N16)-(S2-S16)+((Z2-Z16)/100))/2)*10</f>
-        <v>2.7576071428571423</v>
-      </c>
-      <c r="AK2" s="2">
-        <f>(((N2-N16)-(S2-S16)+(Z2-Z16))/100)+1</f>
-        <v>1.1201642857142857</v>
-      </c>
-      <c r="AL2" s="12">
-        <f>((N2-N16)-(S2-S16)+((Z2-Z16)/100))*10</f>
-        <v>5.5152142857142845</v>
-      </c>
-      <c r="AM2" s="12">
-        <f>((N2-N16)-(S2-S16)+((Z2-Z16)/116))+1</f>
-        <v>1.5355480295566502</v>
-      </c>
-      <c r="AN2" s="5">
-        <f>(((N2-N16)-(S2-S16)+((Z2-Z16)/100))/2)+1</f>
-        <v>1.2757607142857141</v>
+      <c r="AO2" s="10">
+        <f>(((P2-P16)-(W2-W16)+((AD2-AD16)/100))/2)*10</f>
+        <v>2.8455000000000004</v>
+      </c>
+      <c r="AP2" s="2">
+        <f>(((P2-P16)-(W2-W16)+(AD2-AD16))/100)+1</f>
+        <v>1.1243071428571427</v>
+      </c>
+      <c r="AQ2" s="12">
+        <f>((P2-P16)-(W2-W16)+((AD2-AD16)/100))*10</f>
+        <v>5.6910000000000007</v>
+      </c>
+      <c r="AR2" s="12">
+        <f>((P2-P16)-(W2-W16)+((AD2-AD16)/116))+1</f>
+        <v>1.5525738916256158</v>
+      </c>
+      <c r="AS2" s="5">
+        <f>(((P2-P16)-(W2-W16)+((AD2-AD16)/100))/2)+1</f>
+        <v>1.2845500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
@@ -2370,722 +2471,812 @@
         <v>8</v>
       </c>
       <c r="G3" s="29">
+        <v>2</v>
+      </c>
+      <c r="H3" s="29">
+        <v>4</v>
+      </c>
+      <c r="I3" s="29">
         <v>41</v>
       </c>
-      <c r="H3" s="29">
+      <c r="J3" s="29">
         <v>5</v>
       </c>
-      <c r="I3" s="29">
-        <v>0</v>
-      </c>
-      <c r="J3" s="29">
+      <c r="K3" s="29">
+        <v>0</v>
+      </c>
+      <c r="L3" s="29">
         <v>180</v>
       </c>
-      <c r="K3" s="29">
+      <c r="M3" s="29">
         <v>18</v>
       </c>
-      <c r="L3" s="29">
+      <c r="N3" s="29">
         <v>5332</v>
       </c>
-      <c r="M3" s="29">
+      <c r="O3" s="29">
         <v>71</v>
       </c>
-      <c r="N3" s="30">
+      <c r="P3" s="30">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="O3" s="52">
-        <f t="shared" ref="O3:O15" si="15">(D3/M3)</f>
+      <c r="Q3" s="52">
+        <f t="shared" ref="Q3:Q15" si="3">(D3/O3)</f>
         <v>0.30985915492957744</v>
       </c>
-      <c r="P3" s="52">
+      <c r="R3" s="52">
         <f t="shared" si="1"/>
         <v>50.704225352112672</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="S3" s="30">
         <f t="shared" si="2"/>
         <v>61.11</v>
       </c>
-      <c r="R3" s="52">
-        <f t="shared" ref="R3:R15" si="16">F3/M3</f>
+      <c r="T3" s="52">
+        <f t="shared" ref="T3:T15" si="4">F3/O3</f>
         <v>0.11267605633802817</v>
       </c>
-      <c r="S3" s="30">
-        <f t="shared" si="3"/>
+      <c r="U3" s="52">
+        <f t="shared" ref="U3:U15" si="5">G3/O3</f>
+        <v>2.8169014084507043E-2</v>
+      </c>
+      <c r="V3" s="52">
+        <f t="shared" ref="V3:V15" si="6">H3/O3</f>
+        <v>5.6338028169014086E-2</v>
+      </c>
+      <c r="W3" s="30">
+        <f>ROUND(IMDIV(I3,O3),2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="T3" s="30">
-        <f t="shared" si="4"/>
+      <c r="X3" s="30">
+        <f>ROUND(IMDIV(J3,O3),2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U3" s="30">
-        <f t="shared" ref="U3:U15" si="17">ROUND(IMDIV(I3,M3),2)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="30">
-        <f t="shared" si="5"/>
+      <c r="Y3" s="30">
+        <f>ROUND(IMDIV(K3,O3),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="30">
+        <f>ROUND(IMDIV(L3,O3),2)</f>
         <v>2.54</v>
       </c>
-      <c r="W3" s="30">
-        <f t="shared" si="6"/>
+      <c r="AA3" s="30">
+        <f>ROUND(IMDIV(M3,O3),2)</f>
         <v>0.25</v>
       </c>
-      <c r="X3" s="30">
-        <f t="shared" si="7"/>
+      <c r="AB3" s="30">
+        <f>ROUND(IMDIV(B3,I3),2)</f>
         <v>1.07</v>
       </c>
-      <c r="Y3" s="30">
-        <f t="shared" si="8"/>
+      <c r="AC3" s="30">
+        <f>ROUND(IMDIV(C3,B3),4)*100</f>
         <v>43.18</v>
       </c>
-      <c r="Z3" s="30">
-        <f t="shared" si="9"/>
+      <c r="AD3" s="30">
+        <f>ROUND(IMDIV(N3,O3),2)</f>
         <v>75.099999999999994</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AE3" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AB3" s="29" t="s">
+      <c r="AF3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="66">
-        <f t="shared" ref="AC3:AC15" si="18">(((N3-O3+1.25*O3)/2)+(R3/3)-(S3-0.2*T3+0.5*U3)+(Z3/250)+(W3/20))+1</f>
+      <c r="AG3" s="76">
+        <f t="shared" ref="AG3:AG15" si="7">(((P3-Q3+1.25*Q3)/2)+(T3/3)+0.25*((U3/4)+V3)-(W3-0.2*X3+0.5*Y3)+(AD3/250)+(AA3/20))+1</f>
+        <v>1.1490361502347417</v>
+      </c>
+      <c r="AH3" s="66">
+        <f>(((P3-Q3+1.25*Q3)/2)+(T3/3)-(W3-0.2*X3+0.5*Y3)+(AD3/250)+(AA3/20))+1</f>
         <v>1.1331910798122067</v>
       </c>
-      <c r="AD3" s="62">
-        <f t="shared" si="10"/>
+      <c r="AI3" s="62">
+        <f>(((P3-Q3+1.25*Q3+T3)/2)+(1-(W3-0.25*X3+0.5*Y3))+(AD3/200)+(AA3/18))</f>
         <v>1.2319593114241001</v>
       </c>
-      <c r="AE3" s="23">
-        <f t="shared" si="11"/>
+      <c r="AJ3" s="23">
+        <f>((P3/2)+(1-(W3-0.25*X3+0.5*Y3))+(AD3/200)+(AA3/18))</f>
         <v>1.1368888888888888</v>
       </c>
-      <c r="AF3" s="20">
-        <f t="shared" si="12"/>
+      <c r="AK3" s="20">
+        <f>(((P3/2)+(1-W3)+(AD3/200)+(AA3/9)))/1.06</f>
         <v>1.0691299790356392</v>
       </c>
-      <c r="AG3" s="18">
-        <f t="shared" si="13"/>
+      <c r="AL3" s="18">
+        <f>((P3/2)+(1-W3)+(AD3/200)+(AA3/9))</f>
         <v>1.1332777777777776</v>
       </c>
-      <c r="AH3" s="15">
-        <f t="shared" si="14"/>
+      <c r="AM3" s="15">
+        <f>((P3/2)+(1-W3)+(AD3/200))</f>
         <v>1.1054999999999999</v>
       </c>
-      <c r="AI3" s="68">
-        <f t="shared" ref="AI3:AI15" si="19">(((N3-O3+1.25*O3)/2)+(R3/3)-(S3-0.2*T3+0.5*U3)+(Z3/250)+(W3/18))*10</f>
+      <c r="AN3" s="68">
+        <f>(((P3-Q3+1.25*Q3)/2)+(T3/3)-(W3-0.2*X3+0.5*Y3)+(AD3/250)+(AA3/18))*10</f>
         <v>1.3457996870109552</v>
       </c>
-      <c r="AJ3" s="10">
-        <f>(((N3-N16)-(S3-S16)+((Z3-Z16)/100))/2)*10</f>
-        <v>0.50760714285714259</v>
-      </c>
-      <c r="AK3" s="2">
-        <f>(((N3-N16)-(S3-S16)+(Z3-Z16))/100)+1</f>
-        <v>1.0463642857142856</v>
-      </c>
-      <c r="AL3" s="12">
-        <f>((N3-N16)-(S3-S16)+((Z3-Z16)/100))*10</f>
-        <v>1.0152142857142852</v>
-      </c>
-      <c r="AM3" s="12">
-        <f>((N3-N16)-(S3-S16)+((Z3-Z16)/116))+1</f>
-        <v>1.0952032019704432</v>
-      </c>
-      <c r="AN3" s="5">
-        <f>(((N3-N16)-(S3-S16)+((Z3-Z16)/100))/2)+1</f>
-        <v>1.0507607142857143</v>
+      <c r="AO3" s="10">
+        <f>(((P3-P16)-(W3-W16)+((AD3-AD16)/100))/2)*10</f>
+        <v>0.59550000000000025</v>
+      </c>
+      <c r="AP3" s="2">
+        <f>(((P3-P16)-(W3-W16)+(AD3-AD16))/100)+1</f>
+        <v>1.0505071428571429</v>
+      </c>
+      <c r="AQ3" s="12">
+        <f>((P3-P16)-(W3-W16)+((AD3-AD16)/100))*10</f>
+        <v>1.1910000000000005</v>
+      </c>
+      <c r="AR3" s="12">
+        <f>((P3-P16)-(W3-W16)+((AD3-AD16)/116))+1</f>
+        <v>1.112229064039409</v>
+      </c>
+      <c r="AS3" s="5">
+        <f>(((P3-P16)-(W3-W16)+((AD3-AD16)/100))/2)+1</f>
+        <v>1.05955</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="31">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C4" s="31">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D4" s="31">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E4" s="31">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F4" s="31">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G4" s="31">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H4" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4" s="31">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J4" s="31">
-        <v>683</v>
+        <v>4</v>
       </c>
       <c r="K4" s="31">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L4" s="31">
-        <v>7905</v>
+        <v>1160</v>
       </c>
       <c r="M4" s="31">
-        <v>93</v>
-      </c>
-      <c r="N4" s="32">
+        <v>25</v>
+      </c>
+      <c r="N4" s="31">
+        <v>12319</v>
+      </c>
+      <c r="O4" s="31">
+        <v>139</v>
+      </c>
+      <c r="P4" s="32">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="O4" s="53">
-        <f t="shared" si="15"/>
-        <v>0.36559139784946237</v>
-      </c>
-      <c r="P4" s="53">
+      <c r="Q4" s="53">
+        <f t="shared" si="3"/>
+        <v>0.37410071942446044</v>
+      </c>
+      <c r="R4" s="53">
         <f t="shared" si="1"/>
-        <v>61.29032258064516</v>
-      </c>
-      <c r="Q4" s="32">
+        <v>61.151079136690647</v>
+      </c>
+      <c r="S4" s="32">
         <f t="shared" si="2"/>
-        <v>59.65</v>
-      </c>
-      <c r="R4" s="53">
-        <f t="shared" si="16"/>
-        <v>0.18279569892473119</v>
-      </c>
-      <c r="S4" s="32">
-        <f t="shared" si="3"/>
-        <v>0.51</v>
-      </c>
-      <c r="T4" s="32">
+        <v>61.18</v>
+      </c>
+      <c r="T4" s="53">
         <f t="shared" si="4"/>
+        <v>0.18705035971223022</v>
+      </c>
+      <c r="U4" s="53">
+        <f t="shared" si="5"/>
+        <v>0.1079136690647482</v>
+      </c>
+      <c r="V4" s="53">
+        <f t="shared" si="6"/>
+        <v>4.3165467625899283E-2</v>
+      </c>
+      <c r="W4" s="32">
+        <f>ROUND(IMDIV(I4,O4),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X4" s="32">
+        <f>ROUND(IMDIV(J4,O4),2)</f>
         <v>0.03</v>
       </c>
-      <c r="U4" s="32">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="32">
-        <f t="shared" si="5"/>
-        <v>7.34</v>
-      </c>
-      <c r="W4" s="32">
-        <f t="shared" si="6"/>
-        <v>0.23</v>
-      </c>
-      <c r="X4" s="32">
+      <c r="Y4" s="32">
+        <f>ROUND(IMDIV(K4,O4),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="32">
+        <f>ROUND(IMDIV(L4,O4),2)</f>
+        <v>8.35</v>
+      </c>
+      <c r="AA4" s="32">
+        <f>ROUND(IMDIV(M4,O4),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="AB4" s="32">
+        <f>ROUND(IMDIV(B4,I4),2)</f>
+        <v>1.35</v>
+      </c>
+      <c r="AC4" s="32">
+        <f>ROUND(IMDIV(C4,B4),4)*100</f>
+        <v>49.519999999999996</v>
+      </c>
+      <c r="AD4" s="32">
+        <f>ROUND(IMDIV(N4,O4),2)</f>
+        <v>88.63</v>
+      </c>
+      <c r="AE4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="76">
         <f t="shared" si="7"/>
-        <v>1.51</v>
-      </c>
-      <c r="Y4" s="32">
-        <f t="shared" si="8"/>
-        <v>45.07</v>
-      </c>
-      <c r="Z4" s="32">
-        <f t="shared" si="9"/>
-        <v>85</v>
-      </c>
-      <c r="AA4" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="66">
-        <f t="shared" si="18"/>
-        <v>1.3341308243727599</v>
-      </c>
-      <c r="AD4" s="62">
-        <f t="shared" si="10"/>
-        <v>1.4523745519713263</v>
-      </c>
-      <c r="AE4" s="23">
-        <f t="shared" si="11"/>
-        <v>1.3152777777777778</v>
-      </c>
-      <c r="AF4" s="20">
-        <f t="shared" si="12"/>
-        <v>1.2458071278825995</v>
-      </c>
-      <c r="AG4" s="18">
-        <f t="shared" si="13"/>
-        <v>1.3205555555555555</v>
-      </c>
-      <c r="AH4" s="15">
-        <f t="shared" si="14"/>
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="AI4" s="68">
-        <f t="shared" si="19"/>
-        <v>3.3540860215053767</v>
-      </c>
-      <c r="AJ4" s="10">
-        <f>(((N4-N16)-(S4-S16)+((Z4-Z16)/100))/2)*10</f>
-        <v>2.0526071428571426</v>
-      </c>
-      <c r="AK4" s="2">
-        <f>(((N4-N16)-(S4-S16)+(Z4-Z16))/100)+1</f>
-        <v>1.1474642857142858</v>
-      </c>
-      <c r="AL4" s="12">
-        <f>((N4-N16)-(S4-S16)+((Z4-Z16)/100))*10</f>
-        <v>4.1052142857142853</v>
-      </c>
-      <c r="AM4" s="12">
-        <f>((N4-N16)-(S4-S16)+((Z4-Z16)/116))+1</f>
-        <v>1.3905480295566501</v>
-      </c>
-      <c r="AN4" s="5">
-        <f>(((N4-N16)-(S4-S16)+((Z4-Z16)/100))/2)+1</f>
-        <v>1.2052607142857144</v>
+        <v>1.3161686810551558</v>
+      </c>
+      <c r="AH4" s="66">
+        <f>(((P4-Q4+1.25*Q4)/2)+(T4/3)-(W4-0.2*X4+0.5*Y4)+(AD4/250)+(AA4/20))+1</f>
+        <v>1.2986327098321342</v>
+      </c>
+      <c r="AI4" s="62">
+        <f>(((P4-Q4+1.25*Q4+T4)/2)+(1-(W4-0.25*X4+0.5*Y4))+(AD4/200)+(AA4/18))</f>
+        <v>1.4209377697841725</v>
+      </c>
+      <c r="AJ4" s="23">
+        <f>((P4/2)+(1-(W4-0.25*X4+0.5*Y4))+(AD4/200)+(AA4/18))</f>
+        <v>1.2806499999999998</v>
+      </c>
+      <c r="AK4" s="20">
+        <f>(((P4/2)+(1-W4)+(AD4/200)+(AA4/9)))/1.06</f>
+        <v>1.2105188679245282</v>
+      </c>
+      <c r="AL4" s="18">
+        <f>((P4/2)+(1-W4)+(AD4/200)+(AA4/9))</f>
+        <v>1.28315</v>
+      </c>
+      <c r="AM4" s="15">
+        <f>((P4/2)+(1-W4)+(AD4/200))</f>
+        <v>1.26315</v>
+      </c>
+      <c r="AN4" s="68">
+        <f>(((P4-Q4+1.25*Q4)/2)+(T4/3)-(W4-0.2*X4+0.5*Y4)+(AD4/250)+(AA4/18))*10</f>
+        <v>2.9963270983213426</v>
+      </c>
+      <c r="AO4" s="10">
+        <f>(((P4-P16)-(W4-W16)+((AD4-AD16)/100))/2)*10</f>
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="AP4" s="2">
+        <f>(((P4-P16)-(W4-W16)+(AD4-AD16))/100)+1</f>
+        <v>1.1874071428571429</v>
+      </c>
+      <c r="AQ4" s="12">
+        <f>((P4-P16)-(W4-W16)+((AD4-AD16)/100))*10</f>
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="AR4" s="12">
+        <f>((P4-P16)-(W4-W16)+((AD4-AD16)/116))+1</f>
+        <v>1.3888669950738917</v>
+      </c>
+      <c r="AS4" s="5">
+        <f>(((P4-P16)-(W4-W16)+((AD4-AD16)/100))/2)+1</f>
+        <v>1.2072000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="31">
+        <v>73</v>
+      </c>
+      <c r="C5" s="31">
+        <v>37</v>
+      </c>
+      <c r="D5" s="31">
+        <v>27</v>
+      </c>
+      <c r="E5" s="31">
         <v>54</v>
       </c>
-      <c r="C5" s="31">
-        <v>32</v>
-      </c>
-      <c r="D5" s="31">
-        <v>22</v>
-      </c>
-      <c r="E5" s="31">
-        <v>36</v>
-      </c>
       <c r="F5" s="31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="31">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="H5" s="31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" s="31">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="J5" s="31">
-        <v>312</v>
+        <v>5</v>
       </c>
       <c r="K5" s="31">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L5" s="31">
-        <v>5858</v>
+        <v>353</v>
       </c>
       <c r="M5" s="31">
-        <v>93</v>
-      </c>
-      <c r="N5" s="32">
+        <v>27</v>
+      </c>
+      <c r="N5" s="31">
+        <v>7930</v>
+      </c>
+      <c r="O5" s="31">
+        <v>139</v>
+      </c>
+      <c r="P5" s="32">
         <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O5" s="53">
-        <f t="shared" si="15"/>
-        <v>0.23655913978494625</v>
-      </c>
-      <c r="P5" s="53">
+        <v>0.53</v>
+      </c>
+      <c r="Q5" s="53">
+        <f t="shared" si="3"/>
+        <v>0.19424460431654678</v>
+      </c>
+      <c r="R5" s="53">
         <f t="shared" si="1"/>
-        <v>38.70967741935484</v>
-      </c>
-      <c r="Q5" s="32">
+        <v>38.848920863309353</v>
+      </c>
+      <c r="S5" s="32">
         <f t="shared" si="2"/>
-        <v>61.11</v>
-      </c>
-      <c r="R5" s="53">
-        <f t="shared" si="16"/>
-        <v>8.6021505376344093E-2</v>
-      </c>
-      <c r="S5" s="32">
-        <f t="shared" si="3"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="T5" s="32">
+        <v>50</v>
+      </c>
+      <c r="T5" s="53">
         <f t="shared" si="4"/>
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="U5" s="53">
+        <f t="shared" si="5"/>
+        <v>5.0359712230215826E-2</v>
+      </c>
+      <c r="V5" s="53">
+        <f t="shared" si="6"/>
+        <v>4.3165467625899283E-2</v>
+      </c>
+      <c r="W5" s="32">
+        <f>ROUND(IMDIV(I5,O5),2)</f>
+        <v>0.62</v>
+      </c>
+      <c r="X5" s="32">
+        <f>ROUND(IMDIV(J5,O5),2)</f>
         <v>0.04</v>
       </c>
-      <c r="U5" s="32">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="32">
-        <f t="shared" si="5"/>
-        <v>3.35</v>
-      </c>
-      <c r="W5" s="32">
-        <f t="shared" si="6"/>
-        <v>0.23</v>
-      </c>
-      <c r="X5" s="32">
+      <c r="Y5" s="32">
+        <f>ROUND(IMDIV(K5,O5),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="32">
+        <f>ROUND(IMDIV(L5,O5),2)</f>
+        <v>2.54</v>
+      </c>
+      <c r="AA5" s="32">
+        <f>ROUND(IMDIV(M5,O5),2)</f>
+        <v>0.19</v>
+      </c>
+      <c r="AB5" s="32">
+        <f>ROUND(IMDIV(B5,I5),2)</f>
+        <v>0.85</v>
+      </c>
+      <c r="AC5" s="32">
+        <f>ROUND(IMDIV(C5,B5),4)*100</f>
+        <v>50.68</v>
+      </c>
+      <c r="AD5" s="32">
+        <f>ROUND(IMDIV(N5,O5),2)</f>
+        <v>57.05</v>
+      </c>
+      <c r="AE5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG5" s="76">
         <f t="shared" si="7"/>
-        <v>1.04</v>
-      </c>
-      <c r="Y5" s="32">
-        <f t="shared" si="8"/>
-        <v>59.260000000000005</v>
-      </c>
-      <c r="Z5" s="32">
-        <f t="shared" si="9"/>
-        <v>62.99</v>
-      </c>
-      <c r="AA5" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB5" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="66">
-        <f t="shared" si="18"/>
-        <v>1.0597037275985663</v>
-      </c>
-      <c r="AD5" s="62">
-        <f t="shared" si="10"/>
-        <v>1.1403084229390681</v>
-      </c>
-      <c r="AE5" s="23">
-        <f t="shared" si="11"/>
-        <v>1.0677277777777778</v>
-      </c>
-      <c r="AF5" s="20">
-        <f t="shared" si="12"/>
-        <v>1.0099109014675052</v>
-      </c>
-      <c r="AG5" s="18">
-        <f t="shared" si="13"/>
-        <v>1.0705055555555556</v>
-      </c>
-      <c r="AH5" s="15">
-        <f t="shared" si="14"/>
-        <v>1.04495</v>
-      </c>
-      <c r="AI5" s="68">
-        <f t="shared" si="19"/>
-        <v>0.60981505376344058</v>
-      </c>
-      <c r="AJ5" s="10">
-        <f>(((N5-N16)-(S5-S16)+((Z5-Z16)/100))/2)*10</f>
-        <v>-0.19789285714285773</v>
-      </c>
-      <c r="AK5" s="2">
-        <f>(((N5-N16)-(S5-S16)+(Z5-Z16))/100)+1</f>
-        <v>0.92506428571428567</v>
-      </c>
-      <c r="AL5" s="12">
-        <f>((N5-N16)-(S5-S16)+((Z5-Z16)/100))*10</f>
-        <v>-0.39578571428571546</v>
-      </c>
-      <c r="AM5" s="12">
-        <f>((N5-N16)-(S5-S16)+((Z5-Z16)/116))+1</f>
-        <v>0.9708066502463053</v>
-      </c>
-      <c r="AN5" s="5">
-        <f>(((N5-N16)-(S5-S16)+((Z5-Z16)/100))/2)+1</f>
-        <v>0.98021071428571427</v>
+        <v>0.95290023980815353</v>
+      </c>
+      <c r="AH5" s="66">
+        <f>(((P5-Q5+1.25*Q5)/2)+(T5/3)-(W5-0.2*X5+0.5*Y5)+(AD5/250)+(AA5/20))+1</f>
+        <v>0.93896139088729025</v>
+      </c>
+      <c r="AI5" s="62">
+        <f>(((P5-Q5+1.25*Q5+T5)/2)+(1-(W5-0.25*X5+0.5*Y5))+(AD5/200)+(AA5/18))</f>
+        <v>1.0110573541167067</v>
+      </c>
+      <c r="AJ5" s="23">
+        <f>((P5/2)+(1-(W5-0.25*X5+0.5*Y5))+(AD5/200)+(AA5/18))</f>
+        <v>0.95080555555555557</v>
+      </c>
+      <c r="AK5" s="20">
+        <f>(((P5/2)+(1-W5)+(AD5/200)+(AA5/9)))/1.06</f>
+        <v>0.8975104821802935</v>
+      </c>
+      <c r="AL5" s="18">
+        <f>((P5/2)+(1-W5)+(AD5/200)+(AA5/9))</f>
+        <v>0.9513611111111111</v>
+      </c>
+      <c r="AM5" s="15">
+        <f>((P5/2)+(1-W5)+(AD5/200))</f>
+        <v>0.93025000000000002</v>
+      </c>
+      <c r="AN5" s="68">
+        <f>(((P5-Q5+1.25*Q5)/2)+(T5/3)-(W5-0.2*X5+0.5*Y5)+(AD5/250)+(AA5/18))*10</f>
+        <v>-0.59983053557154231</v>
+      </c>
+      <c r="AO5" s="10">
+        <f>(((P5-P16)-(W5-W16)+((AD5-AD16)/100))/2)*10</f>
+        <v>-0.95699999999999963</v>
+      </c>
+      <c r="AP5" s="2">
+        <f>(((P5-P16)-(W5-W16)+(AD5-AD16))/100)+1</f>
+        <v>0.8687071428571429</v>
+      </c>
+      <c r="AQ5" s="12">
+        <f>((P5-P16)-(W5-W16)+((AD5-AD16)/100))*10</f>
+        <v>-1.9139999999999993</v>
+      </c>
+      <c r="AR5" s="12">
+        <f>((P5-P16)-(W5-W16)+((AD5-AD16)/116))+1</f>
+        <v>0.82662561576354687</v>
+      </c>
+      <c r="AS5" s="5">
+        <f>(((P5-P16)-(W5-W16)+((AD5-AD16)/100))/2)+1</f>
+        <v>0.90429999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="34">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C6" s="34">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D6" s="34">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" s="34">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F6" s="34">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G6" s="34">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="H6" s="34">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I6" s="34">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J6" s="34">
-        <v>384</v>
+        <v>3</v>
       </c>
       <c r="K6" s="34">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L6" s="34">
-        <v>6019</v>
+        <v>506</v>
       </c>
       <c r="M6" s="34">
-        <v>73</v>
-      </c>
-      <c r="N6" s="35">
+        <v>21</v>
+      </c>
+      <c r="N6" s="34">
+        <v>9496</v>
+      </c>
+      <c r="O6" s="34">
+        <v>119</v>
+      </c>
+      <c r="P6" s="35">
         <f t="shared" si="0"/>
-        <v>0.74</v>
-      </c>
-      <c r="O6" s="54">
-        <f t="shared" si="15"/>
-        <v>0.23287671232876711</v>
-      </c>
-      <c r="P6" s="54">
+        <v>0.69</v>
+      </c>
+      <c r="Q6" s="54">
+        <f t="shared" si="3"/>
+        <v>0.20168067226890757</v>
+      </c>
+      <c r="R6" s="54">
         <f t="shared" si="1"/>
-        <v>42.465753424657535</v>
-      </c>
-      <c r="Q6" s="35">
+        <v>41.17647058823529</v>
+      </c>
+      <c r="S6" s="35">
         <f t="shared" si="2"/>
-        <v>54.84</v>
-      </c>
-      <c r="R6" s="54">
-        <f t="shared" si="16"/>
-        <v>0.23287671232876711</v>
-      </c>
-      <c r="S6" s="35">
-        <f t="shared" si="3"/>
+        <v>48.98</v>
+      </c>
+      <c r="T6" s="54">
+        <f t="shared" si="4"/>
+        <v>0.21008403361344538</v>
+      </c>
+      <c r="U6" s="54">
+        <f t="shared" si="5"/>
+        <v>6.7226890756302518E-2</v>
+      </c>
+      <c r="V6" s="54">
+        <f t="shared" si="6"/>
+        <v>7.5630252100840331E-2</v>
+      </c>
+      <c r="W6" s="35">
+        <f>ROUND(IMDIV(I6,O6),2)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="T6" s="35">
-        <f t="shared" si="4"/>
+      <c r="X6" s="35">
+        <f>ROUND(IMDIV(J6,O6),2)</f>
         <v>0.03</v>
       </c>
-      <c r="U6" s="35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="35">
-        <f t="shared" si="5"/>
-        <v>5.26</v>
-      </c>
-      <c r="W6" s="35">
-        <f t="shared" si="6"/>
-        <v>0.23</v>
-      </c>
-      <c r="X6" s="35">
+      <c r="Y6" s="35">
+        <f>ROUND(IMDIV(K6,O6),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="35">
+        <f>ROUND(IMDIV(L6,O6),2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="AA6" s="35">
+        <f>ROUND(IMDIV(M6,O6),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="AB6" s="35">
+        <f>ROUND(IMDIV(B6,I6),2)</f>
+        <v>1.22</v>
+      </c>
+      <c r="AC6" s="35">
+        <f>ROUND(IMDIV(C6,B6),4)*100</f>
+        <v>62.2</v>
+      </c>
+      <c r="AD6" s="35">
+        <f>ROUND(IMDIV(N6,O6),2)</f>
+        <v>79.8</v>
+      </c>
+      <c r="AE6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG6" s="76">
         <f t="shared" si="7"/>
-        <v>1.32</v>
-      </c>
-      <c r="Y6" s="35">
-        <f t="shared" si="8"/>
-        <v>64.81</v>
-      </c>
-      <c r="Z6" s="35">
-        <f t="shared" si="9"/>
-        <v>82.45</v>
-      </c>
-      <c r="AA6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB6" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC6" s="66">
-        <f t="shared" si="18"/>
-        <v>1.2640351598173516</v>
-      </c>
-      <c r="AD6" s="62">
-        <f t="shared" si="10"/>
-        <v>1.3880757229832572</v>
-      </c>
-      <c r="AE6" s="23">
-        <f t="shared" si="11"/>
-        <v>1.2425277777777777</v>
-      </c>
-      <c r="AF6" s="20">
-        <f t="shared" si="12"/>
-        <v>1.1771750524109013</v>
-      </c>
-      <c r="AG6" s="18">
-        <f t="shared" si="13"/>
-        <v>1.2478055555555554</v>
-      </c>
-      <c r="AH6" s="15">
-        <f t="shared" si="14"/>
-        <v>1.2222499999999998</v>
-      </c>
-      <c r="AI6" s="68">
-        <f t="shared" si="19"/>
-        <v>2.6531293759512931</v>
-      </c>
-      <c r="AJ6" s="10">
-        <f>(((N6-N16)-(S6-S16)+((Z6-Z16)/100))/2)*10</f>
-        <v>1.5751071428571426</v>
-      </c>
-      <c r="AK6" s="2">
-        <f>(((N6-N16)-(S6-S16)+(Z6-Z16))/100)+1</f>
-        <v>1.1212642857142858</v>
-      </c>
-      <c r="AL6" s="12">
-        <f>((N6-N16)-(S6-S16)+((Z6-Z16)/100))*10</f>
-        <v>3.1502142857142852</v>
-      </c>
-      <c r="AM6" s="12">
-        <f>((N6-N16)-(S6-S16)+((Z6-Z16)/116))+1</f>
-        <v>1.2985652709359605</v>
-      </c>
-      <c r="AN6" s="5">
-        <f>(((N6-N16)-(S6-S16)+((Z6-Z16)/100))/2)+1</f>
-        <v>1.1575107142857142</v>
+        <v>1.237547338935574</v>
+      </c>
+      <c r="AH6" s="66">
+        <f>(((P6-Q6+1.25*Q6)/2)+(T6/3)-(W6-0.2*X6+0.5*Y6)+(AD6/250)+(AA6/20))+1</f>
+        <v>1.2144380952380951</v>
+      </c>
+      <c r="AI6" s="62">
+        <f>(((P6-Q6+1.25*Q6+T6)/2)+(1-(W6-0.25*X6+0.5*Y6))+(AD6/200)+(AA6/18))</f>
+        <v>1.3317521008403361</v>
+      </c>
+      <c r="AJ6" s="23">
+        <f>((P6/2)+(1-(W6-0.25*X6+0.5*Y6))+(AD6/200)+(AA6/18))</f>
+        <v>1.2014999999999998</v>
+      </c>
+      <c r="AK6" s="20">
+        <f>(((P6/2)+(1-W6)+(AD6/200)+(AA6/9)))/1.06</f>
+        <v>1.1358490566037736</v>
+      </c>
+      <c r="AL6" s="18">
+        <f>((P6/2)+(1-W6)+(AD6/200)+(AA6/9))</f>
+        <v>1.204</v>
+      </c>
+      <c r="AM6" s="15">
+        <f>((P6/2)+(1-W6)+(AD6/200))</f>
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="AN6" s="68">
+        <f>(((P6-Q6+1.25*Q6)/2)+(T6/3)-(W6-0.2*X6+0.5*Y6)+(AD6/250)+(AA6/18))*10</f>
+        <v>2.1543809523809516</v>
+      </c>
+      <c r="AO6" s="10">
+        <f>(((P6-P16)-(W6-W16)+((AD6-AD16)/100))/2)*10</f>
+        <v>1.2804999999999997</v>
+      </c>
+      <c r="AP6" s="2">
+        <f>(((P6-P16)-(W6-W16)+(AD6-AD16))/100)+1</f>
+        <v>1.0984071428571429</v>
+      </c>
+      <c r="AQ6" s="12">
+        <f>((P6-P16)-(W6-W16)+((AD6-AD16)/100))*10</f>
+        <v>2.5609999999999995</v>
+      </c>
+      <c r="AR6" s="12">
+        <f>((P6-P16)-(W6-W16)+((AD6-AD16)/116))+1</f>
+        <v>1.2427463054187191</v>
+      </c>
+      <c r="AS6" s="5">
+        <f>(((P6-P16)-(W6-W16)+((AD6-AD16)/100))/2)+1</f>
+        <v>1.12805</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="34">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C7" s="34">
+        <v>38</v>
+      </c>
+      <c r="D7" s="34">
+        <v>40</v>
+      </c>
+      <c r="E7" s="34">
+        <v>70</v>
+      </c>
+      <c r="F7" s="34">
         <v>24</v>
       </c>
-      <c r="D7" s="34">
-        <v>23</v>
-      </c>
-      <c r="E7" s="34">
-        <v>42</v>
-      </c>
-      <c r="F7" s="34">
-        <v>14</v>
-      </c>
       <c r="G7" s="34">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H7" s="34">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I7" s="34">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J7" s="34">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="K7" s="34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L7" s="34">
-        <v>5922</v>
+        <v>384</v>
       </c>
       <c r="M7" s="34">
-        <v>73</v>
-      </c>
-      <c r="N7" s="35">
+        <v>22</v>
+      </c>
+      <c r="N7" s="34">
+        <v>9576</v>
+      </c>
+      <c r="O7" s="34">
+        <v>119</v>
+      </c>
+      <c r="P7" s="35">
         <f t="shared" si="0"/>
-        <v>0.68</v>
-      </c>
-      <c r="O7" s="54">
-        <f t="shared" si="15"/>
-        <v>0.31506849315068491</v>
-      </c>
-      <c r="P7" s="54">
+        <v>0.73</v>
+      </c>
+      <c r="Q7" s="54">
+        <f t="shared" si="3"/>
+        <v>0.33613445378151263</v>
+      </c>
+      <c r="R7" s="54">
         <f t="shared" si="1"/>
-        <v>57.534246575342465</v>
-      </c>
-      <c r="Q7" s="35">
+        <v>58.82352941176471</v>
+      </c>
+      <c r="S7" s="35">
         <f t="shared" si="2"/>
-        <v>54.76</v>
-      </c>
-      <c r="R7" s="54">
-        <f t="shared" si="16"/>
-        <v>0.19178082191780821</v>
-      </c>
-      <c r="S7" s="35">
-        <f t="shared" si="3"/>
-        <v>0.52</v>
-      </c>
-      <c r="T7" s="35">
+        <v>57.14</v>
+      </c>
+      <c r="T7" s="54">
         <f t="shared" si="4"/>
+        <v>0.20168067226890757</v>
+      </c>
+      <c r="U7" s="54">
+        <f t="shared" si="5"/>
+        <v>5.0420168067226892E-2</v>
+      </c>
+      <c r="V7" s="54">
+        <f t="shared" si="6"/>
+        <v>0.10084033613445378</v>
+      </c>
+      <c r="W7" s="35">
+        <f>ROUND(IMDIV(I7,O7),2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X7" s="35">
+        <f>ROUND(IMDIV(J7,O7),2)</f>
         <v>0.05</v>
       </c>
-      <c r="U7" s="35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="35">
-        <f t="shared" si="5"/>
-        <v>2.08</v>
-      </c>
-      <c r="W7" s="35">
-        <f t="shared" si="6"/>
-        <v>0.22</v>
-      </c>
-      <c r="X7" s="35">
+      <c r="Y7" s="35">
+        <f>ROUND(IMDIV(K7,O7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="35">
+        <f>ROUND(IMDIV(L7,O7),2)</f>
+        <v>3.23</v>
+      </c>
+      <c r="AA7" s="35">
+        <f>ROUND(IMDIV(M7,O7),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="AB7" s="35">
+        <f>ROUND(IMDIV(B7,I7),2)</f>
+        <v>1.34</v>
+      </c>
+      <c r="AC7" s="35">
+        <f>ROUND(IMDIV(C7,B7),4)*100</f>
+        <v>43.68</v>
+      </c>
+      <c r="AD7" s="35">
+        <f>ROUND(IMDIV(N7,O7),2)</f>
+        <v>80.47</v>
+      </c>
+      <c r="AE7" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="76">
         <f t="shared" si="7"/>
-        <v>1.32</v>
-      </c>
-      <c r="Y7" s="35">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="Z7" s="35">
-        <f t="shared" si="9"/>
-        <v>81.12</v>
-      </c>
-      <c r="AA7" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="66">
-        <f t="shared" si="18"/>
-        <v>1.268790502283105</v>
-      </c>
-      <c r="AD7" s="62">
-        <f t="shared" si="10"/>
-        <v>1.3855961948249618</v>
-      </c>
-      <c r="AE7" s="23">
-        <f t="shared" si="11"/>
-        <v>1.2503222222222221</v>
-      </c>
-      <c r="AF7" s="20">
-        <f t="shared" si="12"/>
-        <v>1.1792872117400419</v>
-      </c>
-      <c r="AG7" s="18">
-        <f t="shared" si="13"/>
-        <v>1.2500444444444445</v>
-      </c>
-      <c r="AH7" s="15">
-        <f t="shared" si="14"/>
-        <v>1.2256</v>
-      </c>
-      <c r="AI7" s="68">
-        <f t="shared" si="19"/>
-        <v>2.7001272450532725</v>
-      </c>
-      <c r="AJ7" s="10">
-        <f>(((N7-N16)-(S7-S16)+((Z7-Z16)/100))/2)*10</f>
-        <v>1.4086071428571432</v>
-      </c>
-      <c r="AK7" s="2">
-        <f>(((N7-N16)-(S7-S16)+(Z7-Z16))/100)+1</f>
-        <v>1.1077642857142858</v>
-      </c>
-      <c r="AL7" s="12">
-        <f>((N7-N16)-(S7-S16)+((Z7-Z16)/100))*10</f>
-        <v>2.8172142857142863</v>
-      </c>
-      <c r="AM7" s="12">
-        <f>((N7-N16)-(S7-S16)+((Z7-Z16)/116))+1</f>
-        <v>1.2670997536945814</v>
-      </c>
-      <c r="AN7" s="5">
-        <f>(((N7-N16)-(S7-S16)+((Z7-Z16)/100))/2)+1</f>
-        <v>1.1408607142857143</v>
+        <v>1.2934850420168067</v>
+      </c>
+      <c r="AH7" s="66">
+        <f>(((P7-Q7+1.25*Q7)/2)+(T7/3)-(W7-0.2*X7+0.5*Y7)+(AD7/250)+(AA7/20))+1</f>
+        <v>1.2651236974789914</v>
+      </c>
+      <c r="AI7" s="62">
+        <f>(((P7-Q7+1.25*Q7+T7)/2)+(1-(W7-0.25*X7+0.5*Y7))+(AD7/200)+(AA7/18))</f>
+        <v>1.3827071428571427</v>
+      </c>
+      <c r="AJ7" s="23">
+        <f>((P7/2)+(1-(W7-0.25*X7+0.5*Y7))+(AD7/200)+(AA7/18))</f>
+        <v>1.2398499999999999</v>
+      </c>
+      <c r="AK7" s="20">
+        <f>(((P7/2)+(1-W7)+(AD7/200)+(AA7/9)))/1.06</f>
+        <v>1.1673113207547168</v>
+      </c>
+      <c r="AL7" s="18">
+        <f>((P7/2)+(1-W7)+(AD7/200)+(AA7/9))</f>
+        <v>1.2373499999999999</v>
+      </c>
+      <c r="AM7" s="15">
+        <f>((P7/2)+(1-W7)+(AD7/200))</f>
+        <v>1.2173499999999999</v>
+      </c>
+      <c r="AN7" s="68">
+        <f>(((P7-Q7+1.25*Q7)/2)+(T7/3)-(W7-0.2*X7+0.5*Y7)+(AD7/250)+(AA7/18))*10</f>
+        <v>2.6612369747899156</v>
+      </c>
+      <c r="AO7" s="10">
+        <f>(((P7-P16)-(W7-W16)+((AD7-AD16)/100))/2)*10</f>
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="AP7" s="2">
+        <f>(((P7-P16)-(W7-W16)+(AD7-AD16))/100)+1</f>
+        <v>1.1056071428571428</v>
+      </c>
+      <c r="AQ7" s="12">
+        <f>((P7-P16)-(W7-W16)+((AD7-AD16)/100))*10</f>
+        <v>3.1280000000000001</v>
+      </c>
+      <c r="AR7" s="12">
+        <f>((P7-P16)-(W7-W16)+((AD7-AD16)/116))+1</f>
+        <v>1.2985221674876848</v>
+      </c>
+      <c r="AS7" s="5">
+        <f>(((P7-P16)-(W7-W16)+((AD7-AD16)/100))/2)+1</f>
+        <v>1.1564000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>26</v>
       </c>
@@ -3105,134 +3296,152 @@
         <v>17</v>
       </c>
       <c r="G8" s="37">
+        <v>10</v>
+      </c>
+      <c r="H8" s="37">
+        <v>7</v>
+      </c>
+      <c r="I8" s="37">
         <v>44</v>
       </c>
-      <c r="H8" s="37">
+      <c r="J8" s="37">
         <v>2</v>
       </c>
-      <c r="I8" s="37">
-        <v>0</v>
-      </c>
-      <c r="J8" s="37">
+      <c r="K8" s="37">
+        <v>0</v>
+      </c>
+      <c r="L8" s="37">
         <v>176</v>
       </c>
-      <c r="K8" s="37">
+      <c r="M8" s="37">
         <v>4</v>
       </c>
-      <c r="L8" s="37">
+      <c r="N8" s="37">
         <v>6748</v>
       </c>
-      <c r="M8" s="37">
+      <c r="O8" s="37">
         <v>86</v>
       </c>
-      <c r="N8" s="38">
+      <c r="P8" s="38">
         <f t="shared" si="0"/>
         <v>0.73</v>
       </c>
-      <c r="O8" s="55">
-        <f t="shared" si="15"/>
+      <c r="Q8" s="55">
+        <f t="shared" si="3"/>
         <v>0.2558139534883721</v>
       </c>
-      <c r="P8" s="55">
+      <c r="R8" s="55">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="S8" s="38">
         <f t="shared" si="2"/>
         <v>51.16</v>
       </c>
-      <c r="R8" s="55">
-        <f t="shared" si="16"/>
+      <c r="T8" s="55">
+        <f t="shared" si="4"/>
         <v>0.19767441860465115</v>
       </c>
-      <c r="S8" s="38">
-        <f t="shared" si="3"/>
+      <c r="U8" s="55">
+        <f t="shared" si="5"/>
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="V8" s="55">
+        <f t="shared" si="6"/>
+        <v>8.1395348837209308E-2</v>
+      </c>
+      <c r="W8" s="38">
+        <f>ROUND(IMDIV(I8,O8),2)</f>
         <v>0.51</v>
       </c>
-      <c r="T8" s="38">
-        <f t="shared" si="4"/>
+      <c r="X8" s="38">
+        <f>ROUND(IMDIV(J8,O8),2)</f>
         <v>0.02</v>
       </c>
-      <c r="U8" s="38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="38">
-        <f t="shared" si="5"/>
+      <c r="Y8" s="38">
+        <f>ROUND(IMDIV(K8,O8),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="38">
+        <f>ROUND(IMDIV(L8,O8),2)</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="W8" s="38">
-        <f t="shared" si="6"/>
+      <c r="AA8" s="38">
+        <f>ROUND(IMDIV(M8,O8),2)</f>
         <v>0.05</v>
       </c>
-      <c r="X8" s="38">
+      <c r="AB8" s="38">
+        <f>ROUND(IMDIV(B8,I8),2)</f>
+        <v>1.43</v>
+      </c>
+      <c r="AC8" s="38">
+        <f>ROUND(IMDIV(C8,B8),4)*100</f>
+        <v>28.57</v>
+      </c>
+      <c r="AD8" s="38">
+        <f>ROUND(IMDIV(N8,O8),2)</f>
+        <v>78.47</v>
+      </c>
+      <c r="AE8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG8" s="76">
         <f t="shared" si="7"/>
-        <v>1.43</v>
-      </c>
-      <c r="Y8" s="38">
-        <f t="shared" si="8"/>
-        <v>28.57</v>
-      </c>
-      <c r="Z8" s="38">
-        <f t="shared" si="9"/>
-        <v>78.47</v>
-      </c>
-      <c r="AA8" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB8" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="66">
-        <f t="shared" si="18"/>
+        <v>1.300864496124031</v>
+      </c>
+      <c r="AH8" s="66">
+        <f>(((P8-Q8+1.25*Q8)/2)+(T8/3)-(W8-0.2*X8+0.5*Y8)+(AD8/250)+(AA8/20))+1</f>
         <v>1.2732482170542636</v>
       </c>
-      <c r="AD8" s="62">
-        <f t="shared" si="10"/>
+      <c r="AI8" s="62">
+        <f>(((P8-Q8+1.25*Q8+T8)/2)+(1-(W8-0.25*X8+0.5*Y8))+(AD8/200)+(AA8/18))</f>
         <v>1.3859417312661497</v>
       </c>
-      <c r="AE8" s="23">
-        <f t="shared" si="11"/>
+      <c r="AJ8" s="23">
+        <f>((P8/2)+(1-(W8-0.25*X8+0.5*Y8))+(AD8/200)+(AA8/18))</f>
         <v>1.2551277777777776</v>
       </c>
-      <c r="AF8" s="20">
-        <f t="shared" si="12"/>
+      <c r="AK8" s="20">
+        <f>(((P8/2)+(1-W8)+(AD8/200)+(AA8/9)))/1.06</f>
         <v>1.1819863731656184</v>
       </c>
-      <c r="AG8" s="18">
-        <f t="shared" si="13"/>
+      <c r="AL8" s="18">
+        <f>((P8/2)+(1-W8)+(AD8/200)+(AA8/9))</f>
         <v>1.2529055555555555</v>
       </c>
-      <c r="AH8" s="15">
-        <f t="shared" si="14"/>
+      <c r="AM8" s="15">
+        <f>((P8/2)+(1-W8)+(AD8/200))</f>
         <v>1.24735</v>
       </c>
-      <c r="AI8" s="68">
-        <f t="shared" si="19"/>
+      <c r="AN8" s="68">
+        <f>(((P8-Q8+1.25*Q8)/2)+(T8/3)-(W8-0.2*X8+0.5*Y8)+(AD8/250)+(AA8/18))*10</f>
         <v>2.7352599483204134</v>
       </c>
-      <c r="AJ8" s="10">
-        <f>(((N8-N16)-(S8-S16)+((Z8-Z16)/100))/2)*10</f>
-        <v>1.5761071428571425</v>
-      </c>
-      <c r="AK8" s="2">
-        <f>(((N8-N16)-(S8-S16)+(Z8-Z16))/100)+1</f>
-        <v>1.0818642857142857</v>
-      </c>
-      <c r="AL8" s="12">
-        <f>((N8-N16)-(S8-S16)+((Z8-Z16)/100))*10</f>
-        <v>3.152214285714285</v>
-      </c>
-      <c r="AM8" s="12">
-        <f>((N8-N16)-(S8-S16)+((Z8-Z16)/116))+1</f>
-        <v>1.3042549261083742</v>
-      </c>
-      <c r="AN8" s="5">
-        <f>(((N8-N16)-(S8-S16)+((Z8-Z16)/100))/2)+1</f>
-        <v>1.1576107142857142</v>
+      <c r="AO8" s="10">
+        <f>(((P8-P16)-(W8-W16)+((AD8-AD16)/100))/2)*10</f>
+        <v>1.6640000000000001</v>
+      </c>
+      <c r="AP8" s="2">
+        <f>(((P8-P16)-(W8-W16)+(AD8-AD16))/100)+1</f>
+        <v>1.0860071428571429</v>
+      </c>
+      <c r="AQ8" s="12">
+        <f>((P8-P16)-(W8-W16)+((AD8-AD16)/100))*10</f>
+        <v>3.3280000000000003</v>
+      </c>
+      <c r="AR8" s="12">
+        <f>((P8-P16)-(W8-W16)+((AD8-AD16)/116))+1</f>
+        <v>1.3212807881773401</v>
+      </c>
+      <c r="AS8" s="5">
+        <f>(((P8-P16)-(W8-W16)+((AD8-AD16)/100))/2)+1</f>
+        <v>1.1664000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>19</v>
       </c>
@@ -3252,134 +3461,152 @@
         <v>12</v>
       </c>
       <c r="G9" s="37">
+        <v>4</v>
+      </c>
+      <c r="H9" s="37">
+        <v>2</v>
+      </c>
+      <c r="I9" s="37">
         <v>54</v>
       </c>
-      <c r="H9" s="37">
+      <c r="J9" s="37">
         <v>9</v>
       </c>
-      <c r="I9" s="37">
-        <v>0</v>
-      </c>
-      <c r="J9" s="37">
+      <c r="K9" s="37">
+        <v>0</v>
+      </c>
+      <c r="L9" s="37">
         <v>67</v>
       </c>
-      <c r="K9" s="37">
+      <c r="M9" s="37">
         <v>8</v>
       </c>
-      <c r="L9" s="37">
+      <c r="N9" s="37">
         <v>6118</v>
       </c>
-      <c r="M9" s="37">
+      <c r="O9" s="37">
         <v>86</v>
       </c>
-      <c r="N9" s="38">
+      <c r="P9" s="38">
         <f t="shared" si="0"/>
         <v>0.59</v>
       </c>
-      <c r="O9" s="55">
-        <f t="shared" si="15"/>
+      <c r="Q9" s="55">
+        <f t="shared" si="3"/>
         <v>0.29069767441860467</v>
       </c>
-      <c r="P9" s="55">
+      <c r="R9" s="55">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="S9" s="38">
         <f t="shared" si="2"/>
         <v>58.14</v>
       </c>
-      <c r="R9" s="55">
-        <f t="shared" si="16"/>
+      <c r="T9" s="55">
+        <f t="shared" si="4"/>
         <v>0.13953488372093023</v>
       </c>
-      <c r="S9" s="38">
-        <f t="shared" si="3"/>
+      <c r="U9" s="55">
+        <f t="shared" si="5"/>
+        <v>4.6511627906976744E-2</v>
+      </c>
+      <c r="V9" s="55">
+        <f t="shared" si="6"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="W9" s="38">
+        <f>ROUND(IMDIV(I9,O9),2)</f>
         <v>0.63</v>
       </c>
-      <c r="T9" s="38">
-        <f t="shared" si="4"/>
+      <c r="X9" s="38">
+        <f>ROUND(IMDIV(J9,O9),2)</f>
         <v>0.1</v>
       </c>
-      <c r="U9" s="38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="38">
-        <f t="shared" si="5"/>
+      <c r="Y9" s="38">
+        <f>ROUND(IMDIV(K9,O9),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="38">
+        <f>ROUND(IMDIV(L9,O9),2)</f>
         <v>0.78</v>
       </c>
-      <c r="W9" s="38">
-        <f t="shared" si="6"/>
+      <c r="AA9" s="38">
+        <f>ROUND(IMDIV(M9,O9),2)</f>
         <v>0.09</v>
       </c>
-      <c r="X9" s="38">
+      <c r="AB9" s="38">
+        <f>ROUND(IMDIV(B9,I9),2)</f>
+        <v>0.94</v>
+      </c>
+      <c r="AC9" s="38">
+        <f>ROUND(IMDIV(C9,B9),4)*100</f>
+        <v>52.94</v>
+      </c>
+      <c r="AD9" s="38">
+        <f>ROUND(IMDIV(N9,O9),2)</f>
+        <v>71.14</v>
+      </c>
+      <c r="AE9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF9" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG9" s="76">
         <f t="shared" si="7"/>
-        <v>0.94</v>
-      </c>
-      <c r="Y9" s="38">
-        <f t="shared" si="8"/>
-        <v>52.94</v>
-      </c>
-      <c r="Z9" s="38">
-        <f t="shared" si="9"/>
-        <v>71.14</v>
-      </c>
-      <c r="AA9" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB9" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="66">
-        <f t="shared" si="18"/>
+        <v>1.0656297674418604</v>
+      </c>
+      <c r="AH9" s="66">
+        <f>(((P9-Q9+1.25*Q9)/2)+(T9/3)-(W9-0.2*X9+0.5*Y9)+(AD9/250)+(AA9/20))+1</f>
         <v>1.0569088372093023</v>
       </c>
-      <c r="AD9" s="62">
-        <f t="shared" si="10"/>
+      <c r="AI9" s="62">
+        <f>(((P9-Q9+1.25*Q9+T9)/2)+(1-(W9-0.25*X9+0.5*Y9))+(AD9/200)+(AA9/18))</f>
         <v>1.1568046511627905</v>
       </c>
-      <c r="AE9" s="23">
-        <f t="shared" si="11"/>
+      <c r="AJ9" s="23">
+        <f>((P9/2)+(1-(W9-0.25*X9+0.5*Y9))+(AD9/200)+(AA9/18))</f>
         <v>1.0507</v>
       </c>
-      <c r="AF9" s="20">
-        <f t="shared" si="12"/>
+      <c r="AK9" s="20">
+        <f>(((P9/2)+(1-W9)+(AD9/200)+(AA9/9)))/1.06</f>
         <v>0.97235849056603785</v>
       </c>
-      <c r="AG9" s="18">
-        <f t="shared" si="13"/>
+      <c r="AL9" s="18">
+        <f>((P9/2)+(1-W9)+(AD9/200)+(AA9/9))</f>
         <v>1.0307000000000002</v>
       </c>
-      <c r="AH9" s="15">
-        <f t="shared" si="14"/>
+      <c r="AM9" s="15">
+        <f>((P9/2)+(1-W9)+(AD9/200))</f>
         <v>1.0207000000000002</v>
       </c>
-      <c r="AI9" s="68">
-        <f t="shared" si="19"/>
+      <c r="AN9" s="68">
+        <f>(((P9-Q9+1.25*Q9)/2)+(T9/3)-(W9-0.2*X9+0.5*Y9)+(AD9/250)+(AA9/18))*10</f>
         <v>0.57408837209302277</v>
       </c>
-      <c r="AJ9" s="10">
-        <f>(((N9-N16)-(S9-S16)+((Z9-Z16)/100))/2)*10</f>
-        <v>-9.0392857142857497E-2</v>
-      </c>
-      <c r="AK9" s="2">
-        <f>(((N9-N16)-(S9-S16)+(Z9-Z16))/100)+1</f>
-        <v>1.0059642857142856</v>
-      </c>
-      <c r="AL9" s="12">
-        <f>((N9-N16)-(S9-S16)+((Z9-Z16)/100))*10</f>
-        <v>-0.18078571428571499</v>
-      </c>
-      <c r="AM9" s="12">
-        <f>((N9-N16)-(S9-S16)+((Z9-Z16)/116))+1</f>
-        <v>0.98106527093596052</v>
-      </c>
-      <c r="AN9" s="5">
-        <f>(((N9-N16)-(S9-S16)+((Z9-Z16)/100))/2)+1</f>
-        <v>0.99096071428571419</v>
+      <c r="AO9" s="10">
+        <f>(((P9-P16)-(W9-W16)+((AD9-AD16)/100))/2)*10</f>
+        <v>-2.499999999999768E-3</v>
+      </c>
+      <c r="AP9" s="2">
+        <f>(((P9-P16)-(W9-W16)+(AD9-AD16))/100)+1</f>
+        <v>1.0101071428571429</v>
+      </c>
+      <c r="AQ9" s="12">
+        <f>((P9-P16)-(W9-W16)+((AD9-AD16)/100))*10</f>
+        <v>-4.9999999999995361E-3</v>
+      </c>
+      <c r="AR9" s="12">
+        <f>((P9-P16)-(W9-W16)+((AD9-AD16)/116))+1</f>
+        <v>0.99809113300492613</v>
+      </c>
+      <c r="AS9" s="5">
+        <f>(((P9-P16)-(W9-W16)+((AD9-AD16)/100))/2)+1</f>
+        <v>0.99975000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>17</v>
       </c>
@@ -3399,134 +3626,152 @@
         <v>12</v>
       </c>
       <c r="G10" s="41">
+        <v>6</v>
+      </c>
+      <c r="H10" s="41">
+        <v>6</v>
+      </c>
+      <c r="I10" s="41">
         <v>47</v>
       </c>
-      <c r="H10" s="41">
+      <c r="J10" s="41">
         <v>4</v>
       </c>
-      <c r="I10" s="41">
-        <v>0</v>
-      </c>
-      <c r="J10" s="41">
+      <c r="K10" s="41">
+        <v>0</v>
+      </c>
+      <c r="L10" s="41">
         <v>159</v>
       </c>
-      <c r="K10" s="41">
+      <c r="M10" s="41">
         <v>10</v>
       </c>
-      <c r="L10" s="41">
+      <c r="N10" s="41">
         <v>6268</v>
       </c>
-      <c r="M10" s="41">
+      <c r="O10" s="41">
         <v>78</v>
       </c>
-      <c r="N10" s="42">
+      <c r="P10" s="42">
         <f t="shared" si="0"/>
         <v>0.73</v>
       </c>
-      <c r="O10" s="56">
-        <f t="shared" si="15"/>
+      <c r="Q10" s="56">
+        <f t="shared" si="3"/>
         <v>0.26923076923076922</v>
       </c>
-      <c r="P10" s="56">
+      <c r="R10" s="56">
         <f t="shared" si="1"/>
         <v>51.282051282051277</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="S10" s="42">
         <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
-      <c r="R10" s="56">
-        <f t="shared" si="16"/>
+      <c r="T10" s="56">
+        <f t="shared" si="4"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="S10" s="42">
-        <f t="shared" si="3"/>
+      <c r="U10" s="56">
+        <f t="shared" si="5"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="V10" s="56">
+        <f t="shared" si="6"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="W10" s="42">
+        <f>ROUND(IMDIV(I10,O10),2)</f>
         <v>0.6</v>
       </c>
-      <c r="T10" s="42">
-        <f t="shared" si="4"/>
+      <c r="X10" s="42">
+        <f>ROUND(IMDIV(J10,O10),2)</f>
         <v>0.05</v>
       </c>
-      <c r="U10" s="42">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="42">
-        <f t="shared" si="5"/>
+      <c r="Y10" s="42">
+        <f>ROUND(IMDIV(K10,O10),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="42">
+        <f>ROUND(IMDIV(L10,O10),2)</f>
         <v>2.04</v>
       </c>
-      <c r="W10" s="42">
-        <f t="shared" si="6"/>
+      <c r="AA10" s="42">
+        <f>ROUND(IMDIV(M10,O10),2)</f>
         <v>0.13</v>
       </c>
-      <c r="X10" s="42">
+      <c r="AB10" s="42">
+        <f>ROUND(IMDIV(B10,I10),2)</f>
+        <v>1.21</v>
+      </c>
+      <c r="AC10" s="42">
+        <f>ROUND(IMDIV(C10,B10),4)*100</f>
+        <v>47.370000000000005</v>
+      </c>
+      <c r="AD10" s="42">
+        <f>ROUND(IMDIV(N10,O10),2)</f>
+        <v>80.36</v>
+      </c>
+      <c r="AE10" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG10" s="76">
         <f t="shared" si="7"/>
-        <v>1.21</v>
-      </c>
-      <c r="Y10" s="42">
-        <f t="shared" si="8"/>
-        <v>47.370000000000005</v>
-      </c>
-      <c r="Z10" s="42">
-        <f t="shared" si="9"/>
-        <v>80.36</v>
-      </c>
-      <c r="AA10" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB10" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC10" s="66">
-        <f t="shared" si="18"/>
+        <v>1.2119143589743591</v>
+      </c>
+      <c r="AH10" s="66">
+        <f>(((P10-Q10+1.25*Q10)/2)+(T10/3)-(W10-0.2*X10+0.5*Y10)+(AD10/250)+(AA10/20))+1</f>
         <v>1.1878758974358974</v>
       </c>
-      <c r="AD10" s="62">
-        <f t="shared" si="10"/>
+      <c r="AI10" s="62">
+        <f>(((P10-Q10+1.25*Q10+T10)/2)+(1-(W10-0.25*X10+0.5*Y10))+(AD10/200)+(AA10/18))</f>
         <v>1.2970991452991452</v>
       </c>
-      <c r="AE10" s="23">
-        <f t="shared" si="11"/>
+      <c r="AJ10" s="23">
+        <f>((P10/2)+(1-(W10-0.25*X10+0.5*Y10))+(AD10/200)+(AA10/18))</f>
         <v>1.1865222222222223</v>
       </c>
-      <c r="AF10" s="20">
-        <f t="shared" si="12"/>
+      <c r="AK10" s="20">
+        <f>(((P10/2)+(1-W10)+(AD10/200)+(AA10/9)))/1.06</f>
         <v>1.1143815513626836</v>
       </c>
-      <c r="AG10" s="18">
-        <f t="shared" si="13"/>
+      <c r="AL10" s="18">
+        <f>((P10/2)+(1-W10)+(AD10/200)+(AA10/9))</f>
         <v>1.1812444444444445</v>
       </c>
-      <c r="AH10" s="15">
-        <f t="shared" si="14"/>
+      <c r="AM10" s="15">
+        <f>((P10/2)+(1-W10)+(AD10/200))</f>
         <v>1.1668000000000001</v>
       </c>
-      <c r="AI10" s="68">
-        <f t="shared" si="19"/>
+      <c r="AN10" s="68">
+        <f>(((P10-Q10+1.25*Q10)/2)+(T10/3)-(W10-0.2*X10+0.5*Y10)+(AD10/250)+(AA10/18))*10</f>
         <v>1.8859811965811966</v>
       </c>
-      <c r="AJ10" s="10">
-        <f>(((N10-N16)-(S10-S16)+((Z10-Z16)/100))/2)*10</f>
-        <v>1.2206071428571428</v>
-      </c>
-      <c r="AK10" s="2">
-        <f>(((N10-N16)-(S10-S16)+(Z10-Z16))/100)+1</f>
-        <v>1.0998642857142857</v>
-      </c>
-      <c r="AL10" s="12">
-        <f>((N10-N16)-(S10-S16)+((Z10-Z16)/100))*10</f>
-        <v>2.4412142857142856</v>
-      </c>
-      <c r="AM10" s="12">
-        <f>((N10-N16)-(S10-S16)+((Z10-Z16)/116))+1</f>
-        <v>1.2305480295566502</v>
-      </c>
-      <c r="AN10" s="5">
-        <f>(((N10-N16)-(S10-S16)+((Z10-Z16)/100))/2)+1</f>
-        <v>1.1220607142857142</v>
+      <c r="AO10" s="10">
+        <f>(((P10-P16)-(W10-W16)+((AD10-AD16)/100))/2)*10</f>
+        <v>1.3085000000000002</v>
+      </c>
+      <c r="AP10" s="2">
+        <f>(((P10-P16)-(W10-W16)+(AD10-AD16))/100)+1</f>
+        <v>1.1040071428571427</v>
+      </c>
+      <c r="AQ10" s="12">
+        <f>((P10-P16)-(W10-W16)+((AD10-AD16)/100))*10</f>
+        <v>2.6170000000000004</v>
+      </c>
+      <c r="AR10" s="12">
+        <f>((P10-P16)-(W10-W16)+((AD10-AD16)/116))+1</f>
+        <v>1.2475738916256158</v>
+      </c>
+      <c r="AS10" s="5">
+        <f>(((P10-P16)-(W10-W16)+((AD10-AD16)/100))/2)+1</f>
+        <v>1.1308500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>18</v>
       </c>
@@ -3546,134 +3791,152 @@
         <v>7</v>
       </c>
       <c r="G11" s="41">
+        <v>4</v>
+      </c>
+      <c r="H11" s="41">
+        <v>5</v>
+      </c>
+      <c r="I11" s="41">
         <v>51</v>
       </c>
-      <c r="H11" s="41">
+      <c r="J11" s="41">
         <v>6</v>
       </c>
-      <c r="I11" s="41">
-        <v>0</v>
-      </c>
-      <c r="J11" s="41">
+      <c r="K11" s="41">
+        <v>0</v>
+      </c>
+      <c r="L11" s="41">
         <v>115</v>
       </c>
-      <c r="K11" s="41">
+      <c r="M11" s="41">
         <v>15</v>
       </c>
-      <c r="L11" s="41">
+      <c r="N11" s="41">
         <v>4982</v>
       </c>
-      <c r="M11" s="41">
+      <c r="O11" s="41">
         <v>78</v>
       </c>
-      <c r="N11" s="42">
+      <c r="P11" s="42">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="O11" s="56">
-        <f t="shared" si="15"/>
+      <c r="Q11" s="56">
+        <f t="shared" si="3"/>
         <v>0.17948717948717949</v>
       </c>
-      <c r="P11" s="56">
+      <c r="R11" s="56">
         <f t="shared" si="1"/>
         <v>48.717948717948715</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="S11" s="42">
         <f t="shared" si="2"/>
         <v>36.840000000000003</v>
       </c>
-      <c r="R11" s="56">
-        <f t="shared" si="16"/>
+      <c r="T11" s="56">
+        <f t="shared" si="4"/>
         <v>8.9743589743589744E-2</v>
       </c>
-      <c r="S11" s="42">
-        <f t="shared" si="3"/>
+      <c r="U11" s="56">
+        <f t="shared" si="5"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="V11" s="56">
+        <f t="shared" si="6"/>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="W11" s="42">
+        <f>ROUND(IMDIV(I11,O11),2)</f>
         <v>0.65</v>
       </c>
-      <c r="T11" s="42">
-        <f t="shared" si="4"/>
+      <c r="X11" s="42">
+        <f>ROUND(IMDIV(J11,O11),2)</f>
         <v>0.08</v>
       </c>
-      <c r="U11" s="42">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="42">
-        <f t="shared" si="5"/>
+      <c r="Y11" s="42">
+        <f>ROUND(IMDIV(K11,O11),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="42">
+        <f>ROUND(IMDIV(L11,O11),2)</f>
         <v>1.47</v>
       </c>
-      <c r="W11" s="42">
-        <f t="shared" si="6"/>
+      <c r="AA11" s="42">
+        <f>ROUND(IMDIV(M11,O11),2)</f>
         <v>0.19</v>
       </c>
-      <c r="X11" s="42">
+      <c r="AB11" s="42">
+        <f>ROUND(IMDIV(B11,I11),2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="AC11" s="42">
+        <f>ROUND(IMDIV(C11,B11),4)*100</f>
+        <v>46.51</v>
+      </c>
+      <c r="AD11" s="42">
+        <f>ROUND(IMDIV(N11,O11),2)</f>
+        <v>63.87</v>
+      </c>
+      <c r="AE11" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG11" s="76">
         <f t="shared" si="7"/>
-        <v>0.84</v>
-      </c>
-      <c r="Y11" s="42">
-        <f t="shared" si="8"/>
-        <v>46.51</v>
-      </c>
-      <c r="Z11" s="42">
-        <f t="shared" si="9"/>
-        <v>63.87</v>
-      </c>
-      <c r="AA11" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB11" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC11" s="66">
-        <f t="shared" si="18"/>
+        <v>0.97756119658119656</v>
+      </c>
+      <c r="AH11" s="66">
+        <f>(((P11-Q11+1.25*Q11)/2)+(T11/3)-(W11-0.2*X11+0.5*Y11)+(AD11/250)+(AA11/20))+1</f>
         <v>0.95833042735042728</v>
       </c>
-      <c r="AD11" s="62">
-        <f t="shared" si="10"/>
+      <c r="AI11" s="62">
+        <f>(((P11-Q11+1.25*Q11+T11)/2)+(1-(W11-0.25*X11+0.5*Y11))+(AD11/200)+(AA11/18))</f>
         <v>1.042213247863248</v>
       </c>
-      <c r="AE11" s="23">
-        <f t="shared" si="11"/>
+      <c r="AJ11" s="23">
+        <f>((P11/2)+(1-(W11-0.25*X11+0.5*Y11))+(AD11/200)+(AA11/18))</f>
         <v>0.97490555555555558</v>
       </c>
-      <c r="AF11" s="20">
-        <f t="shared" si="12"/>
+      <c r="AK11" s="20">
+        <f>(((P11/2)+(1-W11)+(AD11/200)+(AA11/9)))/1.06</f>
         <v>0.91081236897274631</v>
       </c>
-      <c r="AG11" s="18">
-        <f t="shared" si="13"/>
+      <c r="AL11" s="18">
+        <f>((P11/2)+(1-W11)+(AD11/200)+(AA11/9))</f>
         <v>0.9654611111111111</v>
       </c>
-      <c r="AH11" s="15">
-        <f t="shared" si="14"/>
+      <c r="AM11" s="15">
+        <f>((P11/2)+(1-W11)+(AD11/200))</f>
         <v>0.94435000000000002</v>
       </c>
-      <c r="AI11" s="68">
-        <f t="shared" si="19"/>
+      <c r="AN11" s="68">
+        <f>(((P11-Q11+1.25*Q11)/2)+(T11/3)-(W11-0.2*X11+0.5*Y11)+(AD11/250)+(AA11/18))*10</f>
         <v>-0.40614017094017119</v>
       </c>
-      <c r="AJ11" s="10">
-        <f>(((N11-N16)-(S11-S16)+((Z11-Z16)/100))/2)*10</f>
-        <v>-0.75389285714285736</v>
-      </c>
-      <c r="AK11" s="2">
-        <f>(((N11-N16)-(S11-S16)+(Z11-Z16))/100)+1</f>
-        <v>0.93266428571428572</v>
-      </c>
-      <c r="AL11" s="12">
-        <f>((N11-N16)-(S11-S16)+((Z11-Z16)/100))*10</f>
-        <v>-1.5077857142857147</v>
-      </c>
-      <c r="AM11" s="12">
-        <f>((N11-N16)-(S11-S16)+((Z11-Z16)/116))+1</f>
-        <v>0.85839285714285707</v>
-      </c>
-      <c r="AN11" s="5">
-        <f>(((N11-N16)-(S11-S16)+((Z11-Z16)/100))/2)+1</f>
-        <v>0.92461071428571429</v>
+      <c r="AO11" s="10">
+        <f>(((P11-P16)-(W11-W16)+((AD11-AD16)/100))/2)*10</f>
+        <v>-0.6659999999999997</v>
+      </c>
+      <c r="AP11" s="2">
+        <f>(((P11-P16)-(W11-W16)+(AD11-AD16))/100)+1</f>
+        <v>0.93680714285714284</v>
+      </c>
+      <c r="AQ11" s="12">
+        <f>((P11-P16)-(W11-W16)+((AD11-AD16)/100))*10</f>
+        <v>-1.3319999999999994</v>
+      </c>
+      <c r="AR11" s="12">
+        <f>((P11-P16)-(W11-W16)+((AD11-AD16)/116))+1</f>
+        <v>0.87541871921182279</v>
+      </c>
+      <c r="AS11" s="5">
+        <f>(((P11-P16)-(W11-W16)+((AD11-AD16)/100))/2)+1</f>
+        <v>0.93340000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>23</v>
       </c>
@@ -3693,134 +3956,152 @@
         <v>16</v>
       </c>
       <c r="G12" s="44">
+        <v>3</v>
+      </c>
+      <c r="H12" s="44">
+        <v>1</v>
+      </c>
+      <c r="I12" s="44">
         <v>50</v>
       </c>
-      <c r="H12" s="44">
+      <c r="J12" s="44">
         <v>2</v>
       </c>
-      <c r="I12" s="44">
-        <v>0</v>
-      </c>
-      <c r="J12" s="44">
+      <c r="K12" s="44">
+        <v>0</v>
+      </c>
+      <c r="L12" s="44">
         <v>400</v>
       </c>
-      <c r="K12" s="44">
+      <c r="M12" s="44">
         <v>29</v>
       </c>
-      <c r="L12" s="44">
+      <c r="N12" s="44">
         <v>6996</v>
       </c>
-      <c r="M12" s="44">
+      <c r="O12" s="44">
         <v>73</v>
       </c>
-      <c r="N12" s="45">
+      <c r="P12" s="45">
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
-      <c r="O12" s="57">
-        <f t="shared" si="15"/>
+      <c r="Q12" s="57">
+        <f t="shared" si="3"/>
         <v>0.42465753424657532</v>
       </c>
-      <c r="P12" s="57">
+      <c r="R12" s="57">
         <f t="shared" si="1"/>
         <v>76.712328767123282</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="S12" s="45">
         <f t="shared" si="2"/>
         <v>55.36</v>
       </c>
-      <c r="R12" s="57">
-        <f t="shared" si="16"/>
+      <c r="T12" s="57">
+        <f t="shared" si="4"/>
         <v>0.21917808219178081</v>
       </c>
-      <c r="S12" s="45">
-        <f t="shared" si="3"/>
+      <c r="U12" s="57">
+        <f t="shared" si="5"/>
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="V12" s="57">
+        <f t="shared" si="6"/>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="W12" s="45">
+        <f>ROUND(IMDIV(I12,O12),2)</f>
         <v>0.68</v>
       </c>
-      <c r="T12" s="45">
-        <f t="shared" si="4"/>
+      <c r="X12" s="45">
+        <f>ROUND(IMDIV(J12,O12),2)</f>
         <v>0.03</v>
       </c>
-      <c r="U12" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="45">
-        <f t="shared" si="5"/>
+      <c r="Y12" s="45">
+        <f>ROUND(IMDIV(K12,O12),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="45">
+        <f>ROUND(IMDIV(L12,O12),2)</f>
         <v>5.48</v>
       </c>
-      <c r="W12" s="45">
-        <f t="shared" si="6"/>
+      <c r="AA12" s="45">
+        <f>ROUND(IMDIV(M12,O12),2)</f>
         <v>0.4</v>
       </c>
-      <c r="X12" s="45">
+      <c r="AB12" s="45">
+        <f>ROUND(IMDIV(B12,I12),2)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AC12" s="45">
+        <f>ROUND(IMDIV(C12,B12),4)*100</f>
+        <v>67.86</v>
+      </c>
+      <c r="AD12" s="45">
+        <f>ROUND(IMDIV(N12,O12),2)</f>
+        <v>95.84</v>
+      </c>
+      <c r="AE12" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF12" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG12" s="76">
         <f t="shared" si="7"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="Y12" s="45">
-        <f t="shared" si="8"/>
-        <v>67.86</v>
-      </c>
-      <c r="Z12" s="45">
-        <f t="shared" si="9"/>
-        <v>95.84</v>
-      </c>
-      <c r="AA12" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB12" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC12" s="66">
-        <f t="shared" si="18"/>
+        <v>1.2464947031963471</v>
+      </c>
+      <c r="AH12" s="66">
+        <f>(((P12-Q12+1.25*Q12)/2)+(T12/3)-(W12-0.2*X12+0.5*Y12)+(AD12/250)+(AA12/20))+1</f>
         <v>1.2405015525114156</v>
       </c>
-      <c r="AD12" s="62">
-        <f t="shared" si="10"/>
+      <c r="AI12" s="62">
+        <f>(((P12-Q12+1.25*Q12+T12)/2)+(1-(W12-0.25*X12+0.5*Y12))+(AD12/200)+(AA12/18))</f>
         <v>1.3765934550989345</v>
       </c>
-      <c r="AE12" s="23">
-        <f t="shared" si="11"/>
+      <c r="AJ12" s="23">
+        <f>((P12/2)+(1-(W12-0.25*X12+0.5*Y12))+(AD12/200)+(AA12/18))</f>
         <v>1.2139222222222221</v>
       </c>
-      <c r="AF12" s="20">
-        <f t="shared" si="12"/>
+      <c r="AK12" s="20">
+        <f>(((P12/2)+(1-W12)+(AD12/200)+(AA12/9)))/1.06</f>
         <v>1.1590985324947589</v>
       </c>
-      <c r="AG12" s="18">
-        <f t="shared" si="13"/>
+      <c r="AL12" s="18">
+        <f>((P12/2)+(1-W12)+(AD12/200)+(AA12/9))</f>
         <v>1.2286444444444444</v>
       </c>
-      <c r="AH12" s="15">
-        <f t="shared" si="14"/>
+      <c r="AM12" s="15">
+        <f>((P12/2)+(1-W12)+(AD12/200))</f>
         <v>1.1841999999999999</v>
       </c>
-      <c r="AI12" s="68">
-        <f t="shared" si="19"/>
+      <c r="AN12" s="68">
+        <f>(((P12-Q12+1.25*Q12)/2)+(T12/3)-(W12-0.2*X12+0.5*Y12)+(AD12/250)+(AA12/18))*10</f>
         <v>2.427237747336378</v>
       </c>
-      <c r="AJ12" s="10">
-        <f>(((N12-N16)-(S12-S16)+((Z12-Z16)/100))/2)*10</f>
-        <v>1.7946071428571428</v>
-      </c>
-      <c r="AK12" s="2">
-        <f>(((N12-N16)-(S12-S16)+(Z12-Z16))/100)+1</f>
-        <v>1.2542642857142856</v>
-      </c>
-      <c r="AL12" s="12">
-        <f>((N12-N16)-(S12-S16)+((Z12-Z16)/100))*10</f>
-        <v>3.5892142857142857</v>
-      </c>
-      <c r="AM12" s="12">
-        <f>((N12-N16)-(S12-S16)+((Z12-Z16)/116))+1</f>
-        <v>1.3239963054187192</v>
-      </c>
-      <c r="AN12" s="5">
-        <f>(((N12-N16)-(S12-S16)+((Z12-Z16)/100))/2)+1</f>
-        <v>1.1794607142857143</v>
+      <c r="AO12" s="10">
+        <f>(((P12-P16)-(W12-W16)+((AD12-AD16)/100))/2)*10</f>
+        <v>1.8825000000000003</v>
+      </c>
+      <c r="AP12" s="2">
+        <f>(((P12-P16)-(W12-W16)+(AD12-AD16))/100)+1</f>
+        <v>1.2584071428571428</v>
+      </c>
+      <c r="AQ12" s="12">
+        <f>((P12-P16)-(W12-W16)+((AD12-AD16)/100))*10</f>
+        <v>3.7650000000000006</v>
+      </c>
+      <c r="AR12" s="12">
+        <f>((P12-P16)-(W12-W16)+((AD12-AD16)/116))+1</f>
+        <v>1.3410221674876848</v>
+      </c>
+      <c r="AS12" s="5">
+        <f>(((P12-P16)-(W12-W16)+((AD12-AD16)/100))/2)+1</f>
+        <v>1.18825</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>24</v>
       </c>
@@ -3840,134 +4121,152 @@
         <v>1</v>
       </c>
       <c r="G13" s="44">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H13" s="44">
         <v>1</v>
       </c>
       <c r="I13" s="44">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J13" s="44">
+        <v>1</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0</v>
+      </c>
+      <c r="L13" s="44">
         <v>111</v>
       </c>
-      <c r="K13" s="44">
+      <c r="M13" s="44">
         <v>16</v>
       </c>
-      <c r="L13" s="44">
+      <c r="N13" s="44">
         <v>2380</v>
       </c>
-      <c r="M13" s="44">
+      <c r="O13" s="44">
         <v>73</v>
       </c>
-      <c r="N13" s="45">
+      <c r="P13" s="45">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="O13" s="57">
-        <f t="shared" si="15"/>
+      <c r="Q13" s="57">
+        <f t="shared" si="3"/>
         <v>6.8493150684931503E-2</v>
       </c>
-      <c r="P13" s="57">
+      <c r="R13" s="57">
         <f t="shared" si="1"/>
         <v>23.287671232876711</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="S13" s="45">
         <f t="shared" si="2"/>
         <v>29.41</v>
       </c>
-      <c r="R13" s="57">
-        <f t="shared" si="16"/>
+      <c r="T13" s="57">
+        <f t="shared" si="4"/>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="S13" s="45">
-        <f t="shared" si="3"/>
+      <c r="U13" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="57">
+        <f t="shared" si="6"/>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="W13" s="45">
+        <f>ROUND(IMDIV(I13,O13),2)</f>
         <v>0.73</v>
       </c>
-      <c r="T13" s="45">
-        <f t="shared" si="4"/>
+      <c r="X13" s="45">
+        <f>ROUND(IMDIV(J13,O13),2)</f>
         <v>0.01</v>
       </c>
-      <c r="U13" s="45">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="45">
-        <f t="shared" si="5"/>
+      <c r="Y13" s="45">
+        <f>ROUND(IMDIV(K13,O13),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="45">
+        <f>ROUND(IMDIV(L13,O13),2)</f>
         <v>1.52</v>
       </c>
-      <c r="W13" s="45">
-        <f t="shared" si="6"/>
+      <c r="AA13" s="45">
+        <f>ROUND(IMDIV(M13,O13),2)</f>
         <v>0.22</v>
       </c>
-      <c r="X13" s="45">
+      <c r="AB13" s="45">
+        <f>ROUND(IMDIV(B13,I13),2)</f>
+        <v>0.34</v>
+      </c>
+      <c r="AC13" s="45">
+        <f>ROUND(IMDIV(C13,B13),4)*100</f>
+        <v>50</v>
+      </c>
+      <c r="AD13" s="45">
+        <f>ROUND(IMDIV(N13,O13),2)</f>
+        <v>32.6</v>
+      </c>
+      <c r="AE13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF13" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG13" s="76">
         <f t="shared" si="7"/>
-        <v>0.34</v>
-      </c>
-      <c r="Y13" s="45">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="Z13" s="45">
-        <f t="shared" si="9"/>
-        <v>32.6</v>
-      </c>
-      <c r="AA13" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB13" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC13" s="66">
-        <f t="shared" si="18"/>
+        <v>0.55495251141552515</v>
+      </c>
+      <c r="AH13" s="66">
+        <f>(((P13-Q13+1.25*Q13)/2)+(T13/3)-(W13-0.2*X13+0.5*Y13)+(AD13/250)+(AA13/20))+1</f>
         <v>0.55152785388127867</v>
       </c>
-      <c r="AD13" s="62">
-        <f t="shared" si="10"/>
+      <c r="AI13" s="62">
+        <f>(((P13-Q13+1.25*Q13+T13)/2)+(1-(W13-0.25*X13+0.5*Y13))+(AD13/200)+(AA13/18))</f>
         <v>0.58813318112633184</v>
       </c>
-      <c r="AE13" s="23">
-        <f t="shared" si="11"/>
+      <c r="AJ13" s="23">
+        <f>((P13/2)+(1-(W13-0.25*X13+0.5*Y13))+(AD13/200)+(AA13/18))</f>
         <v>0.57272222222222224</v>
       </c>
-      <c r="AF13" s="20">
-        <f t="shared" si="12"/>
+      <c r="AK13" s="20">
+        <f>(((P13/2)+(1-W13)+(AD13/200)+(AA13/9)))/1.06</f>
         <v>0.54947589098532501</v>
       </c>
-      <c r="AG13" s="18">
-        <f t="shared" si="13"/>
+      <c r="AL13" s="18">
+        <f>((P13/2)+(1-W13)+(AD13/200)+(AA13/9))</f>
         <v>0.58244444444444454</v>
       </c>
-      <c r="AH13" s="15">
-        <f t="shared" si="14"/>
+      <c r="AM13" s="15">
+        <f>((P13/2)+(1-W13)+(AD13/200))</f>
         <v>0.55800000000000005</v>
       </c>
-      <c r="AI13" s="68">
-        <f t="shared" si="19"/>
+      <c r="AN13" s="68">
+        <f>(((P13-Q13+1.25*Q13)/2)+(T13/3)-(W13-0.2*X13+0.5*Y13)+(AD13/250)+(AA13/18))*10</f>
         <v>-4.4724992389649918</v>
       </c>
-      <c r="AJ13" s="10">
-        <f>(((N13-N16)-(S13-S16)+((Z13-Z16)/100))/2)*10</f>
-        <v>-4.2173928571428574</v>
-      </c>
-      <c r="AK13" s="2">
-        <f>(((N13-N16)-(S13-S16)+(Z13-Z16))/100)+1</f>
-        <v>0.61616428571428572</v>
-      </c>
-      <c r="AL13" s="12">
-        <f>((N13-N16)-(S13-S16)+((Z13-Z16)/100))*10</f>
-        <v>-8.4347857142857148</v>
-      </c>
-      <c r="AM13" s="12">
-        <f>((N13-N16)-(S13-S16)+((Z13-Z16)/116))+1</f>
-        <v>0.20882389162561577</v>
-      </c>
-      <c r="AN13" s="5">
-        <f>(((N13-N16)-(S13-S16)+((Z13-Z16)/100))/2)+1</f>
-        <v>0.57826071428571435</v>
+      <c r="AO13" s="10">
+        <f>(((P13-P16)-(W13-W16)+((AD13-AD16)/100))/2)*10</f>
+        <v>-4.1294999999999993</v>
+      </c>
+      <c r="AP13" s="2">
+        <f>(((P13-P16)-(W13-W16)+(AD13-AD16))/100)+1</f>
+        <v>0.62030714285714295</v>
+      </c>
+      <c r="AQ13" s="12">
+        <f>((P13-P16)-(W13-W16)+((AD13-AD16)/100))*10</f>
+        <v>-8.2589999999999986</v>
+      </c>
+      <c r="AR13" s="12">
+        <f>((P13-P16)-(W13-W16)+((AD13-AD16)/116))+1</f>
+        <v>0.22584975369458138</v>
+      </c>
+      <c r="AS13" s="5">
+        <f>(((P13-P16)-(W13-W16)+((AD13-AD16)/100))/2)+1</f>
+        <v>0.58705000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>25</v>
       </c>
@@ -3987,134 +4286,152 @@
         <v>3</v>
       </c>
       <c r="G14" s="48">
+        <v>1</v>
+      </c>
+      <c r="H14" s="48">
+        <v>2</v>
+      </c>
+      <c r="I14" s="48">
         <v>57</v>
       </c>
-      <c r="H14" s="48">
+      <c r="J14" s="48">
         <v>1</v>
       </c>
-      <c r="I14" s="48">
+      <c r="K14" s="48">
         <v>2</v>
       </c>
-      <c r="J14" s="48">
+      <c r="L14" s="48">
         <v>110</v>
       </c>
-      <c r="K14" s="48">
+      <c r="M14" s="48">
         <v>22</v>
       </c>
-      <c r="L14" s="48">
+      <c r="N14" s="48">
         <v>3449</v>
       </c>
-      <c r="M14" s="48">
+      <c r="O14" s="48">
         <v>66</v>
       </c>
-      <c r="N14" s="47">
+      <c r="P14" s="47">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="O14" s="58">
-        <f t="shared" si="15"/>
+      <c r="Q14" s="58">
+        <f t="shared" si="3"/>
         <v>0.12121212121212122</v>
       </c>
-      <c r="P14" s="58">
+      <c r="R14" s="58">
         <f t="shared" si="1"/>
         <v>53.030303030303031</v>
       </c>
-      <c r="Q14" s="47">
+      <c r="S14" s="47">
         <f t="shared" si="2"/>
         <v>22.86</v>
       </c>
-      <c r="R14" s="58">
-        <f t="shared" si="16"/>
+      <c r="T14" s="58">
+        <f t="shared" si="4"/>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="S14" s="47">
-        <f t="shared" si="3"/>
+      <c r="U14" s="58">
+        <f t="shared" si="5"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="V14" s="58">
+        <f t="shared" si="6"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="W14" s="47">
+        <f>ROUND(IMDIV(I14,O14),2)</f>
         <v>0.86</v>
       </c>
-      <c r="T14" s="47">
-        <f t="shared" si="4"/>
+      <c r="X14" s="47">
+        <f>ROUND(IMDIV(J14,O14),2)</f>
         <v>0.02</v>
       </c>
-      <c r="U14" s="47">
-        <f t="shared" si="17"/>
+      <c r="Y14" s="47">
+        <f>ROUND(IMDIV(K14,O14),2)</f>
         <v>0.03</v>
       </c>
-      <c r="V14" s="47">
-        <f t="shared" si="5"/>
+      <c r="Z14" s="47">
+        <f>ROUND(IMDIV(L14,O14),2)</f>
         <v>1.67</v>
       </c>
-      <c r="W14" s="47">
-        <f t="shared" si="6"/>
+      <c r="AA14" s="47">
+        <f>ROUND(IMDIV(M14,O14),2)</f>
         <v>0.33</v>
       </c>
-      <c r="X14" s="47">
+      <c r="AB14" s="47">
+        <f>ROUND(IMDIV(B14,I14),2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AC14" s="47">
+        <f>ROUND(IMDIV(C14,B14),4)*100</f>
+        <v>23.53</v>
+      </c>
+      <c r="AD14" s="47">
+        <f>ROUND(IMDIV(N14,O14),2)</f>
+        <v>52.26</v>
+      </c>
+      <c r="AE14" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF14" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG14" s="76">
         <f t="shared" si="7"/>
-        <v>0.3</v>
-      </c>
-      <c r="Y14" s="47">
-        <f t="shared" si="8"/>
-        <v>23.53</v>
-      </c>
-      <c r="Z14" s="47">
-        <f t="shared" si="9"/>
-        <v>52.26</v>
-      </c>
-      <c r="AA14" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB14" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC14" s="66">
-        <f t="shared" si="18"/>
+        <v>0.52336575757575754</v>
+      </c>
+      <c r="AH14" s="66">
+        <f>(((P14-Q14+1.25*Q14)/2)+(T14/3)-(W14-0.2*X14+0.5*Y14)+(AD14/250)+(AA14/20))+1</f>
         <v>0.51484303030303025</v>
       </c>
-      <c r="AD14" s="62">
-        <f t="shared" si="10"/>
+      <c r="AI14" s="62">
+        <f>(((P14-Q14+1.25*Q14+T14)/2)+(1-(W14-0.25*X14+0.5*Y14))+(AD14/200)+(AA14/18))</f>
         <v>0.57751212121212114</v>
       </c>
-      <c r="AE14" s="23">
-        <f t="shared" si="11"/>
+      <c r="AJ14" s="23">
+        <f>((P14/2)+(1-(W14-0.25*X14+0.5*Y14))+(AD14/200)+(AA14/18))</f>
         <v>0.5396333333333333</v>
       </c>
-      <c r="AF14" s="20">
-        <f t="shared" si="12"/>
+      <c r="AK14" s="20">
+        <f>(((P14/2)+(1-W14)+(AD14/200)+(AA14/9)))/1.06</f>
         <v>0.53581761006289297</v>
       </c>
-      <c r="AG14" s="18">
-        <f t="shared" si="13"/>
+      <c r="AL14" s="18">
+        <f>((P14/2)+(1-W14)+(AD14/200)+(AA14/9))</f>
         <v>0.56796666666666662</v>
       </c>
-      <c r="AH14" s="15">
-        <f t="shared" si="14"/>
+      <c r="AM14" s="15">
+        <f>((P14/2)+(1-W14)+(AD14/200))</f>
         <v>0.53129999999999999</v>
       </c>
-      <c r="AI14" s="68">
-        <f t="shared" si="19"/>
+      <c r="AN14" s="68">
+        <f>(((P14-Q14+1.25*Q14)/2)+(T14/3)-(W14-0.2*X14+0.5*Y14)+(AD14/250)+(AA14/18))*10</f>
         <v>-4.833236363636364</v>
       </c>
-      <c r="AJ14" s="10">
-        <f>(((N14-N16)-(S14-S16)+((Z14-Z16)/100))/2)*10</f>
-        <v>-3.8343928571428574</v>
-      </c>
-      <c r="AK14" s="2">
-        <f>(((N14-N16)-(S14-S16)+(Z14-Z16))/100)+1</f>
-        <v>0.81156428571428574</v>
-      </c>
-      <c r="AL14" s="12">
-        <f>((N14-N16)-(S14-S16)+((Z14-Z16)/100))*10</f>
-        <v>-7.6687857142857148</v>
-      </c>
-      <c r="AM14" s="12">
-        <f>((N14-N16)-(S14-S16)+((Z14-Z16)/116))+1</f>
-        <v>0.25830665024630539</v>
-      </c>
-      <c r="AN14" s="5">
-        <f>(((N14-N16)-(S14-S16)+((Z14-Z16)/100))/2)+1</f>
-        <v>0.61656071428571424</v>
+      <c r="AO14" s="10">
+        <f>(((P14-P16)-(W14-W16)+((AD14-AD16)/100))/2)*10</f>
+        <v>-3.7464999999999993</v>
+      </c>
+      <c r="AP14" s="2">
+        <f>(((P14-P16)-(W14-W16)+(AD14-AD16))/100)+1</f>
+        <v>0.81570714285714285</v>
+      </c>
+      <c r="AQ14" s="12">
+        <f>((P14-P16)-(W14-W16)+((AD14-AD16)/100))*10</f>
+        <v>-7.4929999999999986</v>
+      </c>
+      <c r="AR14" s="12">
+        <f>((P14-P16)-(W14-W16)+((AD14-AD16)/116))+1</f>
+        <v>0.27533251231527101</v>
+      </c>
+      <c r="AS14" s="5">
+        <f>(((P14-P16)-(W14-W16)+((AD14-AD16)/100))/2)+1</f>
+        <v>0.62535000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>29</v>
       </c>
@@ -4134,134 +4451,152 @@
         <v>4</v>
       </c>
       <c r="G15" s="48">
+        <v>2</v>
+      </c>
+      <c r="H15" s="48">
+        <v>2</v>
+      </c>
+      <c r="I15" s="48">
         <v>57</v>
       </c>
-      <c r="H15" s="48">
+      <c r="J15" s="48">
         <v>1</v>
       </c>
-      <c r="I15" s="48">
-        <v>0</v>
-      </c>
-      <c r="J15" s="47">
+      <c r="K15" s="48">
+        <v>0</v>
+      </c>
+      <c r="L15" s="47">
         <v>8</v>
       </c>
-      <c r="K15" s="48">
+      <c r="M15" s="48">
         <v>2</v>
       </c>
-      <c r="L15" s="48">
+      <c r="N15" s="48">
         <v>2902</v>
       </c>
-      <c r="M15" s="48">
+      <c r="O15" s="48">
         <v>66</v>
       </c>
-      <c r="N15" s="47">
+      <c r="P15" s="47">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="O15" s="58">
-        <f t="shared" si="15"/>
+      <c r="Q15" s="58">
+        <f t="shared" si="3"/>
         <v>7.575757575757576E-2</v>
       </c>
-      <c r="P15" s="58">
+      <c r="R15" s="58">
         <f t="shared" si="1"/>
         <v>46.969696969696969</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="S15" s="47">
         <f t="shared" si="2"/>
         <v>16.13</v>
       </c>
-      <c r="R15" s="58">
-        <f t="shared" si="16"/>
+      <c r="T15" s="58">
+        <f t="shared" si="4"/>
         <v>6.0606060606060608E-2</v>
       </c>
-      <c r="S15" s="47">
-        <f t="shared" si="3"/>
+      <c r="U15" s="58">
+        <f t="shared" si="5"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="V15" s="58">
+        <f t="shared" si="6"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="W15" s="47">
+        <f>ROUND(IMDIV(I15,O15),2)</f>
         <v>0.86</v>
       </c>
-      <c r="T15" s="47">
-        <f t="shared" si="4"/>
+      <c r="X15" s="47">
+        <f>ROUND(IMDIV(J15,O15),2)</f>
         <v>0.02</v>
       </c>
-      <c r="U15" s="47">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="47">
-        <f t="shared" si="5"/>
+      <c r="Y15" s="47">
+        <f>ROUND(IMDIV(K15,O15),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="47">
+        <f>ROUND(IMDIV(L15,O15),2)</f>
         <v>0.12</v>
       </c>
-      <c r="W15" s="47">
-        <f t="shared" si="6"/>
+      <c r="AA15" s="47">
+        <f>ROUND(IMDIV(M15,O15),2)</f>
         <v>0.03</v>
       </c>
-      <c r="X15" s="47">
+      <c r="AB15" s="47">
+        <f>ROUND(IMDIV(B15,I15),2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AC15" s="47">
+        <f>ROUND(IMDIV(C15,B15),4)*100</f>
+        <v>34.78</v>
+      </c>
+      <c r="AD15" s="47">
+        <f>ROUND(IMDIV(N15,O15),2)</f>
+        <v>43.97</v>
+      </c>
+      <c r="AE15" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF15" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG15" s="76">
         <f t="shared" si="7"/>
-        <v>0.4</v>
-      </c>
-      <c r="Y15" s="47">
-        <f t="shared" si="8"/>
-        <v>34.78</v>
-      </c>
-      <c r="Z15" s="47">
-        <f t="shared" si="9"/>
-        <v>43.97</v>
-      </c>
-      <c r="AA15" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB15" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC15" s="66">
-        <f t="shared" si="18"/>
+        <v>0.53552141414141419</v>
+      </c>
+      <c r="AH15" s="66">
+        <f>(((P15-Q15+1.25*Q15)/2)+(T15/3)-(W15-0.2*X15+0.5*Y15)+(AD15/250)+(AA15/20))+1</f>
         <v>0.52605171717171717</v>
       </c>
-      <c r="AD15" s="62">
-        <f t="shared" si="10"/>
+      <c r="AI15" s="62">
+        <f>(((P15-Q15+1.25*Q15+T15)/2)+(1-(W15-0.25*X15+0.5*Y15))+(AD15/200)+(AA15/18))</f>
         <v>0.58128939393939394</v>
       </c>
-      <c r="AE15" s="23">
-        <f t="shared" si="11"/>
+      <c r="AJ15" s="23">
+        <f>((P15/2)+(1-(W15-0.25*X15+0.5*Y15))+(AD15/200)+(AA15/18))</f>
         <v>0.54151666666666665</v>
       </c>
-      <c r="AF15" s="20">
-        <f t="shared" si="12"/>
+      <c r="AK15" s="20">
+        <f>(((P15/2)+(1-W15)+(AD15/200)+(AA15/9)))/1.06</f>
         <v>0.50772012578616355</v>
       </c>
-      <c r="AG15" s="18">
-        <f t="shared" si="13"/>
+      <c r="AL15" s="18">
+        <f>((P15/2)+(1-W15)+(AD15/200)+(AA15/9))</f>
         <v>0.53818333333333335</v>
       </c>
-      <c r="AH15" s="15">
-        <f t="shared" si="14"/>
+      <c r="AM15" s="15">
+        <f>((P15/2)+(1-W15)+(AD15/200))</f>
         <v>0.53485000000000005</v>
       </c>
-      <c r="AI15" s="68">
-        <f t="shared" si="19"/>
+      <c r="AN15" s="68">
+        <f>(((P15-Q15+1.25*Q15)/2)+(T15/3)-(W15-0.2*X15+0.5*Y15)+(AD15/250)+(AA15/18))*10</f>
         <v>-4.7378161616161609</v>
       </c>
-      <c r="AJ15" s="10">
-        <f>(((N15-N16)-(S15-S16)+((Z15-Z16)/100))/2)*10</f>
-        <v>-3.7988928571428571</v>
-      </c>
-      <c r="AK15" s="2">
-        <f>(((N15-N16)-(S15-S16)+(Z15-Z16))/100)+1</f>
-        <v>0.72956428571428567</v>
-      </c>
-      <c r="AL15" s="12">
-        <f>((N15-N16)-(S15-S16)+((Z15-Z16)/100))*10</f>
-        <v>-7.5977857142857141</v>
-      </c>
-      <c r="AM15" s="12">
-        <f>((N15-N16)-(S15-S16)+((Z15-Z16)/116))+1</f>
-        <v>0.27684113300492608</v>
-      </c>
-      <c r="AN15" s="5">
-        <f>(((N15-N16)-(S15-S16)+((Z15-Z16)/100))/2)+1</f>
-        <v>0.62011071428571429</v>
+      <c r="AO15" s="10">
+        <f>(((P15-P16)-(W15-W16)+((AD15-AD16)/100))/2)*10</f>
+        <v>-3.7109999999999999</v>
+      </c>
+      <c r="AP15" s="2">
+        <f>(((P15-P16)-(W15-W16)+(AD15-AD16))/100)+1</f>
+        <v>0.73370714285714289</v>
+      </c>
+      <c r="AQ15" s="12">
+        <f>((P15-P16)-(W15-W16)+((AD15-AD16)/100))*10</f>
+        <v>-7.4219999999999997</v>
+      </c>
+      <c r="AR15" s="12">
+        <f>((P15-P16)-(W15-W16)+((AD15-AD16)/116))+1</f>
+        <v>0.29386699507389169</v>
+      </c>
+      <c r="AS15" s="5">
+        <f>(((P15-P16)-(W15-W16)+((AD15-AD16)/100))/2)+1</f>
+        <v>0.62890000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -4270,929 +4605,1259 @@
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" ref="N16:Z16" si="20">AVERAGE(N2:N15)</f>
-        <v>0.60285714285714287</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" ref="O16:R16" si="21">AVERAGE(O2:O15)</f>
-        <v>0.2457913931754922</v>
-      </c>
       <c r="P16" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="P16:AD16" si="8">AVERAGE(P2:P15)</f>
+        <v>0.59928571428571431</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" ref="Q16:T16" si="9">AVERAGE(Q2:Q15)</f>
+        <v>0.24265315793817552</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="21"/>
-        <v>48.133571428571429</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="21"/>
-        <v>0.13836819748744142</v>
-      </c>
       <c r="S16" s="1">
-        <f t="shared" si="20"/>
-        <v>0.61857142857142855</v>
-      </c>
-      <c r="T16" s="49"/>
+        <f t="shared" si="9"/>
+        <v>47.200714285714284</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.13674553842244841</v>
+      </c>
       <c r="U16" s="49"/>
-      <c r="V16" s="1">
-        <f t="shared" si="20"/>
-        <v>2.8557142857142859</v>
-      </c>
+      <c r="V16" s="49"/>
       <c r="W16" s="1">
-        <f t="shared" si="20"/>
-        <v>0.20714285714285713</v>
-      </c>
-      <c r="X16" s="1">
-        <f t="shared" si="20"/>
-        <v>1.0621428571428571</v>
-      </c>
-      <c r="Y16" s="1">
-        <f t="shared" si="20"/>
-        <v>47.458571428571425</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>0.62857142857142867</v>
+      </c>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
       <c r="Z16" s="1">
-        <f t="shared" si="20"/>
-        <v>70.519285714285715</v>
-      </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="66">
-        <f t="shared" ref="AC16:AH16" si="22">AVERAGE(AC2:AC15)</f>
-        <v>1.0589237994998932</v>
-      </c>
-      <c r="AD16" s="62">
-        <f t="shared" si="22"/>
-        <v>1.1556195308271653</v>
-      </c>
-      <c r="AE16" s="23">
-        <f t="shared" si="22"/>
-        <v>1.055711507936508</v>
-      </c>
-      <c r="AF16" s="20">
-        <f t="shared" si="22"/>
-        <v>0.99855607966457005</v>
-      </c>
-      <c r="AG16" s="18">
-        <f t="shared" si="22"/>
-        <v>1.0584694444444445</v>
-      </c>
-      <c r="AH16" s="15">
-        <f t="shared" si="22"/>
-        <v>1.0354535714285713</v>
-      </c>
-      <c r="AI16" s="68">
-        <f t="shared" ref="AI16" si="23">AVERAGE(AI2:AI15)</f>
-        <v>0.60074593150686806</v>
-      </c>
-      <c r="AJ16" s="10">
-        <f>AVERAGE(AJ2:AJ15)</f>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="2">
-        <f>AVERAGE(AK2:AK15)</f>
+        <f t="shared" si="8"/>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="8"/>
+        <v>0.19428571428571426</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0314285714285714</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" si="8"/>
+        <v>46.668571428571418</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="8"/>
+        <v>70.118571428571428</v>
+      </c>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="73">
+        <f>AVERAGE(AG2:AG15)</f>
+        <v>1.0607346656766252</v>
+      </c>
+      <c r="AH16" s="66">
+        <f t="shared" ref="AH16:AM16" si="10">AVERAGE(AH2:AH15)</f>
+        <v>1.0439592051688025</v>
+      </c>
+      <c r="AI16" s="62">
+        <f t="shared" si="10"/>
+        <v>1.1399123504614328</v>
+      </c>
+      <c r="AJ16" s="23">
+        <f t="shared" si="10"/>
+        <v>1.0412079365079365</v>
+      </c>
+      <c r="AK16" s="20">
+        <f t="shared" si="10"/>
+        <v>0.98419961066187478</v>
+      </c>
+      <c r="AL16" s="18">
+        <f t="shared" si="10"/>
+        <v>1.0432515873015873</v>
+      </c>
+      <c r="AM16" s="15">
+        <f t="shared" si="10"/>
+        <v>1.0216642857142857</v>
+      </c>
+      <c r="AN16" s="68">
+        <f t="shared" ref="AN16" si="11">AVERAGE(AN2:AN15)</f>
+        <v>0.45038570248167442</v>
+      </c>
+      <c r="AO16" s="10">
+        <f>AVERAGE(AO2:AO15)</f>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="2">
+        <f>AVERAGE(AP2:AP15)</f>
         <v>1</v>
       </c>
-      <c r="AL16" s="12">
-        <f>AVERAGE(AL2:AL15)</f>
-        <v>0</v>
-      </c>
-      <c r="AM16" s="12">
-        <f>AVERAGE(AM2:AM15)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AN16" s="5">
-        <f t="shared" ref="AN16" si="24">AVERAGE(AN2:AN15)</f>
-        <v>0.99999999999999989</v>
+      <c r="AQ16" s="12">
+        <f>AVERAGE(AQ2:AQ15)</f>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="12">
+        <f>AVERAGE(AR2:AR15)</f>
+        <v>1</v>
+      </c>
+      <c r="AS16" s="5">
+        <f t="shared" ref="AS16" si="12">AVERAGE(AS2:AS15)</f>
+        <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="1">
-        <f t="shared" ref="N17:Z17" si="25">MEDIAN(N2,N15)</f>
+      <c r="P17" s="1">
+        <f t="shared" ref="P17:AD17" si="13">MEDIAN(P2,P15)</f>
         <v>0.59</v>
       </c>
-      <c r="O17" s="1">
-        <f t="shared" ref="O17:R17" si="26">MEDIAN(O2,O15)</f>
+      <c r="Q17" s="1">
+        <f t="shared" ref="Q17:T17" si="14">MEDIAN(Q2,Q15)</f>
         <v>0.18576611182244984</v>
       </c>
-      <c r="P17" s="1">
-        <f t="shared" si="26"/>
+      <c r="R17" s="1">
+        <f t="shared" si="14"/>
         <v>48.132735808792148</v>
       </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="26"/>
+      <c r="S17" s="1">
+        <f t="shared" si="14"/>
         <v>38.064999999999998</v>
       </c>
-      <c r="R17" s="1">
-        <f t="shared" si="26"/>
+      <c r="T17" s="1">
+        <f t="shared" si="14"/>
         <v>0.13593683311993171</v>
       </c>
-      <c r="S17" s="1">
-        <f t="shared" si="25"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="1">
+        <f t="shared" si="13"/>
         <v>0.63500000000000001</v>
       </c>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="1">
-        <f t="shared" si="25"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="1">
+        <f t="shared" si="13"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="W17" s="1">
-        <f t="shared" si="25"/>
+      <c r="AA17" s="1">
+        <f t="shared" si="13"/>
         <v>0.16500000000000001</v>
       </c>
-      <c r="X17" s="1">
-        <f t="shared" si="25"/>
+      <c r="AB17" s="1">
+        <f t="shared" si="13"/>
         <v>1.2149999999999999</v>
       </c>
-      <c r="Y17" s="1">
-        <f t="shared" si="25"/>
+      <c r="AC17" s="1">
+        <f t="shared" si="13"/>
         <v>43.66</v>
       </c>
-      <c r="Z17" s="1">
-        <f t="shared" si="25"/>
+      <c r="AD17" s="1">
+        <f t="shared" si="13"/>
         <v>63.034999999999997</v>
       </c>
-      <c r="AC17" s="66">
-        <f t="shared" ref="AC17:AH17" si="27">MEDIAN(AC2:AC15)</f>
+      <c r="AG17" s="74">
+        <f>MEDIAN(AG2:AG15)</f>
+        <v>1.1804752546045503</v>
+      </c>
+      <c r="AH17" s="66">
+        <f t="shared" ref="AH17:AM17" si="15">MEDIAN(AH2:AH15)</f>
         <v>1.1605334886240519</v>
       </c>
-      <c r="AD17" s="62">
-        <f t="shared" si="27"/>
+      <c r="AI17" s="62">
+        <f t="shared" si="15"/>
         <v>1.2645292283616225</v>
       </c>
-      <c r="AE17" s="23">
-        <f t="shared" si="27"/>
+      <c r="AJ17" s="23">
+        <f t="shared" si="15"/>
         <v>1.1617055555555555</v>
       </c>
-      <c r="AF17" s="20">
-        <f t="shared" si="27"/>
+      <c r="AK17" s="20">
+        <f t="shared" si="15"/>
         <v>1.0917557651991614</v>
       </c>
-      <c r="AG17" s="18">
-        <f t="shared" si="27"/>
+      <c r="AL17" s="18">
+        <f t="shared" si="15"/>
         <v>1.1572611111111111</v>
       </c>
-      <c r="AH17" s="15">
-        <f t="shared" si="27"/>
+      <c r="AM17" s="15">
+        <f t="shared" si="15"/>
         <v>1.13615</v>
       </c>
-      <c r="AI17" s="68">
-        <f t="shared" ref="AI17" si="28">MEDIAN(AI2:AI15)</f>
+      <c r="AN17" s="68">
+        <f t="shared" ref="AN17" si="16">MEDIAN(AN2:AN15)</f>
         <v>1.615890441796076</v>
       </c>
-      <c r="AJ17" s="10">
-        <f>MEDIAN(AJ2:AJ15)</f>
-        <v>0.86410714285714274</v>
-      </c>
-      <c r="AK17" s="2">
-        <f t="shared" ref="AK17" si="29">MEDIAN(AK2:AK15)</f>
-        <v>1.0641142857142856</v>
-      </c>
-      <c r="AL17" s="12">
-        <f t="shared" ref="AL17" si="30">MEDIAN(AL2:AL15)</f>
-        <v>1.7282142857142855</v>
-      </c>
-      <c r="AM17" s="12">
-        <f>MEDIAN(AM2:AM15)</f>
-        <v>1.1628756157635467</v>
-      </c>
-      <c r="AN17" s="5">
-        <f>MEDIAN(AN2:AN15)</f>
-        <v>1.0864107142857142</v>
+      <c r="AO17" s="10">
+        <f>MEDIAN(AO2:AO15)</f>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="AP17" s="2">
+        <f t="shared" ref="AP17" si="17">MEDIAN(AP2:AP15)</f>
+        <v>1.068257142857143</v>
+      </c>
+      <c r="AQ17" s="12">
+        <f t="shared" ref="AQ17" si="18">MEDIAN(AQ2:AQ15)</f>
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="AR17" s="12">
+        <f>MEDIAN(AR2:AR15)</f>
+        <v>1.1774876847290641</v>
+      </c>
+      <c r="AS17" s="5">
+        <f>MEDIAN(AS2:AS15)</f>
+        <v>1.0937999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="AB18" s="21" t="s">
+      <c r="AF18" s="21" t="s">
         <v>60</v>
       </c>
+      <c r="AG18" s="75"/>
     </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>69</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>0.82</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.15</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>0.2</v>
       </c>
-      <c r="S19">
+      <c r="W19">
         <v>0.54</v>
       </c>
-      <c r="T19">
+      <c r="X19">
         <v>0.09</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="W19">
+      <c r="AA19">
         <v>0.04</v>
       </c>
-      <c r="Z19">
+      <c r="AD19">
         <v>82.3</v>
       </c>
-      <c r="AB19">
+      <c r="AF19">
         <v>1.32</v>
       </c>
-      <c r="AC19" s="66">
-        <f>(((N19-O19+1.25*O19)/2)+(R19/3)-(S19-0.2*T19+0.5*U19)+(Z19/250)+(W19/20))+1</f>
+      <c r="AG19" s="76">
+        <f>(((P19-Q19+1.25*Q19)/2)+(T19/3)+0.25*((U19/4)+V19)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/20))+1</f>
         <v>1.2901166666666666</v>
       </c>
-      <c r="AD19" s="62">
-        <f t="shared" ref="AD19:AD29" si="31">(((N19-O19+1.25*O19+R19)/2)+(1-(S19-0.25*T19+0.5*U19))+(Z19/200)+(W19/18))</f>
+      <c r="AH19" s="66">
+        <f>(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/20))+1</f>
+        <v>1.2901166666666666</v>
+      </c>
+      <c r="AI19" s="62">
+        <f>(((P19-Q19+1.25*Q19+T19)/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
         <v>1.4104722222222219</v>
       </c>
-      <c r="AE19" s="23">
-        <f t="shared" ref="AE19:AE29" si="32">((N19/2)+(1-(S19-0.25*T19+0.5*U19))+(Z19/200)+(W19/18))</f>
+      <c r="AJ19" s="23">
+        <f>((P19/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
         <v>1.291722222222222</v>
       </c>
-      <c r="AF19" s="20">
-        <f t="shared" ref="AF19:AF29" si="33">(((N19/2)+(1-S19)+(Z19/200)+(W19/9)))/1.06</f>
+      <c r="AK19" s="20">
+        <f>(((P19/2)+(1-W19)+(AD19/200)+(AA19/9)))/1.06</f>
         <v>1.2131551362683437</v>
       </c>
-      <c r="AG19" s="18">
-        <f t="shared" ref="AG19:AG29" si="34">((N19/2)+(1-S19)+(Z19/200)+(W19/9))</f>
+      <c r="AL19" s="18">
+        <f>((P19/2)+(1-W19)+(AD19/200)+(AA19/9))</f>
         <v>1.2859444444444443</v>
       </c>
-      <c r="AH19" s="15">
-        <f t="shared" ref="AH19:AH29" si="35">((N19/2)+(1-S19)+(Z19/200))</f>
+      <c r="AM19" s="15">
+        <f>((P19/2)+(1-W19)+(AD19/200))</f>
         <v>1.2814999999999999</v>
       </c>
-      <c r="AI19" s="68">
-        <f>(((N19-O19+1.25*O19)/2)+(R19/3)-(S19-0.2*T19+0.5*U19)+(Z19/250)+(W19/18))*10</f>
+      <c r="AN19" s="68">
+        <f>(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/18))*10</f>
         <v>2.9033888888888888</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>70</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>0.81</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>0.2</v>
       </c>
-      <c r="S20">
+      <c r="W20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="T20">
+      <c r="X20">
         <v>0.12</v>
       </c>
-      <c r="U20">
+      <c r="Y20">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="W20">
+      <c r="AA20">
         <v>0.05</v>
       </c>
-      <c r="Z20">
+      <c r="AD20">
         <v>81.5</v>
       </c>
-      <c r="AB20">
+      <c r="AF20">
         <v>1.29</v>
       </c>
-      <c r="AC20" s="66">
-        <f t="shared" ref="AC20:AC29" si="36">(((N20-O20+1.25*O20)/2)+(R20/3)-(S20-0.2*T20+0.5*U20)+(Z20/250)+(W20/20))+1</f>
+      <c r="AG20" s="76">
+        <f t="shared" ref="AG20:AG33" si="19">(((P20-Q20+1.25*Q20)/2)+(T20/3)+0.25*((U20/4)+V20)-(W20-0.2*X20+0.5*Y20)+(AD20/250)+(AA20/20))+1</f>
         <v>1.2591666666666668</v>
       </c>
-      <c r="AD20" s="62">
-        <f t="shared" si="31"/>
+      <c r="AH20" s="66">
+        <f>(((P20-Q20+1.25*Q20)/2)+(T20/3)-(W20-0.2*X20+0.5*Y20)+(AD20/250)+(AA20/20))+1</f>
+        <v>1.2591666666666668</v>
+      </c>
+      <c r="AI20" s="62">
+        <f>(((P20-Q20+1.25*Q20+T20)/2)+(1-(W20-0.25*X20+0.5*Y20))+(AD20/200)+(AA20/18))</f>
         <v>1.3802777777777777</v>
       </c>
-      <c r="AE20" s="23">
-        <f t="shared" si="32"/>
+      <c r="AJ20" s="23">
+        <f>((P20/2)+(1-(W20-0.25*X20+0.5*Y20))+(AD20/200)+(AA20/18))</f>
         <v>1.2627777777777778</v>
       </c>
-      <c r="AF20" s="20">
-        <f t="shared" si="33"/>
+      <c r="AK20" s="20">
+        <f>(((P20/2)+(1-W20)+(AD20/200)+(AA20/9)))/1.06</f>
         <v>1.186844863731656</v>
       </c>
-      <c r="AG20" s="18">
-        <f t="shared" si="34"/>
+      <c r="AL20" s="18">
+        <f>((P20/2)+(1-W20)+(AD20/200)+(AA20/9))</f>
         <v>1.2580555555555555</v>
       </c>
-      <c r="AH20" s="15">
-        <f t="shared" si="35"/>
+      <c r="AM20" s="15">
+        <f>((P20/2)+(1-W20)+(AD20/200))</f>
         <v>1.2524999999999999</v>
       </c>
-      <c r="AI20" s="68">
-        <f t="shared" ref="AI20:AI29" si="37">(((N20-O20+1.25*O20)/2)+(R20/3)-(S20-0.2*T20+0.5*U20)+(Z20/250)+(W20/18))*10</f>
+      <c r="AN20" s="68">
+        <f>(((P20-Q20+1.25*Q20)/2)+(T20/3)-(W20-0.2*X20+0.5*Y20)+(AD20/250)+(AA20/18))*10</f>
         <v>2.594444444444445</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>58</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>0.81</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>0.09</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <v>0.21</v>
       </c>
-      <c r="S21">
+      <c r="W21">
         <v>0.69</v>
       </c>
-      <c r="T21">
+      <c r="X21">
         <v>0.15</v>
       </c>
-      <c r="U21">
+      <c r="Y21">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W21">
+      <c r="AA21">
         <v>0.05</v>
       </c>
-      <c r="Z21">
+      <c r="AD21">
         <v>91.1</v>
       </c>
-      <c r="AB21">
+      <c r="AF21">
         <v>1.2</v>
       </c>
-      <c r="AC21" s="66">
-        <f t="shared" si="36"/>
+      <c r="AG21" s="76">
+        <f t="shared" si="19"/>
         <v>1.1756500000000001</v>
       </c>
-      <c r="AD21" s="62">
-        <f t="shared" si="31"/>
+      <c r="AH21" s="66">
+        <f>(((P21-Q21+1.25*Q21)/2)+(T21/3)-(W21-0.2*X21+0.5*Y21)+(AD21/250)+(AA21/20))+1</f>
+        <v>1.1756500000000001</v>
+      </c>
+      <c r="AI21" s="62">
+        <f>(((P21-Q21+1.25*Q21+T21)/2)+(1-(W21-0.25*X21+0.5*Y21))+(AD21/200)+(AA21/18))</f>
         <v>1.3095277777777778</v>
       </c>
-      <c r="AE21" s="23">
-        <f t="shared" si="32"/>
+      <c r="AJ21" s="23">
+        <f>((P21/2)+(1-(W21-0.25*X21+0.5*Y21))+(AD21/200)+(AA21/18))</f>
         <v>1.1932777777777779</v>
       </c>
-      <c r="AF21" s="20">
-        <f t="shared" si="33"/>
+      <c r="AK21" s="20">
+        <f>(((P21/2)+(1-W21)+(AD21/200)+(AA21/9)))/1.06</f>
         <v>1.1094863731656184</v>
       </c>
-      <c r="AG21" s="18">
-        <f t="shared" si="34"/>
+      <c r="AL21" s="18">
+        <f>((P21/2)+(1-W21)+(AD21/200)+(AA21/9))</f>
         <v>1.1760555555555556</v>
       </c>
-      <c r="AH21" s="15">
-        <f t="shared" si="35"/>
+      <c r="AM21" s="15">
+        <f>((P21/2)+(1-W21)+(AD21/200))</f>
         <v>1.1705000000000001</v>
       </c>
-      <c r="AI21" s="68">
-        <f t="shared" si="37"/>
+      <c r="AN21" s="68">
+        <f>(((P21-Q21+1.25*Q21)/2)+(T21/3)-(W21-0.2*X21+0.5*Y21)+(AD21/250)+(AA21/18))*10</f>
         <v>1.7592777777777791</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>71</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>0.69</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>0.1</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>0.17</v>
       </c>
-      <c r="S22">
+      <c r="W22">
         <v>0.63</v>
       </c>
-      <c r="T22">
+      <c r="X22">
         <v>0.11</v>
       </c>
-      <c r="U22">
+      <c r="Y22">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="W22">
+      <c r="AA22">
         <v>0.03</v>
       </c>
-      <c r="Z22">
+      <c r="AD22">
         <v>76.2</v>
       </c>
-      <c r="AB22">
+      <c r="AF22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC22" s="66">
-        <f t="shared" si="36"/>
+      <c r="AG22" s="76">
+        <f t="shared" si="19"/>
         <v>1.0884666666666667</v>
       </c>
-      <c r="AD22" s="62">
-        <f t="shared" si="31"/>
+      <c r="AH22" s="66">
+        <f>(((P22-Q22+1.25*Q22)/2)+(T22/3)-(W22-0.2*X22+0.5*Y22)+(AD22/250)+(AA22/20))+1</f>
+        <v>1.0884666666666667</v>
+      </c>
+      <c r="AI22" s="62">
+        <f>(((P22-Q22+1.25*Q22+T22)/2)+(1-(W22-0.25*X22+0.5*Y22))+(AD22/200)+(AA22/18))</f>
         <v>1.1986666666666668</v>
       </c>
-      <c r="AE22" s="23">
-        <f t="shared" si="32"/>
+      <c r="AJ22" s="23">
+        <f>((P22/2)+(1-(W22-0.25*X22+0.5*Y22))+(AD22/200)+(AA22/18))</f>
         <v>1.1011666666666666</v>
       </c>
-      <c r="AF22" s="20">
-        <f t="shared" si="33"/>
+      <c r="AK22" s="20">
+        <f>(((P22/2)+(1-W22)+(AD22/200)+(AA22/9)))/1.06</f>
         <v>1.0371069182389938</v>
       </c>
-      <c r="AG22" s="18">
-        <f t="shared" si="34"/>
+      <c r="AL22" s="18">
+        <f>((P22/2)+(1-W22)+(AD22/200)+(AA22/9))</f>
         <v>1.0993333333333335</v>
       </c>
-      <c r="AH22" s="15">
-        <f t="shared" si="35"/>
+      <c r="AM22" s="15">
+        <f>((P22/2)+(1-W22)+(AD22/200))</f>
         <v>1.0960000000000001</v>
       </c>
-      <c r="AI22" s="68">
-        <f t="shared" si="37"/>
+      <c r="AN22" s="68">
+        <f>(((P22-Q22+1.25*Q22)/2)+(T22/3)-(W22-0.2*X22+0.5*Y22)+(AD22/250)+(AA22/18))*10</f>
         <v>0.88633333333333353</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>59</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>0.6</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>0.09</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>0.13</v>
       </c>
-      <c r="S23">
+      <c r="W23">
         <v>0.65</v>
       </c>
-      <c r="T23">
+      <c r="X23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U23">
+      <c r="Y23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W23">
+      <c r="AA23">
         <v>0.03</v>
       </c>
-      <c r="Z23">
+      <c r="AD23">
         <v>63.9</v>
       </c>
-      <c r="AB23">
+      <c r="AF23">
         <v>0.94</v>
       </c>
-      <c r="AC23" s="66">
-        <f t="shared" si="36"/>
+      <c r="AG23" s="76">
+        <f t="shared" si="19"/>
         <v>0.95468333333333333</v>
       </c>
-      <c r="AD23" s="62">
-        <f t="shared" si="31"/>
+      <c r="AH23" s="66">
+        <f>(((P23-Q23+1.25*Q23)/2)+(T23/3)-(W23-0.2*X23+0.5*Y23)+(AD23/250)+(AA23/20))+1</f>
+        <v>0.95468333333333333</v>
+      </c>
+      <c r="AI23" s="62">
+        <f>(((P23-Q23+1.25*Q23+T23)/2)+(1-(W23-0.25*X23+0.5*Y23))+(AD23/200)+(AA23/18))</f>
         <v>1.0474166666666667</v>
       </c>
-      <c r="AE23" s="23">
-        <f t="shared" si="32"/>
+      <c r="AJ23" s="23">
+        <f>((P23/2)+(1-(W23-0.25*X23+0.5*Y23))+(AD23/200)+(AA23/18))</f>
         <v>0.97116666666666662</v>
       </c>
-      <c r="AF23" s="20">
-        <f t="shared" si="33"/>
+      <c r="AK23" s="20">
+        <f>(((P23/2)+(1-W23)+(AD23/200)+(AA23/9)))/1.06</f>
         <v>0.91776729559748416</v>
       </c>
-      <c r="AG23" s="18">
-        <f t="shared" si="34"/>
+      <c r="AL23" s="18">
+        <f>((P23/2)+(1-W23)+(AD23/200)+(AA23/9))</f>
         <v>0.97283333333333322</v>
       </c>
-      <c r="AH23" s="15">
-        <f t="shared" si="35"/>
+      <c r="AM23" s="15">
+        <f>((P23/2)+(1-W23)+(AD23/200))</f>
         <v>0.96949999999999992</v>
       </c>
-      <c r="AI23" s="68">
-        <f t="shared" si="37"/>
+      <c r="AN23" s="68">
+        <f>(((P23-Q23+1.25*Q23)/2)+(T23/3)-(W23-0.2*X23+0.5*Y23)+(AD23/250)+(AA23/18))*10</f>
         <v>-0.45150000000000012</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>84</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>2</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>1</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <v>1</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="Z24">
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <v>200</v>
       </c>
-      <c r="AC24" s="66">
-        <f t="shared" si="36"/>
+      <c r="AG24" s="76">
+        <f t="shared" si="19"/>
+        <v>3.3208333333333333</v>
+      </c>
+      <c r="AH24" s="66">
+        <f>(((P24-Q24+1.25*Q24)/2)+(T24/3)-(W24-0.2*X24+0.5*Y24)+(AD24/250)+(AA24/20))+1</f>
         <v>3.2583333333333333</v>
       </c>
-      <c r="AD24" s="62">
-        <f t="shared" si="31"/>
+      <c r="AI24" s="62">
+        <f>(((P24-Q24+1.25*Q24+T24)/2)+(1-(W24-0.25*X24+0.5*Y24))+(AD24/200)+(AA24/18))</f>
         <v>3.625</v>
       </c>
-      <c r="AE24" s="23">
-        <f t="shared" si="32"/>
+      <c r="AJ24" s="23">
+        <f>((P24/2)+(1-(W24-0.25*X24+0.5*Y24))+(AD24/200)+(AA24/18))</f>
         <v>3</v>
       </c>
-      <c r="AF24" s="20">
-        <f t="shared" si="33"/>
+      <c r="AK24" s="20">
+        <f>(((P24/2)+(1-W24)+(AD24/200)+(AA24/9)))/1.06</f>
         <v>2.8301886792452828</v>
       </c>
-      <c r="AG24" s="18">
-        <f t="shared" si="34"/>
+      <c r="AL24" s="18">
+        <f>((P24/2)+(1-W24)+(AD24/200)+(AA24/9))</f>
         <v>3</v>
       </c>
-      <c r="AH24" s="15">
-        <f t="shared" si="35"/>
+      <c r="AM24" s="15">
+        <f>((P24/2)+(1-W24)+(AD24/200))</f>
         <v>3</v>
       </c>
-      <c r="AI24" s="68">
-        <f t="shared" si="37"/>
+      <c r="AN24" s="68">
+        <f>(((P24-Q24+1.25*Q24)/2)+(T24/3)-(W24-0.2*X24+0.5*Y24)+(AD24/250)+(AA24/18))*10</f>
         <v>22.583333333333332</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>83</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
         <v>1</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="66">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="62">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="23">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="20">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="15">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="68">
-        <f t="shared" si="37"/>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="76">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="66">
+        <f>(((P25-Q25+1.25*Q25)/2)+(T25/3)-(W25-0.2*X25+0.5*Y25)+(AD25/250)+(AA25/20))+1</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="62">
+        <f>(((P25-Q25+1.25*Q25+T25)/2)+(1-(W25-0.25*X25+0.5*Y25))+(AD25/200)+(AA25/18))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="23">
+        <f>((P25/2)+(1-(W25-0.25*X25+0.5*Y25))+(AD25/200)+(AA25/18))</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="20">
+        <f>(((P25/2)+(1-W25)+(AD25/200)+(AA25/9)))/1.06</f>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="18">
+        <f>((P25/2)+(1-W25)+(AD25/200)+(AA25/9))</f>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="15">
+        <f>((P25/2)+(1-W25)+(AD25/200))</f>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="68">
+        <f>(((P25-Q25+1.25*Q25)/2)+(T25/3)-(W25-0.2*X25+0.5*Y25)+(AD25/250)+(AA25/18))*10</f>
         <v>-10</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>1</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>1</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>1</v>
       </c>
-      <c r="T26">
+      <c r="X26">
         <v>1</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
         <v>100</v>
       </c>
-      <c r="AC26" s="66">
-        <f t="shared" si="36"/>
+      <c r="AG26" s="76">
+        <f t="shared" si="19"/>
         <v>1.2250000000000001</v>
       </c>
-      <c r="AD26" s="62">
-        <f t="shared" si="31"/>
+      <c r="AH26" s="66">
+        <f>(((P26-Q26+1.25*Q26)/2)+(T26/3)-(W26-0.2*X26+0.5*Y26)+(AD26/250)+(AA26/20))+1</f>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="AI26" s="62">
+        <f>(((P26-Q26+1.25*Q26+T26)/2)+(1-(W26-0.25*X26+0.5*Y26))+(AD26/200)+(AA26/18))</f>
         <v>1.375</v>
       </c>
-      <c r="AE26" s="23">
-        <f t="shared" si="32"/>
+      <c r="AJ26" s="23">
+        <f>((P26/2)+(1-(W26-0.25*X26+0.5*Y26))+(AD26/200)+(AA26/18))</f>
         <v>1.25</v>
       </c>
-      <c r="AF26" s="20">
-        <f t="shared" si="33"/>
+      <c r="AK26" s="20">
+        <f>(((P26/2)+(1-W26)+(AD26/200)+(AA26/9)))/1.06</f>
         <v>0.94339622641509424</v>
       </c>
-      <c r="AG26" s="18">
-        <f t="shared" si="34"/>
+      <c r="AL26" s="18">
+        <f>((P26/2)+(1-W26)+(AD26/200)+(AA26/9))</f>
         <v>1</v>
       </c>
-      <c r="AH26" s="15">
-        <f t="shared" si="35"/>
+      <c r="AM26" s="15">
+        <f>((P26/2)+(1-W26)+(AD26/200))</f>
         <v>1</v>
       </c>
-      <c r="AI26" s="68">
-        <f t="shared" si="37"/>
+      <c r="AN26" s="68">
+        <f>(((P26-Q26+1.25*Q26)/2)+(T26/3)-(W26-0.2*X26+0.5*Y26)+(AD26/250)+(AA26/18))*10</f>
         <v>2.25</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>1</v>
       </c>
-      <c r="T27">
+      <c r="X27">
         <v>1</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
         <v>99</v>
       </c>
-      <c r="AC27" s="66">
-        <f t="shared" si="36"/>
+      <c r="AG27" s="76">
+        <f t="shared" si="19"/>
         <v>0.59599999999999997</v>
       </c>
-      <c r="AD27" s="62">
-        <f t="shared" si="31"/>
+      <c r="AH27" s="66">
+        <f>(((P27-Q27+1.25*Q27)/2)+(T27/3)-(W27-0.2*X27+0.5*Y27)+(AD27/250)+(AA27/20))+1</f>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="AI27" s="62">
+        <f>(((P27-Q27+1.25*Q27+T27)/2)+(1-(W27-0.25*X27+0.5*Y27))+(AD27/200)+(AA27/18))</f>
         <v>0.745</v>
       </c>
-      <c r="AE27" s="23">
-        <f t="shared" si="32"/>
+      <c r="AJ27" s="23">
+        <f>((P27/2)+(1-(W27-0.25*X27+0.5*Y27))+(AD27/200)+(AA27/18))</f>
         <v>0.745</v>
       </c>
-      <c r="AF27" s="20">
-        <f t="shared" si="33"/>
+      <c r="AK27" s="20">
+        <f>(((P27/2)+(1-W27)+(AD27/200)+(AA27/9)))/1.06</f>
         <v>0.46698113207547165</v>
       </c>
-      <c r="AG27" s="18">
-        <f t="shared" si="34"/>
+      <c r="AL27" s="18">
+        <f>((P27/2)+(1-W27)+(AD27/200)+(AA27/9))</f>
         <v>0.495</v>
       </c>
-      <c r="AH27" s="15">
-        <f t="shared" si="35"/>
+      <c r="AM27" s="15">
+        <f>((P27/2)+(1-W27)+(AD27/200))</f>
         <v>0.495</v>
       </c>
-      <c r="AI27" s="68">
-        <f t="shared" si="37"/>
+      <c r="AN27" s="68">
+        <f>(((P27-Q27+1.25*Q27)/2)+(T27/3)-(W27-0.2*X27+0.5*Y27)+(AD27/250)+(AA27/18))*10</f>
         <v>-4.04</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N28">
+    <row r="28" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28">
         <v>1</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>1</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>1</v>
       </c>
-      <c r="T28">
+      <c r="X28">
         <v>1</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
         <v>150</v>
       </c>
-      <c r="AC28" s="66">
-        <f t="shared" si="36"/>
+      <c r="AG28" s="76">
+        <f t="shared" si="19"/>
         <v>1.4249999999999998</v>
       </c>
-      <c r="AD28" s="62">
-        <f t="shared" si="31"/>
+      <c r="AH28" s="66">
+        <f>(((P28-Q28+1.25*Q28)/2)+(T28/3)-(W28-0.2*X28+0.5*Y28)+(AD28/250)+(AA28/20))+1</f>
+        <v>1.4249999999999998</v>
+      </c>
+      <c r="AI28" s="62">
+        <f>(((P28-Q28+1.25*Q28+T28)/2)+(1-(W28-0.25*X28+0.5*Y28))+(AD28/200)+(AA28/18))</f>
         <v>1.625</v>
       </c>
-      <c r="AE28" s="23">
-        <f t="shared" si="32"/>
+      <c r="AJ28" s="23">
+        <f>((P28/2)+(1-(W28-0.25*X28+0.5*Y28))+(AD28/200)+(AA28/18))</f>
         <v>1.5</v>
       </c>
-      <c r="AF28" s="20">
-        <f t="shared" si="33"/>
+      <c r="AK28" s="20">
+        <f>(((P28/2)+(1-W28)+(AD28/200)+(AA28/9)))/1.06</f>
         <v>1.1792452830188678</v>
       </c>
-      <c r="AG28" s="18">
-        <f t="shared" si="34"/>
+      <c r="AL28" s="18">
+        <f>((P28/2)+(1-W28)+(AD28/200)+(AA28/9))</f>
         <v>1.25</v>
       </c>
-      <c r="AH28" s="15">
-        <f t="shared" si="35"/>
+      <c r="AM28" s="15">
+        <f>((P28/2)+(1-W28)+(AD28/200))</f>
         <v>1.25</v>
       </c>
-      <c r="AI28" s="68">
-        <f t="shared" si="37"/>
+      <c r="AN28" s="68">
+        <f>(((P28-Q28+1.25*Q28)/2)+(T28/3)-(W28-0.2*X28+0.5*Y28)+(AD28/250)+(AA28/18))*10</f>
         <v>4.2499999999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N29">
+    <row r="29" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29">
         <v>1</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>1</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
         <v>100</v>
       </c>
-      <c r="AC29" s="66">
-        <f t="shared" si="36"/>
+      <c r="AG29" s="76">
+        <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
-      <c r="AD29" s="62">
-        <f t="shared" si="31"/>
+      <c r="AH29" s="66">
+        <f>(((P29-Q29+1.25*Q29)/2)+(T29/3)-(W29-0.2*X29+0.5*Y29)+(AD29/250)+(AA29/20))+1</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI29" s="62">
+        <f>(((P29-Q29+1.25*Q29+T29)/2)+(1-(W29-0.25*X29+0.5*Y29))+(AD29/200)+(AA29/18))</f>
         <v>1</v>
       </c>
-      <c r="AE29" s="23">
-        <f t="shared" si="32"/>
+      <c r="AJ29" s="23">
+        <f>((P29/2)+(1-(W29-0.25*X29+0.5*Y29))+(AD29/200)+(AA29/18))</f>
         <v>1</v>
       </c>
-      <c r="AF29" s="20">
-        <f t="shared" si="33"/>
+      <c r="AK29" s="20">
+        <f>(((P29/2)+(1-W29)+(AD29/200)+(AA29/9)))/1.06</f>
         <v>0.94339622641509424</v>
       </c>
-      <c r="AG29" s="18">
-        <f t="shared" si="34"/>
+      <c r="AL29" s="18">
+        <f>((P29/2)+(1-W29)+(AD29/200)+(AA29/9))</f>
         <v>1</v>
       </c>
-      <c r="AH29" s="15">
-        <f t="shared" si="35"/>
+      <c r="AM29" s="15">
+        <f>((P29/2)+(1-W29)+(AD29/200))</f>
         <v>1</v>
       </c>
-      <c r="AI29" s="68">
-        <f t="shared" si="37"/>
+      <c r="AN29" s="68">
+        <f>(((P29-Q29+1.25*Q29)/2)+(T29/3)-(W29-0.2*X29+0.5*Y29)+(AD29/250)+(AA29/18))*10</f>
         <v>-0.99999999999999978</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="30" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>200</v>
+      </c>
+      <c r="AG30" s="76">
+        <f t="shared" si="19"/>
+        <v>3.3833333333333333</v>
+      </c>
+      <c r="AH30" s="66">
+        <f>(((P30-Q30+1.25*Q30)/2)+(T30/3)-(W30-0.2*X30+0.5*Y30)+(AD30/250)+(AA30/20))+1</f>
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="AI30" s="62">
+        <f>(((P30-Q30+1.25*Q30+T30)/2)+(1-(W30-0.25*X30+0.5*Y30))+(AD30/200)+(AA30/18))</f>
+        <v>3.5</v>
+      </c>
+      <c r="AJ30" s="23">
+        <f>((P30/2)+(1-(W30-0.25*X30+0.5*Y30))+(AD30/200)+(AA30/18))</f>
+        <v>3</v>
+      </c>
+      <c r="AK30" s="20">
+        <f>(((P30/2)+(1-W30)+(AD30/200)+(AA30/9)))/1.06</f>
+        <v>2.8301886792452828</v>
+      </c>
+      <c r="AL30" s="18">
+        <f>((P30/2)+(1-W30)+(AD30/200)+(AA30/9))</f>
+        <v>3</v>
+      </c>
+      <c r="AM30" s="15">
+        <f>((P30/2)+(1-W30)+(AD30/200))</f>
+        <v>3</v>
+      </c>
+      <c r="AN30" s="68">
+        <f>(((P30-Q30+1.25*Q30)/2)+(T30/3)-(W30-0.2*X30+0.5*Y30)+(AD30/250)+(AA30/18))*10</f>
+        <v>21.333333333333332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>200</v>
+      </c>
+      <c r="AG31" s="76">
+        <f t="shared" si="19"/>
+        <v>3.2583333333333333</v>
+      </c>
+      <c r="AH31" s="66">
+        <f>(((P31-Q31+1.25*Q31)/2)+(T31/3)-(W31-0.2*X31+0.5*Y31)+(AD31/250)+(AA31/20))+1</f>
+        <v>3.2583333333333333</v>
+      </c>
+      <c r="AI31" s="62">
+        <f>(((P31-Q31+1.25*Q31+T31)/2)+(1-(W31-0.25*X31+0.5*Y31))+(AD31/200)+(AA31/18))</f>
+        <v>3.625</v>
+      </c>
+      <c r="AJ31" s="23">
+        <f>((P31/2)+(1-(W31-0.25*X31+0.5*Y31))+(AD31/200)+(AA31/18))</f>
+        <v>3</v>
+      </c>
+      <c r="AK31" s="20">
+        <f>(((P31/2)+(1-W31)+(AD31/200)+(AA31/9)))/1.06</f>
+        <v>2.8301886792452828</v>
+      </c>
+      <c r="AL31" s="18">
+        <f>((P31/2)+(1-W31)+(AD31/200)+(AA31/9))</f>
+        <v>3</v>
+      </c>
+      <c r="AM31" s="15">
+        <f>((P31/2)+(1-W31)+(AD31/200))</f>
+        <v>3</v>
+      </c>
+      <c r="AN31" s="68">
+        <f>(((P31-Q31+1.25*Q31)/2)+(T31/3)-(W31-0.2*X31+0.5*Y31)+(AD31/250)+(AA31/18))*10</f>
+        <v>22.583333333333332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>100</v>
+      </c>
+      <c r="AG32" s="76">
+        <f t="shared" si="19"/>
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="AH32" s="66">
+        <f>(((P32-Q32+1.25*Q32)/2)+(T32/3)-(W32-0.2*X32+0.5*Y32)+(AD32/250)+(AA32/20))+1</f>
+        <v>0.9</v>
+      </c>
+      <c r="AI32" s="62">
+        <f>(((P32-Q32+1.25*Q32+T32)/2)+(1-(W32-0.25*X32+0.5*Y32))+(AD32/200)+(AA32/18))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="23">
+        <f>((P32/2)+(1-(W32-0.25*X32+0.5*Y32))+(AD32/200)+(AA32/18))</f>
+        <v>1</v>
+      </c>
+      <c r="AK32" s="20">
+        <f>(((P32/2)+(1-W32)+(AD32/200)+(AA32/9)))/1.06</f>
+        <v>0.94339622641509424</v>
+      </c>
+      <c r="AL32" s="18">
+        <f>((P32/2)+(1-W32)+(AD32/200)+(AA32/9))</f>
+        <v>1</v>
+      </c>
+      <c r="AM32" s="15">
+        <f>((P32/2)+(1-W32)+(AD32/200))</f>
+        <v>1</v>
+      </c>
+      <c r="AN32" s="68">
+        <f>(((P32-Q32+1.25*Q32)/2)+(T32/3)-(W32-0.2*X32+0.5*Y32)+(AD32/250)+(AA32/18))*10</f>
+        <v>-0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>100</v>
+      </c>
+      <c r="AG33" s="76">
+        <f t="shared" si="19"/>
+        <v>1.9624999999999999</v>
+      </c>
+      <c r="AH33" s="66">
+        <f>(((P33-Q33+1.25*Q33)/2)+(T33/3)-(W33-0.2*X33+0.5*Y33)+(AD33/250)+(AA33/20))+1</f>
+        <v>1.9</v>
+      </c>
+      <c r="AI33" s="62">
+        <f>(((P33-Q33+1.25*Q33+T33)/2)+(1-(W33-0.25*X33+0.5*Y33))+(AD33/200)+(AA33/18))</f>
+        <v>2</v>
+      </c>
+      <c r="AJ33" s="23">
+        <f>((P33/2)+(1-(W33-0.25*X33+0.5*Y33))+(AD33/200)+(AA33/18))</f>
+        <v>2</v>
+      </c>
+      <c r="AK33" s="20">
+        <f>(((P33/2)+(1-W33)+(AD33/200)+(AA33/9)))/1.06</f>
+        <v>1.8867924528301885</v>
+      </c>
+      <c r="AL33" s="18">
+        <f>((P33/2)+(1-W33)+(AD33/200)+(AA33/9))</f>
+        <v>2</v>
+      </c>
+      <c r="AM33" s="15">
+        <f>((P33/2)+(1-W33)+(AD33/200))</f>
+        <v>2</v>
+      </c>
+      <c r="AN33" s="68">
+        <f>(((P33-Q33+1.25*Q33)/2)+(T33/3)-(W33-0.2*X33+0.5*Y33)+(AD33/250)+(AA33/18))*10</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="69" t="s">
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="69" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="69" t="s">
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="69" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB15">
-    <sortCondition sortBy="cellColor" ref="AB14:AB15" dxfId="0"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF15">
+    <sortCondition sortBy="cellColor" ref="AF14:AF15" dxfId="0"/>
   </sortState>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/StatsTest.xlsx
+++ b/StatsTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE8B68-8169-45A6-975F-9AE9E2782636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B049D871-F08E-4005-AF54-7679D7F76768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>player</t>
   </si>
@@ -324,17 +324,36 @@
   </si>
   <si>
     <t>PadRating=[0.5*(kpr-okpr+1.25*okpr)+(mkpr/3)+((.25*1v1PR+1v2PR)/4)-(dpr-.2tdpr+.5spr)+(adr/250)+(efr/20)]+1</t>
+  </si>
+  <si>
+    <t>EVP</t>
+  </si>
+  <si>
+    <t>3rd-4th</t>
+  </si>
+  <si>
+    <t>1st-2nd</t>
+  </si>
+  <si>
+    <t>PadRating - Added clutches + other readjustments. Think this is the rating. Seems similar to HLTV2.0, also feels pretty good when ordering players in how good they are + the difference between them.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,100 +624,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -708,54 +727,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="13" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="14" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,8 +790,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFBF4F14"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2108,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS43"/>
+  <dimension ref="A1:AS44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2287,1323 +2312,1323 @@
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="34">
+        <v>82</v>
+      </c>
+      <c r="C2" s="34">
+        <v>51</v>
+      </c>
+      <c r="D2" s="34">
+        <v>24</v>
+      </c>
+      <c r="E2" s="34">
+        <v>49</v>
+      </c>
+      <c r="F2" s="34">
+        <v>25</v>
+      </c>
+      <c r="G2" s="34">
+        <v>8</v>
+      </c>
+      <c r="H2" s="34">
+        <v>9</v>
+      </c>
+      <c r="I2" s="34">
+        <v>67</v>
+      </c>
+      <c r="J2" s="34">
+        <v>3</v>
+      </c>
+      <c r="K2" s="34">
+        <v>0</v>
+      </c>
+      <c r="L2" s="34">
+        <v>506</v>
+      </c>
+      <c r="M2" s="34">
         <v>21</v>
       </c>
-      <c r="B2" s="29">
-        <v>59</v>
-      </c>
-      <c r="C2" s="29">
-        <v>31</v>
-      </c>
-      <c r="D2" s="29">
-        <v>21</v>
-      </c>
-      <c r="E2" s="29">
-        <v>35</v>
-      </c>
-      <c r="F2" s="29">
-        <v>15</v>
-      </c>
-      <c r="G2" s="29">
-        <v>13</v>
-      </c>
-      <c r="H2" s="29">
-        <v>5</v>
-      </c>
-      <c r="I2" s="29">
-        <v>29</v>
-      </c>
-      <c r="J2" s="29">
-        <v>0</v>
-      </c>
-      <c r="K2" s="29">
-        <v>0</v>
-      </c>
-      <c r="L2" s="29">
-        <v>304</v>
-      </c>
-      <c r="M2" s="29">
-        <v>21</v>
-      </c>
-      <c r="N2" s="29">
-        <v>5829</v>
-      </c>
-      <c r="O2" s="29">
-        <v>71</v>
-      </c>
-      <c r="P2" s="30">
+      <c r="N2" s="34">
+        <v>9496</v>
+      </c>
+      <c r="O2" s="34">
+        <v>119</v>
+      </c>
+      <c r="P2" s="35">
         <f t="shared" ref="P2:P15" si="0">ROUND(IMDIV(B2,O2),2)</f>
-        <v>0.83</v>
-      </c>
-      <c r="Q2" s="52">
-        <f>(D2/O2)</f>
-        <v>0.29577464788732394</v>
-      </c>
-      <c r="R2" s="52">
-        <f t="shared" ref="R2:R15" si="1">(E2/O2)*100</f>
-        <v>49.295774647887328</v>
-      </c>
-      <c r="S2" s="30">
-        <f t="shared" ref="S2:S15" si="2">ROUND((D2/E2)*100,2)</f>
-        <v>60</v>
-      </c>
-      <c r="T2" s="52">
-        <f>F2/O2</f>
-        <v>0.21126760563380281</v>
-      </c>
-      <c r="U2" s="52">
-        <f>G2/O2</f>
-        <v>0.18309859154929578</v>
-      </c>
-      <c r="V2" s="52">
-        <f>H2/O2</f>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="W2" s="30">
-        <f>ROUND(IMDIV(I2,O2),2)</f>
-        <v>0.41</v>
-      </c>
-      <c r="X2" s="30">
-        <f>ROUND(IMDIV(J2,O2),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="30">
-        <f>ROUND(IMDIV(K2,O2),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="30">
-        <f>ROUND(IMDIV(L2,O2),2)</f>
-        <v>4.28</v>
-      </c>
-      <c r="AA2" s="30">
-        <f>ROUND(IMDIV(M2,O2),2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="AB2" s="30">
-        <f>ROUND(IMDIV(B2,I2),2)</f>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AC2" s="30">
-        <f>ROUND(IMDIV(C2,B2),4)*100</f>
-        <v>52.54</v>
-      </c>
-      <c r="AD2" s="30">
-        <f>ROUND(IMDIV(N2,O2),2)</f>
-        <v>82.1</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="29" t="s">
+        <v>0.69</v>
+      </c>
+      <c r="Q2" s="54">
+        <f t="shared" ref="Q2:Q15" si="1">(D2/O2)</f>
+        <v>0.20168067226890757</v>
+      </c>
+      <c r="R2" s="54">
+        <f t="shared" ref="R2:R15" si="2">(E2/O2)*100</f>
+        <v>41.17647058823529</v>
+      </c>
+      <c r="S2" s="35">
+        <f t="shared" ref="S2:S15" si="3">ROUND((D2/E2)*100,2)</f>
+        <v>48.98</v>
+      </c>
+      <c r="T2" s="54">
+        <f t="shared" ref="T2:T15" si="4">F2/O2</f>
+        <v>0.21008403361344538</v>
+      </c>
+      <c r="U2" s="54">
+        <f t="shared" ref="U2:U15" si="5">G2/O2</f>
+        <v>6.7226890756302518E-2</v>
+      </c>
+      <c r="V2" s="54">
+        <f t="shared" ref="V2:V15" si="6">H2/O2</f>
+        <v>7.5630252100840331E-2</v>
+      </c>
+      <c r="W2" s="35">
+        <f t="shared" ref="W2:W15" si="7">ROUND(IMDIV(I2,O2),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X2" s="35">
+        <f t="shared" ref="X2:X15" si="8">ROUND(IMDIV(J2,O2),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y2" s="35">
+        <f t="shared" ref="Y2:Y15" si="9">ROUND(IMDIV(K2,O2),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="35">
+        <f t="shared" ref="Z2:Z15" si="10">ROUND(IMDIV(L2,O2),2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="AA2" s="35">
+        <f t="shared" ref="AA2:AA15" si="11">ROUND(IMDIV(M2,O2),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="AB2" s="35">
+        <f t="shared" ref="AB2:AB15" si="12">ROUND(IMDIV(B2,I2),2)</f>
+        <v>1.22</v>
+      </c>
+      <c r="AC2" s="35">
+        <f t="shared" ref="AC2:AC15" si="13">ROUND(IMDIV(C2,B2),4)*100</f>
+        <v>62.2</v>
+      </c>
+      <c r="AD2" s="35">
+        <f t="shared" ref="AD2:AD15" si="14">ROUND(IMDIV(N2,O2),2)</f>
+        <v>79.8</v>
+      </c>
+      <c r="AE2" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF2" s="34" t="s">
         <v>28</v>
       </c>
       <c r="AG2" s="76">
-        <f>(((P2-Q2+1.25*Q2)/2)+(T2/3)+0.25*((U2/4)+V2)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/20))+1</f>
-        <v>1.484843661971831</v>
+        <f t="shared" ref="AG2:AG15" si="15">(((P2-Q2+1.25*Q2)/2)+(T2/3)+0.25*((U2/4)+V2)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/20))+1</f>
+        <v>1.237547338935574</v>
       </c>
       <c r="AH2" s="66">
-        <f>(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/20))+1</f>
-        <v>1.4557943661971833</v>
+        <f t="shared" ref="AH2:AH15" si="16">(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/20))+1</f>
+        <v>1.2144380952380951</v>
       </c>
       <c r="AI2" s="62">
-        <f>(((P2-Q2+1.25*Q2+T2)/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
-        <v>1.5747723004694834</v>
+        <f t="shared" ref="AI2:AI15" si="17">(((P2-Q2+1.25*Q2+T2)/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
+        <v>1.3317521008403361</v>
       </c>
       <c r="AJ2" s="23">
-        <f>((P2/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
-        <v>1.4321666666666668</v>
+        <f t="shared" ref="AJ2:AJ15" si="18">((P2/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
+        <v>1.2014999999999998</v>
       </c>
       <c r="AK2" s="20">
-        <f>(((P2/2)+(1-W2)+(AD2/200)+(AA2/9)))/1.06</f>
-        <v>1.3668238993710693</v>
+        <f t="shared" ref="AK2:AK15" si="19">(((P2/2)+(1-W2)+(AD2/200)+(AA2/9)))/1.06</f>
+        <v>1.1358490566037736</v>
       </c>
       <c r="AL2" s="18">
-        <f>((P2/2)+(1-W2)+(AD2/200)+(AA2/9))</f>
-        <v>1.4488333333333336</v>
+        <f t="shared" ref="AL2:AL15" si="20">((P2/2)+(1-W2)+(AD2/200)+(AA2/9))</f>
+        <v>1.204</v>
       </c>
       <c r="AM2" s="15">
-        <f>((P2/2)+(1-W2)+(AD2/200))</f>
-        <v>1.4155000000000002</v>
+        <f t="shared" ref="AM2:AM15" si="21">((P2/2)+(1-W2)+(AD2/200))</f>
+        <v>1.1839999999999999</v>
       </c>
       <c r="AN2" s="68">
-        <f>(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/18))*10</f>
-        <v>4.5746103286384985</v>
+        <f t="shared" ref="AN2:AN15" si="22">(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/18))*10</f>
+        <v>2.1543809523809516</v>
       </c>
       <c r="AO2" s="10">
-        <f>(((P2-P16)-(W2-W16)+((AD2-AD16)/100))/2)*10</f>
-        <v>2.8455000000000004</v>
+        <f>(((P2-P12)-(W2-W12)+((AD2-AD12)/100))/2)*10</f>
+        <v>-0.60200000000000076</v>
       </c>
       <c r="AP2" s="2">
-        <f>(((P2-P16)-(W2-W16)+(AD2-AD16))/100)+1</f>
-        <v>1.1243071428571427</v>
+        <f>(((P2-P12)-(W2-W12)+(AD2-AD12))/100)+1</f>
+        <v>0.84</v>
       </c>
       <c r="AQ2" s="12">
-        <f>((P2-P16)-(W2-W16)+((AD2-AD16)/100))*10</f>
-        <v>5.6910000000000007</v>
+        <f>((P2-P12)-(W2-W12)+((AD2-AD12)/100))*10</f>
+        <v>-1.2040000000000015</v>
       </c>
       <c r="AR2" s="12">
-        <f>((P2-P16)-(W2-W16)+((AD2-AD16)/116))+1</f>
-        <v>1.5525738916256158</v>
+        <f>((P2-P12)-(W2-W12)+((AD2-AD12)/116))+1</f>
+        <v>0.90172413793103434</v>
       </c>
       <c r="AS2" s="5">
-        <f>(((P2-P16)-(W2-W16)+((AD2-AD16)/100))/2)+1</f>
-        <v>1.2845500000000001</v>
+        <f>(((P2-P12)-(W2-W12)+((AD2-AD12)/100))/2)+1</f>
+        <v>0.93979999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="34">
+        <v>87</v>
+      </c>
+      <c r="C3" s="34">
+        <v>38</v>
+      </c>
+      <c r="D3" s="34">
+        <v>40</v>
+      </c>
+      <c r="E3" s="34">
+        <v>70</v>
+      </c>
+      <c r="F3" s="34">
+        <v>24</v>
+      </c>
+      <c r="G3" s="34">
+        <v>6</v>
+      </c>
+      <c r="H3" s="34">
+        <v>12</v>
+      </c>
+      <c r="I3" s="34">
+        <v>65</v>
+      </c>
+      <c r="J3" s="34">
+        <v>6</v>
+      </c>
+      <c r="K3" s="34">
+        <v>0</v>
+      </c>
+      <c r="L3" s="34">
+        <v>384</v>
+      </c>
+      <c r="M3" s="34">
         <v>22</v>
       </c>
-      <c r="B3" s="29">
-        <v>44</v>
-      </c>
-      <c r="C3" s="29">
-        <v>19</v>
-      </c>
-      <c r="D3" s="29">
-        <v>22</v>
-      </c>
-      <c r="E3" s="29">
-        <v>36</v>
-      </c>
-      <c r="F3" s="29">
-        <v>8</v>
-      </c>
-      <c r="G3" s="29">
-        <v>2</v>
-      </c>
-      <c r="H3" s="29">
-        <v>4</v>
-      </c>
-      <c r="I3" s="29">
-        <v>41</v>
-      </c>
-      <c r="J3" s="29">
-        <v>5</v>
-      </c>
-      <c r="K3" s="29">
-        <v>0</v>
-      </c>
-      <c r="L3" s="29">
-        <v>180</v>
-      </c>
-      <c r="M3" s="29">
-        <v>18</v>
-      </c>
-      <c r="N3" s="29">
-        <v>5332</v>
-      </c>
-      <c r="O3" s="29">
-        <v>71</v>
-      </c>
-      <c r="P3" s="30">
+      <c r="N3" s="34">
+        <v>9576</v>
+      </c>
+      <c r="O3" s="34">
+        <v>119</v>
+      </c>
+      <c r="P3" s="35">
         <f t="shared" si="0"/>
-        <v>0.62</v>
-      </c>
-      <c r="Q3" s="52">
-        <f t="shared" ref="Q3:Q15" si="3">(D3/O3)</f>
-        <v>0.30985915492957744</v>
-      </c>
-      <c r="R3" s="52">
+        <v>0.73</v>
+      </c>
+      <c r="Q3" s="54">
         <f t="shared" si="1"/>
-        <v>50.704225352112672</v>
-      </c>
-      <c r="S3" s="30">
+        <v>0.33613445378151263</v>
+      </c>
+      <c r="R3" s="54">
         <f t="shared" si="2"/>
-        <v>61.11</v>
-      </c>
-      <c r="T3" s="52">
-        <f t="shared" ref="T3:T15" si="4">F3/O3</f>
-        <v>0.11267605633802817</v>
-      </c>
-      <c r="U3" s="52">
-        <f t="shared" ref="U3:U15" si="5">G3/O3</f>
-        <v>2.8169014084507043E-2</v>
-      </c>
-      <c r="V3" s="52">
-        <f t="shared" ref="V3:V15" si="6">H3/O3</f>
-        <v>5.6338028169014086E-2</v>
-      </c>
-      <c r="W3" s="30">
-        <f>ROUND(IMDIV(I3,O3),2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="X3" s="30">
-        <f>ROUND(IMDIV(J3,O3),2)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Y3" s="30">
-        <f>ROUND(IMDIV(K3,O3),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="30">
-        <f>ROUND(IMDIV(L3,O3),2)</f>
-        <v>2.54</v>
-      </c>
-      <c r="AA3" s="30">
-        <f>ROUND(IMDIV(M3,O3),2)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AB3" s="30">
-        <f>ROUND(IMDIV(B3,I3),2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="AC3" s="30">
-        <f>ROUND(IMDIV(C3,B3),4)*100</f>
-        <v>43.18</v>
-      </c>
-      <c r="AD3" s="30">
-        <f>ROUND(IMDIV(N3,O3),2)</f>
-        <v>75.099999999999994</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF3" s="29" t="s">
+        <v>58.82352941176471</v>
+      </c>
+      <c r="S3" s="35">
+        <f t="shared" si="3"/>
+        <v>57.14</v>
+      </c>
+      <c r="T3" s="54">
+        <f t="shared" si="4"/>
+        <v>0.20168067226890757</v>
+      </c>
+      <c r="U3" s="54">
+        <f t="shared" si="5"/>
+        <v>5.0420168067226892E-2</v>
+      </c>
+      <c r="V3" s="54">
+        <f t="shared" si="6"/>
+        <v>0.10084033613445378</v>
+      </c>
+      <c r="W3" s="35">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X3" s="35">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="Y3" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="35">
+        <f t="shared" si="10"/>
+        <v>3.23</v>
+      </c>
+      <c r="AA3" s="35">
+        <f t="shared" si="11"/>
+        <v>0.18</v>
+      </c>
+      <c r="AB3" s="35">
+        <f t="shared" si="12"/>
+        <v>1.34</v>
+      </c>
+      <c r="AC3" s="35">
+        <f t="shared" si="13"/>
+        <v>43.68</v>
+      </c>
+      <c r="AD3" s="35">
+        <f t="shared" si="14"/>
+        <v>80.47</v>
+      </c>
+      <c r="AE3" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF3" s="34" t="s">
         <v>28</v>
       </c>
       <c r="AG3" s="76">
-        <f t="shared" ref="AG3:AG15" si="7">(((P3-Q3+1.25*Q3)/2)+(T3/3)+0.25*((U3/4)+V3)-(W3-0.2*X3+0.5*Y3)+(AD3/250)+(AA3/20))+1</f>
-        <v>1.1490361502347417</v>
+        <f t="shared" si="15"/>
+        <v>1.2934850420168067</v>
       </c>
       <c r="AH3" s="66">
-        <f>(((P3-Q3+1.25*Q3)/2)+(T3/3)-(W3-0.2*X3+0.5*Y3)+(AD3/250)+(AA3/20))+1</f>
-        <v>1.1331910798122067</v>
+        <f t="shared" si="16"/>
+        <v>1.2651236974789914</v>
       </c>
       <c r="AI3" s="62">
-        <f>(((P3-Q3+1.25*Q3+T3)/2)+(1-(W3-0.25*X3+0.5*Y3))+(AD3/200)+(AA3/18))</f>
-        <v>1.2319593114241001</v>
+        <f t="shared" si="17"/>
+        <v>1.3827071428571427</v>
       </c>
       <c r="AJ3" s="23">
-        <f>((P3/2)+(1-(W3-0.25*X3+0.5*Y3))+(AD3/200)+(AA3/18))</f>
-        <v>1.1368888888888888</v>
+        <f t="shared" si="18"/>
+        <v>1.2398499999999999</v>
       </c>
       <c r="AK3" s="20">
-        <f>(((P3/2)+(1-W3)+(AD3/200)+(AA3/9)))/1.06</f>
-        <v>1.0691299790356392</v>
+        <f t="shared" si="19"/>
+        <v>1.1673113207547168</v>
       </c>
       <c r="AL3" s="18">
-        <f>((P3/2)+(1-W3)+(AD3/200)+(AA3/9))</f>
-        <v>1.1332777777777776</v>
+        <f t="shared" si="20"/>
+        <v>1.2373499999999999</v>
       </c>
       <c r="AM3" s="15">
-        <f>((P3/2)+(1-W3)+(AD3/200))</f>
-        <v>1.1054999999999999</v>
+        <f t="shared" si="21"/>
+        <v>1.2173499999999999</v>
       </c>
       <c r="AN3" s="68">
-        <f>(((P3-Q3+1.25*Q3)/2)+(T3/3)-(W3-0.2*X3+0.5*Y3)+(AD3/250)+(AA3/18))*10</f>
-        <v>1.3457996870109552</v>
+        <f t="shared" si="22"/>
+        <v>2.6612369747899156</v>
       </c>
       <c r="AO3" s="10">
-        <f>(((P3-P16)-(W3-W16)+((AD3-AD16)/100))/2)*10</f>
-        <v>0.59550000000000025</v>
+        <f>(((P3-P12)-(W3-W12)+((AD3-AD12)/100))/2)*10</f>
+        <v>-0.31850000000000045</v>
       </c>
       <c r="AP3" s="2">
-        <f>(((P3-P16)-(W3-W16)+(AD3-AD16))/100)+1</f>
-        <v>1.0505071428571429</v>
+        <f>(((P3-P12)-(W3-W12)+(AD3-AD12))/100)+1</f>
+        <v>0.84719999999999995</v>
       </c>
       <c r="AQ3" s="12">
-        <f>((P3-P16)-(W3-W16)+((AD3-AD16)/100))*10</f>
-        <v>1.1910000000000005</v>
+        <f>((P3-P12)-(W3-W12)+((AD3-AD12)/100))*10</f>
+        <v>-0.6370000000000009</v>
       </c>
       <c r="AR3" s="12">
-        <f>((P3-P16)-(W3-W16)+((AD3-AD16)/116))+1</f>
-        <v>1.112229064039409</v>
+        <f>((P3-P12)-(W3-W12)+((AD3-AD12)/116))+1</f>
+        <v>0.95749999999999991</v>
       </c>
       <c r="AS3" s="5">
-        <f>(((P3-P16)-(W3-W16)+((AD3-AD16)/100))/2)+1</f>
-        <v>1.05955</v>
+        <f>(((P3-P12)-(W3-W12)+((AD3-AD12)/100))/2)+1</f>
+        <v>0.96814999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="29">
+        <v>105</v>
+      </c>
+      <c r="C4" s="29">
+        <v>52</v>
+      </c>
+      <c r="D4" s="29">
+        <v>38</v>
+      </c>
+      <c r="E4" s="29">
+        <v>58</v>
+      </c>
+      <c r="F4" s="29">
+        <v>25</v>
+      </c>
+      <c r="G4" s="29">
+        <v>17</v>
+      </c>
+      <c r="H4" s="29">
+        <v>10</v>
+      </c>
+      <c r="I4" s="29">
+        <v>66</v>
+      </c>
+      <c r="J4" s="29">
+        <v>0</v>
+      </c>
+      <c r="K4" s="29">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29">
+        <v>398</v>
+      </c>
+      <c r="M4" s="29">
+        <v>30</v>
+      </c>
+      <c r="N4" s="29">
+        <v>10873</v>
+      </c>
+      <c r="O4" s="29">
+        <v>135</v>
+      </c>
+      <c r="P4" s="30">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="Q4" s="52">
+        <f t="shared" si="1"/>
+        <v>0.2814814814814815</v>
+      </c>
+      <c r="R4" s="52">
+        <f t="shared" si="2"/>
+        <v>42.962962962962962</v>
+      </c>
+      <c r="S4" s="30">
+        <f t="shared" si="3"/>
+        <v>65.52</v>
+      </c>
+      <c r="T4" s="52">
+        <f t="shared" si="4"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="U4" s="52">
+        <f t="shared" si="5"/>
+        <v>0.12592592592592591</v>
+      </c>
+      <c r="V4" s="52">
+        <f t="shared" si="6"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="W4" s="30">
+        <f t="shared" si="7"/>
+        <v>0.49</v>
+      </c>
+      <c r="X4" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="30">
+        <f t="shared" si="10"/>
+        <v>2.95</v>
+      </c>
+      <c r="AA4" s="30">
+        <f t="shared" si="11"/>
+        <v>0.22</v>
+      </c>
+      <c r="AB4" s="30">
+        <f t="shared" si="12"/>
+        <v>1.59</v>
+      </c>
+      <c r="AC4" s="30">
+        <f t="shared" si="13"/>
+        <v>49.519999999999996</v>
+      </c>
+      <c r="AD4" s="30">
+        <f t="shared" si="14"/>
+        <v>80.540000000000006</v>
+      </c>
+      <c r="AE4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="76">
+        <f t="shared" si="15"/>
+        <v>1.3564624691358025</v>
+      </c>
+      <c r="AH4" s="66">
+        <f t="shared" si="16"/>
+        <v>1.3300735802469137</v>
+      </c>
+      <c r="AI4" s="62">
+        <f t="shared" si="17"/>
+        <v>1.4426999999999999</v>
+      </c>
+      <c r="AJ4" s="23">
+        <f t="shared" si="18"/>
+        <v>1.3149222222222223</v>
+      </c>
+      <c r="AK4" s="20">
+        <f t="shared" si="19"/>
+        <v>1.2520230607966458</v>
+      </c>
+      <c r="AL4" s="18">
+        <f t="shared" si="20"/>
+        <v>1.3271444444444447</v>
+      </c>
+      <c r="AM4" s="15">
+        <f t="shared" si="21"/>
+        <v>1.3027000000000002</v>
+      </c>
+      <c r="AN4" s="68">
+        <f t="shared" si="22"/>
+        <v>3.3129580246913588</v>
+      </c>
+      <c r="AO4" s="10">
+        <f>(((P4-P18)-(W4-W18)+((AD4-AD18)/100))/2)*10</f>
+        <v>5.4770000000000003</v>
+      </c>
+      <c r="AP4" s="2">
+        <f>(((P4-P18)-(W4-W18)+(AD4-AD18))/100)+1</f>
+        <v>1.8083</v>
+      </c>
+      <c r="AQ4" s="12">
+        <f>((P4-P18)-(W4-W18)+((AD4-AD18)/100))*10</f>
+        <v>10.954000000000001</v>
+      </c>
+      <c r="AR4" s="12">
+        <f>((P4-P18)-(W4-W18)+((AD4-AD18)/116))+1</f>
+        <v>1.9843103448275863</v>
+      </c>
+      <c r="AS4" s="5">
+        <f>(((P4-P18)-(W4-W18)+((AD4-AD18)/100))/2)+1</f>
+        <v>1.5477000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="29">
+        <v>80</v>
+      </c>
+      <c r="C5" s="29">
+        <v>34</v>
+      </c>
+      <c r="D5" s="29">
+        <v>39</v>
+      </c>
+      <c r="E5" s="29">
+        <v>77</v>
+      </c>
+      <c r="F5" s="29">
+        <v>16</v>
+      </c>
+      <c r="G5" s="29">
+        <v>6</v>
+      </c>
+      <c r="H5" s="29">
+        <v>5</v>
+      </c>
+      <c r="I5" s="29">
+        <v>82</v>
+      </c>
+      <c r="J5" s="29">
+        <v>5</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0</v>
+      </c>
+      <c r="L5" s="29">
+        <v>343</v>
+      </c>
+      <c r="M5" s="29">
         <v>27</v>
       </c>
-      <c r="B4" s="31">
+      <c r="N5" s="29">
+        <v>9656</v>
+      </c>
+      <c r="O5" s="29">
+        <v>135</v>
+      </c>
+      <c r="P5" s="30">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="Q5" s="52">
+        <f t="shared" si="1"/>
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="R5" s="52">
+        <f t="shared" si="2"/>
+        <v>57.037037037037038</v>
+      </c>
+      <c r="S5" s="30">
+        <f t="shared" si="3"/>
+        <v>50.65</v>
+      </c>
+      <c r="T5" s="52">
+        <f t="shared" si="4"/>
+        <v>0.11851851851851852</v>
+      </c>
+      <c r="U5" s="52">
+        <f t="shared" si="5"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="V5" s="52">
+        <f t="shared" si="6"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="W5" s="30">
+        <f t="shared" si="7"/>
+        <v>0.61</v>
+      </c>
+      <c r="X5" s="30">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="Y5" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="30">
+        <f t="shared" si="10"/>
+        <v>2.54</v>
+      </c>
+      <c r="AA5" s="30">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="AB5" s="30">
+        <f t="shared" si="12"/>
+        <v>0.98</v>
+      </c>
+      <c r="AC5" s="30">
+        <f t="shared" si="13"/>
+        <v>42.5</v>
+      </c>
+      <c r="AD5" s="30">
+        <f t="shared" si="14"/>
+        <v>71.53</v>
+      </c>
+      <c r="AE5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG5" s="76">
+        <f t="shared" si="15"/>
+        <v>1.0767743209876544</v>
+      </c>
+      <c r="AH5" s="66">
+        <f t="shared" si="16"/>
+        <v>1.0647372839506173</v>
+      </c>
+      <c r="AI5" s="62">
+        <f t="shared" si="17"/>
+        <v>1.1591314814814815</v>
+      </c>
+      <c r="AJ5" s="23">
+        <f t="shared" si="18"/>
+        <v>1.0637611111111112</v>
+      </c>
+      <c r="AK5" s="20">
+        <f t="shared" si="19"/>
+        <v>1.0045964360587001</v>
+      </c>
+      <c r="AL5" s="18">
+        <f t="shared" si="20"/>
+        <v>1.0648722222222222</v>
+      </c>
+      <c r="AM5" s="15">
+        <f t="shared" si="21"/>
+        <v>1.0426500000000001</v>
+      </c>
+      <c r="AN5" s="68">
+        <f t="shared" si="22"/>
+        <v>0.65848395061728393</v>
+      </c>
+      <c r="AO5" s="10">
+        <f>(((P5-P18)-(W5-W18)+((AD5-AD18)/100))/2)*10</f>
+        <v>3.4765000000000001</v>
+      </c>
+      <c r="AP5" s="2">
+        <f>(((P5-P18)-(W5-W18)+(AD5-AD18))/100)+1</f>
+        <v>1.7151000000000001</v>
+      </c>
+      <c r="AQ5" s="12">
+        <f>((P5-P18)-(W5-W18)+((AD5-AD18)/100))*10</f>
+        <v>6.9530000000000003</v>
+      </c>
+      <c r="AR5" s="12">
+        <f>((P5-P18)-(W5-W18)+((AD5-AD18)/116))+1</f>
+        <v>1.5966379310344827</v>
+      </c>
+      <c r="AS5" s="5">
+        <f>(((P5-P18)-(W5-W18)+((AD5-AD18)/100))/2)+1</f>
+        <v>1.34765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="37">
+        <v>116</v>
+      </c>
+      <c r="C6" s="37">
+        <v>40</v>
+      </c>
+      <c r="D6" s="37">
+        <v>40</v>
+      </c>
+      <c r="E6" s="37">
+        <v>72</v>
+      </c>
+      <c r="F6" s="37">
+        <v>31</v>
+      </c>
+      <c r="G6" s="37">
+        <v>14</v>
+      </c>
+      <c r="H6" s="37">
+        <v>14</v>
+      </c>
+      <c r="I6" s="37">
+        <v>83</v>
+      </c>
+      <c r="J6" s="37">
+        <v>2</v>
+      </c>
+      <c r="K6" s="37">
+        <v>1</v>
+      </c>
+      <c r="L6" s="37">
+        <v>241</v>
+      </c>
+      <c r="M6" s="37">
+        <v>7</v>
+      </c>
+      <c r="N6" s="37">
+        <v>12488</v>
+      </c>
+      <c r="O6" s="37">
+        <v>150</v>
+      </c>
+      <c r="P6" s="38">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="Q6" s="55">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="R6" s="55">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="S6" s="38">
+        <f t="shared" si="3"/>
+        <v>55.56</v>
+      </c>
+      <c r="T6" s="55">
+        <f t="shared" si="4"/>
+        <v>0.20666666666666667</v>
+      </c>
+      <c r="U6" s="55">
+        <f t="shared" si="5"/>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="V6" s="55">
+        <f t="shared" si="6"/>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="W6" s="38">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X6" s="38">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="Y6" s="38">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="Z6" s="38">
+        <f t="shared" si="10"/>
+        <v>1.61</v>
+      </c>
+      <c r="AA6" s="38">
+        <f t="shared" si="11"/>
+        <v>0.05</v>
+      </c>
+      <c r="AB6" s="38">
+        <f t="shared" si="12"/>
+        <v>1.4</v>
+      </c>
+      <c r="AC6" s="38">
+        <f t="shared" si="13"/>
+        <v>34.479999999999997</v>
+      </c>
+      <c r="AD6" s="38">
+        <f t="shared" si="14"/>
+        <v>83.25</v>
+      </c>
+      <c r="AE6" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF6" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG6" s="76">
+        <f t="shared" si="15"/>
+        <v>1.298888888888889</v>
+      </c>
+      <c r="AH6" s="66">
+        <f t="shared" si="16"/>
+        <v>1.2697222222222222</v>
+      </c>
+      <c r="AI6" s="62">
+        <f t="shared" si="17"/>
+        <v>1.3881944444444443</v>
+      </c>
+      <c r="AJ6" s="23">
+        <f t="shared" si="18"/>
+        <v>1.2515277777777776</v>
+      </c>
+      <c r="AK6" s="20">
+        <f t="shared" si="19"/>
+        <v>1.1856656184486372</v>
+      </c>
+      <c r="AL6" s="18">
+        <f t="shared" si="20"/>
+        <v>1.2568055555555555</v>
+      </c>
+      <c r="AM6" s="15">
+        <f t="shared" si="21"/>
+        <v>1.25125</v>
+      </c>
+      <c r="AN6" s="68">
+        <f t="shared" si="22"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="AO6" s="10">
+        <f>(((P6-P14)-(W6-W14)+((AD6-AD14)/100))/2)*10</f>
+        <v>5.6494999999999997</v>
+      </c>
+      <c r="AP6" s="2">
+        <f>(((P6-P14)-(W6-W14)+(AD6-AD14))/100)+1</f>
+        <v>1.3181</v>
+      </c>
+      <c r="AQ6" s="12">
+        <f>((P6-P14)-(W6-W14)+((AD6-AD14)/100))*10</f>
+        <v>11.298999999999999</v>
+      </c>
+      <c r="AR6" s="12">
+        <f>((P6-P14)-(W6-W14)+((AD6-AD14)/116))+1</f>
+        <v>2.0871551724137931</v>
+      </c>
+      <c r="AS6" s="5">
+        <f>(((P6-P14)-(W6-W14)+((AD6-AD14)/100))/2)+1</f>
+        <v>1.5649500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="37">
+        <v>76</v>
+      </c>
+      <c r="C7" s="37">
+        <v>38</v>
+      </c>
+      <c r="D7" s="37">
+        <v>36</v>
+      </c>
+      <c r="E7" s="37">
+        <v>78</v>
+      </c>
+      <c r="F7" s="37">
+        <v>18</v>
+      </c>
+      <c r="G7" s="37">
+        <v>8</v>
+      </c>
+      <c r="H7" s="37">
+        <v>6</v>
+      </c>
+      <c r="I7" s="37">
+        <v>88</v>
+      </c>
+      <c r="J7" s="37">
+        <v>9</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0</v>
+      </c>
+      <c r="L7" s="37">
+        <v>162</v>
+      </c>
+      <c r="M7" s="37">
+        <v>15</v>
+      </c>
+      <c r="N7" s="37">
+        <v>9484</v>
+      </c>
+      <c r="O7" s="37">
+        <v>150</v>
+      </c>
+      <c r="P7" s="38">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="Q7" s="55">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="R7" s="55">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="S7" s="38">
+        <f t="shared" si="3"/>
+        <v>46.15</v>
+      </c>
+      <c r="T7" s="55">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+      <c r="U7" s="55">
+        <f t="shared" si="5"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="V7" s="55">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="W7" s="38">
+        <f t="shared" si="7"/>
+        <v>0.59</v>
+      </c>
+      <c r="X7" s="38">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="Y7" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="38">
+        <f t="shared" si="10"/>
+        <v>1.08</v>
+      </c>
+      <c r="AA7" s="38">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB7" s="38">
+        <f t="shared" si="12"/>
+        <v>0.86</v>
+      </c>
+      <c r="AC7" s="38">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="AD7" s="38">
+        <f t="shared" si="14"/>
+        <v>63.23</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF7" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="76">
+        <f t="shared" si="15"/>
+        <v>1.0182533333333332</v>
+      </c>
+      <c r="AH7" s="66">
+        <f t="shared" si="16"/>
+        <v>1.00492</v>
+      </c>
+      <c r="AI7" s="62">
+        <f t="shared" si="17"/>
+        <v>1.0917055555555555</v>
+      </c>
+      <c r="AJ7" s="23">
+        <f t="shared" si="18"/>
+        <v>1.0017055555555556</v>
+      </c>
+      <c r="AK7" s="20">
+        <f t="shared" si="19"/>
+        <v>0.9360953878406707</v>
+      </c>
+      <c r="AL7" s="18">
+        <f t="shared" si="20"/>
+        <v>0.99226111111111104</v>
+      </c>
+      <c r="AM7" s="15">
+        <f t="shared" si="21"/>
+        <v>0.98114999999999997</v>
+      </c>
+      <c r="AN7" s="68">
+        <f t="shared" si="22"/>
+        <v>5.475555555555587E-2</v>
+      </c>
+      <c r="AO7" s="10">
+        <f>(((P7-P14)-(W7-W14)+((AD7-AD14)/100))/2)*10</f>
+        <v>3.1485000000000003</v>
+      </c>
+      <c r="AP7" s="2">
+        <f>(((P7-P14)-(W7-W14)+(AD7-AD14))/100)+1</f>
+        <v>1.1149</v>
+      </c>
+      <c r="AQ7" s="12">
+        <f>((P7-P14)-(W7-W14)+((AD7-AD14)/100))*10</f>
+        <v>6.2970000000000006</v>
+      </c>
+      <c r="AR7" s="12">
+        <f>((P7-P14)-(W7-W14)+((AD7-AD14)/116))+1</f>
+        <v>1.6145689655172415</v>
+      </c>
+      <c r="AS7" s="5">
+        <f>(((P7-P14)-(W7-W14)+((AD7-AD14)/100))/2)+1</f>
+        <v>1.3148500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="31">
         <v>105</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C8" s="31">
         <v>52</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D8" s="31">
         <v>52</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E8" s="31">
         <v>85</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F8" s="31">
         <v>26</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G8" s="31">
         <v>15</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H8" s="31">
         <v>6</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I8" s="31">
         <v>78</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J8" s="31">
         <v>4</v>
       </c>
-      <c r="K4" s="31">
-        <v>0</v>
-      </c>
-      <c r="L4" s="31">
+      <c r="K8" s="31">
+        <v>0</v>
+      </c>
+      <c r="L8" s="31">
         <v>1160</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M8" s="31">
         <v>25</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N8" s="31">
         <v>12319</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O8" s="31">
         <v>139</v>
       </c>
-      <c r="P4" s="32">
+      <c r="P8" s="32">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="Q4" s="53">
+      <c r="Q8" s="53">
+        <f t="shared" si="1"/>
+        <v>0.37410071942446044</v>
+      </c>
+      <c r="R8" s="53">
+        <f t="shared" si="2"/>
+        <v>61.151079136690647</v>
+      </c>
+      <c r="S8" s="32">
         <f t="shared" si="3"/>
-        <v>0.37410071942446044</v>
-      </c>
-      <c r="R4" s="53">
-        <f t="shared" si="1"/>
-        <v>61.151079136690647</v>
-      </c>
-      <c r="S4" s="32">
-        <f t="shared" si="2"/>
         <v>61.18</v>
       </c>
-      <c r="T4" s="53">
+      <c r="T8" s="53">
         <f t="shared" si="4"/>
         <v>0.18705035971223022</v>
       </c>
-      <c r="U4" s="53">
+      <c r="U8" s="53">
         <f t="shared" si="5"/>
         <v>0.1079136690647482</v>
       </c>
-      <c r="V4" s="53">
+      <c r="V8" s="53">
         <f t="shared" si="6"/>
         <v>4.3165467625899283E-2</v>
       </c>
-      <c r="W4" s="32">
-        <f>ROUND(IMDIV(I4,O4),2)</f>
+      <c r="W8" s="32">
+        <f t="shared" si="7"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="X4" s="32">
-        <f>ROUND(IMDIV(J4,O4),2)</f>
+      <c r="X8" s="32">
+        <f t="shared" si="8"/>
         <v>0.03</v>
       </c>
-      <c r="Y4" s="32">
-        <f>ROUND(IMDIV(K4,O4),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="32">
-        <f>ROUND(IMDIV(L4,O4),2)</f>
+      <c r="Y8" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="32">
+        <f t="shared" si="10"/>
         <v>8.35</v>
       </c>
-      <c r="AA4" s="32">
-        <f>ROUND(IMDIV(M4,O4),2)</f>
+      <c r="AA8" s="32">
+        <f t="shared" si="11"/>
         <v>0.18</v>
       </c>
-      <c r="AB4" s="32">
-        <f>ROUND(IMDIV(B4,I4),2)</f>
+      <c r="AB8" s="32">
+        <f t="shared" si="12"/>
         <v>1.35</v>
       </c>
-      <c r="AC4" s="32">
-        <f>ROUND(IMDIV(C4,B4),4)*100</f>
+      <c r="AC8" s="32">
+        <f t="shared" si="13"/>
         <v>49.519999999999996</v>
       </c>
-      <c r="AD4" s="32">
-        <f>ROUND(IMDIV(N4,O4),2)</f>
+      <c r="AD8" s="32">
+        <f t="shared" si="14"/>
         <v>88.63</v>
       </c>
-      <c r="AE4" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG4" s="76">
-        <f t="shared" si="7"/>
+      <c r="AE8" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF8" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG8" s="76">
+        <f t="shared" si="15"/>
         <v>1.3161686810551558</v>
       </c>
-      <c r="AH4" s="66">
-        <f>(((P4-Q4+1.25*Q4)/2)+(T4/3)-(W4-0.2*X4+0.5*Y4)+(AD4/250)+(AA4/20))+1</f>
+      <c r="AH8" s="66">
+        <f t="shared" si="16"/>
         <v>1.2986327098321342</v>
       </c>
-      <c r="AI4" s="62">
-        <f>(((P4-Q4+1.25*Q4+T4)/2)+(1-(W4-0.25*X4+0.5*Y4))+(AD4/200)+(AA4/18))</f>
+      <c r="AI8" s="62">
+        <f t="shared" si="17"/>
         <v>1.4209377697841725</v>
       </c>
-      <c r="AJ4" s="23">
-        <f>((P4/2)+(1-(W4-0.25*X4+0.5*Y4))+(AD4/200)+(AA4/18))</f>
+      <c r="AJ8" s="23">
+        <f t="shared" si="18"/>
         <v>1.2806499999999998</v>
       </c>
-      <c r="AK4" s="20">
-        <f>(((P4/2)+(1-W4)+(AD4/200)+(AA4/9)))/1.06</f>
+      <c r="AK8" s="20">
+        <f t="shared" si="19"/>
         <v>1.2105188679245282</v>
       </c>
-      <c r="AL4" s="18">
-        <f>((P4/2)+(1-W4)+(AD4/200)+(AA4/9))</f>
+      <c r="AL8" s="18">
+        <f t="shared" si="20"/>
         <v>1.28315</v>
       </c>
-      <c r="AM4" s="15">
-        <f>((P4/2)+(1-W4)+(AD4/200))</f>
+      <c r="AM8" s="15">
+        <f t="shared" si="21"/>
         <v>1.26315</v>
       </c>
-      <c r="AN4" s="68">
-        <f>(((P4-Q4+1.25*Q4)/2)+(T4/3)-(W4-0.2*X4+0.5*Y4)+(AD4/250)+(AA4/18))*10</f>
+      <c r="AN8" s="68">
+        <f t="shared" si="22"/>
         <v>2.9963270983213426</v>
       </c>
-      <c r="AO4" s="10">
-        <f>(((P4-P16)-(W4-W16)+((AD4-AD16)/100))/2)*10</f>
-        <v>2.0720000000000001</v>
-      </c>
-      <c r="AP4" s="2">
-        <f>(((P4-P16)-(W4-W16)+(AD4-AD16))/100)+1</f>
-        <v>1.1874071428571429</v>
-      </c>
-      <c r="AQ4" s="12">
-        <f>((P4-P16)-(W4-W16)+((AD4-AD16)/100))*10</f>
-        <v>4.1440000000000001</v>
-      </c>
-      <c r="AR4" s="12">
-        <f>((P4-P16)-(W4-W16)+((AD4-AD16)/116))+1</f>
-        <v>1.3888669950738917</v>
-      </c>
-      <c r="AS4" s="5">
-        <f>(((P4-P16)-(W4-W16)+((AD4-AD16)/100))/2)+1</f>
-        <v>1.2072000000000001</v>
+      <c r="AO8" s="10">
+        <f>(((P8-P20)-(W8-W20)+((AD8-AD20)/100))/2)*10</f>
+        <v>0.10649999999999958</v>
+      </c>
+      <c r="AP8" s="2">
+        <f>(((P8-P20)-(W8-W20)+(AD8-AD20))/100)+1</f>
+        <v>1.0708</v>
+      </c>
+      <c r="AQ8" s="12">
+        <f>((P8-P20)-(W8-W20)+((AD8-AD20)/100))*10</f>
+        <v>0.21299999999999916</v>
+      </c>
+      <c r="AR8" s="12">
+        <f>((P8-P20)-(W8-W20)+((AD8-AD20)/116))+1</f>
+        <v>1.0114655172413791</v>
+      </c>
+      <c r="AS8" s="5">
+        <f>(((P8-P20)-(W8-W20)+((AD8-AD20)/100))/2)+1</f>
+        <v>1.01065</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B9" s="31">
         <v>73</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C9" s="31">
         <v>37</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D9" s="31">
         <v>27</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E9" s="31">
         <v>54</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F9" s="31">
         <v>10</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G9" s="31">
         <v>7</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H9" s="31">
         <v>6</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I9" s="31">
         <v>86</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J9" s="31">
         <v>5</v>
       </c>
-      <c r="K5" s="31">
-        <v>0</v>
-      </c>
-      <c r="L5" s="31">
+      <c r="K9" s="31">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31">
         <v>353</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M9" s="31">
         <v>27</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N9" s="31">
         <v>7930</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O9" s="31">
         <v>139</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P9" s="32">
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
-      <c r="Q5" s="53">
+      <c r="Q9" s="53">
+        <f t="shared" si="1"/>
+        <v>0.19424460431654678</v>
+      </c>
+      <c r="R9" s="53">
+        <f t="shared" si="2"/>
+        <v>38.848920863309353</v>
+      </c>
+      <c r="S9" s="32">
         <f t="shared" si="3"/>
-        <v>0.19424460431654678</v>
-      </c>
-      <c r="R5" s="53">
-        <f t="shared" si="1"/>
-        <v>38.848920863309353</v>
-      </c>
-      <c r="S5" s="32">
-        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="T5" s="53">
+      <c r="T9" s="53">
         <f t="shared" si="4"/>
         <v>7.1942446043165464E-2</v>
       </c>
-      <c r="U5" s="53">
+      <c r="U9" s="53">
         <f t="shared" si="5"/>
         <v>5.0359712230215826E-2</v>
       </c>
-      <c r="V5" s="53">
+      <c r="V9" s="53">
         <f t="shared" si="6"/>
         <v>4.3165467625899283E-2</v>
       </c>
-      <c r="W5" s="32">
-        <f>ROUND(IMDIV(I5,O5),2)</f>
+      <c r="W9" s="32">
+        <f t="shared" si="7"/>
         <v>0.62</v>
       </c>
-      <c r="X5" s="32">
-        <f>ROUND(IMDIV(J5,O5),2)</f>
+      <c r="X9" s="32">
+        <f t="shared" si="8"/>
         <v>0.04</v>
       </c>
-      <c r="Y5" s="32">
-        <f>ROUND(IMDIV(K5,O5),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="32">
-        <f>ROUND(IMDIV(L5,O5),2)</f>
+      <c r="Y9" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="32">
+        <f t="shared" si="10"/>
         <v>2.54</v>
       </c>
-      <c r="AA5" s="32">
-        <f>ROUND(IMDIV(M5,O5),2)</f>
+      <c r="AA9" s="32">
+        <f t="shared" si="11"/>
         <v>0.19</v>
       </c>
-      <c r="AB5" s="32">
-        <f>ROUND(IMDIV(B5,I5),2)</f>
+      <c r="AB9" s="32">
+        <f t="shared" si="12"/>
         <v>0.85</v>
       </c>
-      <c r="AC5" s="32">
-        <f>ROUND(IMDIV(C5,B5),4)*100</f>
+      <c r="AC9" s="32">
+        <f t="shared" si="13"/>
         <v>50.68</v>
       </c>
-      <c r="AD5" s="32">
-        <f>ROUND(IMDIV(N5,O5),2)</f>
+      <c r="AD9" s="32">
+        <f t="shared" si="14"/>
         <v>57.05</v>
       </c>
-      <c r="AE5" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" s="31" t="s">
+      <c r="AE9" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AG5" s="76">
-        <f t="shared" si="7"/>
+      <c r="AG9" s="76">
+        <f t="shared" si="15"/>
         <v>0.95290023980815353</v>
       </c>
-      <c r="AH5" s="66">
-        <f>(((P5-Q5+1.25*Q5)/2)+(T5/3)-(W5-0.2*X5+0.5*Y5)+(AD5/250)+(AA5/20))+1</f>
+      <c r="AH9" s="66">
+        <f t="shared" si="16"/>
         <v>0.93896139088729025</v>
       </c>
-      <c r="AI5" s="62">
-        <f>(((P5-Q5+1.25*Q5+T5)/2)+(1-(W5-0.25*X5+0.5*Y5))+(AD5/200)+(AA5/18))</f>
+      <c r="AI9" s="62">
+        <f t="shared" si="17"/>
         <v>1.0110573541167067</v>
       </c>
-      <c r="AJ5" s="23">
-        <f>((P5/2)+(1-(W5-0.25*X5+0.5*Y5))+(AD5/200)+(AA5/18))</f>
+      <c r="AJ9" s="23">
+        <f t="shared" si="18"/>
         <v>0.95080555555555557</v>
       </c>
-      <c r="AK5" s="20">
-        <f>(((P5/2)+(1-W5)+(AD5/200)+(AA5/9)))/1.06</f>
+      <c r="AK9" s="20">
+        <f t="shared" si="19"/>
         <v>0.8975104821802935</v>
       </c>
-      <c r="AL5" s="18">
-        <f>((P5/2)+(1-W5)+(AD5/200)+(AA5/9))</f>
+      <c r="AL9" s="18">
+        <f t="shared" si="20"/>
         <v>0.9513611111111111</v>
       </c>
-      <c r="AM5" s="15">
-        <f>((P5/2)+(1-W5)+(AD5/200))</f>
+      <c r="AM9" s="15">
+        <f t="shared" si="21"/>
         <v>0.93025000000000002</v>
       </c>
-      <c r="AN5" s="68">
-        <f>(((P5-Q5+1.25*Q5)/2)+(T5/3)-(W5-0.2*X5+0.5*Y5)+(AD5/250)+(AA5/18))*10</f>
+      <c r="AN9" s="68">
+        <f t="shared" si="22"/>
         <v>-0.59983053557154231</v>
       </c>
-      <c r="AO5" s="10">
-        <f>(((P5-P16)-(W5-W16)+((AD5-AD16)/100))/2)*10</f>
-        <v>-0.95699999999999963</v>
-      </c>
-      <c r="AP5" s="2">
-        <f>(((P5-P16)-(W5-W16)+(AD5-AD16))/100)+1</f>
-        <v>0.8687071428571429</v>
-      </c>
-      <c r="AQ5" s="12">
-        <f>((P5-P16)-(W5-W16)+((AD5-AD16)/100))*10</f>
-        <v>-1.9139999999999993</v>
-      </c>
-      <c r="AR5" s="12">
-        <f>((P5-P16)-(W5-W16)+((AD5-AD16)/116))+1</f>
-        <v>0.82662561576354687</v>
-      </c>
-      <c r="AS5" s="5">
-        <f>(((P5-P16)-(W5-W16)+((AD5-AD16)/100))/2)+1</f>
-        <v>0.90429999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="34">
-        <v>82</v>
-      </c>
-      <c r="C6" s="34">
-        <v>51</v>
-      </c>
-      <c r="D6" s="34">
-        <v>24</v>
-      </c>
-      <c r="E6" s="34">
-        <v>49</v>
-      </c>
-      <c r="F6" s="34">
-        <v>25</v>
-      </c>
-      <c r="G6" s="34">
-        <v>8</v>
-      </c>
-      <c r="H6" s="34">
-        <v>9</v>
-      </c>
-      <c r="I6" s="34">
-        <v>67</v>
-      </c>
-      <c r="J6" s="34">
-        <v>3</v>
-      </c>
-      <c r="K6" s="34">
-        <v>0</v>
-      </c>
-      <c r="L6" s="34">
-        <v>506</v>
-      </c>
-      <c r="M6" s="34">
-        <v>21</v>
-      </c>
-      <c r="N6" s="34">
-        <v>9496</v>
-      </c>
-      <c r="O6" s="34">
-        <v>119</v>
-      </c>
-      <c r="P6" s="35">
-        <f t="shared" si="0"/>
-        <v>0.69</v>
-      </c>
-      <c r="Q6" s="54">
-        <f t="shared" si="3"/>
-        <v>0.20168067226890757</v>
-      </c>
-      <c r="R6" s="54">
-        <f t="shared" si="1"/>
-        <v>41.17647058823529</v>
-      </c>
-      <c r="S6" s="35">
-        <f t="shared" si="2"/>
-        <v>48.98</v>
-      </c>
-      <c r="T6" s="54">
-        <f t="shared" si="4"/>
-        <v>0.21008403361344538</v>
-      </c>
-      <c r="U6" s="54">
-        <f t="shared" si="5"/>
-        <v>6.7226890756302518E-2</v>
-      </c>
-      <c r="V6" s="54">
-        <f t="shared" si="6"/>
-        <v>7.5630252100840331E-2</v>
-      </c>
-      <c r="W6" s="35">
-        <f>ROUND(IMDIV(I6,O6),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="X6" s="35">
-        <f>ROUND(IMDIV(J6,O6),2)</f>
-        <v>0.03</v>
-      </c>
-      <c r="Y6" s="35">
-        <f>ROUND(IMDIV(K6,O6),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="35">
-        <f>ROUND(IMDIV(L6,O6),2)</f>
-        <v>4.25</v>
-      </c>
-      <c r="AA6" s="35">
-        <f>ROUND(IMDIV(M6,O6),2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="AB6" s="35">
-        <f>ROUND(IMDIV(B6,I6),2)</f>
-        <v>1.22</v>
-      </c>
-      <c r="AC6" s="35">
-        <f>ROUND(IMDIV(C6,B6),4)*100</f>
-        <v>62.2</v>
-      </c>
-      <c r="AD6" s="35">
-        <f>ROUND(IMDIV(N6,O6),2)</f>
-        <v>79.8</v>
-      </c>
-      <c r="AE6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF6" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG6" s="76">
-        <f t="shared" si="7"/>
-        <v>1.237547338935574</v>
-      </c>
-      <c r="AH6" s="66">
-        <f>(((P6-Q6+1.25*Q6)/2)+(T6/3)-(W6-0.2*X6+0.5*Y6)+(AD6/250)+(AA6/20))+1</f>
-        <v>1.2144380952380951</v>
-      </c>
-      <c r="AI6" s="62">
-        <f>(((P6-Q6+1.25*Q6+T6)/2)+(1-(W6-0.25*X6+0.5*Y6))+(AD6/200)+(AA6/18))</f>
-        <v>1.3317521008403361</v>
-      </c>
-      <c r="AJ6" s="23">
-        <f>((P6/2)+(1-(W6-0.25*X6+0.5*Y6))+(AD6/200)+(AA6/18))</f>
-        <v>1.2014999999999998</v>
-      </c>
-      <c r="AK6" s="20">
-        <f>(((P6/2)+(1-W6)+(AD6/200)+(AA6/9)))/1.06</f>
-        <v>1.1358490566037736</v>
-      </c>
-      <c r="AL6" s="18">
-        <f>((P6/2)+(1-W6)+(AD6/200)+(AA6/9))</f>
-        <v>1.204</v>
-      </c>
-      <c r="AM6" s="15">
-        <f>((P6/2)+(1-W6)+(AD6/200))</f>
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="AN6" s="68">
-        <f>(((P6-Q6+1.25*Q6)/2)+(T6/3)-(W6-0.2*X6+0.5*Y6)+(AD6/250)+(AA6/18))*10</f>
-        <v>2.1543809523809516</v>
-      </c>
-      <c r="AO6" s="10">
-        <f>(((P6-P16)-(W6-W16)+((AD6-AD16)/100))/2)*10</f>
-        <v>1.2804999999999997</v>
-      </c>
-      <c r="AP6" s="2">
-        <f>(((P6-P16)-(W6-W16)+(AD6-AD16))/100)+1</f>
-        <v>1.0984071428571429</v>
-      </c>
-      <c r="AQ6" s="12">
-        <f>((P6-P16)-(W6-W16)+((AD6-AD16)/100))*10</f>
-        <v>2.5609999999999995</v>
-      </c>
-      <c r="AR6" s="12">
-        <f>((P6-P16)-(W6-W16)+((AD6-AD16)/116))+1</f>
-        <v>1.2427463054187191</v>
-      </c>
-      <c r="AS6" s="5">
-        <f>(((P6-P16)-(W6-W16)+((AD6-AD16)/100))/2)+1</f>
-        <v>1.12805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="34">
-        <v>87</v>
-      </c>
-      <c r="C7" s="34">
-        <v>38</v>
-      </c>
-      <c r="D7" s="34">
-        <v>40</v>
-      </c>
-      <c r="E7" s="34">
-        <v>70</v>
-      </c>
-      <c r="F7" s="34">
-        <v>24</v>
-      </c>
-      <c r="G7" s="34">
-        <v>6</v>
-      </c>
-      <c r="H7" s="34">
-        <v>12</v>
-      </c>
-      <c r="I7" s="34">
-        <v>65</v>
-      </c>
-      <c r="J7" s="34">
-        <v>6</v>
-      </c>
-      <c r="K7" s="34">
-        <v>0</v>
-      </c>
-      <c r="L7" s="34">
-        <v>384</v>
-      </c>
-      <c r="M7" s="34">
-        <v>22</v>
-      </c>
-      <c r="N7" s="34">
-        <v>9576</v>
-      </c>
-      <c r="O7" s="34">
-        <v>119</v>
-      </c>
-      <c r="P7" s="35">
-        <f t="shared" si="0"/>
-        <v>0.73</v>
-      </c>
-      <c r="Q7" s="54">
-        <f t="shared" si="3"/>
-        <v>0.33613445378151263</v>
-      </c>
-      <c r="R7" s="54">
-        <f t="shared" si="1"/>
-        <v>58.82352941176471</v>
-      </c>
-      <c r="S7" s="35">
-        <f t="shared" si="2"/>
-        <v>57.14</v>
-      </c>
-      <c r="T7" s="54">
-        <f t="shared" si="4"/>
-        <v>0.20168067226890757</v>
-      </c>
-      <c r="U7" s="54">
-        <f t="shared" si="5"/>
-        <v>5.0420168067226892E-2</v>
-      </c>
-      <c r="V7" s="54">
-        <f t="shared" si="6"/>
-        <v>0.10084033613445378</v>
-      </c>
-      <c r="W7" s="35">
-        <f>ROUND(IMDIV(I7,O7),2)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="X7" s="35">
-        <f>ROUND(IMDIV(J7,O7),2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="Y7" s="35">
-        <f>ROUND(IMDIV(K7,O7),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="35">
-        <f>ROUND(IMDIV(L7,O7),2)</f>
-        <v>3.23</v>
-      </c>
-      <c r="AA7" s="35">
-        <f>ROUND(IMDIV(M7,O7),2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="AB7" s="35">
-        <f>ROUND(IMDIV(B7,I7),2)</f>
-        <v>1.34</v>
-      </c>
-      <c r="AC7" s="35">
-        <f>ROUND(IMDIV(C7,B7),4)*100</f>
-        <v>43.68</v>
-      </c>
-      <c r="AD7" s="35">
-        <f>ROUND(IMDIV(N7,O7),2)</f>
-        <v>80.47</v>
-      </c>
-      <c r="AE7" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG7" s="76">
-        <f t="shared" si="7"/>
-        <v>1.2934850420168067</v>
-      </c>
-      <c r="AH7" s="66">
-        <f>(((P7-Q7+1.25*Q7)/2)+(T7/3)-(W7-0.2*X7+0.5*Y7)+(AD7/250)+(AA7/20))+1</f>
-        <v>1.2651236974789914</v>
-      </c>
-      <c r="AI7" s="62">
-        <f>(((P7-Q7+1.25*Q7+T7)/2)+(1-(W7-0.25*X7+0.5*Y7))+(AD7/200)+(AA7/18))</f>
-        <v>1.3827071428571427</v>
-      </c>
-      <c r="AJ7" s="23">
-        <f>((P7/2)+(1-(W7-0.25*X7+0.5*Y7))+(AD7/200)+(AA7/18))</f>
-        <v>1.2398499999999999</v>
-      </c>
-      <c r="AK7" s="20">
-        <f>(((P7/2)+(1-W7)+(AD7/200)+(AA7/9)))/1.06</f>
-        <v>1.1673113207547168</v>
-      </c>
-      <c r="AL7" s="18">
-        <f>((P7/2)+(1-W7)+(AD7/200)+(AA7/9))</f>
-        <v>1.2373499999999999</v>
-      </c>
-      <c r="AM7" s="15">
-        <f>((P7/2)+(1-W7)+(AD7/200))</f>
-        <v>1.2173499999999999</v>
-      </c>
-      <c r="AN7" s="68">
-        <f>(((P7-Q7+1.25*Q7)/2)+(T7/3)-(W7-0.2*X7+0.5*Y7)+(AD7/250)+(AA7/18))*10</f>
-        <v>2.6612369747899156</v>
-      </c>
-      <c r="AO7" s="10">
-        <f>(((P7-P16)-(W7-W16)+((AD7-AD16)/100))/2)*10</f>
-        <v>1.5640000000000001</v>
-      </c>
-      <c r="AP7" s="2">
-        <f>(((P7-P16)-(W7-W16)+(AD7-AD16))/100)+1</f>
-        <v>1.1056071428571428</v>
-      </c>
-      <c r="AQ7" s="12">
-        <f>((P7-P16)-(W7-W16)+((AD7-AD16)/100))*10</f>
-        <v>3.1280000000000001</v>
-      </c>
-      <c r="AR7" s="12">
-        <f>((P7-P16)-(W7-W16)+((AD7-AD16)/116))+1</f>
-        <v>1.2985221674876848</v>
-      </c>
-      <c r="AS7" s="5">
-        <f>(((P7-P16)-(W7-W16)+((AD7-AD16)/100))/2)+1</f>
-        <v>1.1564000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="37">
-        <v>63</v>
-      </c>
-      <c r="C8" s="37">
-        <v>18</v>
-      </c>
-      <c r="D8" s="37">
-        <v>22</v>
-      </c>
-      <c r="E8" s="37">
-        <v>43</v>
-      </c>
-      <c r="F8" s="37">
-        <v>17</v>
-      </c>
-      <c r="G8" s="37">
-        <v>10</v>
-      </c>
-      <c r="H8" s="37">
-        <v>7</v>
-      </c>
-      <c r="I8" s="37">
-        <v>44</v>
-      </c>
-      <c r="J8" s="37">
-        <v>2</v>
-      </c>
-      <c r="K8" s="37">
-        <v>0</v>
-      </c>
-      <c r="L8" s="37">
-        <v>176</v>
-      </c>
-      <c r="M8" s="37">
-        <v>4</v>
-      </c>
-      <c r="N8" s="37">
-        <v>6748</v>
-      </c>
-      <c r="O8" s="37">
-        <v>86</v>
-      </c>
-      <c r="P8" s="38">
-        <f t="shared" si="0"/>
-        <v>0.73</v>
-      </c>
-      <c r="Q8" s="55">
-        <f t="shared" si="3"/>
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="R8" s="55">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="S8" s="38">
-        <f t="shared" si="2"/>
-        <v>51.16</v>
-      </c>
-      <c r="T8" s="55">
-        <f t="shared" si="4"/>
-        <v>0.19767441860465115</v>
-      </c>
-      <c r="U8" s="55">
-        <f t="shared" si="5"/>
-        <v>0.11627906976744186</v>
-      </c>
-      <c r="V8" s="55">
-        <f t="shared" si="6"/>
-        <v>8.1395348837209308E-2</v>
-      </c>
-      <c r="W8" s="38">
-        <f>ROUND(IMDIV(I8,O8),2)</f>
-        <v>0.51</v>
-      </c>
-      <c r="X8" s="38">
-        <f>ROUND(IMDIV(J8,O8),2)</f>
-        <v>0.02</v>
-      </c>
-      <c r="Y8" s="38">
-        <f>ROUND(IMDIV(K8,O8),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="38">
-        <f>ROUND(IMDIV(L8,O8),2)</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="AA8" s="38">
-        <f>ROUND(IMDIV(M8,O8),2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="AB8" s="38">
-        <f>ROUND(IMDIV(B8,I8),2)</f>
-        <v>1.43</v>
-      </c>
-      <c r="AC8" s="38">
-        <f>ROUND(IMDIV(C8,B8),4)*100</f>
-        <v>28.57</v>
-      </c>
-      <c r="AD8" s="38">
-        <f>ROUND(IMDIV(N8,O8),2)</f>
-        <v>78.47</v>
-      </c>
-      <c r="AE8" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF8" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG8" s="76">
-        <f t="shared" si="7"/>
-        <v>1.300864496124031</v>
-      </c>
-      <c r="AH8" s="66">
-        <f>(((P8-Q8+1.25*Q8)/2)+(T8/3)-(W8-0.2*X8+0.5*Y8)+(AD8/250)+(AA8/20))+1</f>
-        <v>1.2732482170542636</v>
-      </c>
-      <c r="AI8" s="62">
-        <f>(((P8-Q8+1.25*Q8+T8)/2)+(1-(W8-0.25*X8+0.5*Y8))+(AD8/200)+(AA8/18))</f>
-        <v>1.3859417312661497</v>
-      </c>
-      <c r="AJ8" s="23">
-        <f>((P8/2)+(1-(W8-0.25*X8+0.5*Y8))+(AD8/200)+(AA8/18))</f>
-        <v>1.2551277777777776</v>
-      </c>
-      <c r="AK8" s="20">
-        <f>(((P8/2)+(1-W8)+(AD8/200)+(AA8/9)))/1.06</f>
-        <v>1.1819863731656184</v>
-      </c>
-      <c r="AL8" s="18">
-        <f>((P8/2)+(1-W8)+(AD8/200)+(AA8/9))</f>
-        <v>1.2529055555555555</v>
-      </c>
-      <c r="AM8" s="15">
-        <f>((P8/2)+(1-W8)+(AD8/200))</f>
-        <v>1.24735</v>
-      </c>
-      <c r="AN8" s="68">
-        <f>(((P8-Q8+1.25*Q8)/2)+(T8/3)-(W8-0.2*X8+0.5*Y8)+(AD8/250)+(AA8/18))*10</f>
-        <v>2.7352599483204134</v>
-      </c>
-      <c r="AO8" s="10">
-        <f>(((P8-P16)-(W8-W16)+((AD8-AD16)/100))/2)*10</f>
-        <v>1.6640000000000001</v>
-      </c>
-      <c r="AP8" s="2">
-        <f>(((P8-P16)-(W8-W16)+(AD8-AD16))/100)+1</f>
-        <v>1.0860071428571429</v>
-      </c>
-      <c r="AQ8" s="12">
-        <f>((P8-P16)-(W8-W16)+((AD8-AD16)/100))*10</f>
-        <v>3.3280000000000003</v>
-      </c>
-      <c r="AR8" s="12">
-        <f>((P8-P16)-(W8-W16)+((AD8-AD16)/116))+1</f>
-        <v>1.3212807881773401</v>
-      </c>
-      <c r="AS8" s="5">
-        <f>(((P8-P16)-(W8-W16)+((AD8-AD16)/100))/2)+1</f>
-        <v>1.1664000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="37">
-        <v>51</v>
-      </c>
-      <c r="C9" s="37">
-        <v>27</v>
-      </c>
-      <c r="D9" s="37">
-        <v>25</v>
-      </c>
-      <c r="E9" s="37">
-        <v>43</v>
-      </c>
-      <c r="F9" s="37">
-        <v>12</v>
-      </c>
-      <c r="G9" s="37">
-        <v>4</v>
-      </c>
-      <c r="H9" s="37">
-        <v>2</v>
-      </c>
-      <c r="I9" s="37">
-        <v>54</v>
-      </c>
-      <c r="J9" s="37">
-        <v>9</v>
-      </c>
-      <c r="K9" s="37">
-        <v>0</v>
-      </c>
-      <c r="L9" s="37">
-        <v>67</v>
-      </c>
-      <c r="M9" s="37">
-        <v>8</v>
-      </c>
-      <c r="N9" s="37">
-        <v>6118</v>
-      </c>
-      <c r="O9" s="37">
-        <v>86</v>
-      </c>
-      <c r="P9" s="38">
-        <f t="shared" si="0"/>
-        <v>0.59</v>
-      </c>
-      <c r="Q9" s="55">
-        <f t="shared" si="3"/>
-        <v>0.29069767441860467</v>
-      </c>
-      <c r="R9" s="55">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="S9" s="38">
-        <f t="shared" si="2"/>
-        <v>58.14</v>
-      </c>
-      <c r="T9" s="55">
-        <f t="shared" si="4"/>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="U9" s="55">
-        <f t="shared" si="5"/>
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="V9" s="55">
-        <f t="shared" si="6"/>
-        <v>2.3255813953488372E-2</v>
-      </c>
-      <c r="W9" s="38">
-        <f>ROUND(IMDIV(I9,O9),2)</f>
-        <v>0.63</v>
-      </c>
-      <c r="X9" s="38">
-        <f>ROUND(IMDIV(J9,O9),2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="Y9" s="38">
-        <f>ROUND(IMDIV(K9,O9),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="38">
-        <f>ROUND(IMDIV(L9,O9),2)</f>
-        <v>0.78</v>
-      </c>
-      <c r="AA9" s="38">
-        <f>ROUND(IMDIV(M9,O9),2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="AB9" s="38">
-        <f>ROUND(IMDIV(B9,I9),2)</f>
-        <v>0.94</v>
-      </c>
-      <c r="AC9" s="38">
-        <f>ROUND(IMDIV(C9,B9),4)*100</f>
-        <v>52.94</v>
-      </c>
-      <c r="AD9" s="38">
-        <f>ROUND(IMDIV(N9,O9),2)</f>
-        <v>71.14</v>
-      </c>
-      <c r="AE9" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF9" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG9" s="76">
-        <f t="shared" si="7"/>
-        <v>1.0656297674418604</v>
-      </c>
-      <c r="AH9" s="66">
-        <f>(((P9-Q9+1.25*Q9)/2)+(T9/3)-(W9-0.2*X9+0.5*Y9)+(AD9/250)+(AA9/20))+1</f>
-        <v>1.0569088372093023</v>
-      </c>
-      <c r="AI9" s="62">
-        <f>(((P9-Q9+1.25*Q9+T9)/2)+(1-(W9-0.25*X9+0.5*Y9))+(AD9/200)+(AA9/18))</f>
-        <v>1.1568046511627905</v>
-      </c>
-      <c r="AJ9" s="23">
-        <f>((P9/2)+(1-(W9-0.25*X9+0.5*Y9))+(AD9/200)+(AA9/18))</f>
-        <v>1.0507</v>
-      </c>
-      <c r="AK9" s="20">
-        <f>(((P9/2)+(1-W9)+(AD9/200)+(AA9/9)))/1.06</f>
-        <v>0.97235849056603785</v>
-      </c>
-      <c r="AL9" s="18">
-        <f>((P9/2)+(1-W9)+(AD9/200)+(AA9/9))</f>
-        <v>1.0307000000000002</v>
-      </c>
-      <c r="AM9" s="15">
-        <f>((P9/2)+(1-W9)+(AD9/200))</f>
-        <v>1.0207000000000002</v>
-      </c>
-      <c r="AN9" s="68">
-        <f>(((P9-Q9+1.25*Q9)/2)+(T9/3)-(W9-0.2*X9+0.5*Y9)+(AD9/250)+(AA9/18))*10</f>
-        <v>0.57408837209302277</v>
-      </c>
       <c r="AO9" s="10">
-        <f>(((P9-P16)-(W9-W16)+((AD9-AD16)/100))/2)*10</f>
-        <v>-2.499999999999768E-3</v>
+        <f>(((P9-P20)-(W9-W20)+((AD9-AD20)/100))/2)*10</f>
+        <v>-2.9225000000000003</v>
       </c>
       <c r="AP9" s="2">
-        <f>(((P9-P16)-(W9-W16)+(AD9-AD16))/100)+1</f>
-        <v>1.0101071428571429</v>
+        <f>(((P9-P20)-(W9-W20)+(AD9-AD20))/100)+1</f>
+        <v>0.75209999999999999</v>
       </c>
       <c r="AQ9" s="12">
-        <f>((P9-P16)-(W9-W16)+((AD9-AD16)/100))*10</f>
-        <v>-4.9999999999995361E-3</v>
+        <f>((P9-P20)-(W9-W20)+((AD9-AD20)/100))*10</f>
+        <v>-5.8450000000000006</v>
       </c>
       <c r="AR9" s="12">
-        <f>((P9-P16)-(W9-W16)+((AD9-AD16)/116))+1</f>
-        <v>0.99809113300492613</v>
+        <f>((P9-P20)-(W9-W20)+((AD9-AD20)/116))+1</f>
+        <v>0.44922413793103444</v>
       </c>
       <c r="AS9" s="5">
-        <f>(((P9-P16)-(W9-W16)+((AD9-AD16)/100))/2)+1</f>
-        <v>0.99975000000000003</v>
+        <f>(((P9-P20)-(W9-W20)+((AD9-AD20)/100))/2)+1</f>
+        <v>0.70774999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -3657,15 +3682,15 @@
         <v>0.73</v>
       </c>
       <c r="Q10" s="56">
+        <f t="shared" si="1"/>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="R10" s="56">
+        <f t="shared" si="2"/>
+        <v>51.282051282051277</v>
+      </c>
+      <c r="S10" s="42">
         <f t="shared" si="3"/>
-        <v>0.26923076923076922</v>
-      </c>
-      <c r="R10" s="56">
-        <f t="shared" si="1"/>
-        <v>51.282051282051277</v>
-      </c>
-      <c r="S10" s="42">
-        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
       <c r="T10" s="56">
@@ -3681,35 +3706,35 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="W10" s="42">
-        <f>ROUND(IMDIV(I10,O10),2)</f>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="X10" s="42">
-        <f>ROUND(IMDIV(J10,O10),2)</f>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="Y10" s="42">
-        <f>ROUND(IMDIV(K10,O10),2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z10" s="42">
-        <f>ROUND(IMDIV(L10,O10),2)</f>
+        <f t="shared" si="10"/>
         <v>2.04</v>
       </c>
       <c r="AA10" s="42">
-        <f>ROUND(IMDIV(M10,O10),2)</f>
+        <f t="shared" si="11"/>
         <v>0.13</v>
       </c>
       <c r="AB10" s="42">
-        <f>ROUND(IMDIV(B10,I10),2)</f>
+        <f t="shared" si="12"/>
         <v>1.21</v>
       </c>
       <c r="AC10" s="42">
-        <f>ROUND(IMDIV(C10,B10),4)*100</f>
+        <f t="shared" si="13"/>
         <v>47.370000000000005</v>
       </c>
       <c r="AD10" s="42">
-        <f>ROUND(IMDIV(N10,O10),2)</f>
+        <f t="shared" si="14"/>
         <v>80.36</v>
       </c>
       <c r="AE10" s="41" t="s">
@@ -3719,56 +3744,56 @@
         <v>28</v>
       </c>
       <c r="AG10" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2119143589743591</v>
       </c>
       <c r="AH10" s="66">
-        <f>(((P10-Q10+1.25*Q10)/2)+(T10/3)-(W10-0.2*X10+0.5*Y10)+(AD10/250)+(AA10/20))+1</f>
+        <f t="shared" si="16"/>
         <v>1.1878758974358974</v>
       </c>
       <c r="AI10" s="62">
-        <f>(((P10-Q10+1.25*Q10+T10)/2)+(1-(W10-0.25*X10+0.5*Y10))+(AD10/200)+(AA10/18))</f>
+        <f t="shared" si="17"/>
         <v>1.2970991452991452</v>
       </c>
       <c r="AJ10" s="23">
-        <f>((P10/2)+(1-(W10-0.25*X10+0.5*Y10))+(AD10/200)+(AA10/18))</f>
+        <f t="shared" si="18"/>
         <v>1.1865222222222223</v>
       </c>
       <c r="AK10" s="20">
-        <f>(((P10/2)+(1-W10)+(AD10/200)+(AA10/9)))/1.06</f>
+        <f t="shared" si="19"/>
         <v>1.1143815513626836</v>
       </c>
       <c r="AL10" s="18">
-        <f>((P10/2)+(1-W10)+(AD10/200)+(AA10/9))</f>
+        <f t="shared" si="20"/>
         <v>1.1812444444444445</v>
       </c>
       <c r="AM10" s="15">
-        <f>((P10/2)+(1-W10)+(AD10/200))</f>
+        <f t="shared" si="21"/>
         <v>1.1668000000000001</v>
       </c>
       <c r="AN10" s="68">
-        <f>(((P10-Q10+1.25*Q10)/2)+(T10/3)-(W10-0.2*X10+0.5*Y10)+(AD10/250)+(AA10/18))*10</f>
+        <f t="shared" si="22"/>
         <v>1.8859811965811966</v>
       </c>
       <c r="AO10" s="10">
         <f>(((P10-P16)-(W10-W16)+((AD10-AD16)/100))/2)*10</f>
-        <v>1.3085000000000002</v>
+        <v>1.4201428571428565</v>
       </c>
       <c r="AP10" s="2">
         <f>(((P10-P16)-(W10-W16)+(AD10-AD16))/100)+1</f>
-        <v>1.1040071428571427</v>
+        <v>1.1100714285714284</v>
       </c>
       <c r="AQ10" s="12">
         <f>((P10-P16)-(W10-W16)+((AD10-AD16)/100))*10</f>
-        <v>2.6170000000000004</v>
+        <v>2.840285714285713</v>
       </c>
       <c r="AR10" s="12">
         <f>((P10-P16)-(W10-W16)+((AD10-AD16)/116))+1</f>
-        <v>1.2475738916256158</v>
+        <v>1.2690886699507389</v>
       </c>
       <c r="AS10" s="5">
         <f>(((P10-P16)-(W10-W16)+((AD10-AD16)/100))/2)+1</f>
-        <v>1.1308500000000001</v>
+        <v>1.1420142857142856</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -3822,15 +3847,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="Q11" s="56">
+        <f t="shared" si="1"/>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="R11" s="56">
+        <f t="shared" si="2"/>
+        <v>48.717948717948715</v>
+      </c>
+      <c r="S11" s="42">
         <f t="shared" si="3"/>
-        <v>0.17948717948717949</v>
-      </c>
-      <c r="R11" s="56">
-        <f t="shared" si="1"/>
-        <v>48.717948717948715</v>
-      </c>
-      <c r="S11" s="42">
-        <f t="shared" si="2"/>
         <v>36.840000000000003</v>
       </c>
       <c r="T11" s="56">
@@ -3846,35 +3871,35 @@
         <v>6.4102564102564097E-2</v>
       </c>
       <c r="W11" s="42">
-        <f>ROUND(IMDIV(I11,O11),2)</f>
+        <f t="shared" si="7"/>
         <v>0.65</v>
       </c>
       <c r="X11" s="42">
-        <f>ROUND(IMDIV(J11,O11),2)</f>
+        <f t="shared" si="8"/>
         <v>0.08</v>
       </c>
       <c r="Y11" s="42">
-        <f>ROUND(IMDIV(K11,O11),2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z11" s="42">
-        <f>ROUND(IMDIV(L11,O11),2)</f>
+        <f t="shared" si="10"/>
         <v>1.47</v>
       </c>
       <c r="AA11" s="42">
-        <f>ROUND(IMDIV(M11,O11),2)</f>
+        <f t="shared" si="11"/>
         <v>0.19</v>
       </c>
       <c r="AB11" s="42">
-        <f>ROUND(IMDIV(B11,I11),2)</f>
+        <f t="shared" si="12"/>
         <v>0.84</v>
       </c>
       <c r="AC11" s="42">
-        <f>ROUND(IMDIV(C11,B11),4)*100</f>
+        <f t="shared" si="13"/>
         <v>46.51</v>
       </c>
       <c r="AD11" s="42">
-        <f>ROUND(IMDIV(N11,O11),2)</f>
+        <f t="shared" si="14"/>
         <v>63.87</v>
       </c>
       <c r="AE11" s="41" t="s">
@@ -3884,56 +3909,56 @@
         <v>28</v>
       </c>
       <c r="AG11" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.97756119658119656</v>
       </c>
       <c r="AH11" s="66">
-        <f>(((P11-Q11+1.25*Q11)/2)+(T11/3)-(W11-0.2*X11+0.5*Y11)+(AD11/250)+(AA11/20))+1</f>
+        <f t="shared" si="16"/>
         <v>0.95833042735042728</v>
       </c>
       <c r="AI11" s="62">
-        <f>(((P11-Q11+1.25*Q11+T11)/2)+(1-(W11-0.25*X11+0.5*Y11))+(AD11/200)+(AA11/18))</f>
+        <f t="shared" si="17"/>
         <v>1.042213247863248</v>
       </c>
       <c r="AJ11" s="23">
-        <f>((P11/2)+(1-(W11-0.25*X11+0.5*Y11))+(AD11/200)+(AA11/18))</f>
+        <f t="shared" si="18"/>
         <v>0.97490555555555558</v>
       </c>
       <c r="AK11" s="20">
-        <f>(((P11/2)+(1-W11)+(AD11/200)+(AA11/9)))/1.06</f>
+        <f t="shared" si="19"/>
         <v>0.91081236897274631</v>
       </c>
       <c r="AL11" s="18">
-        <f>((P11/2)+(1-W11)+(AD11/200)+(AA11/9))</f>
+        <f t="shared" si="20"/>
         <v>0.9654611111111111</v>
       </c>
       <c r="AM11" s="15">
-        <f>((P11/2)+(1-W11)+(AD11/200))</f>
+        <f t="shared" si="21"/>
         <v>0.94435000000000002</v>
       </c>
       <c r="AN11" s="68">
-        <f>(((P11-Q11+1.25*Q11)/2)+(T11/3)-(W11-0.2*X11+0.5*Y11)+(AD11/250)+(AA11/18))*10</f>
+        <f t="shared" si="22"/>
         <v>-0.40614017094017119</v>
       </c>
       <c r="AO11" s="10">
         <f>(((P11-P16)-(W11-W16)+((AD11-AD16)/100))/2)*10</f>
-        <v>-0.6659999999999997</v>
+        <v>-0.55435714285714344</v>
       </c>
       <c r="AP11" s="2">
         <f>(((P11-P16)-(W11-W16)+(AD11-AD16))/100)+1</f>
-        <v>0.93680714285714284</v>
+        <v>0.94287142857142847</v>
       </c>
       <c r="AQ11" s="12">
         <f>((P11-P16)-(W11-W16)+((AD11-AD16)/100))*10</f>
-        <v>-1.3319999999999994</v>
+        <v>-1.1087142857142869</v>
       </c>
       <c r="AR11" s="12">
         <f>((P11-P16)-(W11-W16)+((AD11-AD16)/116))+1</f>
-        <v>0.87541871921182279</v>
+        <v>0.89693349753694573</v>
       </c>
       <c r="AS11" s="5">
         <f>(((P11-P16)-(W11-W16)+((AD11-AD16)/100))/2)+1</f>
-        <v>0.93340000000000001</v>
+        <v>0.94456428571428563</v>
       </c>
     </row>
     <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3987,15 +4012,15 @@
         <v>0.77</v>
       </c>
       <c r="Q12" s="57">
+        <f t="shared" si="1"/>
+        <v>0.42465753424657532</v>
+      </c>
+      <c r="R12" s="57">
+        <f t="shared" si="2"/>
+        <v>76.712328767123282</v>
+      </c>
+      <c r="S12" s="45">
         <f t="shared" si="3"/>
-        <v>0.42465753424657532</v>
-      </c>
-      <c r="R12" s="57">
-        <f t="shared" si="1"/>
-        <v>76.712328767123282</v>
-      </c>
-      <c r="S12" s="45">
-        <f t="shared" si="2"/>
         <v>55.36</v>
       </c>
       <c r="T12" s="57">
@@ -4011,35 +4036,35 @@
         <v>1.3698630136986301E-2</v>
       </c>
       <c r="W12" s="45">
-        <f>ROUND(IMDIV(I12,O12),2)</f>
+        <f t="shared" si="7"/>
         <v>0.68</v>
       </c>
       <c r="X12" s="45">
-        <f>ROUND(IMDIV(J12,O12),2)</f>
+        <f t="shared" si="8"/>
         <v>0.03</v>
       </c>
       <c r="Y12" s="45">
-        <f>ROUND(IMDIV(K12,O12),2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z12" s="45">
-        <f>ROUND(IMDIV(L12,O12),2)</f>
+        <f t="shared" si="10"/>
         <v>5.48</v>
       </c>
       <c r="AA12" s="45">
-        <f>ROUND(IMDIV(M12,O12),2)</f>
+        <f t="shared" si="11"/>
         <v>0.4</v>
       </c>
       <c r="AB12" s="45">
-        <f>ROUND(IMDIV(B12,I12),2)</f>
+        <f t="shared" si="12"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="AC12" s="45">
-        <f>ROUND(IMDIV(C12,B12),4)*100</f>
+        <f t="shared" si="13"/>
         <v>67.86</v>
       </c>
       <c r="AD12" s="45">
-        <f>ROUND(IMDIV(N12,O12),2)</f>
+        <f t="shared" si="14"/>
         <v>95.84</v>
       </c>
       <c r="AE12" s="46" t="s">
@@ -4049,56 +4074,56 @@
         <v>28</v>
       </c>
       <c r="AG12" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.2464947031963471</v>
       </c>
       <c r="AH12" s="66">
-        <f>(((P12-Q12+1.25*Q12)/2)+(T12/3)-(W12-0.2*X12+0.5*Y12)+(AD12/250)+(AA12/20))+1</f>
+        <f t="shared" si="16"/>
         <v>1.2405015525114156</v>
       </c>
       <c r="AI12" s="62">
-        <f>(((P12-Q12+1.25*Q12+T12)/2)+(1-(W12-0.25*X12+0.5*Y12))+(AD12/200)+(AA12/18))</f>
+        <f t="shared" si="17"/>
         <v>1.3765934550989345</v>
       </c>
       <c r="AJ12" s="23">
-        <f>((P12/2)+(1-(W12-0.25*X12+0.5*Y12))+(AD12/200)+(AA12/18))</f>
+        <f t="shared" si="18"/>
         <v>1.2139222222222221</v>
       </c>
       <c r="AK12" s="20">
-        <f>(((P12/2)+(1-W12)+(AD12/200)+(AA12/9)))/1.06</f>
+        <f t="shared" si="19"/>
         <v>1.1590985324947589</v>
       </c>
       <c r="AL12" s="18">
-        <f>((P12/2)+(1-W12)+(AD12/200)+(AA12/9))</f>
+        <f t="shared" si="20"/>
         <v>1.2286444444444444</v>
       </c>
       <c r="AM12" s="15">
-        <f>((P12/2)+(1-W12)+(AD12/200))</f>
+        <f t="shared" si="21"/>
         <v>1.1841999999999999</v>
       </c>
       <c r="AN12" s="68">
-        <f>(((P12-Q12+1.25*Q12)/2)+(T12/3)-(W12-0.2*X12+0.5*Y12)+(AD12/250)+(AA12/18))*10</f>
+        <f t="shared" si="22"/>
         <v>2.427237747336378</v>
       </c>
       <c r="AO12" s="10">
         <f>(((P12-P16)-(W12-W16)+((AD12-AD16)/100))/2)*10</f>
-        <v>1.8825000000000003</v>
+        <v>1.9941428571428566</v>
       </c>
       <c r="AP12" s="2">
         <f>(((P12-P16)-(W12-W16)+(AD12-AD16))/100)+1</f>
-        <v>1.2584071428571428</v>
+        <v>1.2644714285714285</v>
       </c>
       <c r="AQ12" s="12">
         <f>((P12-P16)-(W12-W16)+((AD12-AD16)/100))*10</f>
-        <v>3.7650000000000006</v>
+        <v>3.9882857142857131</v>
       </c>
       <c r="AR12" s="12">
         <f>((P12-P16)-(W12-W16)+((AD12-AD16)/116))+1</f>
-        <v>1.3410221674876848</v>
+        <v>1.3625369458128078</v>
       </c>
       <c r="AS12" s="5">
         <f>(((P12-P16)-(W12-W16)+((AD12-AD16)/100))/2)+1</f>
-        <v>1.18825</v>
+        <v>1.1994142857142855</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4152,15 +4177,15 @@
         <v>0.25</v>
       </c>
       <c r="Q13" s="57">
+        <f t="shared" si="1"/>
+        <v>6.8493150684931503E-2</v>
+      </c>
+      <c r="R13" s="57">
+        <f t="shared" si="2"/>
+        <v>23.287671232876711</v>
+      </c>
+      <c r="S13" s="45">
         <f t="shared" si="3"/>
-        <v>6.8493150684931503E-2</v>
-      </c>
-      <c r="R13" s="57">
-        <f t="shared" si="1"/>
-        <v>23.287671232876711</v>
-      </c>
-      <c r="S13" s="45">
-        <f t="shared" si="2"/>
         <v>29.41</v>
       </c>
       <c r="T13" s="57">
@@ -4176,35 +4201,35 @@
         <v>1.3698630136986301E-2</v>
       </c>
       <c r="W13" s="45">
-        <f>ROUND(IMDIV(I13,O13),2)</f>
+        <f t="shared" si="7"/>
         <v>0.73</v>
       </c>
       <c r="X13" s="45">
-        <f>ROUND(IMDIV(J13,O13),2)</f>
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
       <c r="Y13" s="45">
-        <f>ROUND(IMDIV(K13,O13),2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z13" s="45">
-        <f>ROUND(IMDIV(L13,O13),2)</f>
+        <f t="shared" si="10"/>
         <v>1.52</v>
       </c>
       <c r="AA13" s="45">
-        <f>ROUND(IMDIV(M13,O13),2)</f>
+        <f t="shared" si="11"/>
         <v>0.22</v>
       </c>
       <c r="AB13" s="45">
-        <f>ROUND(IMDIV(B13,I13),2)</f>
+        <f t="shared" si="12"/>
         <v>0.34</v>
       </c>
       <c r="AC13" s="45">
-        <f>ROUND(IMDIV(C13,B13),4)*100</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="AD13" s="45">
-        <f>ROUND(IMDIV(N13,O13),2)</f>
+        <f t="shared" si="14"/>
         <v>32.6</v>
       </c>
       <c r="AE13" s="46" t="s">
@@ -4214,56 +4239,56 @@
         <v>28</v>
       </c>
       <c r="AG13" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.55495251141552515</v>
       </c>
       <c r="AH13" s="66">
-        <f>(((P13-Q13+1.25*Q13)/2)+(T13/3)-(W13-0.2*X13+0.5*Y13)+(AD13/250)+(AA13/20))+1</f>
+        <f t="shared" si="16"/>
         <v>0.55152785388127867</v>
       </c>
       <c r="AI13" s="62">
-        <f>(((P13-Q13+1.25*Q13+T13)/2)+(1-(W13-0.25*X13+0.5*Y13))+(AD13/200)+(AA13/18))</f>
+        <f t="shared" si="17"/>
         <v>0.58813318112633184</v>
       </c>
       <c r="AJ13" s="23">
-        <f>((P13/2)+(1-(W13-0.25*X13+0.5*Y13))+(AD13/200)+(AA13/18))</f>
+        <f t="shared" si="18"/>
         <v>0.57272222222222224</v>
       </c>
       <c r="AK13" s="20">
-        <f>(((P13/2)+(1-W13)+(AD13/200)+(AA13/9)))/1.06</f>
+        <f t="shared" si="19"/>
         <v>0.54947589098532501</v>
       </c>
       <c r="AL13" s="18">
-        <f>((P13/2)+(1-W13)+(AD13/200)+(AA13/9))</f>
+        <f t="shared" si="20"/>
         <v>0.58244444444444454</v>
       </c>
       <c r="AM13" s="15">
-        <f>((P13/2)+(1-W13)+(AD13/200))</f>
+        <f t="shared" si="21"/>
         <v>0.55800000000000005</v>
       </c>
       <c r="AN13" s="68">
-        <f>(((P13-Q13+1.25*Q13)/2)+(T13/3)-(W13-0.2*X13+0.5*Y13)+(AD13/250)+(AA13/18))*10</f>
+        <f t="shared" si="22"/>
         <v>-4.4724992389649918</v>
       </c>
       <c r="AO13" s="10">
         <f>(((P13-P16)-(W13-W16)+((AD13-AD16)/100))/2)*10</f>
-        <v>-4.1294999999999993</v>
+        <v>-4.0178571428571432</v>
       </c>
       <c r="AP13" s="2">
         <f>(((P13-P16)-(W13-W16)+(AD13-AD16))/100)+1</f>
-        <v>0.62030714285714295</v>
+        <v>0.62637142857142847</v>
       </c>
       <c r="AQ13" s="12">
         <f>((P13-P16)-(W13-W16)+((AD13-AD16)/100))*10</f>
-        <v>-8.2589999999999986</v>
+        <v>-8.0357142857142865</v>
       </c>
       <c r="AR13" s="12">
         <f>((P13-P16)-(W13-W16)+((AD13-AD16)/116))+1</f>
-        <v>0.22584975369458138</v>
+        <v>0.24736453201970443</v>
       </c>
       <c r="AS13" s="5">
         <f>(((P13-P16)-(W13-W16)+((AD13-AD16)/100))/2)+1</f>
-        <v>0.58705000000000007</v>
+        <v>0.5982142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4317,15 +4342,15 @@
         <v>0.26</v>
       </c>
       <c r="Q14" s="58">
+        <f t="shared" si="1"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="R14" s="58">
+        <f t="shared" si="2"/>
+        <v>53.030303030303031</v>
+      </c>
+      <c r="S14" s="47">
         <f t="shared" si="3"/>
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="R14" s="58">
-        <f t="shared" si="1"/>
-        <v>53.030303030303031</v>
-      </c>
-      <c r="S14" s="47">
-        <f t="shared" si="2"/>
         <v>22.86</v>
       </c>
       <c r="T14" s="58">
@@ -4341,35 +4366,35 @@
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="W14" s="47">
-        <f>ROUND(IMDIV(I14,O14),2)</f>
+        <f t="shared" si="7"/>
         <v>0.86</v>
       </c>
       <c r="X14" s="47">
-        <f>ROUND(IMDIV(J14,O14),2)</f>
+        <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
       <c r="Y14" s="47">
-        <f>ROUND(IMDIV(K14,O14),2)</f>
+        <f t="shared" si="9"/>
         <v>0.03</v>
       </c>
       <c r="Z14" s="47">
-        <f>ROUND(IMDIV(L14,O14),2)</f>
+        <f t="shared" si="10"/>
         <v>1.67</v>
       </c>
       <c r="AA14" s="47">
-        <f>ROUND(IMDIV(M14,O14),2)</f>
+        <f t="shared" si="11"/>
         <v>0.33</v>
       </c>
       <c r="AB14" s="47">
-        <f>ROUND(IMDIV(B14,I14),2)</f>
+        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
       <c r="AC14" s="47">
-        <f>ROUND(IMDIV(C14,B14),4)*100</f>
+        <f t="shared" si="13"/>
         <v>23.53</v>
       </c>
       <c r="AD14" s="47">
-        <f>ROUND(IMDIV(N14,O14),2)</f>
+        <f t="shared" si="14"/>
         <v>52.26</v>
       </c>
       <c r="AE14" s="47" t="s">
@@ -4379,56 +4404,56 @@
         <v>28</v>
       </c>
       <c r="AG14" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.52336575757575754</v>
       </c>
       <c r="AH14" s="66">
-        <f>(((P14-Q14+1.25*Q14)/2)+(T14/3)-(W14-0.2*X14+0.5*Y14)+(AD14/250)+(AA14/20))+1</f>
+        <f t="shared" si="16"/>
         <v>0.51484303030303025</v>
       </c>
       <c r="AI14" s="62">
-        <f>(((P14-Q14+1.25*Q14+T14)/2)+(1-(W14-0.25*X14+0.5*Y14))+(AD14/200)+(AA14/18))</f>
+        <f t="shared" si="17"/>
         <v>0.57751212121212114</v>
       </c>
       <c r="AJ14" s="23">
-        <f>((P14/2)+(1-(W14-0.25*X14+0.5*Y14))+(AD14/200)+(AA14/18))</f>
+        <f t="shared" si="18"/>
         <v>0.5396333333333333</v>
       </c>
       <c r="AK14" s="20">
-        <f>(((P14/2)+(1-W14)+(AD14/200)+(AA14/9)))/1.06</f>
+        <f t="shared" si="19"/>
         <v>0.53581761006289297</v>
       </c>
       <c r="AL14" s="18">
-        <f>((P14/2)+(1-W14)+(AD14/200)+(AA14/9))</f>
+        <f t="shared" si="20"/>
         <v>0.56796666666666662</v>
       </c>
       <c r="AM14" s="15">
-        <f>((P14/2)+(1-W14)+(AD14/200))</f>
+        <f t="shared" si="21"/>
         <v>0.53129999999999999</v>
       </c>
       <c r="AN14" s="68">
-        <f>(((P14-Q14+1.25*Q14)/2)+(T14/3)-(W14-0.2*X14+0.5*Y14)+(AD14/250)+(AA14/18))*10</f>
+        <f t="shared" si="22"/>
         <v>-4.833236363636364</v>
       </c>
       <c r="AO14" s="10">
         <f>(((P14-P16)-(W14-W16)+((AD14-AD16)/100))/2)*10</f>
-        <v>-3.7464999999999993</v>
+        <v>-3.6348571428571437</v>
       </c>
       <c r="AP14" s="2">
         <f>(((P14-P16)-(W14-W16)+(AD14-AD16))/100)+1</f>
-        <v>0.81570714285714285</v>
+        <v>0.82177142857142838</v>
       </c>
       <c r="AQ14" s="12">
         <f>((P14-P16)-(W14-W16)+((AD14-AD16)/100))*10</f>
-        <v>-7.4929999999999986</v>
+        <v>-7.2697142857142873</v>
       </c>
       <c r="AR14" s="12">
         <f>((P14-P16)-(W14-W16)+((AD14-AD16)/116))+1</f>
-        <v>0.27533251231527101</v>
+        <v>0.29684729064039406</v>
       </c>
       <c r="AS14" s="5">
         <f>(((P14-P16)-(W14-W16)+((AD14-AD16)/100))/2)+1</f>
-        <v>0.62535000000000007</v>
+        <v>0.63651428571428559</v>
       </c>
     </row>
     <row r="15" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4482,15 +4507,15 @@
         <v>0.35</v>
       </c>
       <c r="Q15" s="58">
+        <f t="shared" si="1"/>
+        <v>7.575757575757576E-2</v>
+      </c>
+      <c r="R15" s="58">
+        <f t="shared" si="2"/>
+        <v>46.969696969696969</v>
+      </c>
+      <c r="S15" s="47">
         <f t="shared" si="3"/>
-        <v>7.575757575757576E-2</v>
-      </c>
-      <c r="R15" s="58">
-        <f t="shared" si="1"/>
-        <v>46.969696969696969</v>
-      </c>
-      <c r="S15" s="47">
-        <f t="shared" si="2"/>
         <v>16.13</v>
       </c>
       <c r="T15" s="58">
@@ -4506,35 +4531,35 @@
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="W15" s="47">
-        <f>ROUND(IMDIV(I15,O15),2)</f>
+        <f t="shared" si="7"/>
         <v>0.86</v>
       </c>
       <c r="X15" s="47">
-        <f>ROUND(IMDIV(J15,O15),2)</f>
+        <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
       <c r="Y15" s="47">
-        <f>ROUND(IMDIV(K15,O15),2)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z15" s="47">
-        <f>ROUND(IMDIV(L15,O15),2)</f>
+        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
       <c r="AA15" s="47">
-        <f>ROUND(IMDIV(M15,O15),2)</f>
+        <f t="shared" si="11"/>
         <v>0.03</v>
       </c>
       <c r="AB15" s="47">
-        <f>ROUND(IMDIV(B15,I15),2)</f>
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
       <c r="AC15" s="47">
-        <f>ROUND(IMDIV(C15,B15),4)*100</f>
+        <f t="shared" si="13"/>
         <v>34.78</v>
       </c>
       <c r="AD15" s="47">
-        <f>ROUND(IMDIV(N15,O15),2)</f>
+        <f t="shared" si="14"/>
         <v>43.97</v>
       </c>
       <c r="AE15" s="47" t="s">
@@ -4544,56 +4569,56 @@
         <v>28</v>
       </c>
       <c r="AG15" s="76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.53552141414141419</v>
       </c>
       <c r="AH15" s="66">
-        <f>(((P15-Q15+1.25*Q15)/2)+(T15/3)-(W15-0.2*X15+0.5*Y15)+(AD15/250)+(AA15/20))+1</f>
+        <f t="shared" si="16"/>
         <v>0.52605171717171717</v>
       </c>
       <c r="AI15" s="62">
-        <f>(((P15-Q15+1.25*Q15+T15)/2)+(1-(W15-0.25*X15+0.5*Y15))+(AD15/200)+(AA15/18))</f>
+        <f t="shared" si="17"/>
         <v>0.58128939393939394</v>
       </c>
       <c r="AJ15" s="23">
-        <f>((P15/2)+(1-(W15-0.25*X15+0.5*Y15))+(AD15/200)+(AA15/18))</f>
+        <f t="shared" si="18"/>
         <v>0.54151666666666665</v>
       </c>
       <c r="AK15" s="20">
-        <f>(((P15/2)+(1-W15)+(AD15/200)+(AA15/9)))/1.06</f>
+        <f t="shared" si="19"/>
         <v>0.50772012578616355</v>
       </c>
       <c r="AL15" s="18">
-        <f>((P15/2)+(1-W15)+(AD15/200)+(AA15/9))</f>
+        <f t="shared" si="20"/>
         <v>0.53818333333333335</v>
       </c>
       <c r="AM15" s="15">
-        <f>((P15/2)+(1-W15)+(AD15/200))</f>
+        <f t="shared" si="21"/>
         <v>0.53485000000000005</v>
       </c>
       <c r="AN15" s="68">
-        <f>(((P15-Q15+1.25*Q15)/2)+(T15/3)-(W15-0.2*X15+0.5*Y15)+(AD15/250)+(AA15/18))*10</f>
+        <f t="shared" si="22"/>
         <v>-4.7378161616161609</v>
       </c>
       <c r="AO15" s="10">
         <f>(((P15-P16)-(W15-W16)+((AD15-AD16)/100))/2)*10</f>
-        <v>-3.7109999999999999</v>
+        <v>-3.5993571428571434</v>
       </c>
       <c r="AP15" s="2">
         <f>(((P15-P16)-(W15-W16)+(AD15-AD16))/100)+1</f>
-        <v>0.73370714285714289</v>
+        <v>0.73977142857142852</v>
       </c>
       <c r="AQ15" s="12">
         <f>((P15-P16)-(W15-W16)+((AD15-AD16)/100))*10</f>
-        <v>-7.4219999999999997</v>
+        <v>-7.1987142857142867</v>
       </c>
       <c r="AR15" s="12">
         <f>((P15-P16)-(W15-W16)+((AD15-AD16)/116))+1</f>
-        <v>0.29386699507389169</v>
+        <v>0.31538177339901463</v>
       </c>
       <c r="AS15" s="5">
         <f>(((P15-P16)-(W15-W16)+((AD15-AD16)/100))/2)+1</f>
-        <v>0.62890000000000001</v>
+        <v>0.64006428571428564</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4616,107 +4641,116 @@
       <c r="O16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="1">
-        <f t="shared" ref="P16:AD16" si="8">AVERAGE(P2:P15)</f>
-        <v>0.59928571428571431</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" ref="Q16:T16" si="9">AVERAGE(Q2:Q15)</f>
-        <v>0.24265315793817552</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="9"/>
+      <c r="P16" s="77">
+        <f t="shared" ref="P16:X16" si="23">AVERAGE(P2:P15)</f>
+        <v>0.59071428571428564</v>
+      </c>
+      <c r="Q16" s="77">
+        <f t="shared" si="23"/>
+        <v>0.23728827267482974</v>
+      </c>
+      <c r="R16" s="77">
+        <f t="shared" si="23"/>
         <v>50</v>
       </c>
-      <c r="S16" s="1">
-        <f t="shared" si="9"/>
-        <v>47.200714285714284</v>
-      </c>
-      <c r="T16" s="1">
-        <f t="shared" si="9"/>
-        <v>0.13674553842244841</v>
-      </c>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="1">
-        <f t="shared" si="8"/>
-        <v>0.62857142857142867</v>
-      </c>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="1">
-        <f t="shared" si="8"/>
-        <v>2.8800000000000003</v>
-      </c>
-      <c r="AA16" s="1">
-        <f t="shared" si="8"/>
-        <v>0.19428571428571426</v>
-      </c>
-      <c r="AB16" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0314285714285714</v>
-      </c>
-      <c r="AC16" s="1">
-        <f t="shared" si="8"/>
-        <v>46.668571428571418</v>
-      </c>
-      <c r="AD16" s="1">
-        <f t="shared" si="8"/>
-        <v>70.118571428571428</v>
+      <c r="S16" s="77">
+        <f t="shared" si="23"/>
+        <v>46.305714285714281</v>
+      </c>
+      <c r="T16" s="77">
+        <f t="shared" si="23"/>
+        <v>0.13454678171337398</v>
+      </c>
+      <c r="U16" s="77">
+        <f t="shared" si="23"/>
+        <v>5.7693788659011647E-2</v>
+      </c>
+      <c r="V16" s="77">
+        <f t="shared" si="23"/>
+        <v>5.2591066416943666E-2</v>
+      </c>
+      <c r="W16" s="77">
+        <f t="shared" si="23"/>
+        <v>0.63642857142857134</v>
+      </c>
+      <c r="X16" s="77">
+        <f t="shared" si="23"/>
+        <v>3.3571428571428578E-2</v>
+      </c>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="77">
+        <f>AVERAGE(Z2:Z15)</f>
+        <v>2.7749999999999995</v>
+      </c>
+      <c r="AA16" s="77">
+        <f>AVERAGE(AA2:AA15)</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="AB16" s="77">
+        <f>AVERAGE(AB2:AB15)</f>
+        <v>0.98571428571428588</v>
+      </c>
+      <c r="AC16" s="77">
+        <f>AVERAGE(AC2:AC15)</f>
+        <v>46.616428571428564</v>
+      </c>
+      <c r="AD16" s="77">
+        <f>AVERAGE(AD2:AD15)</f>
+        <v>69.528571428571439</v>
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="73">
-        <f>AVERAGE(AG2:AG15)</f>
-        <v>1.0607346656766252</v>
+        <f t="shared" ref="AG16:AS16" si="24">AVERAGE(AG2:AG15)</f>
+        <v>1.0428778754318551</v>
       </c>
       <c r="AH16" s="66">
-        <f t="shared" ref="AH16:AM16" si="10">AVERAGE(AH2:AH15)</f>
-        <v>1.0439592051688025</v>
+        <f t="shared" si="24"/>
+        <v>1.0261242470364309</v>
       </c>
       <c r="AI16" s="62">
-        <f t="shared" si="10"/>
-        <v>1.1399123504614328</v>
+        <f t="shared" si="24"/>
+        <v>1.1207875995442154</v>
       </c>
       <c r="AJ16" s="23">
-        <f t="shared" si="10"/>
-        <v>1.0412079365079365</v>
+        <f t="shared" si="24"/>
+        <v>1.0238531746031745</v>
       </c>
       <c r="AK16" s="20">
-        <f t="shared" si="10"/>
-        <v>0.98419961066187478</v>
+        <f t="shared" si="24"/>
+        <v>0.96906259359089542</v>
       </c>
       <c r="AL16" s="18">
-        <f t="shared" si="10"/>
-        <v>1.0432515873015873</v>
+        <f t="shared" si="24"/>
+        <v>1.0272063492063492</v>
       </c>
       <c r="AM16" s="15">
-        <f t="shared" si="10"/>
-        <v>1.0216642857142857</v>
+        <f t="shared" si="24"/>
+        <v>1.0065714285714287</v>
       </c>
       <c r="AN16" s="68">
-        <f t="shared" ref="AN16" si="11">AVERAGE(AN2:AN15)</f>
-        <v>0.45038570248167442</v>
+        <f t="shared" si="24"/>
+        <v>0.27155993068176809</v>
       </c>
       <c r="AO16" s="10">
-        <f>AVERAGE(AO2:AO15)</f>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>0.40163265306122453</v>
       </c>
       <c r="AP16" s="2">
-        <f>AVERAGE(AP2:AP15)</f>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>1.0694163265306122</v>
       </c>
       <c r="AQ16" s="12">
-        <f>AVERAGE(AQ2:AQ15)</f>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>0.80326530612244906</v>
       </c>
       <c r="AR16" s="12">
-        <f>AVERAGE(AR2:AR15)</f>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>1.0707670654468682</v>
       </c>
       <c r="AS16" s="5">
-        <f t="shared" ref="AS16" si="12">AVERAGE(AS2:AS15)</f>
-        <v>1.0000000000000002</v>
+        <f t="shared" si="24"/>
+        <v>1.0401632653061224</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4726,105 +4760,114 @@
       <c r="O17" t="s">
         <v>34</v>
       </c>
-      <c r="P17" s="1">
-        <f t="shared" ref="P17:AD17" si="13">MEDIAN(P2,P15)</f>
-        <v>0.59</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" ref="Q17:T17" si="14">MEDIAN(Q2,Q15)</f>
-        <v>0.18576611182244984</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" si="14"/>
-        <v>48.132735808792148</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="14"/>
-        <v>38.064999999999998</v>
-      </c>
-      <c r="T17" s="1">
-        <f t="shared" si="14"/>
-        <v>0.13593683311993171</v>
-      </c>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="1">
-        <f t="shared" si="13"/>
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="1">
-        <f t="shared" si="13"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AA17" s="1">
-        <f t="shared" si="13"/>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="AB17" s="1">
-        <f t="shared" si="13"/>
-        <v>1.2149999999999999</v>
-      </c>
-      <c r="AC17" s="1">
-        <f t="shared" si="13"/>
-        <v>43.66</v>
-      </c>
-      <c r="AD17" s="1">
-        <f t="shared" si="13"/>
-        <v>63.034999999999997</v>
+      <c r="P17" s="77">
+        <f t="shared" ref="P17:X17" si="25">MEDIAN(P2,P15)</f>
+        <v>0.52</v>
+      </c>
+      <c r="Q17" s="77">
+        <f t="shared" si="25"/>
+        <v>0.13871912401324166</v>
+      </c>
+      <c r="R17" s="77">
+        <f t="shared" si="25"/>
+        <v>44.073083778966129</v>
+      </c>
+      <c r="S17" s="77">
+        <f t="shared" si="25"/>
+        <v>32.554999999999993</v>
+      </c>
+      <c r="T17" s="77">
+        <f t="shared" si="25"/>
+        <v>0.13534504710975298</v>
+      </c>
+      <c r="U17" s="77">
+        <f t="shared" si="25"/>
+        <v>4.8764960529666411E-2</v>
+      </c>
+      <c r="V17" s="77">
+        <f t="shared" si="25"/>
+        <v>5.2966641201935317E-2</v>
+      </c>
+      <c r="W17" s="77">
+        <f t="shared" si="25"/>
+        <v>0.71</v>
+      </c>
+      <c r="X17" s="77">
+        <f t="shared" si="25"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="77">
+        <f>MEDIAN(Z2,Z15)</f>
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="AA17" s="77">
+        <f>MEDIAN(AA2,AA15)</f>
+        <v>0.105</v>
+      </c>
+      <c r="AB17" s="77">
+        <f>MEDIAN(AB2,AB15)</f>
+        <v>0.81</v>
+      </c>
+      <c r="AC17" s="77">
+        <f>MEDIAN(AC2,AC15)</f>
+        <v>48.49</v>
+      </c>
+      <c r="AD17" s="77">
+        <f>MEDIAN(AD2,AD15)</f>
+        <v>61.884999999999998</v>
       </c>
       <c r="AG17" s="74">
-        <f>MEDIAN(AG2:AG15)</f>
-        <v>1.1804752546045503</v>
+        <f t="shared" ref="AG17:AS17" si="26">MEDIAN(AG2:AG15)</f>
+        <v>1.1443443399810067</v>
       </c>
       <c r="AH17" s="66">
-        <f t="shared" ref="AH17:AM17" si="15">MEDIAN(AH2:AH15)</f>
-        <v>1.1605334886240519</v>
+        <f t="shared" si="26"/>
+        <v>1.1263065906932574</v>
       </c>
       <c r="AI17" s="62">
-        <f t="shared" si="15"/>
-        <v>1.2645292283616225</v>
+        <f t="shared" si="26"/>
+        <v>1.2281153133903133</v>
       </c>
       <c r="AJ17" s="23">
-        <f t="shared" si="15"/>
-        <v>1.1617055555555555</v>
+        <f t="shared" si="26"/>
+        <v>1.1251416666666667</v>
       </c>
       <c r="AK17" s="20">
-        <f t="shared" si="15"/>
-        <v>1.0917557651991614</v>
+        <f t="shared" si="26"/>
+        <v>1.0594889937106919</v>
       </c>
       <c r="AL17" s="18">
-        <f t="shared" si="15"/>
-        <v>1.1572611111111111</v>
+        <f t="shared" si="26"/>
+        <v>1.1230583333333333</v>
       </c>
       <c r="AM17" s="15">
-        <f t="shared" si="15"/>
-        <v>1.13615</v>
+        <f t="shared" si="26"/>
+        <v>1.1047250000000002</v>
       </c>
       <c r="AN17" s="68">
-        <f t="shared" ref="AN17" si="16">MEDIAN(AN2:AN15)</f>
-        <v>1.615890441796076</v>
+        <f t="shared" si="26"/>
+        <v>1.2722325735992404</v>
       </c>
       <c r="AO17" s="10">
-        <f>MEDIAN(AO2:AO15)</f>
-        <v>0.93799999999999994</v>
+        <f t="shared" si="26"/>
+        <v>-0.10600000000000043</v>
       </c>
       <c r="AP17" s="2">
-        <f t="shared" ref="AP17" si="17">MEDIAN(AP2:AP15)</f>
-        <v>1.068257142857143</v>
+        <f t="shared" si="26"/>
+        <v>1.0068357142857143</v>
       </c>
       <c r="AQ17" s="12">
-        <f t="shared" ref="AQ17" si="18">MEDIAN(AQ2:AQ15)</f>
-        <v>1.8759999999999999</v>
+        <f t="shared" si="26"/>
+        <v>-0.21200000000000085</v>
       </c>
       <c r="AR17" s="12">
-        <f>MEDIAN(AR2:AR15)</f>
-        <v>1.1774876847290641</v>
+        <f t="shared" si="26"/>
+        <v>0.98448275862068946</v>
       </c>
       <c r="AS17" s="5">
-        <f>MEDIAN(AS2:AS15)</f>
-        <v>1.0937999999999999</v>
+        <f t="shared" si="26"/>
+        <v>0.98940000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4871,35 +4914,35 @@
         <v>1.32</v>
       </c>
       <c r="AG19" s="76">
-        <f>(((P19-Q19+1.25*Q19)/2)+(T19/3)+0.25*((U19/4)+V19)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/20))+1</f>
+        <f t="shared" ref="AG19:AG36" si="27">(((P19-Q19+1.25*Q19)/2)+(T19/3)+0.25*((U19/4)+V19)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/20))+1</f>
         <v>1.2901166666666666</v>
       </c>
       <c r="AH19" s="66">
-        <f>(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/20))+1</f>
+        <f t="shared" ref="AH19:AH35" si="28">(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/20))+1</f>
         <v>1.2901166666666666</v>
       </c>
       <c r="AI19" s="62">
-        <f>(((P19-Q19+1.25*Q19+T19)/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
+        <f t="shared" ref="AI19:AI35" si="29">(((P19-Q19+1.25*Q19+T19)/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
         <v>1.4104722222222219</v>
       </c>
       <c r="AJ19" s="23">
-        <f>((P19/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
+        <f t="shared" ref="AJ19:AJ35" si="30">((P19/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
         <v>1.291722222222222</v>
       </c>
       <c r="AK19" s="20">
-        <f>(((P19/2)+(1-W19)+(AD19/200)+(AA19/9)))/1.06</f>
+        <f t="shared" ref="AK19:AK35" si="31">(((P19/2)+(1-W19)+(AD19/200)+(AA19/9)))/1.06</f>
         <v>1.2131551362683437</v>
       </c>
       <c r="AL19" s="18">
-        <f>((P19/2)+(1-W19)+(AD19/200)+(AA19/9))</f>
+        <f t="shared" ref="AL19:AL35" si="32">((P19/2)+(1-W19)+(AD19/200)+(AA19/9))</f>
         <v>1.2859444444444443</v>
       </c>
       <c r="AM19" s="15">
-        <f>((P19/2)+(1-W19)+(AD19/200))</f>
+        <f t="shared" ref="AM19:AM35" si="33">((P19/2)+(1-W19)+(AD19/200))</f>
         <v>1.2814999999999999</v>
       </c>
       <c r="AN19" s="68">
-        <f>(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/18))*10</f>
+        <f t="shared" ref="AN19:AN35" si="34">(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/18))*10</f>
         <v>2.9033888888888888</v>
       </c>
     </row>
@@ -4938,35 +4981,35 @@
         <v>1.29</v>
       </c>
       <c r="AG20" s="76">
-        <f t="shared" ref="AG20:AG33" si="19">(((P20-Q20+1.25*Q20)/2)+(T20/3)+0.25*((U20/4)+V20)-(W20-0.2*X20+0.5*Y20)+(AD20/250)+(AA20/20))+1</f>
+        <f t="shared" si="27"/>
         <v>1.2591666666666668</v>
       </c>
       <c r="AH20" s="66">
-        <f>(((P20-Q20+1.25*Q20)/2)+(T20/3)-(W20-0.2*X20+0.5*Y20)+(AD20/250)+(AA20/20))+1</f>
+        <f t="shared" si="28"/>
         <v>1.2591666666666668</v>
       </c>
       <c r="AI20" s="62">
-        <f>(((P20-Q20+1.25*Q20+T20)/2)+(1-(W20-0.25*X20+0.5*Y20))+(AD20/200)+(AA20/18))</f>
+        <f t="shared" si="29"/>
         <v>1.3802777777777777</v>
       </c>
       <c r="AJ20" s="23">
-        <f>((P20/2)+(1-(W20-0.25*X20+0.5*Y20))+(AD20/200)+(AA20/18))</f>
+        <f t="shared" si="30"/>
         <v>1.2627777777777778</v>
       </c>
       <c r="AK20" s="20">
-        <f>(((P20/2)+(1-W20)+(AD20/200)+(AA20/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>1.186844863731656</v>
       </c>
       <c r="AL20" s="18">
-        <f>((P20/2)+(1-W20)+(AD20/200)+(AA20/9))</f>
+        <f t="shared" si="32"/>
         <v>1.2580555555555555</v>
       </c>
       <c r="AM20" s="15">
-        <f>((P20/2)+(1-W20)+(AD20/200))</f>
+        <f t="shared" si="33"/>
         <v>1.2524999999999999</v>
       </c>
       <c r="AN20" s="68">
-        <f>(((P20-Q20+1.25*Q20)/2)+(T20/3)-(W20-0.2*X20+0.5*Y20)+(AD20/250)+(AA20/18))*10</f>
+        <f t="shared" si="34"/>
         <v>2.594444444444445</v>
       </c>
     </row>
@@ -5005,35 +5048,35 @@
         <v>1.2</v>
       </c>
       <c r="AG21" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1756500000000001</v>
       </c>
       <c r="AH21" s="66">
-        <f>(((P21-Q21+1.25*Q21)/2)+(T21/3)-(W21-0.2*X21+0.5*Y21)+(AD21/250)+(AA21/20))+1</f>
+        <f t="shared" si="28"/>
         <v>1.1756500000000001</v>
       </c>
       <c r="AI21" s="62">
-        <f>(((P21-Q21+1.25*Q21+T21)/2)+(1-(W21-0.25*X21+0.5*Y21))+(AD21/200)+(AA21/18))</f>
+        <f t="shared" si="29"/>
         <v>1.3095277777777778</v>
       </c>
       <c r="AJ21" s="23">
-        <f>((P21/2)+(1-(W21-0.25*X21+0.5*Y21))+(AD21/200)+(AA21/18))</f>
+        <f t="shared" si="30"/>
         <v>1.1932777777777779</v>
       </c>
       <c r="AK21" s="20">
-        <f>(((P21/2)+(1-W21)+(AD21/200)+(AA21/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>1.1094863731656184</v>
       </c>
       <c r="AL21" s="18">
-        <f>((P21/2)+(1-W21)+(AD21/200)+(AA21/9))</f>
+        <f t="shared" si="32"/>
         <v>1.1760555555555556</v>
       </c>
       <c r="AM21" s="15">
-        <f>((P21/2)+(1-W21)+(AD21/200))</f>
+        <f t="shared" si="33"/>
         <v>1.1705000000000001</v>
       </c>
       <c r="AN21" s="68">
-        <f>(((P21-Q21+1.25*Q21)/2)+(T21/3)-(W21-0.2*X21+0.5*Y21)+(AD21/250)+(AA21/18))*10</f>
+        <f t="shared" si="34"/>
         <v>1.7592777777777791</v>
       </c>
     </row>
@@ -5072,35 +5115,35 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AG22" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.0884666666666667</v>
       </c>
       <c r="AH22" s="66">
-        <f>(((P22-Q22+1.25*Q22)/2)+(T22/3)-(W22-0.2*X22+0.5*Y22)+(AD22/250)+(AA22/20))+1</f>
+        <f t="shared" si="28"/>
         <v>1.0884666666666667</v>
       </c>
       <c r="AI22" s="62">
-        <f>(((P22-Q22+1.25*Q22+T22)/2)+(1-(W22-0.25*X22+0.5*Y22))+(AD22/200)+(AA22/18))</f>
+        <f t="shared" si="29"/>
         <v>1.1986666666666668</v>
       </c>
       <c r="AJ22" s="23">
-        <f>((P22/2)+(1-(W22-0.25*X22+0.5*Y22))+(AD22/200)+(AA22/18))</f>
+        <f t="shared" si="30"/>
         <v>1.1011666666666666</v>
       </c>
       <c r="AK22" s="20">
-        <f>(((P22/2)+(1-W22)+(AD22/200)+(AA22/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>1.0371069182389938</v>
       </c>
       <c r="AL22" s="18">
-        <f>((P22/2)+(1-W22)+(AD22/200)+(AA22/9))</f>
+        <f t="shared" si="32"/>
         <v>1.0993333333333335</v>
       </c>
       <c r="AM22" s="15">
-        <f>((P22/2)+(1-W22)+(AD22/200))</f>
+        <f t="shared" si="33"/>
         <v>1.0960000000000001</v>
       </c>
       <c r="AN22" s="68">
-        <f>(((P22-Q22+1.25*Q22)/2)+(T22/3)-(W22-0.2*X22+0.5*Y22)+(AD22/250)+(AA22/18))*10</f>
+        <f t="shared" si="34"/>
         <v>0.88633333333333353</v>
       </c>
     </row>
@@ -5139,35 +5182,35 @@
         <v>0.94</v>
       </c>
       <c r="AG23" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.95468333333333333</v>
       </c>
       <c r="AH23" s="66">
-        <f>(((P23-Q23+1.25*Q23)/2)+(T23/3)-(W23-0.2*X23+0.5*Y23)+(AD23/250)+(AA23/20))+1</f>
+        <f t="shared" si="28"/>
         <v>0.95468333333333333</v>
       </c>
       <c r="AI23" s="62">
-        <f>(((P23-Q23+1.25*Q23+T23)/2)+(1-(W23-0.25*X23+0.5*Y23))+(AD23/200)+(AA23/18))</f>
+        <f t="shared" si="29"/>
         <v>1.0474166666666667</v>
       </c>
       <c r="AJ23" s="23">
-        <f>((P23/2)+(1-(W23-0.25*X23+0.5*Y23))+(AD23/200)+(AA23/18))</f>
+        <f t="shared" si="30"/>
         <v>0.97116666666666662</v>
       </c>
       <c r="AK23" s="20">
-        <f>(((P23/2)+(1-W23)+(AD23/200)+(AA23/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>0.91776729559748416</v>
       </c>
       <c r="AL23" s="18">
-        <f>((P23/2)+(1-W23)+(AD23/200)+(AA23/9))</f>
+        <f t="shared" si="32"/>
         <v>0.97283333333333322</v>
       </c>
       <c r="AM23" s="15">
-        <f>((P23/2)+(1-W23)+(AD23/200))</f>
+        <f t="shared" si="33"/>
         <v>0.96949999999999992</v>
       </c>
       <c r="AN23" s="68">
-        <f>(((P23-Q23+1.25*Q23)/2)+(T23/3)-(W23-0.2*X23+0.5*Y23)+(AD23/250)+(AA23/18))*10</f>
+        <f t="shared" si="34"/>
         <v>-0.45150000000000012</v>
       </c>
     </row>
@@ -5209,35 +5252,35 @@
         <v>200</v>
       </c>
       <c r="AG24" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3.3208333333333333</v>
       </c>
       <c r="AH24" s="66">
-        <f>(((P24-Q24+1.25*Q24)/2)+(T24/3)-(W24-0.2*X24+0.5*Y24)+(AD24/250)+(AA24/20))+1</f>
+        <f t="shared" si="28"/>
         <v>3.2583333333333333</v>
       </c>
       <c r="AI24" s="62">
-        <f>(((P24-Q24+1.25*Q24+T24)/2)+(1-(W24-0.25*X24+0.5*Y24))+(AD24/200)+(AA24/18))</f>
+        <f t="shared" si="29"/>
         <v>3.625</v>
       </c>
       <c r="AJ24" s="23">
-        <f>((P24/2)+(1-(W24-0.25*X24+0.5*Y24))+(AD24/200)+(AA24/18))</f>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AK24" s="20">
-        <f>(((P24/2)+(1-W24)+(AD24/200)+(AA24/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>2.8301886792452828</v>
       </c>
       <c r="AL24" s="18">
-        <f>((P24/2)+(1-W24)+(AD24/200)+(AA24/9))</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AM24" s="15">
-        <f>((P24/2)+(1-W24)+(AD24/200))</f>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AN24" s="68">
-        <f>(((P24-Q24+1.25*Q24)/2)+(T24/3)-(W24-0.2*X24+0.5*Y24)+(AD24/250)+(AA24/18))*10</f>
+        <f t="shared" si="34"/>
         <v>22.583333333333332</v>
       </c>
     </row>
@@ -5279,35 +5322,35 @@
         <v>0</v>
       </c>
       <c r="AG25" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AH25" s="66">
-        <f>(((P25-Q25+1.25*Q25)/2)+(T25/3)-(W25-0.2*X25+0.5*Y25)+(AD25/250)+(AA25/20))+1</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AI25" s="62">
-        <f>(((P25-Q25+1.25*Q25+T25)/2)+(1-(W25-0.25*X25+0.5*Y25))+(AD25/200)+(AA25/18))</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AJ25" s="23">
-        <f>((P25/2)+(1-(W25-0.25*X25+0.5*Y25))+(AD25/200)+(AA25/18))</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AK25" s="20">
-        <f>(((P25/2)+(1-W25)+(AD25/200)+(AA25/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AL25" s="18">
-        <f>((P25/2)+(1-W25)+(AD25/200)+(AA25/9))</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AM25" s="15">
-        <f>((P25/2)+(1-W25)+(AD25/200))</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN25" s="68">
-        <f>(((P25-Q25+1.25*Q25)/2)+(T25/3)-(W25-0.2*X25+0.5*Y25)+(AD25/250)+(AA25/18))*10</f>
+        <f t="shared" si="34"/>
         <v>-10</v>
       </c>
     </row>
@@ -5340,35 +5383,35 @@
         <v>100</v>
       </c>
       <c r="AG26" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.2250000000000001</v>
       </c>
       <c r="AH26" s="66">
-        <f>(((P26-Q26+1.25*Q26)/2)+(T26/3)-(W26-0.2*X26+0.5*Y26)+(AD26/250)+(AA26/20))+1</f>
+        <f t="shared" si="28"/>
         <v>1.2250000000000001</v>
       </c>
       <c r="AI26" s="62">
-        <f>(((P26-Q26+1.25*Q26+T26)/2)+(1-(W26-0.25*X26+0.5*Y26))+(AD26/200)+(AA26/18))</f>
+        <f t="shared" si="29"/>
         <v>1.375</v>
       </c>
       <c r="AJ26" s="23">
-        <f>((P26/2)+(1-(W26-0.25*X26+0.5*Y26))+(AD26/200)+(AA26/18))</f>
+        <f t="shared" si="30"/>
         <v>1.25</v>
       </c>
       <c r="AK26" s="20">
-        <f>(((P26/2)+(1-W26)+(AD26/200)+(AA26/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>0.94339622641509424</v>
       </c>
       <c r="AL26" s="18">
-        <f>((P26/2)+(1-W26)+(AD26/200)+(AA26/9))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AM26" s="15">
-        <f>((P26/2)+(1-W26)+(AD26/200))</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AN26" s="68">
-        <f>(((P26-Q26+1.25*Q26)/2)+(T26/3)-(W26-0.2*X26+0.5*Y26)+(AD26/250)+(AA26/18))*10</f>
+        <f t="shared" si="34"/>
         <v>2.25</v>
       </c>
     </row>
@@ -5401,35 +5444,35 @@
         <v>99</v>
       </c>
       <c r="AG27" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.59599999999999997</v>
       </c>
       <c r="AH27" s="66">
-        <f>(((P27-Q27+1.25*Q27)/2)+(T27/3)-(W27-0.2*X27+0.5*Y27)+(AD27/250)+(AA27/20))+1</f>
+        <f t="shared" si="28"/>
         <v>0.59599999999999997</v>
       </c>
       <c r="AI27" s="62">
-        <f>(((P27-Q27+1.25*Q27+T27)/2)+(1-(W27-0.25*X27+0.5*Y27))+(AD27/200)+(AA27/18))</f>
+        <f t="shared" si="29"/>
         <v>0.745</v>
       </c>
       <c r="AJ27" s="23">
-        <f>((P27/2)+(1-(W27-0.25*X27+0.5*Y27))+(AD27/200)+(AA27/18))</f>
+        <f t="shared" si="30"/>
         <v>0.745</v>
       </c>
       <c r="AK27" s="20">
-        <f>(((P27/2)+(1-W27)+(AD27/200)+(AA27/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>0.46698113207547165</v>
       </c>
       <c r="AL27" s="18">
-        <f>((P27/2)+(1-W27)+(AD27/200)+(AA27/9))</f>
+        <f t="shared" si="32"/>
         <v>0.495</v>
       </c>
       <c r="AM27" s="15">
-        <f>((P27/2)+(1-W27)+(AD27/200))</f>
+        <f t="shared" si="33"/>
         <v>0.495</v>
       </c>
       <c r="AN27" s="68">
-        <f>(((P27-Q27+1.25*Q27)/2)+(T27/3)-(W27-0.2*X27+0.5*Y27)+(AD27/250)+(AA27/18))*10</f>
+        <f t="shared" si="34"/>
         <v>-4.04</v>
       </c>
     </row>
@@ -5462,35 +5505,35 @@
         <v>150</v>
       </c>
       <c r="AG28" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.4249999999999998</v>
       </c>
       <c r="AH28" s="66">
-        <f>(((P28-Q28+1.25*Q28)/2)+(T28/3)-(W28-0.2*X28+0.5*Y28)+(AD28/250)+(AA28/20))+1</f>
+        <f t="shared" si="28"/>
         <v>1.4249999999999998</v>
       </c>
       <c r="AI28" s="62">
-        <f>(((P28-Q28+1.25*Q28+T28)/2)+(1-(W28-0.25*X28+0.5*Y28))+(AD28/200)+(AA28/18))</f>
+        <f t="shared" si="29"/>
         <v>1.625</v>
       </c>
       <c r="AJ28" s="23">
-        <f>((P28/2)+(1-(W28-0.25*X28+0.5*Y28))+(AD28/200)+(AA28/18))</f>
+        <f t="shared" si="30"/>
         <v>1.5</v>
       </c>
       <c r="AK28" s="20">
-        <f>(((P28/2)+(1-W28)+(AD28/200)+(AA28/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>1.1792452830188678</v>
       </c>
       <c r="AL28" s="18">
-        <f>((P28/2)+(1-W28)+(AD28/200)+(AA28/9))</f>
+        <f t="shared" si="32"/>
         <v>1.25</v>
       </c>
       <c r="AM28" s="15">
-        <f>((P28/2)+(1-W28)+(AD28/200))</f>
+        <f t="shared" si="33"/>
         <v>1.25</v>
       </c>
       <c r="AN28" s="68">
-        <f>(((P28-Q28+1.25*Q28)/2)+(T28/3)-(W28-0.2*X28+0.5*Y28)+(AD28/250)+(AA28/18))*10</f>
+        <f t="shared" si="34"/>
         <v>4.2499999999999991</v>
       </c>
     </row>
@@ -5520,35 +5563,35 @@
         <v>100</v>
       </c>
       <c r="AG29" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.9</v>
       </c>
       <c r="AH29" s="66">
-        <f>(((P29-Q29+1.25*Q29)/2)+(T29/3)-(W29-0.2*X29+0.5*Y29)+(AD29/250)+(AA29/20))+1</f>
+        <f t="shared" si="28"/>
         <v>0.9</v>
       </c>
       <c r="AI29" s="62">
-        <f>(((P29-Q29+1.25*Q29+T29)/2)+(1-(W29-0.25*X29+0.5*Y29))+(AD29/200)+(AA29/18))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AJ29" s="23">
-        <f>((P29/2)+(1-(W29-0.25*X29+0.5*Y29))+(AD29/200)+(AA29/18))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AK29" s="20">
-        <f>(((P29/2)+(1-W29)+(AD29/200)+(AA29/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>0.94339622641509424</v>
       </c>
       <c r="AL29" s="18">
-        <f>((P29/2)+(1-W29)+(AD29/200)+(AA29/9))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AM29" s="15">
-        <f>((P29/2)+(1-W29)+(AD29/200))</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AN29" s="68">
-        <f>(((P29-Q29+1.25*Q29)/2)+(T29/3)-(W29-0.2*X29+0.5*Y29)+(AD29/250)+(AA29/18))*10</f>
+        <f t="shared" si="34"/>
         <v>-0.99999999999999978</v>
       </c>
     </row>
@@ -5584,35 +5627,35 @@
         <v>200</v>
       </c>
       <c r="AG30" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3.3833333333333333</v>
       </c>
       <c r="AH30" s="66">
-        <f>(((P30-Q30+1.25*Q30)/2)+(T30/3)-(W30-0.2*X30+0.5*Y30)+(AD30/250)+(AA30/20))+1</f>
+        <f t="shared" si="28"/>
         <v>3.1333333333333333</v>
       </c>
       <c r="AI30" s="62">
-        <f>(((P30-Q30+1.25*Q30+T30)/2)+(1-(W30-0.25*X30+0.5*Y30))+(AD30/200)+(AA30/18))</f>
+        <f t="shared" si="29"/>
         <v>3.5</v>
       </c>
       <c r="AJ30" s="23">
-        <f>((P30/2)+(1-(W30-0.25*X30+0.5*Y30))+(AD30/200)+(AA30/18))</f>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AK30" s="20">
-        <f>(((P30/2)+(1-W30)+(AD30/200)+(AA30/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>2.8301886792452828</v>
       </c>
       <c r="AL30" s="18">
-        <f>((P30/2)+(1-W30)+(AD30/200)+(AA30/9))</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AM30" s="15">
-        <f>((P30/2)+(1-W30)+(AD30/200))</f>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AN30" s="68">
-        <f>(((P30-Q30+1.25*Q30)/2)+(T30/3)-(W30-0.2*X30+0.5*Y30)+(AD30/250)+(AA30/18))*10</f>
+        <f t="shared" si="34"/>
         <v>21.333333333333332</v>
       </c>
     </row>
@@ -5648,35 +5691,35 @@
         <v>200</v>
       </c>
       <c r="AG31" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3.2583333333333333</v>
       </c>
       <c r="AH31" s="66">
-        <f>(((P31-Q31+1.25*Q31)/2)+(T31/3)-(W31-0.2*X31+0.5*Y31)+(AD31/250)+(AA31/20))+1</f>
+        <f t="shared" si="28"/>
         <v>3.2583333333333333</v>
       </c>
       <c r="AI31" s="62">
-        <f>(((P31-Q31+1.25*Q31+T31)/2)+(1-(W31-0.25*X31+0.5*Y31))+(AD31/200)+(AA31/18))</f>
+        <f t="shared" si="29"/>
         <v>3.625</v>
       </c>
       <c r="AJ31" s="23">
-        <f>((P31/2)+(1-(W31-0.25*X31+0.5*Y31))+(AD31/200)+(AA31/18))</f>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AK31" s="20">
-        <f>(((P31/2)+(1-W31)+(AD31/200)+(AA31/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>2.8301886792452828</v>
       </c>
       <c r="AL31" s="18">
-        <f>((P31/2)+(1-W31)+(AD31/200)+(AA31/9))</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AM31" s="15">
-        <f>((P31/2)+(1-W31)+(AD31/200))</f>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AN31" s="68">
-        <f>(((P31-Q31+1.25*Q31)/2)+(T31/3)-(W31-0.2*X31+0.5*Y31)+(AD31/250)+(AA31/18))*10</f>
+        <f t="shared" si="34"/>
         <v>22.583333333333332</v>
       </c>
     </row>
@@ -5712,35 +5755,35 @@
         <v>100</v>
       </c>
       <c r="AG32" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.96250000000000002</v>
       </c>
       <c r="AH32" s="66">
-        <f>(((P32-Q32+1.25*Q32)/2)+(T32/3)-(W32-0.2*X32+0.5*Y32)+(AD32/250)+(AA32/20))+1</f>
+        <f t="shared" si="28"/>
         <v>0.9</v>
       </c>
       <c r="AI32" s="62">
-        <f>(((P32-Q32+1.25*Q32+T32)/2)+(1-(W32-0.25*X32+0.5*Y32))+(AD32/200)+(AA32/18))</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AJ32" s="23">
-        <f>((P32/2)+(1-(W32-0.25*X32+0.5*Y32))+(AD32/200)+(AA32/18))</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AK32" s="20">
-        <f>(((P32/2)+(1-W32)+(AD32/200)+(AA32/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>0.94339622641509424</v>
       </c>
       <c r="AL32" s="18">
-        <f>((P32/2)+(1-W32)+(AD32/200)+(AA32/9))</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AM32" s="15">
-        <f>((P32/2)+(1-W32)+(AD32/200))</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AN32" s="68">
-        <f>(((P32-Q32+1.25*Q32)/2)+(T32/3)-(W32-0.2*X32+0.5*Y32)+(AD32/250)+(AA32/18))*10</f>
+        <f t="shared" si="34"/>
         <v>-0.99999999999999978</v>
       </c>
     </row>
@@ -5776,47 +5819,213 @@
         <v>100</v>
       </c>
       <c r="AG33" s="76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.9624999999999999</v>
       </c>
       <c r="AH33" s="66">
-        <f>(((P33-Q33+1.25*Q33)/2)+(T33/3)-(W33-0.2*X33+0.5*Y33)+(AD33/250)+(AA33/20))+1</f>
+        <f t="shared" si="28"/>
         <v>1.9</v>
       </c>
       <c r="AI33" s="62">
-        <f>(((P33-Q33+1.25*Q33+T33)/2)+(1-(W33-0.25*X33+0.5*Y33))+(AD33/200)+(AA33/18))</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AJ33" s="23">
-        <f>((P33/2)+(1-(W33-0.25*X33+0.5*Y33))+(AD33/200)+(AA33/18))</f>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="AK33" s="20">
-        <f>(((P33/2)+(1-W33)+(AD33/200)+(AA33/9)))/1.06</f>
+        <f t="shared" si="31"/>
         <v>1.8867924528301885</v>
       </c>
       <c r="AL33" s="18">
-        <f>((P33/2)+(1-W33)+(AD33/200)+(AA33/9))</f>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="AM33" s="15">
-        <f>((P33/2)+(1-W33)+(AD33/200))</f>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="AN33" s="68">
-        <f>(((P33-Q33+1.25*Q33)/2)+(T33/3)-(W33-0.2*X33+0.5*Y33)+(AD33/250)+(AA33/18))*10</f>
+        <f t="shared" si="34"/>
         <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>100</v>
+      </c>
+      <c r="AG34" s="76">
+        <f t="shared" si="27"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="AH34" s="66">
+        <f t="shared" si="28"/>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="AI34" s="62">
+        <f t="shared" si="29"/>
+        <v>1.125</v>
+      </c>
+      <c r="AJ34" s="23">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AK34" s="20">
+        <f t="shared" si="31"/>
+        <v>0.94339622641509424</v>
+      </c>
+      <c r="AL34" s="18">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AM34" s="15">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AN34" s="68">
+        <f t="shared" si="34"/>
+        <v>0.25000000000000022</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="P35" s="2">
+        <v>0.59071428571428564</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0.20548933087588797</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0.63642857142857134</v>
+      </c>
+      <c r="X35" s="2">
+        <v>3.3571428571428578E-2</v>
+      </c>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2">
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2">
+        <v>69.528571428571439</v>
+      </c>
+      <c r="AG35" s="76">
+        <f t="shared" si="27"/>
+        <v>1.0383123568356765</v>
+      </c>
+      <c r="AH35" s="66">
+        <f t="shared" si="28"/>
+        <v>1.0220623568356766</v>
+      </c>
+      <c r="AI35" s="62">
+        <f t="shared" si="29"/>
+        <v>1.1159679123912321</v>
+      </c>
+      <c r="AJ35" s="23">
+        <f t="shared" si="30"/>
+        <v>1.025281746031746</v>
+      </c>
+      <c r="AK35" s="20">
+        <f t="shared" si="31"/>
+        <v>0.96906259359089542</v>
+      </c>
+      <c r="AL35" s="18">
+        <f t="shared" si="32"/>
+        <v>1.0272063492063492</v>
+      </c>
+      <c r="AM35" s="15">
+        <f t="shared" si="33"/>
+        <v>1.0065714285714287</v>
+      </c>
+      <c r="AN35" s="68">
+        <f t="shared" si="34"/>
+        <v>0.23094102867422561</v>
+      </c>
     </row>
     <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>49</v>
       </c>
+      <c r="P36" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.13871912401324166</v>
+      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2">
+        <v>0.13534504710975298</v>
+      </c>
+      <c r="U36" s="2">
+        <v>4.8764960529666411E-2</v>
+      </c>
+      <c r="V36" s="2">
+        <v>5.2966641201935317E-2</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="X36" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2">
+        <v>61.884999999999998</v>
+      </c>
+      <c r="AG36" s="76">
+        <f t="shared" si="27"/>
+        <v>0.88653437653849421</v>
+      </c>
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -5849,15 +6058,20 @@
       </c>
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="B43" s="79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF15">
-    <sortCondition sortBy="cellColor" ref="AF14:AF15" dxfId="0"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS44">
+    <sortCondition sortBy="cellColor" ref="AE6:AE44" dxfId="0"/>
   </sortState>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/StatsTest.xlsx
+++ b/StatsTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B049D871-F08E-4005-AF54-7679D7F76768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509916B2-E701-4F7A-BD97-74AD07AD46D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="27465" windowHeight="15420" tabRatio="387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
   <si>
     <t>player</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Rating AF/EF is good as well, just doesn't work from match to match…only really good from a large sample size to compare between players.</t>
   </si>
   <si>
-    <t>1st-4th</t>
-  </si>
-  <si>
     <t>5th</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
     <t>PadRating</t>
   </si>
   <si>
-    <t>PadRating=[0.5*(kpr-okpr+1.25*okpr)+(mkpr/3)+((.25*1v1PR+1v2PR)/4)-(dpr-.2tdpr+.5spr)+(adr/250)+(efr/20)]+1</t>
-  </si>
-  <si>
     <t>EVP</t>
   </si>
   <si>
@@ -336,6 +330,9 @@
   </si>
   <si>
     <t>PadRating - Added clutches + other readjustments. Think this is the rating. Seems similar to HLTV2.0, also feels pretty good when ordering players in how good they are + the difference between them.</t>
+  </si>
+  <si>
+    <t>PadRating=[0.5*(kpr-okpr+1.2*okpr)+(mkpr/3)+((.25*1v1PR+1v2PR)/4)-(dpr-.15tdpr+.5spr)+(adr/250)+(efr/50)]+1</t>
   </si>
 </sst>
 </file>
@@ -624,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -766,31 +763,152 @@
     <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="14" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFBF4F14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFBF4F14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFBF4F14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFBF4F14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF1CEEE"/>
+          <bgColor rgb="FFF1CEEE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF1CEEE"/>
+          <bgColor rgb="FFF1CEEE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA02B93"/>
+          <bgColor rgb="FF0F9ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA02B93"/>
+          <bgColor rgb="FF0F9ED5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFBF4F14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FFBF4F14"/>
         </patternFill>
       </fill>
@@ -2136,7 +2254,7 @@
   <dimension ref="A1:AS44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2185,28 +2303,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="60" t="s">
-        <v>76</v>
-      </c>
       <c r="F1" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>90</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>91</v>
       </c>
       <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>4</v>
@@ -2224,31 +2342,31 @@
         <v>8</v>
       </c>
       <c r="Q1" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="S1" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="61" t="s">
-        <v>79</v>
-      </c>
       <c r="T1" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U1" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="51" t="s">
         <v>92</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>93</v>
       </c>
       <c r="W1" s="28" t="s">
         <v>9</v>
       </c>
       <c r="X1" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="51" t="s">
         <v>67</v>
-      </c>
-      <c r="Y1" s="51" t="s">
-        <v>68</v>
       </c>
       <c r="Z1" s="28" t="s">
         <v>10</v>
@@ -2271,29 +2389,29 @@
       <c r="AF1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="72" t="s">
-        <v>94</v>
+      <c r="AG1" s="71" t="s">
+        <v>93</v>
       </c>
       <c r="AH1" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI1" s="64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ1" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK1" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL1" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AM1" s="14" t="s">
         <v>46</v>
       </c>
       <c r="AN1" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO1" s="9" t="s">
         <v>42</v>
@@ -2312,663 +2430,663 @@
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="34">
-        <v>82</v>
-      </c>
-      <c r="C2" s="34">
-        <v>51</v>
-      </c>
-      <c r="D2" s="34">
-        <v>24</v>
-      </c>
-      <c r="E2" s="34">
-        <v>49</v>
-      </c>
-      <c r="F2" s="34">
+      <c r="A2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="29">
+        <v>105</v>
+      </c>
+      <c r="C2" s="29">
+        <v>52</v>
+      </c>
+      <c r="D2" s="29">
+        <v>38</v>
+      </c>
+      <c r="E2" s="29">
+        <v>58</v>
+      </c>
+      <c r="F2" s="29">
         <v>25</v>
       </c>
-      <c r="G2" s="34">
-        <v>8</v>
-      </c>
-      <c r="H2" s="34">
-        <v>9</v>
-      </c>
-      <c r="I2" s="34">
-        <v>67</v>
-      </c>
-      <c r="J2" s="34">
-        <v>3</v>
-      </c>
-      <c r="K2" s="34">
-        <v>0</v>
-      </c>
-      <c r="L2" s="34">
-        <v>506</v>
-      </c>
-      <c r="M2" s="34">
-        <v>21</v>
-      </c>
-      <c r="N2" s="34">
-        <v>9496</v>
-      </c>
-      <c r="O2" s="34">
-        <v>119</v>
-      </c>
-      <c r="P2" s="35">
-        <f t="shared" ref="P2:P15" si="0">ROUND(IMDIV(B2,O2),2)</f>
-        <v>0.69</v>
-      </c>
-      <c r="Q2" s="54">
-        <f t="shared" ref="Q2:Q15" si="1">(D2/O2)</f>
-        <v>0.20168067226890757</v>
-      </c>
-      <c r="R2" s="54">
-        <f t="shared" ref="R2:R15" si="2">(E2/O2)*100</f>
-        <v>41.17647058823529</v>
-      </c>
-      <c r="S2" s="35">
-        <f t="shared" ref="S2:S15" si="3">ROUND((D2/E2)*100,2)</f>
-        <v>48.98</v>
-      </c>
-      <c r="T2" s="54">
-        <f t="shared" ref="T2:T15" si="4">F2/O2</f>
-        <v>0.21008403361344538</v>
-      </c>
-      <c r="U2" s="54">
-        <f t="shared" ref="U2:U15" si="5">G2/O2</f>
-        <v>6.7226890756302518E-2</v>
-      </c>
-      <c r="V2" s="54">
-        <f t="shared" ref="V2:V15" si="6">H2/O2</f>
-        <v>7.5630252100840331E-2</v>
-      </c>
-      <c r="W2" s="35">
-        <f t="shared" ref="W2:W15" si="7">ROUND(IMDIV(I2,O2),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="X2" s="35">
-        <f t="shared" ref="X2:X15" si="8">ROUND(IMDIV(J2,O2),2)</f>
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="35">
-        <f t="shared" ref="Y2:Y15" si="9">ROUND(IMDIV(K2,O2),2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="35">
-        <f t="shared" ref="Z2:Z15" si="10">ROUND(IMDIV(L2,O2),2)</f>
-        <v>4.25</v>
-      </c>
-      <c r="AA2" s="35">
-        <f t="shared" ref="AA2:AA15" si="11">ROUND(IMDIV(M2,O2),2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="AB2" s="35">
-        <f t="shared" ref="AB2:AB15" si="12">ROUND(IMDIV(B2,I2),2)</f>
-        <v>1.22</v>
-      </c>
-      <c r="AC2" s="35">
-        <f t="shared" ref="AC2:AC15" si="13">ROUND(IMDIV(C2,B2),4)*100</f>
-        <v>62.2</v>
-      </c>
-      <c r="AD2" s="35">
-        <f t="shared" ref="AD2:AD15" si="14">ROUND(IMDIV(N2,O2),2)</f>
-        <v>79.8</v>
-      </c>
-      <c r="AE2" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF2" s="34" t="s">
+      <c r="G2" s="29">
+        <v>17</v>
+      </c>
+      <c r="H2" s="29">
+        <v>10</v>
+      </c>
+      <c r="I2" s="29">
+        <v>66</v>
+      </c>
+      <c r="J2" s="29">
+        <v>0</v>
+      </c>
+      <c r="K2" s="29">
+        <v>0</v>
+      </c>
+      <c r="L2" s="29">
+        <v>398</v>
+      </c>
+      <c r="M2" s="29">
+        <v>30</v>
+      </c>
+      <c r="N2" s="29">
+        <v>10873</v>
+      </c>
+      <c r="O2" s="29">
+        <v>135</v>
+      </c>
+      <c r="P2" s="30">
+        <f>ROUND(IMDIV(B2,O2),2)</f>
+        <v>0.78</v>
+      </c>
+      <c r="Q2" s="52">
+        <f>(D2/O2)</f>
+        <v>0.2814814814814815</v>
+      </c>
+      <c r="R2" s="52">
+        <f>(E2/O2)*100</f>
+        <v>42.962962962962962</v>
+      </c>
+      <c r="S2" s="30">
+        <f>ROUND((D2/E2)*100,2)</f>
+        <v>65.52</v>
+      </c>
+      <c r="T2" s="52">
+        <f>F2/O2</f>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="U2" s="52">
+        <f>G2/O2</f>
+        <v>0.12592592592592591</v>
+      </c>
+      <c r="V2" s="52">
+        <f>H2/O2</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="W2" s="30">
+        <f>ROUND(IMDIV(I2,O2),2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="X2" s="30">
+        <f>ROUND(IMDIV(J2,O2),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="30">
+        <f>ROUND(IMDIV(K2,O2),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="30">
+        <f>ROUND(IMDIV(L2,O2),2)</f>
+        <v>2.95</v>
+      </c>
+      <c r="AA2" s="30">
+        <f>ROUND(IMDIV(M2,O2),2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="AB2" s="30">
+        <f>ROUND(IMDIV(B2,I2),2)</f>
+        <v>1.59</v>
+      </c>
+      <c r="AC2" s="30">
+        <f>ROUND(IMDIV(C2,B2),4)*100</f>
+        <v>49.519999999999996</v>
+      </c>
+      <c r="AD2" s="30">
+        <f>ROUND(IMDIV(N2,O2),2)</f>
+        <v>80.540000000000006</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="76">
-        <f t="shared" ref="AG2:AG15" si="15">(((P2-Q2+1.25*Q2)/2)+(T2/3)+0.25*((U2/4)+V2)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/20))+1</f>
-        <v>1.237547338935574</v>
+      <c r="AG2" s="73">
+        <f>(((P2-Q2+1.2*Q2)/2)+(T2/3)+0.25*((U2/4)+V2)-(W2-0.1*X2+0.5*Y2)+(AD2/250)+(AA2/50))+1</f>
+        <v>1.3428254320987654</v>
       </c>
       <c r="AH2" s="66">
-        <f t="shared" ref="AH2:AH15" si="16">(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/20))+1</f>
-        <v>1.2144380952380951</v>
+        <f>(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/20))+1</f>
+        <v>1.3300735802469137</v>
       </c>
       <c r="AI2" s="62">
-        <f t="shared" ref="AI2:AI15" si="17">(((P2-Q2+1.25*Q2+T2)/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
-        <v>1.3317521008403361</v>
+        <f>(((P2-Q2+1.25*Q2+T2)/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
+        <v>1.4426999999999999</v>
       </c>
       <c r="AJ2" s="23">
-        <f t="shared" ref="AJ2:AJ15" si="18">((P2/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
-        <v>1.2014999999999998</v>
+        <f>((P2/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
+        <v>1.3149222222222223</v>
       </c>
       <c r="AK2" s="20">
-        <f t="shared" ref="AK2:AK15" si="19">(((P2/2)+(1-W2)+(AD2/200)+(AA2/9)))/1.06</f>
-        <v>1.1358490566037736</v>
+        <f>(((P2/2)+(1-W2)+(AD2/200)+(AA2/9)))/1.06</f>
+        <v>1.2520230607966458</v>
       </c>
       <c r="AL2" s="18">
-        <f t="shared" ref="AL2:AL15" si="20">((P2/2)+(1-W2)+(AD2/200)+(AA2/9))</f>
-        <v>1.204</v>
+        <f>((P2/2)+(1-W2)+(AD2/200)+(AA2/9))</f>
+        <v>1.3271444444444447</v>
       </c>
       <c r="AM2" s="15">
-        <f t="shared" ref="AM2:AM15" si="21">((P2/2)+(1-W2)+(AD2/200))</f>
-        <v>1.1839999999999999</v>
+        <f>((P2/2)+(1-W2)+(AD2/200))</f>
+        <v>1.3027000000000002</v>
       </c>
       <c r="AN2" s="68">
-        <f t="shared" ref="AN2:AN15" si="22">(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/18))*10</f>
-        <v>2.1543809523809516</v>
+        <f>(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/18))*10</f>
+        <v>3.3129580246913588</v>
       </c>
       <c r="AO2" s="10">
         <f>(((P2-P12)-(W2-W12)+((AD2-AD12)/100))/2)*10</f>
-        <v>-0.60200000000000076</v>
+        <v>0.23500000000000049</v>
       </c>
       <c r="AP2" s="2">
         <f>(((P2-P12)-(W2-W12)+(AD2-AD12))/100)+1</f>
-        <v>0.84</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="AQ2" s="12">
         <f>((P2-P12)-(W2-W12)+((AD2-AD12)/100))*10</f>
-        <v>-1.2040000000000015</v>
+        <v>0.47000000000000097</v>
       </c>
       <c r="AR2" s="12">
         <f>((P2-P12)-(W2-W12)+((AD2-AD12)/116))+1</f>
-        <v>0.90172413793103434</v>
+        <v>1.0681034482758622</v>
       </c>
       <c r="AS2" s="5">
         <f>(((P2-P12)-(W2-W12)+((AD2-AD12)/100))/2)+1</f>
-        <v>0.93979999999999997</v>
+        <v>1.0235000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="34">
-        <v>87</v>
-      </c>
-      <c r="C3" s="34">
-        <v>38</v>
-      </c>
-      <c r="D3" s="34">
-        <v>40</v>
-      </c>
-      <c r="E3" s="34">
-        <v>70</v>
-      </c>
-      <c r="F3" s="34">
-        <v>24</v>
-      </c>
-      <c r="G3" s="34">
+      <c r="A3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="29">
+        <v>80</v>
+      </c>
+      <c r="C3" s="29">
+        <v>34</v>
+      </c>
+      <c r="D3" s="29">
+        <v>39</v>
+      </c>
+      <c r="E3" s="29">
+        <v>77</v>
+      </c>
+      <c r="F3" s="29">
+        <v>16</v>
+      </c>
+      <c r="G3" s="29">
         <v>6</v>
       </c>
-      <c r="H3" s="34">
-        <v>12</v>
-      </c>
-      <c r="I3" s="34">
-        <v>65</v>
-      </c>
-      <c r="J3" s="34">
-        <v>6</v>
-      </c>
-      <c r="K3" s="34">
-        <v>0</v>
-      </c>
-      <c r="L3" s="34">
-        <v>384</v>
-      </c>
-      <c r="M3" s="34">
-        <v>22</v>
-      </c>
-      <c r="N3" s="34">
-        <v>9576</v>
-      </c>
-      <c r="O3" s="34">
-        <v>119</v>
-      </c>
-      <c r="P3" s="35">
-        <f t="shared" si="0"/>
-        <v>0.73</v>
-      </c>
-      <c r="Q3" s="54">
-        <f t="shared" si="1"/>
-        <v>0.33613445378151263</v>
-      </c>
-      <c r="R3" s="54">
-        <f t="shared" si="2"/>
-        <v>58.82352941176471</v>
-      </c>
-      <c r="S3" s="35">
-        <f t="shared" si="3"/>
-        <v>57.14</v>
-      </c>
-      <c r="T3" s="54">
-        <f t="shared" si="4"/>
-        <v>0.20168067226890757</v>
-      </c>
-      <c r="U3" s="54">
-        <f t="shared" si="5"/>
-        <v>5.0420168067226892E-2</v>
-      </c>
-      <c r="V3" s="54">
-        <f t="shared" si="6"/>
-        <v>0.10084033613445378</v>
-      </c>
-      <c r="W3" s="35">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="X3" s="35">
-        <f t="shared" si="8"/>
-        <v>0.05</v>
-      </c>
-      <c r="Y3" s="35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="35">
-        <f t="shared" si="10"/>
-        <v>3.23</v>
-      </c>
-      <c r="AA3" s="35">
-        <f t="shared" si="11"/>
-        <v>0.18</v>
-      </c>
-      <c r="AB3" s="35">
-        <f t="shared" si="12"/>
-        <v>1.34</v>
-      </c>
-      <c r="AC3" s="35">
-        <f t="shared" si="13"/>
-        <v>43.68</v>
-      </c>
-      <c r="AD3" s="35">
-        <f t="shared" si="14"/>
-        <v>80.47</v>
-      </c>
-      <c r="AE3" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF3" s="34" t="s">
+      <c r="H3" s="29">
+        <v>5</v>
+      </c>
+      <c r="I3" s="29">
+        <v>82</v>
+      </c>
+      <c r="J3" s="29">
+        <v>5</v>
+      </c>
+      <c r="K3" s="29">
+        <v>0</v>
+      </c>
+      <c r="L3" s="29">
+        <v>343</v>
+      </c>
+      <c r="M3" s="29">
+        <v>27</v>
+      </c>
+      <c r="N3" s="29">
+        <v>9656</v>
+      </c>
+      <c r="O3" s="29">
+        <v>135</v>
+      </c>
+      <c r="P3" s="30">
+        <f>ROUND(IMDIV(B3,O3),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="Q3" s="52">
+        <f>(D3/O3)</f>
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="R3" s="52">
+        <f>(E3/O3)*100</f>
+        <v>57.037037037037038</v>
+      </c>
+      <c r="S3" s="30">
+        <f>ROUND((D3/E3)*100,2)</f>
+        <v>50.65</v>
+      </c>
+      <c r="T3" s="52">
+        <f>F3/O3</f>
+        <v>0.11851851851851852</v>
+      </c>
+      <c r="U3" s="52">
+        <f>G3/O3</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="V3" s="52">
+        <f>H3/O3</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="W3" s="30">
+        <f>ROUND(IMDIV(I3,O3),2)</f>
+        <v>0.61</v>
+      </c>
+      <c r="X3" s="30">
+        <f>ROUND(IMDIV(J3,O3),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="Y3" s="30">
+        <f>ROUND(IMDIV(K3,O3),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="30">
+        <f>ROUND(IMDIV(L3,O3),2)</f>
+        <v>2.54</v>
+      </c>
+      <c r="AA3" s="30">
+        <f>ROUND(IMDIV(M3,O3),2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AB3" s="30">
+        <f>ROUND(IMDIV(B3,I3),2)</f>
+        <v>0.98</v>
+      </c>
+      <c r="AC3" s="30">
+        <f>ROUND(IMDIV(C3,B3),4)*100</f>
+        <v>42.5</v>
+      </c>
+      <c r="AD3" s="30">
+        <f>ROUND(IMDIV(N3,O3),2)</f>
+        <v>71.53</v>
+      </c>
+      <c r="AE3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AG3" s="76">
-        <f t="shared" si="15"/>
-        <v>1.2934850420168067</v>
+      <c r="AG3" s="73">
+        <f t="shared" ref="AG3:AG15" si="0">(((P3-Q3+1.2*Q3)/2)+(T3/3)+0.25*((U3/4)+V3)-(W3-0.1*X3+0.5*Y3)+(AD3/250)+(AA3/50))+1</f>
+        <v>1.0595520987654321</v>
       </c>
       <c r="AH3" s="66">
-        <f t="shared" si="16"/>
-        <v>1.2651236974789914</v>
+        <f>(((P3-Q3+1.25*Q3)/2)+(T3/3)-(W3-0.2*X3+0.5*Y3)+(AD3/250)+(AA3/20))+1</f>
+        <v>1.0647372839506173</v>
       </c>
       <c r="AI3" s="62">
-        <f t="shared" si="17"/>
-        <v>1.3827071428571427</v>
+        <f>(((P3-Q3+1.25*Q3+T3)/2)+(1-(W3-0.25*X3+0.5*Y3))+(AD3/200)+(AA3/18))</f>
+        <v>1.1591314814814815</v>
       </c>
       <c r="AJ3" s="23">
-        <f t="shared" si="18"/>
-        <v>1.2398499999999999</v>
+        <f>((P3/2)+(1-(W3-0.25*X3+0.5*Y3))+(AD3/200)+(AA3/18))</f>
+        <v>1.0637611111111112</v>
       </c>
       <c r="AK3" s="20">
-        <f t="shared" si="19"/>
-        <v>1.1673113207547168</v>
+        <f>(((P3/2)+(1-W3)+(AD3/200)+(AA3/9)))/1.06</f>
+        <v>1.0045964360587001</v>
       </c>
       <c r="AL3" s="18">
-        <f t="shared" si="20"/>
-        <v>1.2373499999999999</v>
+        <f>((P3/2)+(1-W3)+(AD3/200)+(AA3/9))</f>
+        <v>1.0648722222222222</v>
       </c>
       <c r="AM3" s="15">
-        <f t="shared" si="21"/>
-        <v>1.2173499999999999</v>
+        <f>((P3/2)+(1-W3)+(AD3/200))</f>
+        <v>1.0426500000000001</v>
       </c>
       <c r="AN3" s="68">
-        <f t="shared" si="22"/>
-        <v>2.6612369747899156</v>
+        <f>(((P3-Q3+1.25*Q3)/2)+(T3/3)-(W3-0.2*X3+0.5*Y3)+(AD3/250)+(AA3/18))*10</f>
+        <v>0.65848395061728393</v>
       </c>
       <c r="AO3" s="10">
-        <f>(((P3-P12)-(W3-W12)+((AD3-AD12)/100))/2)*10</f>
-        <v>-0.31850000000000045</v>
+        <f>(((P3-P14)-(W3-W14)+((AD3-AD14)/100))/2)*10</f>
+        <v>3.8280000000000003</v>
       </c>
       <c r="AP3" s="2">
-        <f>(((P3-P12)-(W3-W12)+(AD3-AD12))/100)+1</f>
-        <v>0.84719999999999995</v>
+        <f>(((P3-P14)-(W3-W14)+(AD3-AD14))/100)+1</f>
+        <v>1.2805</v>
       </c>
       <c r="AQ3" s="12">
-        <f>((P3-P12)-(W3-W12)+((AD3-AD12)/100))*10</f>
-        <v>-0.6370000000000009</v>
+        <f>((P3-P14)-(W3-W14)+((AD3-AD14)/100))*10</f>
+        <v>7.6560000000000006</v>
       </c>
       <c r="AR3" s="12">
-        <f>((P3-P12)-(W3-W12)+((AD3-AD12)/116))+1</f>
-        <v>0.95749999999999991</v>
+        <f>((P3-P14)-(W3-W14)+((AD3-AD14)/116))+1</f>
+        <v>1.7275862068965517</v>
       </c>
       <c r="AS3" s="5">
-        <f>(((P3-P12)-(W3-W12)+((AD3-AD12)/100))/2)+1</f>
-        <v>0.96814999999999996</v>
+        <f>(((P3-P14)-(W3-W14)+((AD3-AD14)/100))/2)+1</f>
+        <v>1.3828</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="29">
-        <v>105</v>
-      </c>
-      <c r="C4" s="29">
-        <v>52</v>
-      </c>
-      <c r="D4" s="29">
+      <c r="A4" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="34">
+        <v>87</v>
+      </c>
+      <c r="C4" s="34">
         <v>38</v>
       </c>
-      <c r="E4" s="29">
-        <v>58</v>
-      </c>
-      <c r="F4" s="29">
-        <v>25</v>
-      </c>
-      <c r="G4" s="29">
-        <v>17</v>
-      </c>
-      <c r="H4" s="29">
-        <v>10</v>
-      </c>
-      <c r="I4" s="29">
-        <v>66</v>
-      </c>
-      <c r="J4" s="29">
-        <v>0</v>
-      </c>
-      <c r="K4" s="29">
-        <v>0</v>
-      </c>
-      <c r="L4" s="29">
-        <v>398</v>
-      </c>
-      <c r="M4" s="29">
-        <v>30</v>
-      </c>
-      <c r="N4" s="29">
-        <v>10873</v>
-      </c>
-      <c r="O4" s="29">
-        <v>135</v>
-      </c>
-      <c r="P4" s="30">
+      <c r="D4" s="34">
+        <v>40</v>
+      </c>
+      <c r="E4" s="34">
+        <v>70</v>
+      </c>
+      <c r="F4" s="34">
+        <v>24</v>
+      </c>
+      <c r="G4" s="34">
+        <v>6</v>
+      </c>
+      <c r="H4" s="34">
+        <v>12</v>
+      </c>
+      <c r="I4" s="34">
+        <v>65</v>
+      </c>
+      <c r="J4" s="34">
+        <v>6</v>
+      </c>
+      <c r="K4" s="34">
+        <v>0</v>
+      </c>
+      <c r="L4" s="34">
+        <v>384</v>
+      </c>
+      <c r="M4" s="34">
+        <v>22</v>
+      </c>
+      <c r="N4" s="34">
+        <v>9576</v>
+      </c>
+      <c r="O4" s="34">
+        <v>119</v>
+      </c>
+      <c r="P4" s="35">
+        <f>ROUND(IMDIV(B4,O4),2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="Q4" s="54">
+        <f>(D4/O4)</f>
+        <v>0.33613445378151263</v>
+      </c>
+      <c r="R4" s="54">
+        <f>(E4/O4)*100</f>
+        <v>58.82352941176471</v>
+      </c>
+      <c r="S4" s="35">
+        <f>ROUND((D4/E4)*100,2)</f>
+        <v>57.14</v>
+      </c>
+      <c r="T4" s="54">
+        <f>F4/O4</f>
+        <v>0.20168067226890757</v>
+      </c>
+      <c r="U4" s="54">
+        <f>G4/O4</f>
+        <v>5.0420168067226892E-2</v>
+      </c>
+      <c r="V4" s="54">
+        <f>H4/O4</f>
+        <v>0.10084033613445378</v>
+      </c>
+      <c r="W4" s="35">
+        <f>ROUND(IMDIV(I4,O4),2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X4" s="35">
+        <f>ROUND(IMDIV(J4,O4),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="Y4" s="35">
+        <f>ROUND(IMDIV(K4,O4),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="35">
+        <f>ROUND(IMDIV(L4,O4),2)</f>
+        <v>3.23</v>
+      </c>
+      <c r="AA4" s="35">
+        <f>ROUND(IMDIV(M4,O4),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="AB4" s="35">
+        <f>ROUND(IMDIV(B4,I4),2)</f>
+        <v>1.34</v>
+      </c>
+      <c r="AC4" s="35">
+        <f>ROUND(IMDIV(C4,B4),4)*100</f>
+        <v>43.68</v>
+      </c>
+      <c r="AD4" s="35">
+        <f>ROUND(IMDIV(N4,O4),2)</f>
+        <v>80.47</v>
+      </c>
+      <c r="AE4" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="73">
         <f t="shared" si="0"/>
-        <v>0.78</v>
-      </c>
-      <c r="Q4" s="52">
-        <f t="shared" si="1"/>
-        <v>0.2814814814814815</v>
-      </c>
-      <c r="R4" s="52">
-        <f t="shared" si="2"/>
-        <v>42.962962962962962</v>
-      </c>
-      <c r="S4" s="30">
-        <f t="shared" si="3"/>
-        <v>65.52</v>
-      </c>
-      <c r="T4" s="52">
-        <f t="shared" si="4"/>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="U4" s="52">
-        <f t="shared" si="5"/>
-        <v>0.12592592592592591</v>
-      </c>
-      <c r="V4" s="52">
-        <f t="shared" si="6"/>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="W4" s="30">
-        <f t="shared" si="7"/>
-        <v>0.49</v>
-      </c>
-      <c r="X4" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="30">
-        <f t="shared" si="10"/>
-        <v>2.95</v>
-      </c>
-      <c r="AA4" s="30">
-        <f t="shared" si="11"/>
-        <v>0.22</v>
-      </c>
-      <c r="AB4" s="30">
-        <f t="shared" si="12"/>
-        <v>1.59</v>
-      </c>
-      <c r="AC4" s="30">
-        <f t="shared" si="13"/>
-        <v>49.519999999999996</v>
-      </c>
-      <c r="AD4" s="30">
-        <f t="shared" si="14"/>
-        <v>80.540000000000006</v>
-      </c>
-      <c r="AE4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG4" s="76">
-        <f t="shared" si="15"/>
-        <v>1.3564624691358025</v>
+        <v>1.2746816806722689</v>
       </c>
       <c r="AH4" s="66">
-        <f t="shared" si="16"/>
-        <v>1.3300735802469137</v>
+        <f>(((P4-Q4+1.25*Q4)/2)+(T4/3)-(W4-0.2*X4+0.5*Y4)+(AD4/250)+(AA4/20))+1</f>
+        <v>1.2651236974789914</v>
       </c>
       <c r="AI4" s="62">
-        <f t="shared" si="17"/>
-        <v>1.4426999999999999</v>
+        <f>(((P4-Q4+1.25*Q4+T4)/2)+(1-(W4-0.25*X4+0.5*Y4))+(AD4/200)+(AA4/18))</f>
+        <v>1.3827071428571427</v>
       </c>
       <c r="AJ4" s="23">
-        <f t="shared" si="18"/>
-        <v>1.3149222222222223</v>
+        <f>((P4/2)+(1-(W4-0.25*X4+0.5*Y4))+(AD4/200)+(AA4/18))</f>
+        <v>1.2398499999999999</v>
       </c>
       <c r="AK4" s="20">
-        <f t="shared" si="19"/>
-        <v>1.2520230607966458</v>
+        <f>(((P4/2)+(1-W4)+(AD4/200)+(AA4/9)))/1.06</f>
+        <v>1.1673113207547168</v>
       </c>
       <c r="AL4" s="18">
-        <f t="shared" si="20"/>
-        <v>1.3271444444444447</v>
+        <f>((P4/2)+(1-W4)+(AD4/200)+(AA4/9))</f>
+        <v>1.2373499999999999</v>
       </c>
       <c r="AM4" s="15">
-        <f t="shared" si="21"/>
-        <v>1.3027000000000002</v>
+        <f>((P4/2)+(1-W4)+(AD4/200))</f>
+        <v>1.2173499999999999</v>
       </c>
       <c r="AN4" s="68">
-        <f t="shared" si="22"/>
-        <v>3.3129580246913588</v>
+        <f>(((P4-Q4+1.25*Q4)/2)+(T4/3)-(W4-0.2*X4+0.5*Y4)+(AD4/250)+(AA4/18))*10</f>
+        <v>2.6612369747899156</v>
       </c>
       <c r="AO4" s="10">
-        <f>(((P4-P18)-(W4-W18)+((AD4-AD18)/100))/2)*10</f>
-        <v>5.4770000000000003</v>
+        <f>(((P4-P17)-(W4-W17)+((AD4-AD17)/100))/2)*10</f>
+        <v>2.3784999999999994</v>
       </c>
       <c r="AP4" s="2">
-        <f>(((P4-P18)-(W4-W18)+(AD4-AD18))/100)+1</f>
-        <v>1.8083</v>
+        <f>(((P4-P17)-(W4-W17)+(AD4-AD17))/100)+1</f>
+        <v>1.14405</v>
       </c>
       <c r="AQ4" s="12">
-        <f>((P4-P18)-(W4-W18)+((AD4-AD18)/100))*10</f>
-        <v>10.954000000000001</v>
+        <f>((P4-P17)-(W4-W17)+((AD4-AD17)/100))*10</f>
+        <v>4.7569999999999988</v>
       </c>
       <c r="AR4" s="12">
-        <f>((P4-P18)-(W4-W18)+((AD4-AD18)/116))+1</f>
-        <v>1.9843103448275863</v>
+        <f>((P4-P17)-(W4-W17)+((AD4-AD17)/116))+1</f>
+        <v>1.4562931034482758</v>
       </c>
       <c r="AS4" s="5">
-        <f>(((P4-P18)-(W4-W18)+((AD4-AD18)/100))/2)+1</f>
-        <v>1.5477000000000001</v>
+        <f>(((P4-P17)-(W4-W17)+((AD4-AD17)/100))/2)+1</f>
+        <v>1.2378499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="29">
-        <v>80</v>
-      </c>
-      <c r="C5" s="29">
-        <v>34</v>
-      </c>
-      <c r="D5" s="29">
-        <v>39</v>
-      </c>
-      <c r="E5" s="29">
-        <v>77</v>
-      </c>
-      <c r="F5" s="29">
-        <v>16</v>
-      </c>
-      <c r="G5" s="29">
-        <v>6</v>
-      </c>
-      <c r="H5" s="29">
-        <v>5</v>
-      </c>
-      <c r="I5" s="29">
+      <c r="A5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="34">
         <v>82</v>
       </c>
-      <c r="J5" s="29">
-        <v>5</v>
-      </c>
-      <c r="K5" s="29">
-        <v>0</v>
-      </c>
-      <c r="L5" s="29">
-        <v>343</v>
-      </c>
-      <c r="M5" s="29">
-        <v>27</v>
-      </c>
-      <c r="N5" s="29">
-        <v>9656</v>
-      </c>
-      <c r="O5" s="29">
-        <v>135</v>
-      </c>
-      <c r="P5" s="30">
+      <c r="C5" s="34">
+        <v>51</v>
+      </c>
+      <c r="D5" s="34">
+        <v>24</v>
+      </c>
+      <c r="E5" s="34">
+        <v>49</v>
+      </c>
+      <c r="F5" s="34">
+        <v>25</v>
+      </c>
+      <c r="G5" s="34">
+        <v>8</v>
+      </c>
+      <c r="H5" s="34">
+        <v>9</v>
+      </c>
+      <c r="I5" s="34">
+        <v>67</v>
+      </c>
+      <c r="J5" s="34">
+        <v>3</v>
+      </c>
+      <c r="K5" s="34">
+        <v>0</v>
+      </c>
+      <c r="L5" s="34">
+        <v>506</v>
+      </c>
+      <c r="M5" s="34">
+        <v>21</v>
+      </c>
+      <c r="N5" s="34">
+        <v>9496</v>
+      </c>
+      <c r="O5" s="34">
+        <v>119</v>
+      </c>
+      <c r="P5" s="35">
+        <f>ROUND(IMDIV(B5,O5),2)</f>
+        <v>0.69</v>
+      </c>
+      <c r="Q5" s="54">
+        <f>(D5/O5)</f>
+        <v>0.20168067226890757</v>
+      </c>
+      <c r="R5" s="54">
+        <f>(E5/O5)*100</f>
+        <v>41.17647058823529</v>
+      </c>
+      <c r="S5" s="35">
+        <f>ROUND((D5/E5)*100,2)</f>
+        <v>48.98</v>
+      </c>
+      <c r="T5" s="54">
+        <f>F5/O5</f>
+        <v>0.21008403361344538</v>
+      </c>
+      <c r="U5" s="54">
+        <f>G5/O5</f>
+        <v>6.7226890756302518E-2</v>
+      </c>
+      <c r="V5" s="54">
+        <f>H5/O5</f>
+        <v>7.5630252100840331E-2</v>
+      </c>
+      <c r="W5" s="35">
+        <f>ROUND(IMDIV(I5,O5),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X5" s="35">
+        <f>ROUND(IMDIV(J5,O5),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y5" s="35">
+        <f>ROUND(IMDIV(K5,O5),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="35">
+        <f>ROUND(IMDIV(L5,O5),2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="AA5" s="35">
+        <f>ROUND(IMDIV(M5,O5),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="AB5" s="35">
+        <f>ROUND(IMDIV(B5,I5),2)</f>
+        <v>1.22</v>
+      </c>
+      <c r="AC5" s="35">
+        <f>ROUND(IMDIV(C5,B5),4)*100</f>
+        <v>62.2</v>
+      </c>
+      <c r="AD5" s="35">
+        <f>ROUND(IMDIV(N5,O5),2)</f>
+        <v>79.8</v>
+      </c>
+      <c r="AE5" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF5" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG5" s="73">
         <f t="shared" si="0"/>
-        <v>0.59</v>
-      </c>
-      <c r="Q5" s="52">
-        <f t="shared" si="1"/>
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="R5" s="52">
-        <f t="shared" si="2"/>
-        <v>57.037037037037038</v>
-      </c>
-      <c r="S5" s="30">
-        <f t="shared" si="3"/>
-        <v>50.65</v>
-      </c>
-      <c r="T5" s="52">
-        <f t="shared" si="4"/>
-        <v>0.11851851851851852</v>
-      </c>
-      <c r="U5" s="52">
-        <f t="shared" si="5"/>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="V5" s="52">
-        <f t="shared" si="6"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="W5" s="30">
-        <f t="shared" si="7"/>
-        <v>0.61</v>
-      </c>
-      <c r="X5" s="30">
-        <f t="shared" si="8"/>
-        <v>0.04</v>
-      </c>
-      <c r="Y5" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="30">
-        <f t="shared" si="10"/>
-        <v>2.54</v>
-      </c>
-      <c r="AA5" s="30">
-        <f t="shared" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="AB5" s="30">
-        <f t="shared" si="12"/>
-        <v>0.98</v>
-      </c>
-      <c r="AC5" s="30">
-        <f t="shared" si="13"/>
-        <v>42.5</v>
-      </c>
-      <c r="AD5" s="30">
-        <f t="shared" si="14"/>
-        <v>71.53</v>
-      </c>
-      <c r="AE5" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG5" s="76">
-        <f t="shared" si="15"/>
-        <v>1.0767743209876544</v>
+        <v>1.2241053221288514</v>
       </c>
       <c r="AH5" s="66">
-        <f t="shared" si="16"/>
-        <v>1.0647372839506173</v>
+        <f>(((P5-Q5+1.25*Q5)/2)+(T5/3)-(W5-0.2*X5+0.5*Y5)+(AD5/250)+(AA5/20))+1</f>
+        <v>1.2144380952380951</v>
       </c>
       <c r="AI5" s="62">
-        <f t="shared" si="17"/>
-        <v>1.1591314814814815</v>
+        <f>(((P5-Q5+1.25*Q5+T5)/2)+(1-(W5-0.25*X5+0.5*Y5))+(AD5/200)+(AA5/18))</f>
+        <v>1.3317521008403361</v>
       </c>
       <c r="AJ5" s="23">
-        <f t="shared" si="18"/>
-        <v>1.0637611111111112</v>
+        <f>((P5/2)+(1-(W5-0.25*X5+0.5*Y5))+(AD5/200)+(AA5/18))</f>
+        <v>1.2014999999999998</v>
       </c>
       <c r="AK5" s="20">
-        <f t="shared" si="19"/>
-        <v>1.0045964360587001</v>
+        <f>(((P5/2)+(1-W5)+(AD5/200)+(AA5/9)))/1.06</f>
+        <v>1.1358490566037736</v>
       </c>
       <c r="AL5" s="18">
-        <f t="shared" si="20"/>
-        <v>1.0648722222222222</v>
+        <f>((P5/2)+(1-W5)+(AD5/200)+(AA5/9))</f>
+        <v>1.204</v>
       </c>
       <c r="AM5" s="15">
-        <f t="shared" si="21"/>
-        <v>1.0426500000000001</v>
+        <f>((P5/2)+(1-W5)+(AD5/200))</f>
+        <v>1.1839999999999999</v>
       </c>
       <c r="AN5" s="68">
-        <f t="shared" si="22"/>
-        <v>0.65848395061728393</v>
+        <f>(((P5-Q5+1.25*Q5)/2)+(T5/3)-(W5-0.2*X5+0.5*Y5)+(AD5/250)+(AA5/18))*10</f>
+        <v>2.1543809523809516</v>
       </c>
       <c r="AO5" s="10">
-        <f>(((P5-P18)-(W5-W18)+((AD5-AD18)/100))/2)*10</f>
-        <v>3.4765000000000001</v>
+        <f>(((P5-P13)-(W5-W13)+((AD5-AD13)/100))/2)*10</f>
+        <v>5.4099999999999993</v>
       </c>
       <c r="AP5" s="2">
-        <f>(((P5-P18)-(W5-W18)+(AD5-AD18))/100)+1</f>
-        <v>1.7151000000000001</v>
+        <f>(((P5-P13)-(W5-W13)+(AD5-AD13))/100)+1</f>
+        <v>1.4781</v>
       </c>
       <c r="AQ5" s="12">
-        <f>((P5-P18)-(W5-W18)+((AD5-AD18)/100))*10</f>
-        <v>6.9530000000000003</v>
+        <f>((P5-P13)-(W5-W13)+((AD5-AD13)/100))*10</f>
+        <v>10.819999999999999</v>
       </c>
       <c r="AR5" s="12">
-        <f>((P5-P18)-(W5-W18)+((AD5-AD18)/116))+1</f>
-        <v>1.5966379310344827</v>
+        <f>((P5-P13)-(W5-W13)+((AD5-AD13)/116))+1</f>
+        <v>2.0168965517241375</v>
       </c>
       <c r="AS5" s="5">
-        <f>(((P5-P18)-(W5-W18)+((AD5-AD18)/100))/2)+1</f>
-        <v>1.34765</v>
+        <f>(((P5-P13)-(W5-W13)+((AD5-AD13)/100))/2)+1</f>
+        <v>1.5409999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -3018,122 +3136,122 @@
         <v>150</v>
       </c>
       <c r="P6" s="38">
+        <f>ROUND(IMDIV(B6,O6),2)</f>
+        <v>0.77</v>
+      </c>
+      <c r="Q6" s="55">
+        <f>(D6/O6)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="R6" s="55">
+        <f>(E6/O6)*100</f>
+        <v>48</v>
+      </c>
+      <c r="S6" s="38">
+        <f>ROUND((D6/E6)*100,2)</f>
+        <v>55.56</v>
+      </c>
+      <c r="T6" s="55">
+        <f>F6/O6</f>
+        <v>0.20666666666666667</v>
+      </c>
+      <c r="U6" s="55">
+        <f>G6/O6</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="V6" s="55">
+        <f>H6/O6</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="W6" s="38">
+        <f>ROUND(IMDIV(I6,O6),2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X6" s="38">
+        <f>ROUND(IMDIV(J6,O6),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="Y6" s="38">
+        <f>ROUND(IMDIV(K6,O6),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="Z6" s="38">
+        <f>ROUND(IMDIV(L6,O6),2)</f>
+        <v>1.61</v>
+      </c>
+      <c r="AA6" s="38">
+        <f>ROUND(IMDIV(M6,O6),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="AB6" s="38">
+        <f>ROUND(IMDIV(B6,I6),2)</f>
+        <v>1.4</v>
+      </c>
+      <c r="AC6" s="38">
+        <f>ROUND(IMDIV(C6,B6),4)*100</f>
+        <v>34.479999999999997</v>
+      </c>
+      <c r="AD6" s="38">
+        <f>ROUND(IMDIV(N6,O6),2)</f>
+        <v>83.25</v>
+      </c>
+      <c r="AE6" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF6" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG6" s="73">
         <f t="shared" si="0"/>
-        <v>0.77</v>
-      </c>
-      <c r="Q6" s="55">
-        <f t="shared" si="1"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="R6" s="55">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="S6" s="38">
-        <f t="shared" si="3"/>
-        <v>55.56</v>
-      </c>
-      <c r="T6" s="55">
-        <f t="shared" si="4"/>
-        <v>0.20666666666666667</v>
-      </c>
-      <c r="U6" s="55">
-        <f t="shared" si="5"/>
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="V6" s="55">
-        <f t="shared" si="6"/>
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="W6" s="38">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="X6" s="38">
-        <f t="shared" si="8"/>
-        <v>0.01</v>
-      </c>
-      <c r="Y6" s="38">
-        <f t="shared" si="9"/>
-        <v>0.01</v>
-      </c>
-      <c r="Z6" s="38">
-        <f t="shared" si="10"/>
-        <v>1.61</v>
-      </c>
-      <c r="AA6" s="38">
-        <f t="shared" si="11"/>
-        <v>0.05</v>
-      </c>
-      <c r="AB6" s="38">
-        <f t="shared" si="12"/>
-        <v>1.4</v>
-      </c>
-      <c r="AC6" s="38">
-        <f t="shared" si="13"/>
-        <v>34.479999999999997</v>
-      </c>
-      <c r="AD6" s="38">
-        <f t="shared" si="14"/>
-        <v>83.25</v>
-      </c>
-      <c r="AE6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF6" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG6" s="76">
-        <f t="shared" si="15"/>
-        <v>1.298888888888889</v>
+        <v>1.2897222222222222</v>
       </c>
       <c r="AH6" s="66">
-        <f t="shared" si="16"/>
+        <f>(((P6-Q6+1.25*Q6)/2)+(T6/3)-(W6-0.2*X6+0.5*Y6)+(AD6/250)+(AA6/20))+1</f>
         <v>1.2697222222222222</v>
       </c>
       <c r="AI6" s="62">
-        <f t="shared" si="17"/>
+        <f>(((P6-Q6+1.25*Q6+T6)/2)+(1-(W6-0.25*X6+0.5*Y6))+(AD6/200)+(AA6/18))</f>
         <v>1.3881944444444443</v>
       </c>
       <c r="AJ6" s="23">
-        <f t="shared" si="18"/>
+        <f>((P6/2)+(1-(W6-0.25*X6+0.5*Y6))+(AD6/200)+(AA6/18))</f>
         <v>1.2515277777777776</v>
       </c>
       <c r="AK6" s="20">
-        <f t="shared" si="19"/>
+        <f>(((P6/2)+(1-W6)+(AD6/200)+(AA6/9)))/1.06</f>
         <v>1.1856656184486372</v>
       </c>
       <c r="AL6" s="18">
-        <f t="shared" si="20"/>
+        <f>((P6/2)+(1-W6)+(AD6/200)+(AA6/9))</f>
         <v>1.2568055555555555</v>
       </c>
       <c r="AM6" s="15">
-        <f t="shared" si="21"/>
+        <f>((P6/2)+(1-W6)+(AD6/200))</f>
         <v>1.25125</v>
       </c>
       <c r="AN6" s="68">
-        <f t="shared" si="22"/>
+        <f>(((P6-Q6+1.25*Q6)/2)+(T6/3)-(W6-0.2*X6+0.5*Y6)+(AD6/250)+(AA6/18))*10</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="AO6" s="10">
-        <f>(((P6-P14)-(W6-W14)+((AD6-AD14)/100))/2)*10</f>
-        <v>5.6494999999999997</v>
+        <f>(((P6-P20)-(W6-W20)+((AD6-AD20)/100))/2)*10</f>
+        <v>-6.2500000000000125E-2</v>
       </c>
       <c r="AP6" s="2">
-        <f>(((P6-P14)-(W6-W14)+(AD6-AD14))/100)+1</f>
-        <v>1.3181</v>
+        <f>(((P6-P20)-(W6-W20)+(AD6-AD20))/100)+1</f>
+        <v>1.0172000000000001</v>
       </c>
       <c r="AQ6" s="12">
-        <f>((P6-P14)-(W6-W14)+((AD6-AD14)/100))*10</f>
-        <v>11.298999999999999</v>
+        <f>((P6-P20)-(W6-W20)+((AD6-AD20)/100))*10</f>
+        <v>-0.12500000000000025</v>
       </c>
       <c r="AR6" s="12">
-        <f>((P6-P14)-(W6-W14)+((AD6-AD14)/116))+1</f>
-        <v>2.0871551724137931</v>
+        <f>((P6-P20)-(W6-W20)+((AD6-AD20)/116))+1</f>
+        <v>0.98508620689655169</v>
       </c>
       <c r="AS6" s="5">
-        <f>(((P6-P14)-(W6-W14)+((AD6-AD14)/100))/2)+1</f>
-        <v>1.5649500000000001</v>
+        <f>(((P6-P20)-(W6-W20)+((AD6-AD20)/100))/2)+1</f>
+        <v>0.99375000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -3183,122 +3301,122 @@
         <v>150</v>
       </c>
       <c r="P7" s="38">
-        <f t="shared" si="0"/>
+        <f>ROUND(IMDIV(B7,O7),2)</f>
         <v>0.51</v>
       </c>
       <c r="Q7" s="55">
-        <f t="shared" si="1"/>
+        <f>(D7/O7)</f>
         <v>0.24</v>
       </c>
       <c r="R7" s="55">
-        <f t="shared" si="2"/>
+        <f>(E7/O7)*100</f>
         <v>52</v>
       </c>
       <c r="S7" s="38">
-        <f t="shared" si="3"/>
+        <f>ROUND((D7/E7)*100,2)</f>
         <v>46.15</v>
       </c>
       <c r="T7" s="55">
-        <f t="shared" si="4"/>
+        <f>F7/O7</f>
         <v>0.12</v>
       </c>
       <c r="U7" s="55">
-        <f t="shared" si="5"/>
+        <f>G7/O7</f>
         <v>5.3333333333333337E-2</v>
       </c>
       <c r="V7" s="55">
-        <f t="shared" si="6"/>
+        <f>H7/O7</f>
         <v>0.04</v>
       </c>
       <c r="W7" s="38">
-        <f t="shared" si="7"/>
+        <f>ROUND(IMDIV(I7,O7),2)</f>
         <v>0.59</v>
       </c>
       <c r="X7" s="38">
-        <f t="shared" si="8"/>
+        <f>ROUND(IMDIV(J7,O7),2)</f>
         <v>0.06</v>
       </c>
       <c r="Y7" s="38">
-        <f t="shared" si="9"/>
+        <f>ROUND(IMDIV(K7,O7),2)</f>
         <v>0</v>
       </c>
       <c r="Z7" s="38">
-        <f t="shared" si="10"/>
+        <f>ROUND(IMDIV(L7,O7),2)</f>
         <v>1.08</v>
       </c>
       <c r="AA7" s="38">
-        <f t="shared" si="11"/>
+        <f>ROUND(IMDIV(M7,O7),2)</f>
         <v>0.1</v>
       </c>
       <c r="AB7" s="38">
-        <f t="shared" si="12"/>
+        <f>ROUND(IMDIV(B7,I7),2)</f>
         <v>0.86</v>
       </c>
       <c r="AC7" s="38">
-        <f t="shared" si="13"/>
+        <f>ROUND(IMDIV(C7,B7),4)*100</f>
         <v>50</v>
       </c>
       <c r="AD7" s="38">
-        <f t="shared" si="14"/>
+        <f>ROUND(IMDIV(N7,O7),2)</f>
         <v>63.23</v>
       </c>
       <c r="AE7" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AF7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="76">
-        <f t="shared" si="15"/>
-        <v>1.0182533333333332</v>
+      <c r="AG7" s="73">
+        <f t="shared" si="0"/>
+        <v>1.0032533333333333</v>
       </c>
       <c r="AH7" s="66">
-        <f t="shared" si="16"/>
+        <f>(((P7-Q7+1.25*Q7)/2)+(T7/3)-(W7-0.2*X7+0.5*Y7)+(AD7/250)+(AA7/20))+1</f>
         <v>1.00492</v>
       </c>
       <c r="AI7" s="62">
-        <f t="shared" si="17"/>
+        <f>(((P7-Q7+1.25*Q7+T7)/2)+(1-(W7-0.25*X7+0.5*Y7))+(AD7/200)+(AA7/18))</f>
         <v>1.0917055555555555</v>
       </c>
       <c r="AJ7" s="23">
-        <f t="shared" si="18"/>
+        <f>((P7/2)+(1-(W7-0.25*X7+0.5*Y7))+(AD7/200)+(AA7/18))</f>
         <v>1.0017055555555556</v>
       </c>
       <c r="AK7" s="20">
-        <f t="shared" si="19"/>
+        <f>(((P7/2)+(1-W7)+(AD7/200)+(AA7/9)))/1.06</f>
         <v>0.9360953878406707</v>
       </c>
       <c r="AL7" s="18">
-        <f t="shared" si="20"/>
+        <f>((P7/2)+(1-W7)+(AD7/200)+(AA7/9))</f>
         <v>0.99226111111111104</v>
       </c>
       <c r="AM7" s="15">
-        <f t="shared" si="21"/>
+        <f>((P7/2)+(1-W7)+(AD7/200))</f>
         <v>0.98114999999999997</v>
       </c>
       <c r="AN7" s="68">
-        <f t="shared" si="22"/>
+        <f>(((P7-Q7+1.25*Q7)/2)+(T7/3)-(W7-0.2*X7+0.5*Y7)+(AD7/250)+(AA7/18))*10</f>
         <v>5.475555555555587E-2</v>
       </c>
       <c r="AO7" s="10">
-        <f>(((P7-P14)-(W7-W14)+((AD7-AD14)/100))/2)*10</f>
-        <v>3.1485000000000003</v>
+        <f>(((P7-P13)-(W7-W13)+((AD7-AD13)/100))/2)*10</f>
+        <v>3.5314999999999994</v>
       </c>
       <c r="AP7" s="2">
-        <f>(((P7-P14)-(W7-W14)+(AD7-AD14))/100)+1</f>
-        <v>1.1149</v>
+        <f>(((P7-P13)-(W7-W13)+(AD7-AD13))/100)+1</f>
+        <v>1.3103</v>
       </c>
       <c r="AQ7" s="12">
-        <f>((P7-P14)-(W7-W14)+((AD7-AD14)/100))*10</f>
-        <v>6.2970000000000006</v>
+        <f>((P7-P13)-(W7-W13)+((AD7-AD13)/100))*10</f>
+        <v>7.0629999999999988</v>
       </c>
       <c r="AR7" s="12">
-        <f>((P7-P14)-(W7-W14)+((AD7-AD14)/116))+1</f>
-        <v>1.6145689655172415</v>
+        <f>((P7-P13)-(W7-W13)+((AD7-AD13)/116))+1</f>
+        <v>1.6640517241379311</v>
       </c>
       <c r="AS7" s="5">
-        <f>(((P7-P14)-(W7-W14)+((AD7-AD14)/100))/2)+1</f>
-        <v>1.3148500000000001</v>
+        <f>(((P7-P13)-(W7-W13)+((AD7-AD13)/100))/2)+1</f>
+        <v>1.3531499999999999</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -3348,122 +3466,122 @@
         <v>139</v>
       </c>
       <c r="P8" s="32">
+        <f>ROUND(IMDIV(B8,O8),2)</f>
+        <v>0.76</v>
+      </c>
+      <c r="Q8" s="53">
+        <f>(D8/O8)</f>
+        <v>0.37410071942446044</v>
+      </c>
+      <c r="R8" s="53">
+        <f>(E8/O8)*100</f>
+        <v>61.151079136690647</v>
+      </c>
+      <c r="S8" s="32">
+        <f>ROUND((D8/E8)*100,2)</f>
+        <v>61.18</v>
+      </c>
+      <c r="T8" s="53">
+        <f>F8/O8</f>
+        <v>0.18705035971223022</v>
+      </c>
+      <c r="U8" s="53">
+        <f>G8/O8</f>
+        <v>0.1079136690647482</v>
+      </c>
+      <c r="V8" s="53">
+        <f>H8/O8</f>
+        <v>4.3165467625899283E-2</v>
+      </c>
+      <c r="W8" s="32">
+        <f>ROUND(IMDIV(I8,O8),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="X8" s="32">
+        <f>ROUND(IMDIV(J8,O8),2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y8" s="32">
+        <f>ROUND(IMDIV(K8,O8),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="32">
+        <f>ROUND(IMDIV(L8,O8),2)</f>
+        <v>8.35</v>
+      </c>
+      <c r="AA8" s="32">
+        <f>ROUND(IMDIV(M8,O8),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="AB8" s="32">
+        <f>ROUND(IMDIV(B8,I8),2)</f>
+        <v>1.35</v>
+      </c>
+      <c r="AC8" s="32">
+        <f>ROUND(IMDIV(C8,B8),4)*100</f>
+        <v>49.519999999999996</v>
+      </c>
+      <c r="AD8" s="32">
+        <f>ROUND(IMDIV(N8,O8),2)</f>
+        <v>88.63</v>
+      </c>
+      <c r="AE8" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF8" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG8" s="73">
         <f t="shared" si="0"/>
-        <v>0.76</v>
-      </c>
-      <c r="Q8" s="53">
-        <f t="shared" si="1"/>
-        <v>0.37410071942446044</v>
-      </c>
-      <c r="R8" s="53">
-        <f t="shared" si="2"/>
-        <v>61.151079136690647</v>
-      </c>
-      <c r="S8" s="32">
-        <f t="shared" si="3"/>
-        <v>61.18</v>
-      </c>
-      <c r="T8" s="53">
-        <f t="shared" si="4"/>
-        <v>0.18705035971223022</v>
-      </c>
-      <c r="U8" s="53">
-        <f t="shared" si="5"/>
-        <v>0.1079136690647482</v>
-      </c>
-      <c r="V8" s="53">
-        <f t="shared" si="6"/>
-        <v>4.3165467625899283E-2</v>
-      </c>
-      <c r="W8" s="32">
-        <f t="shared" si="7"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="X8" s="32">
-        <f t="shared" si="8"/>
-        <v>0.03</v>
-      </c>
-      <c r="Y8" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="32">
-        <f t="shared" si="10"/>
-        <v>8.35</v>
-      </c>
-      <c r="AA8" s="32">
-        <f t="shared" si="11"/>
-        <v>0.18</v>
-      </c>
-      <c r="AB8" s="32">
-        <f t="shared" si="12"/>
-        <v>1.35</v>
-      </c>
-      <c r="AC8" s="32">
-        <f t="shared" si="13"/>
-        <v>49.519999999999996</v>
-      </c>
-      <c r="AD8" s="32">
-        <f t="shared" si="14"/>
-        <v>88.63</v>
-      </c>
-      <c r="AE8" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF8" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG8" s="76">
-        <f t="shared" si="15"/>
-        <v>1.3161686810551558</v>
+        <v>1.2984161630695443</v>
       </c>
       <c r="AH8" s="66">
-        <f t="shared" si="16"/>
+        <f>(((P8-Q8+1.25*Q8)/2)+(T8/3)-(W8-0.2*X8+0.5*Y8)+(AD8/250)+(AA8/20))+1</f>
         <v>1.2986327098321342</v>
       </c>
       <c r="AI8" s="62">
-        <f t="shared" si="17"/>
+        <f>(((P8-Q8+1.25*Q8+T8)/2)+(1-(W8-0.25*X8+0.5*Y8))+(AD8/200)+(AA8/18))</f>
         <v>1.4209377697841725</v>
       </c>
       <c r="AJ8" s="23">
-        <f t="shared" si="18"/>
+        <f>((P8/2)+(1-(W8-0.25*X8+0.5*Y8))+(AD8/200)+(AA8/18))</f>
         <v>1.2806499999999998</v>
       </c>
       <c r="AK8" s="20">
-        <f t="shared" si="19"/>
+        <f>(((P8/2)+(1-W8)+(AD8/200)+(AA8/9)))/1.06</f>
         <v>1.2105188679245282</v>
       </c>
       <c r="AL8" s="18">
-        <f t="shared" si="20"/>
+        <f>((P8/2)+(1-W8)+(AD8/200)+(AA8/9))</f>
         <v>1.28315</v>
       </c>
       <c r="AM8" s="15">
-        <f t="shared" si="21"/>
+        <f>((P8/2)+(1-W8)+(AD8/200))</f>
         <v>1.26315</v>
       </c>
       <c r="AN8" s="68">
-        <f t="shared" si="22"/>
+        <f>(((P8-Q8+1.25*Q8)/2)+(T8/3)-(W8-0.2*X8+0.5*Y8)+(AD8/250)+(AA8/18))*10</f>
         <v>2.9963270983213426</v>
       </c>
       <c r="AO8" s="10">
-        <f>(((P8-P20)-(W8-W20)+((AD8-AD20)/100))/2)*10</f>
-        <v>0.10649999999999958</v>
+        <f>(((P8-P17)-(W8-W17)+((AD8-AD17)/100))/2)*10</f>
+        <v>2.8864999999999998</v>
       </c>
       <c r="AP8" s="2">
-        <f>(((P8-P20)-(W8-W20)+(AD8-AD20))/100)+1</f>
-        <v>1.0708</v>
+        <f>(((P8-P17)-(W8-W17)+(AD8-AD17))/100)+1</f>
+        <v>1.2258499999999999</v>
       </c>
       <c r="AQ8" s="12">
-        <f>((P8-P20)-(W8-W20)+((AD8-AD20)/100))*10</f>
-        <v>0.21299999999999916</v>
+        <f>((P8-P17)-(W8-W17)+((AD8-AD17)/100))*10</f>
+        <v>5.7729999999999997</v>
       </c>
       <c r="AR8" s="12">
-        <f>((P8-P20)-(W8-W20)+((AD8-AD20)/116))+1</f>
-        <v>1.0114655172413791</v>
+        <f>((P8-P17)-(W8-W17)+((AD8-AD17)/116))+1</f>
+        <v>1.5466379310344827</v>
       </c>
       <c r="AS8" s="5">
-        <f>(((P8-P20)-(W8-W20)+((AD8-AD20)/100))/2)+1</f>
-        <v>1.01065</v>
+        <f>(((P8-P17)-(W8-W17)+((AD8-AD17)/100))/2)+1</f>
+        <v>1.2886500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -3513,122 +3631,122 @@
         <v>139</v>
       </c>
       <c r="P9" s="32">
-        <f t="shared" si="0"/>
+        <f>ROUND(IMDIV(B9,O9),2)</f>
         <v>0.53</v>
       </c>
       <c r="Q9" s="53">
-        <f t="shared" si="1"/>
+        <f>(D9/O9)</f>
         <v>0.19424460431654678</v>
       </c>
       <c r="R9" s="53">
-        <f t="shared" si="2"/>
+        <f>(E9/O9)*100</f>
         <v>38.848920863309353</v>
       </c>
       <c r="S9" s="32">
-        <f t="shared" si="3"/>
+        <f>ROUND((D9/E9)*100,2)</f>
         <v>50</v>
       </c>
       <c r="T9" s="53">
-        <f t="shared" si="4"/>
+        <f>F9/O9</f>
         <v>7.1942446043165464E-2</v>
       </c>
       <c r="U9" s="53">
-        <f t="shared" si="5"/>
+        <f>G9/O9</f>
         <v>5.0359712230215826E-2</v>
       </c>
       <c r="V9" s="53">
-        <f t="shared" si="6"/>
+        <f>H9/O9</f>
         <v>4.3165467625899283E-2</v>
       </c>
       <c r="W9" s="32">
-        <f t="shared" si="7"/>
+        <f>ROUND(IMDIV(I9,O9),2)</f>
         <v>0.62</v>
       </c>
       <c r="X9" s="32">
-        <f t="shared" si="8"/>
+        <f>ROUND(IMDIV(J9,O9),2)</f>
         <v>0.04</v>
       </c>
       <c r="Y9" s="32">
-        <f t="shared" si="9"/>
+        <f>ROUND(IMDIV(K9,O9),2)</f>
         <v>0</v>
       </c>
       <c r="Z9" s="32">
-        <f t="shared" si="10"/>
+        <f>ROUND(IMDIV(L9,O9),2)</f>
         <v>2.54</v>
       </c>
       <c r="AA9" s="32">
-        <f t="shared" si="11"/>
+        <f>ROUND(IMDIV(M9,O9),2)</f>
         <v>0.19</v>
       </c>
       <c r="AB9" s="32">
-        <f t="shared" si="12"/>
+        <f>ROUND(IMDIV(B9,I9),2)</f>
         <v>0.85</v>
       </c>
       <c r="AC9" s="32">
-        <f t="shared" si="13"/>
+        <f>ROUND(IMDIV(C9,B9),4)*100</f>
         <v>50.68</v>
       </c>
       <c r="AD9" s="32">
-        <f t="shared" si="14"/>
+        <f>ROUND(IMDIV(N9,O9),2)</f>
         <v>57.05</v>
       </c>
       <c r="AE9" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AF9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AG9" s="76">
-        <f t="shared" si="15"/>
-        <v>0.95290023980815353</v>
+      <c r="AG9" s="73">
+        <f t="shared" si="0"/>
+        <v>0.93834412470023987</v>
       </c>
       <c r="AH9" s="66">
-        <f t="shared" si="16"/>
+        <f>(((P9-Q9+1.25*Q9)/2)+(T9/3)-(W9-0.2*X9+0.5*Y9)+(AD9/250)+(AA9/20))+1</f>
         <v>0.93896139088729025</v>
       </c>
       <c r="AI9" s="62">
-        <f t="shared" si="17"/>
+        <f>(((P9-Q9+1.25*Q9+T9)/2)+(1-(W9-0.25*X9+0.5*Y9))+(AD9/200)+(AA9/18))</f>
         <v>1.0110573541167067</v>
       </c>
       <c r="AJ9" s="23">
-        <f t="shared" si="18"/>
+        <f>((P9/2)+(1-(W9-0.25*X9+0.5*Y9))+(AD9/200)+(AA9/18))</f>
         <v>0.95080555555555557</v>
       </c>
       <c r="AK9" s="20">
-        <f t="shared" si="19"/>
+        <f>(((P9/2)+(1-W9)+(AD9/200)+(AA9/9)))/1.06</f>
         <v>0.8975104821802935</v>
       </c>
       <c r="AL9" s="18">
-        <f t="shared" si="20"/>
+        <f>((P9/2)+(1-W9)+(AD9/200)+(AA9/9))</f>
         <v>0.9513611111111111</v>
       </c>
       <c r="AM9" s="15">
-        <f t="shared" si="21"/>
+        <f>((P9/2)+(1-W9)+(AD9/200))</f>
         <v>0.93025000000000002</v>
       </c>
       <c r="AN9" s="68">
-        <f t="shared" si="22"/>
+        <f>(((P9-Q9+1.25*Q9)/2)+(T9/3)-(W9-0.2*X9+0.5*Y9)+(AD9/250)+(AA9/18))*10</f>
         <v>-0.59983053557154231</v>
       </c>
       <c r="AO9" s="10">
-        <f>(((P9-P20)-(W9-W20)+((AD9-AD20)/100))/2)*10</f>
-        <v>-2.9225000000000003</v>
+        <f>(((P9-P13)-(W9-W13)+((AD9-AD13)/100))/2)*10</f>
+        <v>3.1724999999999999</v>
       </c>
       <c r="AP9" s="2">
-        <f>(((P9-P20)-(W9-W20)+(AD9-AD20))/100)+1</f>
-        <v>0.75209999999999999</v>
+        <f>(((P9-P13)-(W9-W13)+(AD9-AD13))/100)+1</f>
+        <v>1.2484</v>
       </c>
       <c r="AQ9" s="12">
-        <f>((P9-P20)-(W9-W20)+((AD9-AD20)/100))*10</f>
-        <v>-5.8450000000000006</v>
+        <f>((P9-P13)-(W9-W13)+((AD9-AD13)/100))*10</f>
+        <v>6.3449999999999998</v>
       </c>
       <c r="AR9" s="12">
-        <f>((P9-P20)-(W9-W20)+((AD9-AD20)/116))+1</f>
-        <v>0.44922413793103444</v>
+        <f>((P9-P13)-(W9-W13)+((AD9-AD13)/116))+1</f>
+        <v>1.6007758620689656</v>
       </c>
       <c r="AS9" s="5">
-        <f>(((P9-P20)-(W9-W20)+((AD9-AD20)/100))/2)+1</f>
-        <v>0.70774999999999999</v>
+        <f>(((P9-P13)-(W9-W13)+((AD9-AD13)/100))/2)+1</f>
+        <v>1.31725</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -3678,122 +3796,122 @@
         <v>78</v>
       </c>
       <c r="P10" s="42">
-        <f t="shared" si="0"/>
+        <f>ROUND(IMDIV(B10,O10),2)</f>
         <v>0.73</v>
       </c>
       <c r="Q10" s="56">
-        <f t="shared" si="1"/>
+        <f>(D10/O10)</f>
         <v>0.26923076923076922</v>
       </c>
       <c r="R10" s="56">
-        <f t="shared" si="2"/>
+        <f>(E10/O10)*100</f>
         <v>51.282051282051277</v>
       </c>
       <c r="S10" s="42">
-        <f t="shared" si="3"/>
+        <f>ROUND((D10/E10)*100,2)</f>
         <v>52.5</v>
       </c>
       <c r="T10" s="56">
-        <f t="shared" si="4"/>
+        <f>F10/O10</f>
         <v>0.15384615384615385</v>
       </c>
       <c r="U10" s="56">
-        <f t="shared" si="5"/>
+        <f>G10/O10</f>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="V10" s="56">
-        <f t="shared" si="6"/>
+        <f>H10/O10</f>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="W10" s="42">
-        <f t="shared" si="7"/>
+        <f>ROUND(IMDIV(I10,O10),2)</f>
         <v>0.6</v>
       </c>
       <c r="X10" s="42">
-        <f t="shared" si="8"/>
+        <f>ROUND(IMDIV(J10,O10),2)</f>
         <v>0.05</v>
       </c>
       <c r="Y10" s="42">
-        <f t="shared" si="9"/>
+        <f>ROUND(IMDIV(K10,O10),2)</f>
         <v>0</v>
       </c>
       <c r="Z10" s="42">
-        <f t="shared" si="10"/>
+        <f>ROUND(IMDIV(L10,O10),2)</f>
         <v>2.04</v>
       </c>
       <c r="AA10" s="42">
-        <f t="shared" si="11"/>
+        <f>ROUND(IMDIV(M10,O10),2)</f>
         <v>0.13</v>
       </c>
       <c r="AB10" s="42">
-        <f t="shared" si="12"/>
+        <f>ROUND(IMDIV(B10,I10),2)</f>
         <v>1.21</v>
       </c>
       <c r="AC10" s="42">
-        <f t="shared" si="13"/>
+        <f>ROUND(IMDIV(C10,B10),4)*100</f>
         <v>47.370000000000005</v>
       </c>
       <c r="AD10" s="42">
-        <f t="shared" si="14"/>
+        <f>ROUND(IMDIV(N10,O10),2)</f>
         <v>80.36</v>
       </c>
       <c r="AE10" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AG10" s="76">
-        <f t="shared" si="15"/>
-        <v>1.2119143589743591</v>
+      <c r="AG10" s="73">
+        <f t="shared" si="0"/>
+        <v>1.1962835897435897</v>
       </c>
       <c r="AH10" s="66">
-        <f t="shared" si="16"/>
+        <f>(((P10-Q10+1.25*Q10)/2)+(T10/3)-(W10-0.2*X10+0.5*Y10)+(AD10/250)+(AA10/20))+1</f>
         <v>1.1878758974358974</v>
       </c>
       <c r="AI10" s="62">
-        <f t="shared" si="17"/>
+        <f>(((P10-Q10+1.25*Q10+T10)/2)+(1-(W10-0.25*X10+0.5*Y10))+(AD10/200)+(AA10/18))</f>
         <v>1.2970991452991452</v>
       </c>
       <c r="AJ10" s="23">
-        <f t="shared" si="18"/>
+        <f>((P10/2)+(1-(W10-0.25*X10+0.5*Y10))+(AD10/200)+(AA10/18))</f>
         <v>1.1865222222222223</v>
       </c>
       <c r="AK10" s="20">
-        <f t="shared" si="19"/>
+        <f>(((P10/2)+(1-W10)+(AD10/200)+(AA10/9)))/1.06</f>
         <v>1.1143815513626836</v>
       </c>
       <c r="AL10" s="18">
-        <f t="shared" si="20"/>
+        <f>((P10/2)+(1-W10)+(AD10/200)+(AA10/9))</f>
         <v>1.1812444444444445</v>
       </c>
       <c r="AM10" s="15">
-        <f t="shared" si="21"/>
+        <f>((P10/2)+(1-W10)+(AD10/200))</f>
         <v>1.1668000000000001</v>
       </c>
       <c r="AN10" s="68">
-        <f t="shared" si="22"/>
+        <f>(((P10-Q10+1.25*Q10)/2)+(T10/3)-(W10-0.2*X10+0.5*Y10)+(AD10/250)+(AA10/18))*10</f>
         <v>1.8859811965811966</v>
       </c>
       <c r="AO10" s="10">
-        <f>(((P10-P16)-(W10-W16)+((AD10-AD16)/100))/2)*10</f>
-        <v>1.4201428571428565</v>
+        <f>(((P10-P22)-(W10-W22)+((AD10-AD22)/100))/2)*10</f>
+        <v>0.55800000000000016</v>
       </c>
       <c r="AP10" s="2">
-        <f>(((P10-P16)-(W10-W16)+(AD10-AD16))/100)+1</f>
-        <v>1.1100714285714284</v>
+        <f>(((P10-P22)-(W10-W22)+(AD10-AD22))/100)+1</f>
+        <v>1.0423</v>
       </c>
       <c r="AQ10" s="12">
-        <f>((P10-P16)-(W10-W16)+((AD10-AD16)/100))*10</f>
-        <v>2.840285714285713</v>
+        <f>((P10-P22)-(W10-W22)+((AD10-AD22)/100))*10</f>
+        <v>1.1160000000000003</v>
       </c>
       <c r="AR10" s="12">
-        <f>((P10-P16)-(W10-W16)+((AD10-AD16)/116))+1</f>
-        <v>1.2690886699507389</v>
+        <f>((P10-P22)-(W10-W22)+((AD10-AD22)/116))+1</f>
+        <v>1.1058620689655172</v>
       </c>
       <c r="AS10" s="5">
-        <f>(((P10-P16)-(W10-W16)+((AD10-AD16)/100))/2)+1</f>
-        <v>1.1420142857142856</v>
+        <f>(((P10-P22)-(W10-W22)+((AD10-AD22)/100))/2)+1</f>
+        <v>1.0558000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -3843,101 +3961,101 @@
         <v>78</v>
       </c>
       <c r="P11" s="42">
-        <f t="shared" si="0"/>
+        <f>ROUND(IMDIV(B11,O11),2)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="Q11" s="56">
-        <f t="shared" si="1"/>
+        <f>(D11/O11)</f>
         <v>0.17948717948717949</v>
       </c>
       <c r="R11" s="56">
-        <f t="shared" si="2"/>
+        <f>(E11/O11)*100</f>
         <v>48.717948717948715</v>
       </c>
       <c r="S11" s="42">
-        <f t="shared" si="3"/>
+        <f>ROUND((D11/E11)*100,2)</f>
         <v>36.840000000000003</v>
       </c>
       <c r="T11" s="56">
-        <f t="shared" si="4"/>
+        <f>F11/O11</f>
         <v>8.9743589743589744E-2</v>
       </c>
       <c r="U11" s="56">
-        <f t="shared" si="5"/>
+        <f>G11/O11</f>
         <v>5.128205128205128E-2</v>
       </c>
       <c r="V11" s="56">
-        <f t="shared" si="6"/>
+        <f>H11/O11</f>
         <v>6.4102564102564097E-2</v>
       </c>
       <c r="W11" s="42">
-        <f t="shared" si="7"/>
+        <f>ROUND(IMDIV(I11,O11),2)</f>
         <v>0.65</v>
       </c>
       <c r="X11" s="42">
-        <f t="shared" si="8"/>
+        <f>ROUND(IMDIV(J11,O11),2)</f>
         <v>0.08</v>
       </c>
       <c r="Y11" s="42">
-        <f t="shared" si="9"/>
+        <f>ROUND(IMDIV(K11,O11),2)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="42">
-        <f t="shared" si="10"/>
+        <f>ROUND(IMDIV(L11,O11),2)</f>
         <v>1.47</v>
       </c>
       <c r="AA11" s="42">
-        <f t="shared" si="11"/>
+        <f>ROUND(IMDIV(M11,O11),2)</f>
         <v>0.19</v>
       </c>
       <c r="AB11" s="42">
-        <f t="shared" si="12"/>
+        <f>ROUND(IMDIV(B11,I11),2)</f>
         <v>0.84</v>
       </c>
       <c r="AC11" s="42">
-        <f t="shared" si="13"/>
+        <f>ROUND(IMDIV(C11,B11),4)*100</f>
         <v>46.51</v>
       </c>
       <c r="AD11" s="42">
-        <f t="shared" si="14"/>
+        <f>ROUND(IMDIV(N11,O11),2)</f>
         <v>63.87</v>
       </c>
       <c r="AE11" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AG11" s="76">
-        <f t="shared" si="15"/>
-        <v>0.97756119658119656</v>
+      <c r="AG11" s="73">
+        <f t="shared" si="0"/>
+        <v>0.95937401709401704</v>
       </c>
       <c r="AH11" s="66">
-        <f t="shared" si="16"/>
+        <f>(((P11-Q11+1.25*Q11)/2)+(T11/3)-(W11-0.2*X11+0.5*Y11)+(AD11/250)+(AA11/20))+1</f>
         <v>0.95833042735042728</v>
       </c>
       <c r="AI11" s="62">
-        <f t="shared" si="17"/>
+        <f>(((P11-Q11+1.25*Q11+T11)/2)+(1-(W11-0.25*X11+0.5*Y11))+(AD11/200)+(AA11/18))</f>
         <v>1.042213247863248</v>
       </c>
       <c r="AJ11" s="23">
-        <f t="shared" si="18"/>
+        <f>((P11/2)+(1-(W11-0.25*X11+0.5*Y11))+(AD11/200)+(AA11/18))</f>
         <v>0.97490555555555558</v>
       </c>
       <c r="AK11" s="20">
-        <f t="shared" si="19"/>
+        <f>(((P11/2)+(1-W11)+(AD11/200)+(AA11/9)))/1.06</f>
         <v>0.91081236897274631</v>
       </c>
       <c r="AL11" s="18">
-        <f t="shared" si="20"/>
+        <f>((P11/2)+(1-W11)+(AD11/200)+(AA11/9))</f>
         <v>0.9654611111111111</v>
       </c>
       <c r="AM11" s="15">
-        <f t="shared" si="21"/>
+        <f>((P11/2)+(1-W11)+(AD11/200))</f>
         <v>0.94435000000000002</v>
       </c>
       <c r="AN11" s="68">
-        <f t="shared" si="22"/>
+        <f>(((P11-Q11+1.25*Q11)/2)+(T11/3)-(W11-0.2*X11+0.5*Y11)+(AD11/250)+(AA11/18))*10</f>
         <v>-0.40614017094017119</v>
       </c>
       <c r="AO11" s="10">
@@ -4008,63 +4126,63 @@
         <v>73</v>
       </c>
       <c r="P12" s="45">
-        <f t="shared" si="0"/>
+        <f>ROUND(IMDIV(B12,O12),2)</f>
         <v>0.77</v>
       </c>
       <c r="Q12" s="57">
-        <f t="shared" si="1"/>
+        <f>(D12/O12)</f>
         <v>0.42465753424657532</v>
       </c>
       <c r="R12" s="57">
-        <f t="shared" si="2"/>
+        <f>(E12/O12)*100</f>
         <v>76.712328767123282</v>
       </c>
       <c r="S12" s="45">
-        <f t="shared" si="3"/>
+        <f>ROUND((D12/E12)*100,2)</f>
         <v>55.36</v>
       </c>
       <c r="T12" s="57">
-        <f t="shared" si="4"/>
+        <f>F12/O12</f>
         <v>0.21917808219178081</v>
       </c>
       <c r="U12" s="57">
-        <f t="shared" si="5"/>
+        <f>G12/O12</f>
         <v>4.1095890410958902E-2</v>
       </c>
       <c r="V12" s="57">
-        <f t="shared" si="6"/>
+        <f>H12/O12</f>
         <v>1.3698630136986301E-2</v>
       </c>
       <c r="W12" s="45">
-        <f t="shared" si="7"/>
+        <f>ROUND(IMDIV(I12,O12),2)</f>
         <v>0.68</v>
       </c>
       <c r="X12" s="45">
-        <f t="shared" si="8"/>
+        <f>ROUND(IMDIV(J12,O12),2)</f>
         <v>0.03</v>
       </c>
       <c r="Y12" s="45">
-        <f t="shared" si="9"/>
+        <f>ROUND(IMDIV(K12,O12),2)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="45">
-        <f t="shared" si="10"/>
+        <f>ROUND(IMDIV(L12,O12),2)</f>
         <v>5.48</v>
       </c>
       <c r="AA12" s="45">
-        <f t="shared" si="11"/>
+        <f>ROUND(IMDIV(M12,O12),2)</f>
         <v>0.4</v>
       </c>
       <c r="AB12" s="45">
-        <f t="shared" si="12"/>
+        <f>ROUND(IMDIV(B12,I12),2)</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="AC12" s="45">
-        <f t="shared" si="13"/>
+        <f>ROUND(IMDIV(C12,B12),4)*100</f>
         <v>67.86</v>
       </c>
       <c r="AD12" s="45">
-        <f t="shared" si="14"/>
+        <f>ROUND(IMDIV(N12,O12),2)</f>
         <v>95.84</v>
       </c>
       <c r="AE12" s="46" t="s">
@@ -4073,57 +4191,57 @@
       <c r="AF12" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="76">
-        <f t="shared" si="15"/>
-        <v>1.2464947031963471</v>
+      <c r="AG12" s="73">
+        <f t="shared" si="0"/>
+        <v>1.2208782648401826</v>
       </c>
       <c r="AH12" s="66">
-        <f t="shared" si="16"/>
+        <f>(((P12-Q12+1.25*Q12)/2)+(T12/3)-(W12-0.2*X12+0.5*Y12)+(AD12/250)+(AA12/20))+1</f>
         <v>1.2405015525114156</v>
       </c>
       <c r="AI12" s="62">
-        <f t="shared" si="17"/>
+        <f>(((P12-Q12+1.25*Q12+T12)/2)+(1-(W12-0.25*X12+0.5*Y12))+(AD12/200)+(AA12/18))</f>
         <v>1.3765934550989345</v>
       </c>
       <c r="AJ12" s="23">
-        <f t="shared" si="18"/>
+        <f>((P12/2)+(1-(W12-0.25*X12+0.5*Y12))+(AD12/200)+(AA12/18))</f>
         <v>1.2139222222222221</v>
       </c>
       <c r="AK12" s="20">
-        <f t="shared" si="19"/>
+        <f>(((P12/2)+(1-W12)+(AD12/200)+(AA12/9)))/1.06</f>
         <v>1.1590985324947589</v>
       </c>
       <c r="AL12" s="18">
-        <f t="shared" si="20"/>
+        <f>((P12/2)+(1-W12)+(AD12/200)+(AA12/9))</f>
         <v>1.2286444444444444</v>
       </c>
       <c r="AM12" s="15">
-        <f t="shared" si="21"/>
+        <f>((P12/2)+(1-W12)+(AD12/200))</f>
         <v>1.1841999999999999</v>
       </c>
       <c r="AN12" s="68">
-        <f t="shared" si="22"/>
+        <f>(((P12-Q12+1.25*Q12)/2)+(T12/3)-(W12-0.2*X12+0.5*Y12)+(AD12/250)+(AA12/18))*10</f>
         <v>2.427237747336378</v>
       </c>
       <c r="AO12" s="10">
-        <f>(((P12-P16)-(W12-W16)+((AD12-AD16)/100))/2)*10</f>
-        <v>1.9941428571428566</v>
+        <f>(((P12-P19)-(W12-W19)+((AD12-AD19)/100))/2)*10</f>
+        <v>-0.27299999999999935</v>
       </c>
       <c r="AP12" s="2">
-        <f>(((P12-P16)-(W12-W16)+(AD12-AD16))/100)+1</f>
-        <v>1.2644714285714285</v>
+        <f>(((P12-P19)-(W12-W19)+(AD12-AD19))/100)+1</f>
+        <v>1.1335000000000002</v>
       </c>
       <c r="AQ12" s="12">
-        <f>((P12-P16)-(W12-W16)+((AD12-AD16)/100))*10</f>
-        <v>3.9882857142857131</v>
+        <f>((P12-P19)-(W12-W19)+((AD12-AD19)/100))*10</f>
+        <v>-0.54599999999999871</v>
       </c>
       <c r="AR12" s="12">
-        <f>((P12-P16)-(W12-W16)+((AD12-AD16)/116))+1</f>
-        <v>1.3625369458128078</v>
+        <f>((P12-P19)-(W12-W19)+((AD12-AD19)/116))+1</f>
+        <v>0.92672413793103459</v>
       </c>
       <c r="AS12" s="5">
-        <f>(((P12-P16)-(W12-W16)+((AD12-AD16)/100))/2)+1</f>
-        <v>1.1994142857142855</v>
+        <f>(((P12-P19)-(W12-W19)+((AD12-AD19)/100))/2)+1</f>
+        <v>0.97270000000000012</v>
       </c>
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4173,63 +4291,63 @@
         <v>73</v>
       </c>
       <c r="P13" s="45">
-        <f t="shared" si="0"/>
+        <f>ROUND(IMDIV(B13,O13),2)</f>
         <v>0.25</v>
       </c>
       <c r="Q13" s="57">
-        <f t="shared" si="1"/>
+        <f>(D13/O13)</f>
         <v>6.8493150684931503E-2</v>
       </c>
       <c r="R13" s="57">
-        <f t="shared" si="2"/>
+        <f>(E13/O13)*100</f>
         <v>23.287671232876711</v>
       </c>
       <c r="S13" s="45">
-        <f t="shared" si="3"/>
+        <f>ROUND((D13/E13)*100,2)</f>
         <v>29.41</v>
       </c>
       <c r="T13" s="57">
-        <f t="shared" si="4"/>
+        <f>F13/O13</f>
         <v>1.3698630136986301E-2</v>
       </c>
       <c r="U13" s="57">
-        <f t="shared" si="5"/>
+        <f>G13/O13</f>
         <v>0</v>
       </c>
       <c r="V13" s="57">
-        <f t="shared" si="6"/>
+        <f>H13/O13</f>
         <v>1.3698630136986301E-2</v>
       </c>
       <c r="W13" s="45">
-        <f t="shared" si="7"/>
+        <f>ROUND(IMDIV(I13,O13),2)</f>
         <v>0.73</v>
       </c>
       <c r="X13" s="45">
-        <f t="shared" si="8"/>
+        <f>ROUND(IMDIV(J13,O13),2)</f>
         <v>0.01</v>
       </c>
       <c r="Y13" s="45">
-        <f t="shared" si="9"/>
+        <f>ROUND(IMDIV(K13,O13),2)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="45">
-        <f t="shared" si="10"/>
+        <f>ROUND(IMDIV(L13,O13),2)</f>
         <v>1.52</v>
       </c>
       <c r="AA13" s="45">
-        <f t="shared" si="11"/>
+        <f>ROUND(IMDIV(M13,O13),2)</f>
         <v>0.22</v>
       </c>
       <c r="AB13" s="45">
-        <f t="shared" si="12"/>
+        <f>ROUND(IMDIV(B13,I13),2)</f>
         <v>0.34</v>
       </c>
       <c r="AC13" s="45">
-        <f t="shared" si="13"/>
+        <f>ROUND(IMDIV(C13,B13),4)*100</f>
         <v>50</v>
       </c>
       <c r="AD13" s="45">
-        <f t="shared" si="14"/>
+        <f>ROUND(IMDIV(N13,O13),2)</f>
         <v>32.6</v>
       </c>
       <c r="AE13" s="46" t="s">
@@ -4238,36 +4356,36 @@
       <c r="AF13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AG13" s="76">
-        <f t="shared" si="15"/>
-        <v>0.55495251141552515</v>
+      <c r="AG13" s="73">
+        <f t="shared" si="0"/>
+        <v>0.54564018264840186</v>
       </c>
       <c r="AH13" s="66">
-        <f t="shared" si="16"/>
+        <f>(((P13-Q13+1.25*Q13)/2)+(T13/3)-(W13-0.2*X13+0.5*Y13)+(AD13/250)+(AA13/20))+1</f>
         <v>0.55152785388127867</v>
       </c>
       <c r="AI13" s="62">
-        <f t="shared" si="17"/>
+        <f>(((P13-Q13+1.25*Q13+T13)/2)+(1-(W13-0.25*X13+0.5*Y13))+(AD13/200)+(AA13/18))</f>
         <v>0.58813318112633184</v>
       </c>
       <c r="AJ13" s="23">
-        <f t="shared" si="18"/>
+        <f>((P13/2)+(1-(W13-0.25*X13+0.5*Y13))+(AD13/200)+(AA13/18))</f>
         <v>0.57272222222222224</v>
       </c>
       <c r="AK13" s="20">
-        <f t="shared" si="19"/>
+        <f>(((P13/2)+(1-W13)+(AD13/200)+(AA13/9)))/1.06</f>
         <v>0.54947589098532501</v>
       </c>
       <c r="AL13" s="18">
-        <f t="shared" si="20"/>
+        <f>((P13/2)+(1-W13)+(AD13/200)+(AA13/9))</f>
         <v>0.58244444444444454</v>
       </c>
       <c r="AM13" s="15">
-        <f t="shared" si="21"/>
+        <f>((P13/2)+(1-W13)+(AD13/200))</f>
         <v>0.55800000000000005</v>
       </c>
       <c r="AN13" s="68">
-        <f t="shared" si="22"/>
+        <f>(((P13-Q13+1.25*Q13)/2)+(T13/3)-(W13-0.2*X13+0.5*Y13)+(AD13/250)+(AA13/18))*10</f>
         <v>-4.4724992389649918</v>
       </c>
       <c r="AO13" s="10">
@@ -4293,25 +4411,25 @@
     </row>
     <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B14" s="48">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C14" s="48">
+        <v>8</v>
+      </c>
+      <c r="D14" s="48">
+        <v>5</v>
+      </c>
+      <c r="E14" s="48">
+        <v>31</v>
+      </c>
+      <c r="F14" s="48">
         <v>4</v>
       </c>
-      <c r="D14" s="48">
-        <v>8</v>
-      </c>
-      <c r="E14" s="48">
-        <v>35</v>
-      </c>
-      <c r="F14" s="48">
-        <v>3</v>
-      </c>
       <c r="G14" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="48">
         <v>2</v>
@@ -4323,79 +4441,79 @@
         <v>1</v>
       </c>
       <c r="K14" s="48">
+        <v>0</v>
+      </c>
+      <c r="L14" s="47">
+        <v>8</v>
+      </c>
+      <c r="M14" s="48">
         <v>2</v>
       </c>
-      <c r="L14" s="48">
-        <v>110</v>
-      </c>
-      <c r="M14" s="48">
-        <v>22</v>
-      </c>
       <c r="N14" s="48">
-        <v>3449</v>
+        <v>2902</v>
       </c>
       <c r="O14" s="48">
         <v>66</v>
       </c>
       <c r="P14" s="47">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
+        <f>ROUND(IMDIV(B14,O14),2)</f>
+        <v>0.35</v>
       </c>
       <c r="Q14" s="58">
-        <f t="shared" si="1"/>
-        <v>0.12121212121212122</v>
+        <f>(D14/O14)</f>
+        <v>7.575757575757576E-2</v>
       </c>
       <c r="R14" s="58">
-        <f t="shared" si="2"/>
-        <v>53.030303030303031</v>
+        <f>(E14/O14)*100</f>
+        <v>46.969696969696969</v>
       </c>
       <c r="S14" s="47">
-        <f t="shared" si="3"/>
-        <v>22.86</v>
+        <f>ROUND((D14/E14)*100,2)</f>
+        <v>16.13</v>
       </c>
       <c r="T14" s="58">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545456E-2</v>
+        <f>F14/O14</f>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="U14" s="58">
-        <f t="shared" si="5"/>
-        <v>1.5151515151515152E-2</v>
+        <f>G14/O14</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="V14" s="58">
-        <f t="shared" si="6"/>
+        <f>H14/O14</f>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="W14" s="47">
-        <f t="shared" si="7"/>
+        <f>ROUND(IMDIV(I14,O14),2)</f>
         <v>0.86</v>
       </c>
       <c r="X14" s="47">
-        <f t="shared" si="8"/>
+        <f>ROUND(IMDIV(J14,O14),2)</f>
         <v>0.02</v>
       </c>
       <c r="Y14" s="47">
-        <f t="shared" si="9"/>
+        <f>ROUND(IMDIV(K14,O14),2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="47">
+        <f>ROUND(IMDIV(L14,O14),2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="AA14" s="47">
+        <f>ROUND(IMDIV(M14,O14),2)</f>
         <v>0.03</v>
       </c>
-      <c r="Z14" s="47">
-        <f t="shared" si="10"/>
-        <v>1.67</v>
-      </c>
-      <c r="AA14" s="47">
-        <f t="shared" si="11"/>
-        <v>0.33</v>
-      </c>
       <c r="AB14" s="47">
-        <f t="shared" si="12"/>
-        <v>0.3</v>
+        <f>ROUND(IMDIV(B14,I14),2)</f>
+        <v>0.4</v>
       </c>
       <c r="AC14" s="47">
-        <f t="shared" si="13"/>
-        <v>23.53</v>
+        <f>ROUND(IMDIV(C14,B14),4)*100</f>
+        <v>34.78</v>
       </c>
       <c r="AD14" s="47">
-        <f t="shared" si="14"/>
-        <v>52.26</v>
+        <f>ROUND(IMDIV(N14,O14),2)</f>
+        <v>43.97</v>
       </c>
       <c r="AE14" s="47" t="s">
         <v>45</v>
@@ -4403,80 +4521,80 @@
       <c r="AF14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AG14" s="76">
-        <f t="shared" si="15"/>
-        <v>0.52336575757575754</v>
+      <c r="AG14" s="73">
+        <f t="shared" si="0"/>
+        <v>0.53072747474747484</v>
       </c>
       <c r="AH14" s="66">
-        <f t="shared" si="16"/>
-        <v>0.51484303030303025</v>
+        <f>(((P14-Q14+1.25*Q14)/2)+(T14/3)-(W14-0.2*X14+0.5*Y14)+(AD14/250)+(AA14/20))+1</f>
+        <v>0.52605171717171717</v>
       </c>
       <c r="AI14" s="62">
-        <f t="shared" si="17"/>
-        <v>0.57751212121212114</v>
+        <f>(((P14-Q14+1.25*Q14+T14)/2)+(1-(W14-0.25*X14+0.5*Y14))+(AD14/200)+(AA14/18))</f>
+        <v>0.58128939393939394</v>
       </c>
       <c r="AJ14" s="23">
-        <f t="shared" si="18"/>
-        <v>0.5396333333333333</v>
+        <f>((P14/2)+(1-(W14-0.25*X14+0.5*Y14))+(AD14/200)+(AA14/18))</f>
+        <v>0.54151666666666665</v>
       </c>
       <c r="AK14" s="20">
-        <f t="shared" si="19"/>
-        <v>0.53581761006289297</v>
+        <f>(((P14/2)+(1-W14)+(AD14/200)+(AA14/9)))/1.06</f>
+        <v>0.50772012578616355</v>
       </c>
       <c r="AL14" s="18">
-        <f t="shared" si="20"/>
-        <v>0.56796666666666662</v>
+        <f>((P14/2)+(1-W14)+(AD14/200)+(AA14/9))</f>
+        <v>0.53818333333333335</v>
       </c>
       <c r="AM14" s="15">
-        <f t="shared" si="21"/>
-        <v>0.53129999999999999</v>
+        <f>((P14/2)+(1-W14)+(AD14/200))</f>
+        <v>0.53485000000000005</v>
       </c>
       <c r="AN14" s="68">
-        <f t="shared" si="22"/>
-        <v>-4.833236363636364</v>
+        <f>(((P14-Q14+1.25*Q14)/2)+(T14/3)-(W14-0.2*X14+0.5*Y14)+(AD14/250)+(AA14/18))*10</f>
+        <v>-4.7378161616161609</v>
       </c>
       <c r="AO14" s="10">
         <f>(((P14-P16)-(W14-W16)+((AD14-AD16)/100))/2)*10</f>
-        <v>-3.6348571428571437</v>
+        <v>-3.5993571428571434</v>
       </c>
       <c r="AP14" s="2">
         <f>(((P14-P16)-(W14-W16)+(AD14-AD16))/100)+1</f>
-        <v>0.82177142857142838</v>
+        <v>0.73977142857142852</v>
       </c>
       <c r="AQ14" s="12">
         <f>((P14-P16)-(W14-W16)+((AD14-AD16)/100))*10</f>
-        <v>-7.2697142857142873</v>
+        <v>-7.1987142857142867</v>
       </c>
       <c r="AR14" s="12">
         <f>((P14-P16)-(W14-W16)+((AD14-AD16)/116))+1</f>
-        <v>0.29684729064039406</v>
+        <v>0.31538177339901463</v>
       </c>
       <c r="AS14" s="5">
         <f>(((P14-P16)-(W14-W16)+((AD14-AD16)/100))/2)+1</f>
-        <v>0.63651428571428559</v>
+        <v>0.64006428571428564</v>
       </c>
     </row>
     <row r="15" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="48">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15" s="48">
+        <v>4</v>
+      </c>
+      <c r="D15" s="48">
         <v>8</v>
       </c>
-      <c r="D15" s="48">
-        <v>5</v>
-      </c>
       <c r="E15" s="48">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F15" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="48">
         <v>2</v>
@@ -4488,79 +4606,79 @@
         <v>1</v>
       </c>
       <c r="K15" s="48">
-        <v>0</v>
-      </c>
-      <c r="L15" s="47">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="L15" s="48">
+        <v>110</v>
       </c>
       <c r="M15" s="48">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="N15" s="48">
-        <v>2902</v>
+        <v>3449</v>
       </c>
       <c r="O15" s="48">
         <v>66</v>
       </c>
       <c r="P15" s="47">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
+        <f>ROUND(IMDIV(B15,O15),2)</f>
+        <v>0.26</v>
       </c>
       <c r="Q15" s="58">
-        <f t="shared" si="1"/>
-        <v>7.575757575757576E-2</v>
+        <f>(D15/O15)</f>
+        <v>0.12121212121212122</v>
       </c>
       <c r="R15" s="58">
-        <f t="shared" si="2"/>
-        <v>46.969696969696969</v>
+        <f>(E15/O15)*100</f>
+        <v>53.030303030303031</v>
       </c>
       <c r="S15" s="47">
-        <f t="shared" si="3"/>
-        <v>16.13</v>
+        <f>ROUND((D15/E15)*100,2)</f>
+        <v>22.86</v>
       </c>
       <c r="T15" s="58">
-        <f t="shared" si="4"/>
-        <v>6.0606060606060608E-2</v>
+        <f>F15/O15</f>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="U15" s="58">
-        <f t="shared" si="5"/>
+        <f>G15/O15</f>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="V15" s="58">
+        <f>H15/O15</f>
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="V15" s="58">
-        <f t="shared" si="6"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
       <c r="W15" s="47">
-        <f t="shared" si="7"/>
+        <f>ROUND(IMDIV(I15,O15),2)</f>
         <v>0.86</v>
       </c>
       <c r="X15" s="47">
-        <f t="shared" si="8"/>
+        <f>ROUND(IMDIV(J15,O15),2)</f>
         <v>0.02</v>
       </c>
       <c r="Y15" s="47">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>ROUND(IMDIV(K15,O15),2)</f>
+        <v>0.03</v>
       </c>
       <c r="Z15" s="47">
-        <f t="shared" si="10"/>
-        <v>0.12</v>
+        <f>ROUND(IMDIV(L15,O15),2)</f>
+        <v>1.67</v>
       </c>
       <c r="AA15" s="47">
-        <f t="shared" si="11"/>
-        <v>0.03</v>
+        <f>ROUND(IMDIV(M15,O15),2)</f>
+        <v>0.33</v>
       </c>
       <c r="AB15" s="47">
-        <f t="shared" si="12"/>
-        <v>0.4</v>
+        <f>ROUND(IMDIV(B15,I15),2)</f>
+        <v>0.3</v>
       </c>
       <c r="AC15" s="47">
-        <f t="shared" si="13"/>
-        <v>34.78</v>
+        <f>ROUND(IMDIV(C15,B15),4)*100</f>
+        <v>23.53</v>
       </c>
       <c r="AD15" s="47">
-        <f t="shared" si="14"/>
-        <v>43.97</v>
+        <f>ROUND(IMDIV(N15,O15),2)</f>
+        <v>52.26</v>
       </c>
       <c r="AE15" s="47" t="s">
         <v>45</v>
@@ -4568,57 +4686,57 @@
       <c r="AF15" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AG15" s="76">
-        <f t="shared" si="15"/>
-        <v>0.53552141414141419</v>
+      <c r="AG15" s="73">
+        <f t="shared" si="0"/>
+        <v>0.50843545454545458</v>
       </c>
       <c r="AH15" s="66">
-        <f t="shared" si="16"/>
-        <v>0.52605171717171717</v>
+        <f>(((P15-Q15+1.25*Q15)/2)+(T15/3)-(W15-0.2*X15+0.5*Y15)+(AD15/250)+(AA15/20))+1</f>
+        <v>0.51484303030303025</v>
       </c>
       <c r="AI15" s="62">
-        <f t="shared" si="17"/>
-        <v>0.58128939393939394</v>
+        <f>(((P15-Q15+1.25*Q15+T15)/2)+(1-(W15-0.25*X15+0.5*Y15))+(AD15/200)+(AA15/18))</f>
+        <v>0.57751212121212114</v>
       </c>
       <c r="AJ15" s="23">
-        <f t="shared" si="18"/>
-        <v>0.54151666666666665</v>
+        <f>((P15/2)+(1-(W15-0.25*X15+0.5*Y15))+(AD15/200)+(AA15/18))</f>
+        <v>0.5396333333333333</v>
       </c>
       <c r="AK15" s="20">
-        <f t="shared" si="19"/>
-        <v>0.50772012578616355</v>
+        <f>(((P15/2)+(1-W15)+(AD15/200)+(AA15/9)))/1.06</f>
+        <v>0.53581761006289297</v>
       </c>
       <c r="AL15" s="18">
-        <f t="shared" si="20"/>
-        <v>0.53818333333333335</v>
+        <f>((P15/2)+(1-W15)+(AD15/200)+(AA15/9))</f>
+        <v>0.56796666666666662</v>
       </c>
       <c r="AM15" s="15">
-        <f t="shared" si="21"/>
-        <v>0.53485000000000005</v>
+        <f>((P15/2)+(1-W15)+(AD15/200))</f>
+        <v>0.53129999999999999</v>
       </c>
       <c r="AN15" s="68">
-        <f t="shared" si="22"/>
-        <v>-4.7378161616161609</v>
+        <f>(((P15-Q15+1.25*Q15)/2)+(T15/3)-(W15-0.2*X15+0.5*Y15)+(AD15/250)+(AA15/18))*10</f>
+        <v>-4.833236363636364</v>
       </c>
       <c r="AO15" s="10">
         <f>(((P15-P16)-(W15-W16)+((AD15-AD16)/100))/2)*10</f>
-        <v>-3.5993571428571434</v>
+        <v>-3.6348571428571437</v>
       </c>
       <c r="AP15" s="2">
         <f>(((P15-P16)-(W15-W16)+(AD15-AD16))/100)+1</f>
-        <v>0.73977142857142852</v>
+        <v>0.82177142857142838</v>
       </c>
       <c r="AQ15" s="12">
         <f>((P15-P16)-(W15-W16)+((AD15-AD16)/100))*10</f>
-        <v>-7.1987142857142867</v>
+        <v>-7.2697142857142873</v>
       </c>
       <c r="AR15" s="12">
         <f>((P15-P16)-(W15-W16)+((AD15-AD16)/116))+1</f>
-        <v>0.31538177339901463</v>
+        <v>0.29684729064039406</v>
       </c>
       <c r="AS15" s="5">
         <f>(((P15-P16)-(W15-W16)+((AD15-AD16)/100))/2)+1</f>
-        <v>0.64006428571428564</v>
+        <v>0.63651428571428559</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4641,308 +4759,344 @@
       <c r="O16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="77">
-        <f t="shared" ref="P16:X16" si="23">AVERAGE(P2:P15)</f>
+      <c r="P16" s="74">
+        <f>AVERAGE(P2:P15)</f>
         <v>0.59071428571428564</v>
       </c>
-      <c r="Q16" s="77">
-        <f t="shared" si="23"/>
+      <c r="Q16" s="74">
+        <f>AVERAGE(Q2:Q15)</f>
         <v>0.23728827267482974</v>
       </c>
-      <c r="R16" s="77">
-        <f t="shared" si="23"/>
+      <c r="R16" s="74">
+        <f>AVERAGE(R2:R15)</f>
         <v>50</v>
       </c>
-      <c r="S16" s="77">
-        <f t="shared" si="23"/>
+      <c r="S16" s="74">
+        <f>AVERAGE(S2:S15)</f>
         <v>46.305714285714281</v>
       </c>
-      <c r="T16" s="77">
-        <f t="shared" si="23"/>
+      <c r="T16" s="74">
+        <f>AVERAGE(T2:T15)</f>
         <v>0.13454678171337398</v>
       </c>
-      <c r="U16" s="77">
-        <f t="shared" si="23"/>
+      <c r="U16" s="74">
+        <f>AVERAGE(U2:U15)</f>
         <v>5.7693788659011647E-2</v>
       </c>
-      <c r="V16" s="77">
-        <f t="shared" si="23"/>
+      <c r="V16" s="74">
+        <f>AVERAGE(V2:V15)</f>
         <v>5.2591066416943666E-2</v>
       </c>
-      <c r="W16" s="77">
-        <f t="shared" si="23"/>
+      <c r="W16" s="74">
+        <f>AVERAGE(W2:W15)</f>
         <v>0.63642857142857134</v>
       </c>
-      <c r="X16" s="77">
-        <f t="shared" si="23"/>
+      <c r="X16" s="74">
+        <f>AVERAGE(X2:X15)</f>
         <v>3.3571428571428578E-2</v>
       </c>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="77">
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="74">
         <f>AVERAGE(Z2:Z15)</f>
         <v>2.7749999999999995</v>
       </c>
-      <c r="AA16" s="77">
+      <c r="AA16" s="74">
         <f>AVERAGE(AA2:AA15)</f>
         <v>0.18571428571428572</v>
       </c>
-      <c r="AB16" s="77">
+      <c r="AB16" s="74">
         <f>AVERAGE(AB2:AB15)</f>
         <v>0.98571428571428588</v>
       </c>
-      <c r="AC16" s="77">
+      <c r="AC16" s="74">
         <f>AVERAGE(AC2:AC15)</f>
         <v>46.616428571428564</v>
       </c>
-      <c r="AD16" s="77">
+      <c r="AD16" s="74">
         <f>AVERAGE(AD2:AD15)</f>
         <v>69.528571428571439</v>
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="73">
-        <f t="shared" ref="AG16:AS16" si="24">AVERAGE(AG2:AG15)</f>
-        <v>1.0428778754318551</v>
+      <c r="AG16" s="72">
+        <f>AVERAGE(AG2:AG15)</f>
+        <v>1.0280170971864129</v>
       </c>
       <c r="AH16" s="66">
-        <f t="shared" si="24"/>
+        <f>AVERAGE(AH2:AH15)</f>
         <v>1.0261242470364309</v>
       </c>
       <c r="AI16" s="62">
-        <f t="shared" si="24"/>
+        <f>AVERAGE(AI2:AI15)</f>
         <v>1.1207875995442154</v>
       </c>
       <c r="AJ16" s="23">
-        <f t="shared" si="24"/>
+        <f>AVERAGE(AJ2:AJ15)</f>
         <v>1.0238531746031745</v>
       </c>
       <c r="AK16" s="20">
-        <f t="shared" si="24"/>
+        <f>AVERAGE(AK2:AK15)</f>
         <v>0.96906259359089542</v>
       </c>
       <c r="AL16" s="18">
-        <f t="shared" si="24"/>
+        <f>AVERAGE(AL2:AL15)</f>
         <v>1.0272063492063492</v>
       </c>
       <c r="AM16" s="15">
-        <f t="shared" si="24"/>
+        <f>AVERAGE(AM2:AM15)</f>
         <v>1.0065714285714287</v>
       </c>
       <c r="AN16" s="68">
-        <f t="shared" si="24"/>
-        <v>0.27155993068176809</v>
+        <f>AVERAGE(AN2:AN15)</f>
+        <v>0.27155993068176804</v>
       </c>
       <c r="AO16" s="10">
-        <f t="shared" si="24"/>
-        <v>0.40163265306122453</v>
+        <f>AVERAGE(AO2:AO15)</f>
+        <v>0.70414795918367312</v>
       </c>
       <c r="AP16" s="2">
-        <f t="shared" si="24"/>
-        <v>1.0694163265306122</v>
+        <f>AVERAGE(AP2:AP15)</f>
+        <v>1.0614275510204083</v>
       </c>
       <c r="AQ16" s="12">
-        <f t="shared" si="24"/>
-        <v>0.80326530612244906</v>
+        <f>AVERAGE(AQ2:AQ15)</f>
+        <v>1.4082959183673462</v>
       </c>
       <c r="AR16" s="12">
-        <f t="shared" si="24"/>
-        <v>1.0707670654468682</v>
+        <f>AVERAGE(AR2:AR15)</f>
+        <v>1.1324674524982405</v>
       </c>
       <c r="AS16" s="5">
-        <f t="shared" si="24"/>
-        <v>1.0401632653061224</v>
+        <f>AVERAGE(AS2:AS15)</f>
+        <v>1.0704147959183674</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O17" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P17" s="77">
-        <f t="shared" ref="P17:X17" si="25">MEDIAN(P2,P15)</f>
+      <c r="P17" s="74">
+        <f>MEDIAN(P2,P15)</f>
         <v>0.52</v>
       </c>
-      <c r="Q17" s="77">
-        <f t="shared" si="25"/>
-        <v>0.13871912401324166</v>
-      </c>
-      <c r="R17" s="77">
-        <f t="shared" si="25"/>
-        <v>44.073083778966129</v>
-      </c>
-      <c r="S17" s="77">
-        <f t="shared" si="25"/>
-        <v>32.554999999999993</v>
-      </c>
-      <c r="T17" s="77">
-        <f t="shared" si="25"/>
-        <v>0.13534504710975298</v>
-      </c>
-      <c r="U17" s="77">
-        <f t="shared" si="25"/>
-        <v>4.8764960529666411E-2</v>
-      </c>
-      <c r="V17" s="77">
-        <f t="shared" si="25"/>
-        <v>5.2966641201935317E-2</v>
-      </c>
-      <c r="W17" s="77">
-        <f t="shared" si="25"/>
-        <v>0.71</v>
-      </c>
-      <c r="X17" s="77">
-        <f t="shared" si="25"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="77">
+      <c r="Q17" s="74">
+        <f>MEDIAN(Q2,Q15)</f>
+        <v>0.20134680134680136</v>
+      </c>
+      <c r="R17" s="74">
+        <f>MEDIAN(R2,R15)</f>
+        <v>47.996632996632997</v>
+      </c>
+      <c r="S17" s="74">
+        <f>MEDIAN(S2,S15)</f>
+        <v>44.19</v>
+      </c>
+      <c r="T17" s="74">
+        <f>MEDIAN(T2,T15)</f>
+        <v>0.11531986531986531</v>
+      </c>
+      <c r="U17" s="74">
+        <f>MEDIAN(U2,U15)</f>
+        <v>7.053872053872054E-2</v>
+      </c>
+      <c r="V17" s="74">
+        <f>MEDIAN(V2,V15)</f>
+        <v>5.2188552188552187E-2</v>
+      </c>
+      <c r="W17" s="74">
+        <f>MEDIAN(W2,W15)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="X17" s="74">
+        <f>MEDIAN(X2,X15)</f>
+        <v>0.01</v>
+      </c>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="74">
         <f>MEDIAN(Z2,Z15)</f>
-        <v>2.1850000000000001</v>
-      </c>
-      <c r="AA17" s="77">
+        <v>2.31</v>
+      </c>
+      <c r="AA17" s="74">
         <f>MEDIAN(AA2,AA15)</f>
-        <v>0.105</v>
-      </c>
-      <c r="AB17" s="77">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AB17" s="74">
         <f>MEDIAN(AB2,AB15)</f>
-        <v>0.81</v>
-      </c>
-      <c r="AC17" s="77">
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="AC17" s="74">
         <f>MEDIAN(AC2,AC15)</f>
-        <v>48.49</v>
-      </c>
-      <c r="AD17" s="77">
+        <v>36.524999999999999</v>
+      </c>
+      <c r="AD17" s="74">
         <f>MEDIAN(AD2,AD15)</f>
-        <v>61.884999999999998</v>
-      </c>
-      <c r="AG17" s="74">
-        <f t="shared" ref="AG17:AS17" si="26">MEDIAN(AG2:AG15)</f>
-        <v>1.1443443399810067</v>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="79">
+        <f>MEDIAN(AG2:AG15)</f>
+        <v>1.1279178442545108</v>
       </c>
       <c r="AH17" s="66">
-        <f t="shared" si="26"/>
+        <f>MEDIAN(AH2:AH15)</f>
         <v>1.1263065906932574</v>
       </c>
       <c r="AI17" s="62">
-        <f t="shared" si="26"/>
+        <f>MEDIAN(AI2:AI15)</f>
         <v>1.2281153133903133</v>
       </c>
       <c r="AJ17" s="23">
-        <f t="shared" si="26"/>
+        <f>MEDIAN(AJ2:AJ15)</f>
         <v>1.1251416666666667</v>
       </c>
       <c r="AK17" s="20">
-        <f t="shared" si="26"/>
+        <f>MEDIAN(AK2:AK15)</f>
         <v>1.0594889937106919</v>
       </c>
       <c r="AL17" s="18">
-        <f t="shared" si="26"/>
+        <f>MEDIAN(AL2:AL15)</f>
         <v>1.1230583333333333</v>
       </c>
       <c r="AM17" s="15">
-        <f t="shared" si="26"/>
+        <f>MEDIAN(AM2:AM15)</f>
         <v>1.1047250000000002</v>
       </c>
       <c r="AN17" s="68">
-        <f t="shared" si="26"/>
+        <f>MEDIAN(AN2:AN15)</f>
         <v>1.2722325735992404</v>
       </c>
       <c r="AO17" s="10">
-        <f t="shared" si="26"/>
-        <v>-0.10600000000000043</v>
+        <f>MEDIAN(AO2:AO15)</f>
+        <v>0.3965000000000003</v>
       </c>
       <c r="AP17" s="2">
-        <f t="shared" si="26"/>
-        <v>1.0068357142857143</v>
+        <f>MEDIAN(AP2:AP15)</f>
+        <v>1.0879000000000001</v>
       </c>
       <c r="AQ17" s="12">
-        <f t="shared" si="26"/>
-        <v>-0.21200000000000085</v>
+        <f>MEDIAN(AQ2:AQ15)</f>
+        <v>0.79300000000000059</v>
       </c>
       <c r="AR17" s="12">
-        <f t="shared" si="26"/>
-        <v>0.98448275862068946</v>
+        <f>MEDIAN(AR2:AR15)</f>
+        <v>1.0869827586206897</v>
       </c>
       <c r="AS17" s="5">
-        <f t="shared" si="26"/>
-        <v>0.98940000000000006</v>
+        <f>MEDIAN(AS2:AS15)</f>
+        <v>1.03965</v>
       </c>
     </row>
     <row r="18" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AF18" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG18" s="75"/>
+        <v>59</v>
+      </c>
+      <c r="AG18" s="78"/>
     </row>
     <row r="19" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N19" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
         <v>0.82</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <v>0.15</v>
       </c>
-      <c r="T19">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1">
         <v>0.2</v>
       </c>
-      <c r="W19">
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="1">
         <v>0.54</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="1">
         <v>0.09</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AA19">
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1">
         <v>0.04</v>
       </c>
-      <c r="AD19">
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1">
         <v>82.3</v>
       </c>
-      <c r="AF19">
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1">
         <v>1.32</v>
       </c>
-      <c r="AG19" s="76">
-        <f t="shared" ref="AG19:AG36" si="27">(((P19-Q19+1.25*Q19)/2)+(T19/3)+0.25*((U19/4)+V19)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/20))+1</f>
+      <c r="AG19" s="73">
+        <f>(((P19-Q19+1.2*Q19)/2)+(T19/3)+0.25*((U19/4)+V19)-(W19-0.1*X19+0.5*Y19)+(AD19/250)+(AA19/50))+1</f>
+        <v>1.2761666666666667</v>
+      </c>
+      <c r="AH19" s="66">
+        <f>(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/20))+1</f>
         <v>1.2901166666666666</v>
       </c>
-      <c r="AH19" s="66">
-        <f t="shared" ref="AH19:AH35" si="28">(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/20))+1</f>
-        <v>1.2901166666666666</v>
-      </c>
       <c r="AI19" s="62">
-        <f t="shared" ref="AI19:AI35" si="29">(((P19-Q19+1.25*Q19+T19)/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
+        <f>(((P19-Q19+1.25*Q19+T19)/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
         <v>1.4104722222222219</v>
       </c>
       <c r="AJ19" s="23">
-        <f t="shared" ref="AJ19:AJ35" si="30">((P19/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
+        <f>((P19/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
         <v>1.291722222222222</v>
       </c>
       <c r="AK19" s="20">
-        <f t="shared" ref="AK19:AK35" si="31">(((P19/2)+(1-W19)+(AD19/200)+(AA19/9)))/1.06</f>
+        <f>(((P19/2)+(1-W19)+(AD19/200)+(AA19/9)))/1.06</f>
         <v>1.2131551362683437</v>
       </c>
       <c r="AL19" s="18">
-        <f t="shared" ref="AL19:AL35" si="32">((P19/2)+(1-W19)+(AD19/200)+(AA19/9))</f>
+        <f>((P19/2)+(1-W19)+(AD19/200)+(AA19/9))</f>
         <v>1.2859444444444443</v>
       </c>
       <c r="AM19" s="15">
-        <f t="shared" ref="AM19:AM35" si="33">((P19/2)+(1-W19)+(AD19/200))</f>
+        <f>((P19/2)+(1-W19)+(AD19/200))</f>
         <v>1.2814999999999999</v>
       </c>
       <c r="AN19" s="68">
-        <f t="shared" ref="AN19:AN35" si="34">(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/18))*10</f>
+        <f>(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/18))*10</f>
         <v>2.9033888888888888</v>
       </c>
     </row>
@@ -4950,66 +5104,87 @@
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N20" t="s">
-        <v>70</v>
-      </c>
-      <c r="P20">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
         <v>0.81</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T20">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1">
         <v>0.2</v>
       </c>
-      <c r="W20">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="1">
         <v>0.12</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AA20">
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1">
         <v>0.05</v>
       </c>
-      <c r="AD20">
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1">
         <v>81.5</v>
       </c>
-      <c r="AF20">
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1">
         <v>1.29</v>
       </c>
-      <c r="AG20" s="76">
-        <f t="shared" si="27"/>
+      <c r="AG20" s="73">
+        <f t="shared" ref="AG20:AG36" si="1">(((P20-Q20+1.2*Q20)/2)+(T20/3)+0.25*((U20/4)+V20)-(W20-0.1*X20+0.5*Y20)+(AD20/250)+(AA20/50))+1</f>
+        <v>1.2421666666666666</v>
+      </c>
+      <c r="AH20" s="66">
+        <f>(((P20-Q20+1.25*Q20)/2)+(T20/3)-(W20-0.2*X20+0.5*Y20)+(AD20/250)+(AA20/20))+1</f>
         <v>1.2591666666666668</v>
       </c>
-      <c r="AH20" s="66">
-        <f t="shared" si="28"/>
-        <v>1.2591666666666668</v>
-      </c>
       <c r="AI20" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P20-Q20+1.25*Q20+T20)/2)+(1-(W20-0.25*X20+0.5*Y20))+(AD20/200)+(AA20/18))</f>
         <v>1.3802777777777777</v>
       </c>
       <c r="AJ20" s="23">
-        <f t="shared" si="30"/>
+        <f>((P20/2)+(1-(W20-0.25*X20+0.5*Y20))+(AD20/200)+(AA20/18))</f>
         <v>1.2627777777777778</v>
       </c>
       <c r="AK20" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P20/2)+(1-W20)+(AD20/200)+(AA20/9)))/1.06</f>
         <v>1.186844863731656</v>
       </c>
       <c r="AL20" s="18">
-        <f t="shared" si="32"/>
+        <f>((P20/2)+(1-W20)+(AD20/200)+(AA20/9))</f>
         <v>1.2580555555555555</v>
       </c>
       <c r="AM20" s="15">
-        <f t="shared" si="33"/>
+        <f>((P20/2)+(1-W20)+(AD20/200))</f>
         <v>1.2524999999999999</v>
       </c>
       <c r="AN20" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P20-Q20+1.25*Q20)/2)+(T20/3)-(W20-0.2*X20+0.5*Y20)+(AD20/250)+(AA20/18))*10</f>
         <v>2.594444444444445</v>
       </c>
     </row>
@@ -5018,7 +5193,7 @@
         <v>48</v>
       </c>
       <c r="N21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21">
         <v>0.81</v>
@@ -5035,7 +5210,7 @@
       <c r="X21">
         <v>0.15</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="AA21">
@@ -5047,45 +5222,45 @@
       <c r="AF21">
         <v>1.2</v>
       </c>
-      <c r="AG21" s="76">
-        <f t="shared" si="27"/>
+      <c r="AG21" s="73">
+        <f t="shared" si="1"/>
+        <v>1.1569000000000003</v>
+      </c>
+      <c r="AH21" s="66">
+        <f>(((P21-Q21+1.25*Q21)/2)+(T21/3)-(W21-0.2*X21+0.5*Y21)+(AD21/250)+(AA21/20))+1</f>
         <v>1.1756500000000001</v>
       </c>
-      <c r="AH21" s="66">
-        <f t="shared" si="28"/>
-        <v>1.1756500000000001</v>
-      </c>
       <c r="AI21" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P21-Q21+1.25*Q21+T21)/2)+(1-(W21-0.25*X21+0.5*Y21))+(AD21/200)+(AA21/18))</f>
         <v>1.3095277777777778</v>
       </c>
       <c r="AJ21" s="23">
-        <f t="shared" si="30"/>
+        <f>((P21/2)+(1-(W21-0.25*X21+0.5*Y21))+(AD21/200)+(AA21/18))</f>
         <v>1.1932777777777779</v>
       </c>
       <c r="AK21" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P21/2)+(1-W21)+(AD21/200)+(AA21/9)))/1.06</f>
         <v>1.1094863731656184</v>
       </c>
       <c r="AL21" s="18">
-        <f t="shared" si="32"/>
+        <f>((P21/2)+(1-W21)+(AD21/200)+(AA21/9))</f>
         <v>1.1760555555555556</v>
       </c>
       <c r="AM21" s="15">
-        <f t="shared" si="33"/>
+        <f>((P21/2)+(1-W21)+(AD21/200))</f>
         <v>1.1705000000000001</v>
       </c>
       <c r="AN21" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P21-Q21+1.25*Q21)/2)+(T21/3)-(W21-0.2*X21+0.5*Y21)+(AD21/250)+(AA21/18))*10</f>
         <v>1.7592777777777791</v>
       </c>
     </row>
     <row r="22" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P22">
         <v>0.69</v>
@@ -5102,7 +5277,7 @@
       <c r="X22">
         <v>0.11</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="AA22">
@@ -5114,426 +5289,556 @@
       <c r="AF22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AG22" s="76">
-        <f t="shared" si="27"/>
+      <c r="AG22" s="73">
+        <f t="shared" si="1"/>
+        <v>1.0740666666666667</v>
+      </c>
+      <c r="AH22" s="66">
+        <f>(((P22-Q22+1.25*Q22)/2)+(T22/3)-(W22-0.2*X22+0.5*Y22)+(AD22/250)+(AA22/20))+1</f>
         <v>1.0884666666666667</v>
       </c>
-      <c r="AH22" s="66">
-        <f t="shared" si="28"/>
-        <v>1.0884666666666667</v>
-      </c>
       <c r="AI22" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P22-Q22+1.25*Q22+T22)/2)+(1-(W22-0.25*X22+0.5*Y22))+(AD22/200)+(AA22/18))</f>
         <v>1.1986666666666668</v>
       </c>
       <c r="AJ22" s="23">
-        <f t="shared" si="30"/>
+        <f>((P22/2)+(1-(W22-0.25*X22+0.5*Y22))+(AD22/200)+(AA22/18))</f>
         <v>1.1011666666666666</v>
       </c>
       <c r="AK22" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P22/2)+(1-W22)+(AD22/200)+(AA22/9)))/1.06</f>
         <v>1.0371069182389938</v>
       </c>
       <c r="AL22" s="18">
-        <f t="shared" si="32"/>
+        <f>((P22/2)+(1-W22)+(AD22/200)+(AA22/9))</f>
         <v>1.0993333333333335</v>
       </c>
       <c r="AM22" s="15">
-        <f t="shared" si="33"/>
+        <f>((P22/2)+(1-W22)+(AD22/200))</f>
         <v>1.0960000000000001</v>
       </c>
       <c r="AN22" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P22-Q22+1.25*Q22)/2)+(T22/3)-(W22-0.2*X22+0.5*Y22)+(AD22/250)+(AA22/18))*10</f>
         <v>0.88633333333333353</v>
       </c>
     </row>
     <row r="23" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="N23" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1">
         <v>0.6</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="1">
         <v>0.09</v>
       </c>
-      <c r="T23">
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1">
         <v>0.13</v>
       </c>
-      <c r="W23">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1">
         <v>0.65</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AA23">
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1">
         <v>0.03</v>
       </c>
-      <c r="AD23">
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1">
         <v>63.9</v>
       </c>
-      <c r="AF23">
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1">
         <v>0.94</v>
       </c>
-      <c r="AG23" s="76">
-        <f t="shared" si="27"/>
+      <c r="AG23" s="73">
+        <f t="shared" si="1"/>
+        <v>0.93753333333333333</v>
+      </c>
+      <c r="AH23" s="66">
+        <f>(((P23-Q23+1.25*Q23)/2)+(T23/3)-(W23-0.2*X23+0.5*Y23)+(AD23/250)+(AA23/20))+1</f>
         <v>0.95468333333333333</v>
       </c>
-      <c r="AH23" s="66">
-        <f t="shared" si="28"/>
-        <v>0.95468333333333333</v>
-      </c>
       <c r="AI23" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P23-Q23+1.25*Q23+T23)/2)+(1-(W23-0.25*X23+0.5*Y23))+(AD23/200)+(AA23/18))</f>
         <v>1.0474166666666667</v>
       </c>
       <c r="AJ23" s="23">
-        <f t="shared" si="30"/>
+        <f>((P23/2)+(1-(W23-0.25*X23+0.5*Y23))+(AD23/200)+(AA23/18))</f>
         <v>0.97116666666666662</v>
       </c>
       <c r="AK23" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P23/2)+(1-W23)+(AD23/200)+(AA23/9)))/1.06</f>
         <v>0.91776729559748416</v>
       </c>
       <c r="AL23" s="18">
-        <f t="shared" si="32"/>
+        <f>((P23/2)+(1-W23)+(AD23/200)+(AA23/9))</f>
         <v>0.97283333333333322</v>
       </c>
       <c r="AM23" s="15">
-        <f t="shared" si="33"/>
+        <f>((P23/2)+(1-W23)+(AD23/200))</f>
         <v>0.96949999999999992</v>
       </c>
       <c r="AN23" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P23-Q23+1.25*Q23)/2)+(T23/3)-(W23-0.2*X23+0.5*Y23)+(AD23/250)+(AA23/18))*10</f>
         <v>-0.45150000000000012</v>
       </c>
     </row>
     <row r="24" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="O24" t="s">
-        <v>84</v>
-      </c>
-      <c r="P24">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="1">
         <v>2</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="1">
         <v>1</v>
       </c>
-      <c r="T24">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1">
         <v>1</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="1">
         <v>1</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1">
         <v>200</v>
       </c>
-      <c r="AG24" s="76">
-        <f t="shared" si="27"/>
-        <v>3.3208333333333333</v>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="73">
+        <f t="shared" si="1"/>
+        <v>3.2958333333333334</v>
       </c>
       <c r="AH24" s="66">
-        <f t="shared" si="28"/>
+        <f>(((P24-Q24+1.25*Q24)/2)+(T24/3)-(W24-0.2*X24+0.5*Y24)+(AD24/250)+(AA24/20))+1</f>
         <v>3.2583333333333333</v>
       </c>
       <c r="AI24" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P24-Q24+1.25*Q24+T24)/2)+(1-(W24-0.25*X24+0.5*Y24))+(AD24/200)+(AA24/18))</f>
         <v>3.625</v>
       </c>
       <c r="AJ24" s="23">
-        <f t="shared" si="30"/>
+        <f>((P24/2)+(1-(W24-0.25*X24+0.5*Y24))+(AD24/200)+(AA24/18))</f>
         <v>3</v>
       </c>
       <c r="AK24" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P24/2)+(1-W24)+(AD24/200)+(AA24/9)))/1.06</f>
         <v>2.8301886792452828</v>
       </c>
       <c r="AL24" s="18">
-        <f t="shared" si="32"/>
+        <f>((P24/2)+(1-W24)+(AD24/200)+(AA24/9))</f>
         <v>3</v>
       </c>
       <c r="AM24" s="15">
-        <f t="shared" si="33"/>
+        <f>((P24/2)+(1-W24)+(AD24/200))</f>
         <v>3</v>
       </c>
       <c r="AN24" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P24-Q24+1.25*Q24)/2)+(T24/3)-(W24-0.2*X24+0.5*Y24)+(AD24/250)+(AA24/18))*10</f>
         <v>22.583333333333332</v>
       </c>
     </row>
     <row r="25" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" t="s">
-        <v>83</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
+        <v>79</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
         <v>1</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="76">
-        <f t="shared" si="27"/>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="73">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH25" s="66">
-        <f t="shared" si="28"/>
+        <f>(((P25-Q25+1.25*Q25)/2)+(T25/3)-(W25-0.2*X25+0.5*Y25)+(AD25/250)+(AA25/20))+1</f>
         <v>0</v>
       </c>
       <c r="AI25" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P25-Q25+1.25*Q25+T25)/2)+(1-(W25-0.25*X25+0.5*Y25))+(AD25/200)+(AA25/18))</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="23">
-        <f t="shared" si="30"/>
+        <f>((P25/2)+(1-(W25-0.25*X25+0.5*Y25))+(AD25/200)+(AA25/18))</f>
         <v>0</v>
       </c>
       <c r="AK25" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P25/2)+(1-W25)+(AD25/200)+(AA25/9)))/1.06</f>
         <v>0</v>
       </c>
       <c r="AL25" s="18">
-        <f t="shared" si="32"/>
+        <f>((P25/2)+(1-W25)+(AD25/200)+(AA25/9))</f>
         <v>0</v>
       </c>
       <c r="AM25" s="15">
-        <f t="shared" si="33"/>
+        <f>((P25/2)+(1-W25)+(AD25/200))</f>
         <v>0</v>
       </c>
       <c r="AN25" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P25-Q25+1.25*Q25)/2)+(T25/3)-(W25-0.2*X25+0.5*Y25)+(AD25/250)+(AA25/18))*10</f>
         <v>-10</v>
       </c>
     </row>
     <row r="26" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="P26">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1">
         <v>1</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>1</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="W26">
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1">
         <v>1</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="1">
         <v>1</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1">
         <v>100</v>
       </c>
-      <c r="AG26" s="76">
-        <f t="shared" si="27"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="73">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH26" s="66">
+        <f>(((P26-Q26+1.25*Q26)/2)+(T26/3)-(W26-0.2*X26+0.5*Y26)+(AD26/250)+(AA26/20))+1</f>
         <v>1.2250000000000001</v>
       </c>
-      <c r="AH26" s="66">
-        <f t="shared" si="28"/>
-        <v>1.2250000000000001</v>
-      </c>
       <c r="AI26" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P26-Q26+1.25*Q26+T26)/2)+(1-(W26-0.25*X26+0.5*Y26))+(AD26/200)+(AA26/18))</f>
         <v>1.375</v>
       </c>
       <c r="AJ26" s="23">
-        <f t="shared" si="30"/>
+        <f>((P26/2)+(1-(W26-0.25*X26+0.5*Y26))+(AD26/200)+(AA26/18))</f>
         <v>1.25</v>
       </c>
       <c r="AK26" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P26/2)+(1-W26)+(AD26/200)+(AA26/9)))/1.06</f>
         <v>0.94339622641509424</v>
       </c>
       <c r="AL26" s="18">
-        <f t="shared" si="32"/>
+        <f>((P26/2)+(1-W26)+(AD26/200)+(AA26/9))</f>
         <v>1</v>
       </c>
       <c r="AM26" s="15">
-        <f t="shared" si="33"/>
+        <f>((P26/2)+(1-W26)+(AD26/200))</f>
         <v>1</v>
       </c>
       <c r="AN26" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P26-Q26+1.25*Q26)/2)+(T26/3)-(W26-0.2*X26+0.5*Y26)+(AD26/250)+(AA26/18))*10</f>
         <v>2.25</v>
       </c>
     </row>
     <row r="27" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="W27">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1">
         <v>1</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="1">
         <v>1</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1">
         <v>99</v>
       </c>
-      <c r="AG27" s="76">
-        <f t="shared" si="27"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="73">
+        <f t="shared" si="1"/>
+        <v>0.496</v>
+      </c>
+      <c r="AH27" s="66">
+        <f>(((P27-Q27+1.25*Q27)/2)+(T27/3)-(W27-0.2*X27+0.5*Y27)+(AD27/250)+(AA27/20))+1</f>
         <v>0.59599999999999997</v>
       </c>
-      <c r="AH27" s="66">
-        <f t="shared" si="28"/>
-        <v>0.59599999999999997</v>
-      </c>
       <c r="AI27" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P27-Q27+1.25*Q27+T27)/2)+(1-(W27-0.25*X27+0.5*Y27))+(AD27/200)+(AA27/18))</f>
         <v>0.745</v>
       </c>
       <c r="AJ27" s="23">
-        <f t="shared" si="30"/>
+        <f>((P27/2)+(1-(W27-0.25*X27+0.5*Y27))+(AD27/200)+(AA27/18))</f>
         <v>0.745</v>
       </c>
       <c r="AK27" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P27/2)+(1-W27)+(AD27/200)+(AA27/9)))/1.06</f>
         <v>0.46698113207547165</v>
       </c>
       <c r="AL27" s="18">
-        <f t="shared" si="32"/>
+        <f>((P27/2)+(1-W27)+(AD27/200)+(AA27/9))</f>
         <v>0.495</v>
       </c>
       <c r="AM27" s="15">
-        <f t="shared" si="33"/>
+        <f>((P27/2)+(1-W27)+(AD27/200))</f>
         <v>0.495</v>
       </c>
       <c r="AN27" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P27-Q27+1.25*Q27)/2)+(T27/3)-(W27-0.2*X27+0.5*Y27)+(AD27/250)+(AA27/18))*10</f>
         <v>-4.04</v>
       </c>
     </row>
     <row r="28" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="P28">
+      <c r="A28" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1">
         <v>1</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="1">
         <v>1</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="W28">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1">
         <v>1</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="1">
         <v>1</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1">
         <v>150</v>
       </c>
-      <c r="AG28" s="76">
-        <f t="shared" si="27"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="73">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="AH28" s="66">
+        <f>(((P28-Q28+1.25*Q28)/2)+(T28/3)-(W28-0.2*X28+0.5*Y28)+(AD28/250)+(AA28/20))+1</f>
         <v>1.4249999999999998</v>
       </c>
-      <c r="AH28" s="66">
-        <f t="shared" si="28"/>
-        <v>1.4249999999999998</v>
-      </c>
       <c r="AI28" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P28-Q28+1.25*Q28+T28)/2)+(1-(W28-0.25*X28+0.5*Y28))+(AD28/200)+(AA28/18))</f>
         <v>1.625</v>
       </c>
       <c r="AJ28" s="23">
-        <f t="shared" si="30"/>
+        <f>((P28/2)+(1-(W28-0.25*X28+0.5*Y28))+(AD28/200)+(AA28/18))</f>
         <v>1.5</v>
       </c>
       <c r="AK28" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P28/2)+(1-W28)+(AD28/200)+(AA28/9)))/1.06</f>
         <v>1.1792452830188678</v>
       </c>
       <c r="AL28" s="18">
-        <f t="shared" si="32"/>
+        <f>((P28/2)+(1-W28)+(AD28/200)+(AA28/9))</f>
         <v>1.25</v>
       </c>
       <c r="AM28" s="15">
-        <f t="shared" si="33"/>
+        <f>((P28/2)+(1-W28)+(AD28/200))</f>
         <v>1.25</v>
       </c>
       <c r="AN28" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P28-Q28+1.25*Q28)/2)+(T28/3)-(W28-0.2*X28+0.5*Y28)+(AD28/250)+(AA28/18))*10</f>
         <v>4.2499999999999991</v>
       </c>
     </row>
@@ -5562,168 +5867,213 @@
       <c r="AD29">
         <v>100</v>
       </c>
-      <c r="AG29" s="76">
-        <f t="shared" si="27"/>
+      <c r="AG29" s="73">
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="AH29" s="66">
-        <f t="shared" si="28"/>
+        <f>(((P29-Q29+1.25*Q29)/2)+(T29/3)-(W29-0.2*X29+0.5*Y29)+(AD29/250)+(AA29/20))+1</f>
         <v>0.9</v>
       </c>
       <c r="AI29" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P29-Q29+1.25*Q29+T29)/2)+(1-(W29-0.25*X29+0.5*Y29))+(AD29/200)+(AA29/18))</f>
         <v>1</v>
       </c>
       <c r="AJ29" s="23">
-        <f t="shared" si="30"/>
+        <f>((P29/2)+(1-(W29-0.25*X29+0.5*Y29))+(AD29/200)+(AA29/18))</f>
         <v>1</v>
       </c>
       <c r="AK29" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P29/2)+(1-W29)+(AD29/200)+(AA29/9)))/1.06</f>
         <v>0.94339622641509424</v>
       </c>
       <c r="AL29" s="18">
-        <f t="shared" si="32"/>
+        <f>((P29/2)+(1-W29)+(AD29/200)+(AA29/9))</f>
         <v>1</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="33"/>
+        <f>((P29/2)+(1-W29)+(AD29/200))</f>
         <v>1</v>
       </c>
       <c r="AN29" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P29-Q29+1.25*Q29)/2)+(T29/3)-(W29-0.2*X29+0.5*Y29)+(AD29/250)+(AA29/18))*10</f>
         <v>-0.99999999999999978</v>
       </c>
     </row>
     <row r="30" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P30">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1">
         <v>2</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="T30">
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1">
         <v>1</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
         <v>1</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1">
         <v>200</v>
       </c>
-      <c r="AG30" s="76">
-        <f t="shared" si="27"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="73">
+        <f t="shared" si="1"/>
         <v>3.3833333333333333</v>
       </c>
       <c r="AH30" s="66">
-        <f t="shared" si="28"/>
+        <f>(((P30-Q30+1.25*Q30)/2)+(T30/3)-(W30-0.2*X30+0.5*Y30)+(AD30/250)+(AA30/20))+1</f>
         <v>3.1333333333333333</v>
       </c>
       <c r="AI30" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P30-Q30+1.25*Q30+T30)/2)+(1-(W30-0.25*X30+0.5*Y30))+(AD30/200)+(AA30/18))</f>
         <v>3.5</v>
       </c>
       <c r="AJ30" s="23">
-        <f t="shared" si="30"/>
+        <f>((P30/2)+(1-(W30-0.25*X30+0.5*Y30))+(AD30/200)+(AA30/18))</f>
         <v>3</v>
       </c>
       <c r="AK30" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P30/2)+(1-W30)+(AD30/200)+(AA30/9)))/1.06</f>
         <v>2.8301886792452828</v>
       </c>
       <c r="AL30" s="18">
-        <f t="shared" si="32"/>
+        <f>((P30/2)+(1-W30)+(AD30/200)+(AA30/9))</f>
         <v>3</v>
       </c>
       <c r="AM30" s="15">
-        <f t="shared" si="33"/>
+        <f>((P30/2)+(1-W30)+(AD30/200))</f>
         <v>3</v>
       </c>
       <c r="AN30" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P30-Q30+1.25*Q30)/2)+(T30/3)-(W30-0.2*X30+0.5*Y30)+(AD30/250)+(AA30/18))*10</f>
         <v>21.333333333333332</v>
       </c>
     </row>
     <row r="31" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P31">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1">
         <v>2</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="1">
         <v>1</v>
       </c>
-      <c r="T31">
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1">
         <v>1</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1">
         <v>200</v>
       </c>
-      <c r="AG31" s="76">
-        <f t="shared" si="27"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="73">
+        <f t="shared" si="1"/>
+        <v>3.2333333333333334</v>
+      </c>
+      <c r="AH31" s="66">
+        <f>(((P31-Q31+1.25*Q31)/2)+(T31/3)-(W31-0.2*X31+0.5*Y31)+(AD31/250)+(AA31/20))+1</f>
         <v>3.2583333333333333</v>
       </c>
-      <c r="AH31" s="66">
-        <f t="shared" si="28"/>
-        <v>3.2583333333333333</v>
-      </c>
       <c r="AI31" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P31-Q31+1.25*Q31+T31)/2)+(1-(W31-0.25*X31+0.5*Y31))+(AD31/200)+(AA31/18))</f>
         <v>3.625</v>
       </c>
       <c r="AJ31" s="23">
-        <f t="shared" si="30"/>
+        <f>((P31/2)+(1-(W31-0.25*X31+0.5*Y31))+(AD31/200)+(AA31/18))</f>
         <v>3</v>
       </c>
       <c r="AK31" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P31/2)+(1-W31)+(AD31/200)+(AA31/9)))/1.06</f>
         <v>2.8301886792452828</v>
       </c>
       <c r="AL31" s="18">
-        <f t="shared" si="32"/>
+        <f>((P31/2)+(1-W31)+(AD31/200)+(AA31/9))</f>
         <v>3</v>
       </c>
       <c r="AM31" s="15">
-        <f t="shared" si="33"/>
+        <f>((P31/2)+(1-W31)+(AD31/200))</f>
         <v>3</v>
       </c>
       <c r="AN31" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P31-Q31+1.25*Q31)/2)+(T31/3)-(W31-0.2*X31+0.5*Y31)+(AD31/250)+(AA31/18))*10</f>
         <v>22.583333333333332</v>
       </c>
     </row>
     <row r="32" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
       <c r="P32">
         <v>1</v>
       </c>
@@ -5754,104 +6104,127 @@
       <c r="AD32">
         <v>100</v>
       </c>
-      <c r="AG32" s="76">
-        <f t="shared" si="27"/>
+      <c r="AG32" s="73">
+        <f t="shared" si="1"/>
         <v>0.96250000000000002</v>
       </c>
       <c r="AH32" s="66">
-        <f t="shared" si="28"/>
+        <f>(((P32-Q32+1.25*Q32)/2)+(T32/3)-(W32-0.2*X32+0.5*Y32)+(AD32/250)+(AA32/20))+1</f>
         <v>0.9</v>
       </c>
       <c r="AI32" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P32-Q32+1.25*Q32+T32)/2)+(1-(W32-0.25*X32+0.5*Y32))+(AD32/200)+(AA32/18))</f>
         <v>1</v>
       </c>
       <c r="AJ32" s="23">
-        <f t="shared" si="30"/>
+        <f>((P32/2)+(1-(W32-0.25*X32+0.5*Y32))+(AD32/200)+(AA32/18))</f>
         <v>1</v>
       </c>
       <c r="AK32" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P32/2)+(1-W32)+(AD32/200)+(AA32/9)))/1.06</f>
         <v>0.94339622641509424</v>
       </c>
       <c r="AL32" s="18">
-        <f t="shared" si="32"/>
+        <f>((P32/2)+(1-W32)+(AD32/200)+(AA32/9))</f>
         <v>1</v>
       </c>
       <c r="AM32" s="15">
-        <f t="shared" si="33"/>
+        <f>((P32/2)+(1-W32)+(AD32/200))</f>
         <v>1</v>
       </c>
       <c r="AN32" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P32-Q32+1.25*Q32)/2)+(T32/3)-(W32-0.2*X32+0.5*Y32)+(AD32/250)+(AA32/18))*10</f>
         <v>-0.99999999999999978</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P33">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1">
         <v>1</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
         <v>1</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1">
         <v>100</v>
       </c>
-      <c r="AG33" s="76">
-        <f t="shared" si="27"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="73">
+        <f t="shared" si="1"/>
         <v>1.9624999999999999</v>
       </c>
       <c r="AH33" s="66">
-        <f t="shared" si="28"/>
+        <f>(((P33-Q33+1.25*Q33)/2)+(T33/3)-(W33-0.2*X33+0.5*Y33)+(AD33/250)+(AA33/20))+1</f>
         <v>1.9</v>
       </c>
       <c r="AI33" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P33-Q33+1.25*Q33+T33)/2)+(1-(W33-0.25*X33+0.5*Y33))+(AD33/200)+(AA33/18))</f>
         <v>2</v>
       </c>
       <c r="AJ33" s="23">
-        <f t="shared" si="30"/>
+        <f>((P33/2)+(1-(W33-0.25*X33+0.5*Y33))+(AD33/200)+(AA33/18))</f>
         <v>2</v>
       </c>
       <c r="AK33" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P33/2)+(1-W33)+(AD33/200)+(AA33/9)))/1.06</f>
         <v>1.8867924528301885</v>
       </c>
       <c r="AL33" s="18">
-        <f t="shared" si="32"/>
+        <f>((P33/2)+(1-W33)+(AD33/200)+(AA33/9))</f>
         <v>2</v>
       </c>
       <c r="AM33" s="15">
-        <f t="shared" si="33"/>
+        <f>((P33/2)+(1-W33)+(AD33/200))</f>
         <v>2</v>
       </c>
       <c r="AN33" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P33-Q33+1.25*Q33)/2)+(T33/3)-(W33-0.2*X33+0.5*Y33)+(AD33/250)+(AA33/18))*10</f>
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
       <c r="P34">
         <v>1</v>
       </c>
@@ -5882,36 +6255,36 @@
       <c r="AD34">
         <v>100</v>
       </c>
-      <c r="AG34" s="76">
-        <f t="shared" si="27"/>
+      <c r="AG34" s="73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH34" s="66">
+        <f>(((P34-Q34+1.25*Q34)/2)+(T34/3)-(W34-0.2*X34+0.5*Y34)+(AD34/250)+(AA34/20))+1</f>
         <v>1.0249999999999999</v>
       </c>
-      <c r="AH34" s="66">
-        <f t="shared" si="28"/>
-        <v>1.0249999999999999</v>
-      </c>
       <c r="AI34" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P34-Q34+1.25*Q34+T34)/2)+(1-(W34-0.25*X34+0.5*Y34))+(AD34/200)+(AA34/18))</f>
         <v>1.125</v>
       </c>
       <c r="AJ34" s="23">
-        <f t="shared" si="30"/>
+        <f>((P34/2)+(1-(W34-0.25*X34+0.5*Y34))+(AD34/200)+(AA34/18))</f>
         <v>1</v>
       </c>
       <c r="AK34" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P34/2)+(1-W34)+(AD34/200)+(AA34/9)))/1.06</f>
         <v>0.94339622641509424</v>
       </c>
       <c r="AL34" s="18">
-        <f t="shared" si="32"/>
+        <f>((P34/2)+(1-W34)+(AD34/200)+(AA34/9))</f>
         <v>1</v>
       </c>
       <c r="AM34" s="15">
-        <f t="shared" si="33"/>
+        <f>((P34/2)+(1-W34)+(AD34/200))</f>
         <v>1</v>
       </c>
       <c r="AN34" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P34-Q34+1.25*Q34)/2)+(T34/3)-(W34-0.2*X34+0.5*Y34)+(AD34/250)+(AA34/18))*10</f>
         <v>0.25000000000000022</v>
       </c>
     </row>
@@ -5919,69 +6292,85 @@
       <c r="A35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P35" s="2">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="74">
         <v>0.59071428571428564</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="74">
         <v>0.20548933087588797</v>
       </c>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2">
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74">
         <v>0.13</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U35" s="74">
         <v>0.06</v>
       </c>
-      <c r="V35" s="2">
+      <c r="V35" s="74">
         <v>0.05</v>
       </c>
-      <c r="W35" s="2">
+      <c r="W35" s="74">
         <v>0.63642857142857134</v>
       </c>
-      <c r="X35" s="2">
+      <c r="X35" s="74">
         <v>3.3571428571428578E-2</v>
       </c>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2">
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74">
         <v>0.18571428571428572</v>
       </c>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2">
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74">
         <v>69.528571428571439</v>
       </c>
-      <c r="AG35" s="76">
-        <f t="shared" si="27"/>
-        <v>1.0383123568356765</v>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="73">
+        <f t="shared" si="1"/>
+        <v>1.024246552135208</v>
       </c>
       <c r="AH35" s="66">
-        <f t="shared" si="28"/>
+        <f>(((P35-Q35+1.25*Q35)/2)+(T35/3)-(W35-0.2*X35+0.5*Y35)+(AD35/250)+(AA35/20))+1</f>
         <v>1.0220623568356766</v>
       </c>
       <c r="AI35" s="62">
-        <f t="shared" si="29"/>
+        <f>(((P35-Q35+1.25*Q35+T35)/2)+(1-(W35-0.25*X35+0.5*Y35))+(AD35/200)+(AA35/18))</f>
         <v>1.1159679123912321</v>
       </c>
       <c r="AJ35" s="23">
-        <f t="shared" si="30"/>
+        <f>((P35/2)+(1-(W35-0.25*X35+0.5*Y35))+(AD35/200)+(AA35/18))</f>
         <v>1.025281746031746</v>
       </c>
       <c r="AK35" s="20">
-        <f t="shared" si="31"/>
+        <f>(((P35/2)+(1-W35)+(AD35/200)+(AA35/9)))/1.06</f>
         <v>0.96906259359089542</v>
       </c>
       <c r="AL35" s="18">
-        <f t="shared" si="32"/>
+        <f>((P35/2)+(1-W35)+(AD35/200)+(AA35/9))</f>
         <v>1.0272063492063492</v>
       </c>
       <c r="AM35" s="15">
-        <f t="shared" si="33"/>
+        <f>((P35/2)+(1-W35)+(AD35/200))</f>
         <v>1.0065714285714287</v>
       </c>
       <c r="AN35" s="68">
-        <f t="shared" si="34"/>
+        <f>(((P35-Q35+1.25*Q35)/2)+(T35/3)-(W35-0.2*X35+0.5*Y35)+(AD35/250)+(AA35/18))*10</f>
         <v>0.23094102867422561</v>
       </c>
     </row>
@@ -5989,77 +6378,93 @@
       <c r="A36" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="P36" s="2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="74">
         <v>0.52</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="74">
         <v>0.13871912401324166</v>
       </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2">
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74">
         <v>0.13534504710975298</v>
       </c>
-      <c r="U36" s="2">
+      <c r="U36" s="74">
         <v>4.8764960529666411E-2</v>
       </c>
-      <c r="V36" s="2">
+      <c r="V36" s="74">
         <v>5.2966641201935317E-2</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W36" s="74">
         <v>0.71</v>
       </c>
-      <c r="X36" s="2">
+      <c r="X36" s="74">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2">
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="74">
         <v>0.105</v>
       </c>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2">
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="74"/>
+      <c r="AD36" s="74">
         <v>61.884999999999998</v>
       </c>
-      <c r="AG36" s="76">
-        <f t="shared" si="27"/>
-        <v>0.88653437653849421</v>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="73">
+        <f t="shared" si="1"/>
+        <v>0.8774163984381631</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="79" t="s">
-        <v>99</v>
+      <c r="B43" s="76" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6069,7 +6474,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS44">
-    <sortCondition sortBy="cellColor" ref="AE6:AE44" dxfId="0"/>
+    <sortCondition sortBy="cellColor" ref="AE12:AE44" dxfId="1"/>
   </sortState>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/StatsTest.xlsx
+++ b/StatsTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509916B2-E701-4F7A-BD97-74AD07AD46D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C6766F-A128-4C33-8081-1A26604B9ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="27465" windowHeight="15420" tabRatio="387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="3315" windowWidth="28800" windowHeight="15345" tabRatio="387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>player</t>
   </si>
@@ -209,15 +209,6 @@
     <t>RatingG1.2={[(kpr/2)+(1-dpr)+(adr/200)+(efr/9)]/1.06}</t>
   </si>
   <si>
-    <t>Stan Kato2019</t>
-  </si>
-  <si>
-    <t>n0thing Kato2019</t>
-  </si>
-  <si>
-    <t>HLTV2.0</t>
-  </si>
-  <si>
     <t>Think G1.2 is actually a good rating, mix between AF+G &amp; compareable to HLTV2.0</t>
   </si>
   <si>
@@ -242,15 +233,6 @@
     <t>SPR</t>
   </si>
   <si>
-    <t>Device Majors2019</t>
-  </si>
-  <si>
-    <t>Simple Majors2019</t>
-  </si>
-  <si>
-    <t>Kio Majors2019</t>
-  </si>
-  <si>
     <t>RatingG1.3={(kpr/2)+[1-(dpr-(.25tdpr+.5spr)]+(adr/200)+(efr/18)}</t>
   </si>
   <si>
@@ -284,12 +266,6 @@
     <t>Rating1.5</t>
   </si>
   <si>
-    <t>Worst</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
     <t>Rating1.5ify</t>
   </si>
   <si>
@@ -317,33 +293,70 @@
     <t>1v2PR</t>
   </si>
   <si>
-    <t>PadRating</t>
-  </si>
-  <si>
     <t>EVP</t>
   </si>
   <si>
-    <t>3rd-4th</t>
-  </si>
-  <si>
-    <t>1st-2nd</t>
-  </si>
-  <si>
     <t>PadRating - Added clutches + other readjustments. Think this is the rating. Seems similar to HLTV2.0, also feels pretty good when ordering players in how good they are + the difference between them.</t>
   </si>
   <si>
-    <t>PadRating=[0.5*(kpr-okpr+1.2*okpr)+(mkpr/3)+((.25*1v1PR+1v2PR)/4)-(dpr-.15tdpr+.5spr)+(adr/250)+(efr/50)]+1</t>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>PadRating=[0.5*(kpr-okpr+1.2*okpr)+(mkpr/3)+((.25*1v1PR+1v2PR)/5)-(dpr-.15tdpr+.5spr)+(adr/250)+(efr/50)]+1</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>swny</t>
+  </si>
+  <si>
+    <t>jsad</t>
+  </si>
+  <si>
+    <t>nate</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>ODPR</t>
+  </si>
+  <si>
+    <t>PadRating1.1</t>
+  </si>
+  <si>
+    <t>PadRating1.1=[0.5*(kpr+.25okpr)+(mkpr/3)+((.25*1v1PR+1v2PR)/4)-(dpr+.2odpr-.15tdpr+.5spr)+(adr/225)+(efr/16)]+1</t>
+  </si>
+  <si>
+    <t>ethan</t>
+  </si>
+  <si>
+    <t>FINALS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,100 +634,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -724,192 +737,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="14" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF1CEEE"/>
-          <bgColor rgb="FFF1CEEE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF1CEEE"/>
-          <bgColor rgb="FFF1CEEE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA02B93"/>
-          <bgColor rgb="FF0F9ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA02B93"/>
-          <bgColor rgb="FF0F9ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FFBF4F14"/>
         </patternFill>
       </fill>
     </dxf>
@@ -939,7 +844,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -992,7 +897,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1045,7 +950,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1098,7 +1003,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1151,7 +1056,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1204,7 +1109,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1257,7 +1162,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1310,7 +1215,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1363,7 +1268,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1416,7 +1321,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1469,7 +1374,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1522,7 +1427,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1575,7 +1480,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1628,7 +1533,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1681,7 +1586,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1734,7 +1639,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1787,7 +1692,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1840,7 +1745,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1893,7 +1798,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1946,7 +1851,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1999,7 +1904,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2251,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS44"/>
+  <dimension ref="A1:AT40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2273,26 +2178,26 @@
     <col min="13" max="13" width="7.28515625" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="20" width="8.5703125" customWidth="1"/>
-    <col min="21" max="22" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" customWidth="1"/>
-    <col min="24" max="24" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="8.5703125" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" customWidth="1"/>
-    <col min="32" max="32" width="8.5703125" customWidth="1"/>
-    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="8.5703125" customWidth="1"/>
+    <col min="22" max="23" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="8.5703125" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2303,28 +2208,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>4</v>
@@ -2342,120 +2247,123 @@
         <v>8</v>
       </c>
       <c r="Q1" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ1" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG1" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH1" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI1" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN1" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AS1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="29">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C2" s="29">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D2" s="29">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E2" s="29">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F2" s="29">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G2" s="29">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2" s="29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="29">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J2" s="29">
         <v>0</v>
@@ -2464,163 +2372,167 @@
         <v>0</v>
       </c>
       <c r="L2" s="29">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="M2" s="29">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N2" s="29">
-        <v>10873</v>
+        <v>13031</v>
       </c>
       <c r="O2" s="29">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="P2" s="30">
-        <f>ROUND(IMDIV(B2,O2),2)</f>
-        <v>0.78</v>
+        <f t="shared" ref="P2:R15" si="0">ROUND(IMDIV(B2,O2),2)</f>
+        <v>0.76</v>
       </c>
       <c r="Q2" s="52">
         <f>(D2/O2)</f>
-        <v>0.2814814814814815</v>
-      </c>
-      <c r="R2" s="52">
+        <v>0.29012345679012347</v>
+      </c>
+      <c r="R2" s="30">
+        <f>ROUND(IMDIV((E2-D2),O2),2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="S2" s="52">
         <f>(E2/O2)*100</f>
-        <v>42.962962962962962</v>
-      </c>
-      <c r="S2" s="30">
+        <v>46.296296296296298</v>
+      </c>
+      <c r="T2" s="30">
         <f>ROUND((D2/E2)*100,2)</f>
-        <v>65.52</v>
-      </c>
-      <c r="T2" s="52">
+        <v>62.67</v>
+      </c>
+      <c r="U2" s="52">
         <f>F2/O2</f>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="U2" s="52">
+        <v>0.19753086419753085</v>
+      </c>
+      <c r="V2" s="52">
         <f>G2/O2</f>
-        <v>0.12592592592592591</v>
-      </c>
-      <c r="V2" s="52">
+        <v>0.12962962962962962</v>
+      </c>
+      <c r="W2" s="52">
         <f>H2/O2</f>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="W2" s="30">
+      <c r="X2" s="30">
         <f>ROUND(IMDIV(I2,O2),2)</f>
         <v>0.49</v>
       </c>
-      <c r="X2" s="30">
+      <c r="Y2" s="30">
         <f>ROUND(IMDIV(J2,O2),2)</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="Z2" s="30">
         <f>ROUND(IMDIV(K2,O2),2)</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="AA2" s="30">
         <f>ROUND(IMDIV(L2,O2),2)</f>
-        <v>2.95</v>
-      </c>
-      <c r="AA2" s="30">
+        <v>2.72</v>
+      </c>
+      <c r="AB2" s="30">
         <f>ROUND(IMDIV(M2,O2),2)</f>
-        <v>0.22</v>
-      </c>
-      <c r="AB2" s="30">
+        <v>0.27</v>
+      </c>
+      <c r="AC2" s="30">
         <f>ROUND(IMDIV(B2,I2),2)</f>
-        <v>1.59</v>
-      </c>
-      <c r="AC2" s="30">
+        <v>1.56</v>
+      </c>
+      <c r="AD2" s="30">
         <f>ROUND(IMDIV(C2,B2),4)*100</f>
-        <v>49.519999999999996</v>
-      </c>
-      <c r="AD2" s="30">
+        <v>50.41</v>
+      </c>
+      <c r="AE2" s="30">
         <f>ROUND(IMDIV(N2,O2),2)</f>
-        <v>80.540000000000006</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>96</v>
+        <v>80.44</v>
       </c>
       <c r="AF2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG2" s="73">
-        <f>(((P2-Q2+1.2*Q2)/2)+(T2/3)+0.25*((U2/4)+V2)-(W2-0.1*X2+0.5*Y2)+(AD2/250)+(AA2/50))+1</f>
-        <v>1.3428254320987654</v>
-      </c>
-      <c r="AH2" s="66">
-        <f>(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/20))+1</f>
-        <v>1.3300735802469137</v>
-      </c>
-      <c r="AI2" s="62">
-        <f>(((P2-Q2+1.25*Q2+T2)/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
-        <v>1.4426999999999999</v>
-      </c>
-      <c r="AJ2" s="23">
-        <f>((P2/2)+(1-(W2-0.25*X2+0.5*Y2))+(AD2/200)+(AA2/18))</f>
-        <v>1.3149222222222223</v>
-      </c>
-      <c r="AK2" s="20">
-        <f>(((P2/2)+(1-W2)+(AD2/200)+(AA2/9)))/1.06</f>
-        <v>1.2520230607966458</v>
-      </c>
-      <c r="AL2" s="18">
-        <f>((P2/2)+(1-W2)+(AD2/200)+(AA2/9))</f>
-        <v>1.3271444444444447</v>
-      </c>
-      <c r="AM2" s="15">
-        <f>((P2/2)+(1-W2)+(AD2/200))</f>
-        <v>1.3027000000000002</v>
-      </c>
-      <c r="AN2" s="68">
-        <f>(((P2-Q2+1.25*Q2)/2)+(T2/3)-(W2-0.2*X2+0.5*Y2)+(AD2/250)+(AA2/18))*10</f>
-        <v>3.3129580246913588</v>
-      </c>
-      <c r="AO2" s="10">
-        <f>(((P2-P12)-(W2-W12)+((AD2-AD12)/100))/2)*10</f>
-        <v>0.23500000000000049</v>
-      </c>
-      <c r="AP2" s="2">
-        <f>(((P2-P12)-(W2-W12)+(AD2-AD12))/100)+1</f>
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="AQ2" s="12">
-        <f>((P2-P12)-(W2-W12)+((AD2-AD12)/100))*10</f>
-        <v>0.47000000000000097</v>
+        <v>90</v>
+      </c>
+      <c r="AG2" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH2" s="73">
+        <f>(((P2+0.25*Q2)/2)+(U2/3)+0.25*((V2/4)+W2)-(X2+0.25*R2-0.15*Y2+0.5*Z2)+(AE2/225)+(AB2/16))+1</f>
+        <v>1.3506155349794238</v>
+      </c>
+      <c r="AI2" s="66">
+        <f>(((P2-Q2+1.25*Q2)/2)+(U2/3)-(X2-0.2*Y2+0.5*Z2)+(AE2/250)+(AB2/20))+1</f>
+        <v>1.3273690534979423</v>
+      </c>
+      <c r="AJ2" s="62">
+        <f>(((P2-Q2+1.25*Q2+U2)/2)+(1-(X2-0.25*Y2+0.5*Z2))+(AE2/200)+(AB2/18))</f>
+        <v>1.442230864197531</v>
+      </c>
+      <c r="AK2" s="23">
+        <f>((P2/2)+(1-(X2-0.25*Y2+0.5*Z2))+(AE2/200)+(AB2/18))</f>
+        <v>1.3071999999999999</v>
+      </c>
+      <c r="AL2" s="20">
+        <f>(((P2/2)+(1-X2)+(AE2/200)+(AB2/9)))/1.06</f>
+        <v>1.2473584905660378</v>
+      </c>
+      <c r="AM2" s="18">
+        <f>((P2/2)+(1-X2)+(AE2/200)+(AB2/9))</f>
+        <v>1.3222</v>
+      </c>
+      <c r="AN2" s="15">
+        <f>((P2/2)+(1-X2)+(AE2/200))</f>
+        <v>1.2922</v>
+      </c>
+      <c r="AO2" s="68">
+        <f>(((P2-Q2+1.25*Q2)/2)+(U2/3)-(X2-0.2*Y2+0.5*Z2)+(AE2/250)+(AB2/18))*10</f>
+        <v>3.2886905349794238</v>
+      </c>
+      <c r="AP2" s="10">
+        <f>(((P2-P12)-(X2-X12)+((AE2-AE12)/100))/2)*10</f>
+        <v>0.12999999999999998</v>
+      </c>
+      <c r="AQ2" s="2">
+        <f>(((P2-P12)-(X2-X12)+(AE2-AE12))/100)+1</f>
+        <v>0.84779999999999989</v>
       </c>
       <c r="AR2" s="12">
-        <f>((P2-P12)-(W2-W12)+((AD2-AD12)/116))+1</f>
-        <v>1.0681034482758622</v>
-      </c>
-      <c r="AS2" s="5">
-        <f>(((P2-P12)-(W2-W12)+((AD2-AD12)/100))/2)+1</f>
-        <v>1.0235000000000001</v>
+        <f>((P2-P12)-(X2-X12)+((AE2-AE12)/100))*10</f>
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="AS2" s="12">
+        <f>((P2-P12)-(X2-X12)+((AE2-AE12)/116))+1</f>
+        <v>1.0472413793103448</v>
+      </c>
+      <c r="AT2" s="5">
+        <f>(((P2-P12)-(X2-X12)+((AE2-AE12)/100))/2)+1</f>
+        <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="29">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C3" s="29">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D3" s="29">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E3" s="29">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F3" s="29">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G3" s="29">
         <v>6</v>
       </c>
       <c r="H3" s="29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I3" s="29">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="J3" s="29">
         <v>5</v>
@@ -2629,163 +2541,167 @@
         <v>0</v>
       </c>
       <c r="L3" s="29">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="M3" s="29">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N3" s="29">
-        <v>9656</v>
+        <v>12080</v>
       </c>
       <c r="O3" s="29">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="P3" s="30">
-        <f>ROUND(IMDIV(B3,O3),2)</f>
-        <v>0.59</v>
+        <f t="shared" si="0"/>
+        <v>0.62</v>
       </c>
       <c r="Q3" s="52">
         <f>(D3/O3)</f>
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="R3" s="52">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="R3" s="30">
+        <f t="shared" ref="R3:R15" si="1">ROUND(IMDIV((E3-D3),O3),2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="S3" s="52">
         <f>(E3/O3)*100</f>
-        <v>57.037037037037038</v>
-      </c>
-      <c r="S3" s="30">
+        <v>53.703703703703709</v>
+      </c>
+      <c r="T3" s="30">
         <f>ROUND((D3/E3)*100,2)</f>
-        <v>50.65</v>
-      </c>
-      <c r="T3" s="52">
+        <v>51.72</v>
+      </c>
+      <c r="U3" s="52">
         <f>F3/O3</f>
-        <v>0.11851851851851852</v>
-      </c>
-      <c r="U3" s="52">
+        <v>0.13580246913580246</v>
+      </c>
+      <c r="V3" s="52">
         <f>G3/O3</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="V3" s="52">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="W3" s="52">
         <f>H3/O3</f>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="W3" s="30">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="X3" s="30">
         <f>ROUND(IMDIV(I3,O3),2)</f>
-        <v>0.61</v>
-      </c>
-      <c r="X3" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="Y3" s="30">
         <f>ROUND(IMDIV(J3,O3),2)</f>
-        <v>0.04</v>
-      </c>
-      <c r="Y3" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="Z3" s="30">
         <f>ROUND(IMDIV(K3,O3),2)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="AA3" s="30">
         <f>ROUND(IMDIV(L3,O3),2)</f>
-        <v>2.54</v>
-      </c>
-      <c r="AA3" s="30">
+        <v>2.52</v>
+      </c>
+      <c r="AB3" s="30">
         <f>ROUND(IMDIV(M3,O3),2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AB3" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="AC3" s="30">
         <f>ROUND(IMDIV(B3,I3),2)</f>
-        <v>0.98</v>
-      </c>
-      <c r="AC3" s="30">
+        <v>1.03</v>
+      </c>
+      <c r="AD3" s="30">
         <f>ROUND(IMDIV(C3,B3),4)*100</f>
-        <v>42.5</v>
-      </c>
-      <c r="AD3" s="30">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="30">
         <f>ROUND(IMDIV(N3,O3),2)</f>
-        <v>71.53</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>96</v>
+        <v>74.569999999999993</v>
       </c>
       <c r="AF3" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="73">
-        <f t="shared" ref="AG3:AG15" si="0">(((P3-Q3+1.2*Q3)/2)+(T3/3)+0.25*((U3/4)+V3)-(W3-0.1*X3+0.5*Y3)+(AD3/250)+(AA3/50))+1</f>
-        <v>1.0595520987654321</v>
-      </c>
-      <c r="AH3" s="66">
-        <f>(((P3-Q3+1.25*Q3)/2)+(T3/3)-(W3-0.2*X3+0.5*Y3)+(AD3/250)+(AA3/20))+1</f>
-        <v>1.0647372839506173</v>
-      </c>
-      <c r="AI3" s="62">
-        <f>(((P3-Q3+1.25*Q3+T3)/2)+(1-(W3-0.25*X3+0.5*Y3))+(AD3/200)+(AA3/18))</f>
-        <v>1.1591314814814815</v>
-      </c>
-      <c r="AJ3" s="23">
-        <f>((P3/2)+(1-(W3-0.25*X3+0.5*Y3))+(AD3/200)+(AA3/18))</f>
-        <v>1.0637611111111112</v>
-      </c>
-      <c r="AK3" s="20">
-        <f>(((P3/2)+(1-W3)+(AD3/200)+(AA3/9)))/1.06</f>
-        <v>1.0045964360587001</v>
-      </c>
-      <c r="AL3" s="18">
-        <f>((P3/2)+(1-W3)+(AD3/200)+(AA3/9))</f>
-        <v>1.0648722222222222</v>
-      </c>
-      <c r="AM3" s="15">
-        <f>((P3/2)+(1-W3)+(AD3/200))</f>
-        <v>1.0426500000000001</v>
-      </c>
-      <c r="AN3" s="68">
-        <f>(((P3-Q3+1.25*Q3)/2)+(T3/3)-(W3-0.2*X3+0.5*Y3)+(AD3/250)+(AA3/18))*10</f>
-        <v>0.65848395061728393</v>
-      </c>
-      <c r="AO3" s="10">
-        <f>(((P3-P14)-(W3-W14)+((AD3-AD14)/100))/2)*10</f>
-        <v>3.8280000000000003</v>
-      </c>
-      <c r="AP3" s="2">
-        <f>(((P3-P14)-(W3-W14)+(AD3-AD14))/100)+1</f>
-        <v>1.2805</v>
-      </c>
-      <c r="AQ3" s="12">
-        <f>((P3-P14)-(W3-W14)+((AD3-AD14)/100))*10</f>
-        <v>7.6560000000000006</v>
+        <v>90</v>
+      </c>
+      <c r="AG3" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH3" s="73">
+        <f t="shared" ref="AH3:AH15" si="2">(((P3+0.25*Q3)/2)+(U3/3)+0.25*((V3/4)+W3)-(X3+0.25*R3-0.15*Y3+0.5*Z3)+(AE3/225)+(AB3/16))+1</f>
+        <v>1.0908656378600823</v>
+      </c>
+      <c r="AI3" s="66">
+        <f>(((P3-Q3+1.25*Q3)/2)+(U3/3)-(X3-0.2*Y3+0.5*Z3)+(AE3/250)+(AB3/20))+1</f>
+        <v>1.1052697119341564</v>
+      </c>
+      <c r="AJ3" s="62">
+        <f>(((P3-Q3+1.25*Q3+U3)/2)+(1-(X3-0.25*Y3+0.5*Z3))+(AE3/200)+(AB3/18))</f>
+        <v>1.2051956790123455</v>
+      </c>
+      <c r="AK3" s="23">
+        <f>((P3/2)+(1-(X3-0.25*Y3+0.5*Z3))+(AE3/200)+(AB3/18))</f>
+        <v>1.1025722222222221</v>
+      </c>
+      <c r="AL3" s="20">
+        <f>(((P3/2)+(1-X3)+(AE3/200)+(AB3/9)))/1.06</f>
+        <v>1.044617400419287</v>
+      </c>
+      <c r="AM3" s="18">
+        <f>((P3/2)+(1-X3)+(AE3/200)+(AB3/9))</f>
+        <v>1.1072944444444444</v>
+      </c>
+      <c r="AN3" s="15">
+        <f>((P3/2)+(1-X3)+(AE3/200))</f>
+        <v>1.0828499999999999</v>
+      </c>
+      <c r="AO3" s="68">
+        <f>(((P3-Q3+1.25*Q3)/2)+(U3/3)-(X3-0.2*Y3+0.5*Z3)+(AE3/250)+(AB3/18))*10</f>
+        <v>1.0649193415637861</v>
+      </c>
+      <c r="AP3" s="10">
+        <f>(((P3-P14)-(X3-X14)+((AE3-AE14)/100))/2)*10</f>
+        <v>4.18</v>
+      </c>
+      <c r="AQ3" s="2">
+        <f>(((P3-P14)-(X3-X14)+(AE3-AE14))/100)+1</f>
+        <v>1.3112999999999999</v>
       </c>
       <c r="AR3" s="12">
-        <f>((P3-P14)-(W3-W14)+((AD3-AD14)/116))+1</f>
-        <v>1.7275862068965517</v>
-      </c>
-      <c r="AS3" s="5">
-        <f>(((P3-P14)-(W3-W14)+((AD3-AD14)/100))/2)+1</f>
-        <v>1.3828</v>
+        <f>((P3-P14)-(X3-X14)+((AE3-AE14)/100))*10</f>
+        <v>8.36</v>
+      </c>
+      <c r="AS3" s="12">
+        <f>((P3-P14)-(X3-X14)+((AE3-AE14)/116))+1</f>
+        <v>1.7937931034482759</v>
+      </c>
+      <c r="AT3" s="5">
+        <f>(((P3-P14)-(X3-X14)+((AE3-AE14)/100))/2)+1</f>
+        <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="34">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C4" s="34">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D4" s="34">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E4" s="34">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F4" s="34">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="34">
         <v>6</v>
       </c>
       <c r="H4" s="34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="34">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="J4" s="34">
         <v>6</v>
@@ -2794,493 +2710,505 @@
         <v>0</v>
       </c>
       <c r="L4" s="34">
-        <v>384</v>
+        <v>512</v>
       </c>
       <c r="M4" s="34">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N4" s="34">
-        <v>9576</v>
+        <v>11521</v>
       </c>
       <c r="O4" s="34">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="P4" s="35">
-        <f>ROUND(IMDIV(B4,O4),2)</f>
-        <v>0.73</v>
+        <f t="shared" si="0"/>
+        <v>0.68</v>
       </c>
       <c r="Q4" s="54">
         <f>(D4/O4)</f>
-        <v>0.33613445378151263</v>
-      </c>
-      <c r="R4" s="54">
+        <v>0.30136986301369861</v>
+      </c>
+      <c r="R4" s="35">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S4" s="54">
         <f>(E4/O4)*100</f>
-        <v>58.82352941176471</v>
-      </c>
-      <c r="S4" s="35">
+        <v>58.219178082191782</v>
+      </c>
+      <c r="T4" s="35">
         <f>ROUND((D4/E4)*100,2)</f>
-        <v>57.14</v>
-      </c>
-      <c r="T4" s="54">
+        <v>51.76</v>
+      </c>
+      <c r="U4" s="54">
         <f>F4/O4</f>
-        <v>0.20168067226890757</v>
-      </c>
-      <c r="U4" s="54">
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="V4" s="54">
         <f>G4/O4</f>
-        <v>5.0420168067226892E-2</v>
-      </c>
-      <c r="V4" s="54">
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="W4" s="54">
         <f>H4/O4</f>
-        <v>0.10084033613445378</v>
-      </c>
-      <c r="W4" s="35">
+        <v>8.9041095890410954E-2</v>
+      </c>
+      <c r="X4" s="35">
         <f>ROUND(IMDIV(I4,O4),2)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="X4" s="35">
+        <v>0.59</v>
+      </c>
+      <c r="Y4" s="35">
         <f>ROUND(IMDIV(J4,O4),2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="Y4" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="Z4" s="35">
         <f>ROUND(IMDIV(K4,O4),2)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="35">
+      <c r="AA4" s="35">
         <f>ROUND(IMDIV(L4,O4),2)</f>
-        <v>3.23</v>
-      </c>
-      <c r="AA4" s="35">
+        <v>3.51</v>
+      </c>
+      <c r="AB4" s="35">
         <f>ROUND(IMDIV(M4,O4),2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="AB4" s="35">
+        <v>0.17</v>
+      </c>
+      <c r="AC4" s="35">
         <f>ROUND(IMDIV(B4,I4),2)</f>
-        <v>1.34</v>
-      </c>
-      <c r="AC4" s="35">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AD4" s="35">
         <f>ROUND(IMDIV(C4,B4),4)*100</f>
-        <v>43.68</v>
-      </c>
-      <c r="AD4" s="35">
+        <v>61</v>
+      </c>
+      <c r="AE4" s="35">
         <f>ROUND(IMDIV(N4,O4),2)</f>
-        <v>80.47</v>
-      </c>
-      <c r="AE4" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF4" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG4" s="73">
-        <f t="shared" si="0"/>
-        <v>1.2746816806722689</v>
-      </c>
-      <c r="AH4" s="66">
-        <f>(((P4-Q4+1.25*Q4)/2)+(T4/3)-(W4-0.2*X4+0.5*Y4)+(AD4/250)+(AA4/20))+1</f>
-        <v>1.2651236974789914</v>
-      </c>
-      <c r="AI4" s="62">
-        <f>(((P4-Q4+1.25*Q4+T4)/2)+(1-(W4-0.25*X4+0.5*Y4))+(AD4/200)+(AA4/18))</f>
-        <v>1.3827071428571427</v>
-      </c>
-      <c r="AJ4" s="23">
-        <f>((P4/2)+(1-(W4-0.25*X4+0.5*Y4))+(AD4/200)+(AA4/18))</f>
-        <v>1.2398499999999999</v>
-      </c>
-      <c r="AK4" s="20">
-        <f>(((P4/2)+(1-W4)+(AD4/200)+(AA4/9)))/1.06</f>
-        <v>1.1673113207547168</v>
-      </c>
-      <c r="AL4" s="18">
-        <f>((P4/2)+(1-W4)+(AD4/200)+(AA4/9))</f>
-        <v>1.2373499999999999</v>
-      </c>
-      <c r="AM4" s="15">
-        <f>((P4/2)+(1-W4)+(AD4/200))</f>
-        <v>1.2173499999999999</v>
-      </c>
-      <c r="AN4" s="68">
-        <f>(((P4-Q4+1.25*Q4)/2)+(T4/3)-(W4-0.2*X4+0.5*Y4)+(AD4/250)+(AA4/18))*10</f>
-        <v>2.6612369747899156</v>
-      </c>
-      <c r="AO4" s="10">
-        <f>(((P4-P17)-(W4-W17)+((AD4-AD17)/100))/2)*10</f>
-        <v>2.3784999999999994</v>
-      </c>
-      <c r="AP4" s="2">
-        <f>(((P4-P17)-(W4-W17)+(AD4-AD17))/100)+1</f>
-        <v>1.14405</v>
-      </c>
-      <c r="AQ4" s="12">
-        <f>((P4-P17)-(W4-W17)+((AD4-AD17)/100))*10</f>
-        <v>4.7569999999999988</v>
+        <v>78.91</v>
+      </c>
+      <c r="AF4" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG4" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH4" s="73">
+        <f t="shared" si="2"/>
+        <v>1.1691968417047185</v>
+      </c>
+      <c r="AI4" s="66">
+        <f>(((P4-Q4+1.25*Q4)/2)+(U4/3)-(X4-0.2*Y4+0.5*Z4)+(AE4/250)+(AB4/20))+1</f>
+        <v>1.1791719634703197</v>
+      </c>
+      <c r="AJ4" s="62">
+        <f>(((P4-Q4+1.25*Q4+U4)/2)+(1-(X4-0.25*Y4+0.5*Z4))+(AE4/200)+(AB4/18))</f>
+        <v>1.2907067732115676</v>
+      </c>
+      <c r="AK4" s="23">
+        <f>((P4/2)+(1-(X4-0.25*Y4+0.5*Z4))+(AE4/200)+(AB4/18))</f>
+        <v>1.1639944444444443</v>
+      </c>
+      <c r="AL4" s="20">
+        <f>(((P4/2)+(1-X4)+(AE4/200)+(AB4/9)))/1.06</f>
+        <v>1.097583857442348</v>
+      </c>
+      <c r="AM4" s="18">
+        <f>((P4/2)+(1-X4)+(AE4/200)+(AB4/9))</f>
+        <v>1.1634388888888889</v>
+      </c>
+      <c r="AN4" s="15">
+        <f>((P4/2)+(1-X4)+(AE4/200))</f>
+        <v>1.14455</v>
+      </c>
+      <c r="AO4" s="68">
+        <f>(((P4-Q4+1.25*Q4)/2)+(U4/3)-(X4-0.2*Y4+0.5*Z4)+(AE4/250)+(AB4/18))*10</f>
+        <v>1.8011640791476411</v>
+      </c>
+      <c r="AP4" s="10">
+        <f>(((P4-P17)-(X4-X17)+((AE4-AE17)/100))/2)*10</f>
+        <v>1.9030000000000009</v>
+      </c>
+      <c r="AQ4" s="2">
+        <f>(((P4-P17)-(X4-X17)+(AE4-AE17))/100)+1</f>
+        <v>1.12815</v>
       </c>
       <c r="AR4" s="12">
-        <f>((P4-P17)-(W4-W17)+((AD4-AD17)/116))+1</f>
-        <v>1.4562931034482758</v>
-      </c>
-      <c r="AS4" s="5">
-        <f>(((P4-P17)-(W4-W17)+((AD4-AD17)/100))/2)+1</f>
-        <v>1.2378499999999999</v>
+        <f>((P4-P17)-(X4-X17)+((AE4-AE17)/100))*10</f>
+        <v>3.8060000000000018</v>
+      </c>
+      <c r="AS4" s="12">
+        <f>((P4-P17)-(X4-X17)+((AE4-AE17)/116))+1</f>
+        <v>1.3632758620689658</v>
+      </c>
+      <c r="AT4" s="5">
+        <f>(((P4-P17)-(X4-X17)+((AE4-AE17)/100))/2)+1</f>
+        <v>1.1903000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="34">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C5" s="34">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D5" s="34">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E5" s="34">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F5" s="34">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5" s="34">
         <v>8</v>
       </c>
       <c r="H5" s="34">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="34">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="J5" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="34">
         <v>0</v>
       </c>
       <c r="L5" s="34">
-        <v>506</v>
+        <v>431</v>
       </c>
       <c r="M5" s="34">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N5" s="34">
-        <v>9496</v>
+        <v>11126</v>
       </c>
       <c r="O5" s="34">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="P5" s="35">
-        <f>ROUND(IMDIV(B5,O5),2)</f>
-        <v>0.69</v>
+        <f t="shared" si="0"/>
+        <v>0.66</v>
       </c>
       <c r="Q5" s="54">
         <f>(D5/O5)</f>
-        <v>0.20168067226890757</v>
-      </c>
-      <c r="R5" s="54">
+        <v>0.21917808219178081</v>
+      </c>
+      <c r="R5" s="35">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="S5" s="54">
         <f>(E5/O5)*100</f>
-        <v>41.17647058823529</v>
-      </c>
-      <c r="S5" s="35">
+        <v>41.780821917808218</v>
+      </c>
+      <c r="T5" s="35">
         <f>ROUND((D5/E5)*100,2)</f>
-        <v>48.98</v>
-      </c>
-      <c r="T5" s="54">
+        <v>52.46</v>
+      </c>
+      <c r="U5" s="54">
         <f>F5/O5</f>
-        <v>0.21008403361344538</v>
-      </c>
-      <c r="U5" s="54">
+        <v>0.19863013698630136</v>
+      </c>
+      <c r="V5" s="54">
         <f>G5/O5</f>
-        <v>6.7226890756302518E-2</v>
-      </c>
-      <c r="V5" s="54">
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="W5" s="54">
         <f>H5/O5</f>
-        <v>7.5630252100840331E-2</v>
-      </c>
-      <c r="W5" s="35">
+        <v>7.5342465753424653E-2</v>
+      </c>
+      <c r="X5" s="35">
         <f>ROUND(IMDIV(I5,O5),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="X5" s="35">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y5" s="35">
         <f>ROUND(IMDIV(J5,O5),2)</f>
         <v>0.03</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="Z5" s="35">
         <f>ROUND(IMDIV(K5,O5),2)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="AA5" s="35">
         <f>ROUND(IMDIV(L5,O5),2)</f>
-        <v>4.25</v>
-      </c>
-      <c r="AA5" s="35">
+        <v>2.95</v>
+      </c>
+      <c r="AB5" s="35">
         <f>ROUND(IMDIV(M5,O5),2)</f>
         <v>0.18</v>
       </c>
-      <c r="AB5" s="35">
+      <c r="AC5" s="35">
         <f>ROUND(IMDIV(B5,I5),2)</f>
-        <v>1.22</v>
-      </c>
-      <c r="AC5" s="35">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AD5" s="35">
         <f>ROUND(IMDIV(C5,B5),4)*100</f>
-        <v>62.2</v>
-      </c>
-      <c r="AD5" s="35">
+        <v>43.3</v>
+      </c>
+      <c r="AE5" s="35">
         <f>ROUND(IMDIV(N5,O5),2)</f>
-        <v>79.8</v>
-      </c>
-      <c r="AE5" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF5" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG5" s="73">
-        <f t="shared" si="0"/>
-        <v>1.2241053221288514</v>
-      </c>
-      <c r="AH5" s="66">
-        <f>(((P5-Q5+1.25*Q5)/2)+(T5/3)-(W5-0.2*X5+0.5*Y5)+(AD5/250)+(AA5/20))+1</f>
-        <v>1.2144380952380951</v>
-      </c>
-      <c r="AI5" s="62">
-        <f>(((P5-Q5+1.25*Q5+T5)/2)+(1-(W5-0.25*X5+0.5*Y5))+(AD5/200)+(AA5/18))</f>
-        <v>1.3317521008403361</v>
-      </c>
-      <c r="AJ5" s="23">
-        <f>((P5/2)+(1-(W5-0.25*X5+0.5*Y5))+(AD5/200)+(AA5/18))</f>
-        <v>1.2014999999999998</v>
-      </c>
-      <c r="AK5" s="20">
-        <f>(((P5/2)+(1-W5)+(AD5/200)+(AA5/9)))/1.06</f>
-        <v>1.1358490566037736</v>
-      </c>
-      <c r="AL5" s="18">
-        <f>((P5/2)+(1-W5)+(AD5/200)+(AA5/9))</f>
-        <v>1.204</v>
-      </c>
-      <c r="AM5" s="15">
-        <f>((P5/2)+(1-W5)+(AD5/200))</f>
-        <v>1.1839999999999999</v>
-      </c>
-      <c r="AN5" s="68">
-        <f>(((P5-Q5+1.25*Q5)/2)+(T5/3)-(W5-0.2*X5+0.5*Y5)+(AD5/250)+(AA5/18))*10</f>
-        <v>2.1543809523809516</v>
-      </c>
-      <c r="AO5" s="10">
-        <f>(((P5-P13)-(W5-W13)+((AD5-AD13)/100))/2)*10</f>
-        <v>5.4099999999999993</v>
-      </c>
-      <c r="AP5" s="2">
-        <f>(((P5-P13)-(W5-W13)+(AD5-AD13))/100)+1</f>
-        <v>1.4781</v>
-      </c>
-      <c r="AQ5" s="12">
-        <f>((P5-P13)-(W5-W13)+((AD5-AD13)/100))*10</f>
-        <v>10.819999999999999</v>
+        <v>76.209999999999994</v>
+      </c>
+      <c r="AF5" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH5" s="73">
+        <f t="shared" si="2"/>
+        <v>1.1703286910197868</v>
+      </c>
+      <c r="AI5" s="66">
+        <f>(((P5-Q5+1.25*Q5)/2)+(U5/3)-(X5-0.2*Y5+0.5*Z5)+(AE5/250)+(AB5/20))+1</f>
+        <v>1.163447305936073</v>
+      </c>
+      <c r="AJ5" s="62">
+        <f>(((P5-Q5+1.25*Q5+U5)/2)+(1-(X5-0.25*Y5+0.5*Z5))+(AE5/200)+(AB5/18))</f>
+        <v>1.2752623287671232</v>
+      </c>
+      <c r="AK5" s="23">
+        <f>((P5/2)+(1-(X5-0.25*Y5+0.5*Z5))+(AE5/200)+(AB5/18))</f>
+        <v>1.14855</v>
+      </c>
+      <c r="AL5" s="20">
+        <f>(((P5/2)+(1-X5)+(AE5/200)+(AB5/9)))/1.06</f>
+        <v>1.0858962264150942</v>
+      </c>
+      <c r="AM5" s="18">
+        <f>((P5/2)+(1-X5)+(AE5/200)+(AB5/9))</f>
+        <v>1.1510499999999999</v>
+      </c>
+      <c r="AN5" s="15">
+        <f>((P5/2)+(1-X5)+(AE5/200))</f>
+        <v>1.1310499999999999</v>
+      </c>
+      <c r="AO5" s="68">
+        <f>(((P5-Q5+1.25*Q5)/2)+(U5/3)-(X5-0.2*Y5+0.5*Z5)+(AE5/250)+(AB5/18))*10</f>
+        <v>1.6444730593607315</v>
+      </c>
+      <c r="AP5" s="10">
+        <f>(((P5-P13)-(X5-X13)+((AE5-AE13)/100))/2)*10</f>
+        <v>4.9805000000000001</v>
+      </c>
+      <c r="AQ5" s="2">
+        <f>(((P5-P13)-(X5-X13)+(AE5-AE13))/100)+1</f>
+        <v>1.4417</v>
       </c>
       <c r="AR5" s="12">
-        <f>((P5-P13)-(W5-W13)+((AD5-AD13)/116))+1</f>
-        <v>2.0168965517241375</v>
-      </c>
-      <c r="AS5" s="5">
-        <f>(((P5-P13)-(W5-W13)+((AD5-AD13)/100))/2)+1</f>
-        <v>1.5409999999999999</v>
+        <f>((P5-P13)-(X5-X13)+((AE5-AE13)/100))*10</f>
+        <v>9.9610000000000003</v>
+      </c>
+      <c r="AS5" s="12">
+        <f>((P5-P13)-(X5-X13)+((AE5-AE13)/116))+1</f>
+        <v>1.935948275862069</v>
+      </c>
+      <c r="AT5" s="5">
+        <f>(((P5-P13)-(X5-X13)+((AE5-AE13)/100))/2)+1</f>
+        <v>1.4980500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="37">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C6" s="37">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D6" s="37">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E6" s="37">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F6" s="37">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G6" s="37">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" s="37">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I6" s="37">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J6" s="37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K6" s="37">
         <v>1</v>
       </c>
       <c r="L6" s="37">
-        <v>241</v>
+        <v>530</v>
       </c>
       <c r="M6" s="37">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N6" s="37">
-        <v>12488</v>
+        <v>16623</v>
       </c>
       <c r="O6" s="37">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="P6" s="38">
-        <f>ROUND(IMDIV(B6,O6),2)</f>
-        <v>0.77</v>
+        <f t="shared" si="0"/>
+        <v>0.76</v>
       </c>
       <c r="Q6" s="55">
         <f>(D6/O6)</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="R6" s="55">
+        <v>0.27179487179487177</v>
+      </c>
+      <c r="R6" s="38">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="55">
         <f>(E6/O6)*100</f>
-        <v>48</v>
-      </c>
-      <c r="S6" s="38">
+        <v>50.769230769230766</v>
+      </c>
+      <c r="T6" s="38">
         <f>ROUND((D6/E6)*100,2)</f>
-        <v>55.56</v>
-      </c>
-      <c r="T6" s="55">
+        <v>53.54</v>
+      </c>
+      <c r="U6" s="55">
         <f>F6/O6</f>
-        <v>0.20666666666666667</v>
-      </c>
-      <c r="U6" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="V6" s="55">
         <f>G6/O6</f>
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="V6" s="55">
+        <v>8.7179487179487175E-2</v>
+      </c>
+      <c r="W6" s="55">
         <f>H6/O6</f>
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="W6" s="38">
+        <v>8.7179487179487175E-2</v>
+      </c>
+      <c r="X6" s="38">
         <f>ROUND(IMDIV(I6,O6),2)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="X6" s="38">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y6" s="38">
         <f>ROUND(IMDIV(J6,O6),2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="Y6" s="38">
+        <v>0.04</v>
+      </c>
+      <c r="Z6" s="38">
         <f>ROUND(IMDIV(K6,O6),2)</f>
         <v>0.01</v>
       </c>
-      <c r="Z6" s="38">
+      <c r="AA6" s="38">
         <f>ROUND(IMDIV(L6,O6),2)</f>
-        <v>1.61</v>
-      </c>
-      <c r="AA6" s="38">
+        <v>2.72</v>
+      </c>
+      <c r="AB6" s="38">
         <f>ROUND(IMDIV(M6,O6),2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="AB6" s="38">
+        <v>0.06</v>
+      </c>
+      <c r="AC6" s="38">
         <f>ROUND(IMDIV(B6,I6),2)</f>
-        <v>1.4</v>
-      </c>
-      <c r="AC6" s="38">
+        <v>1.36</v>
+      </c>
+      <c r="AD6" s="38">
         <f>ROUND(IMDIV(C6,B6),4)*100</f>
-        <v>34.479999999999997</v>
-      </c>
-      <c r="AD6" s="38">
+        <v>38.51</v>
+      </c>
+      <c r="AE6" s="38">
         <f>ROUND(IMDIV(N6,O6),2)</f>
-        <v>83.25</v>
-      </c>
-      <c r="AE6" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF6" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG6" s="73">
-        <f t="shared" si="0"/>
-        <v>1.2897222222222222</v>
-      </c>
-      <c r="AH6" s="66">
-        <f>(((P6-Q6+1.25*Q6)/2)+(T6/3)-(W6-0.2*X6+0.5*Y6)+(AD6/250)+(AA6/20))+1</f>
-        <v>1.2697222222222222</v>
-      </c>
-      <c r="AI6" s="62">
-        <f>(((P6-Q6+1.25*Q6+T6)/2)+(1-(W6-0.25*X6+0.5*Y6))+(AD6/200)+(AA6/18))</f>
-        <v>1.3881944444444443</v>
-      </c>
-      <c r="AJ6" s="23">
-        <f>((P6/2)+(1-(W6-0.25*X6+0.5*Y6))+(AD6/200)+(AA6/18))</f>
-        <v>1.2515277777777776</v>
-      </c>
-      <c r="AK6" s="20">
-        <f>(((P6/2)+(1-W6)+(AD6/200)+(AA6/9)))/1.06</f>
-        <v>1.1856656184486372</v>
-      </c>
-      <c r="AL6" s="18">
-        <f>((P6/2)+(1-W6)+(AD6/200)+(AA6/9))</f>
-        <v>1.2568055555555555</v>
-      </c>
-      <c r="AM6" s="15">
-        <f>((P6/2)+(1-W6)+(AD6/200))</f>
-        <v>1.25125</v>
-      </c>
-      <c r="AN6" s="68">
-        <f>(((P6-Q6+1.25*Q6)/2)+(T6/3)-(W6-0.2*X6+0.5*Y6)+(AD6/250)+(AA6/18))*10</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="AO6" s="10">
-        <f>(((P6-P20)-(W6-W20)+((AD6-AD20)/100))/2)*10</f>
-        <v>-6.2500000000000125E-2</v>
-      </c>
-      <c r="AP6" s="2">
-        <f>(((P6-P20)-(W6-W20)+(AD6-AD20))/100)+1</f>
-        <v>1.0172000000000001</v>
-      </c>
-      <c r="AQ6" s="12">
-        <f>((P6-P20)-(W6-W20)+((AD6-AD20)/100))*10</f>
-        <v>-0.12500000000000025</v>
+        <v>85.25</v>
+      </c>
+      <c r="AF6" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG6" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH6" s="73">
+        <f t="shared" si="2"/>
+        <v>1.271523504273504</v>
+      </c>
+      <c r="AI6" s="66">
+        <f>(((P6-Q6+1.25*Q6)/2)+(U6/3)-(X6-0.2*Y6+0.5*Z6)+(AE6/250)+(AB6/20))+1</f>
+        <v>1.2676410256410255</v>
+      </c>
+      <c r="AJ6" s="62">
+        <f>(((P6-Q6+1.25*Q6+U6)/2)+(1-(X6-0.25*Y6+0.5*Z6))+(AE6/200)+(AB6/18))</f>
+        <v>1.3885576923076923</v>
+      </c>
+      <c r="AK6" s="23">
+        <f>((P6/2)+(1-(X6-0.25*Y6+0.5*Z6))+(AE6/200)+(AB6/18))</f>
+        <v>1.2545833333333334</v>
+      </c>
+      <c r="AL6" s="20">
+        <f>(((P6/2)+(1-X6)+(AE6/200)+(AB6/9)))/1.06</f>
+        <v>1.1819968553459117</v>
+      </c>
+      <c r="AM6" s="18">
+        <f>((P6/2)+(1-X6)+(AE6/200)+(AB6/9))</f>
+        <v>1.2529166666666665</v>
+      </c>
+      <c r="AN6" s="15">
+        <f>((P6/2)+(1-X6)+(AE6/200))</f>
+        <v>1.2462499999999999</v>
+      </c>
+      <c r="AO6" s="68">
+        <f>(((P6-Q6+1.25*Q6)/2)+(U6/3)-(X6-0.2*Y6+0.5*Z6)+(AE6/250)+(AB6/18))*10</f>
+        <v>2.6797435897435893</v>
+      </c>
+      <c r="AP6" s="10">
+        <f>(((P6-P20)-(X6-X20)+((AE6-AE20)/100))/2)*10</f>
+        <v>0.31599999999999917</v>
+      </c>
+      <c r="AQ6" s="2">
+        <f>(((P6-P20)-(X6-X20)+(AE6-AE20))/100)+1</f>
+        <v>1.0532999999999999</v>
       </c>
       <c r="AR6" s="12">
-        <f>((P6-P20)-(W6-W20)+((AD6-AD20)/116))+1</f>
-        <v>0.98508620689655169</v>
-      </c>
-      <c r="AS6" s="5">
-        <f>(((P6-P20)-(W6-W20)+((AD6-AD20)/100))/2)+1</f>
-        <v>0.99375000000000002</v>
+        <f>((P6-P20)-(X6-X20)+((AE6-AE20)/100))*10</f>
+        <v>0.63199999999999834</v>
+      </c>
+      <c r="AS6" s="12">
+        <f>((P6-P20)-(X6-X20)+((AE6-AE20)/116))+1</f>
+        <v>1.0558620689655172</v>
+      </c>
+      <c r="AT6" s="5">
+        <f>(((P6-P20)-(X6-X20)+((AE6-AE20)/100))/2)+1</f>
+        <v>1.0315999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="37">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C7" s="37">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D7" s="37">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E7" s="37">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F7" s="37">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G7" s="37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" s="37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I7" s="37">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="J7" s="37">
         <v>9</v>
@@ -3289,467 +3217,479 @@
         <v>0</v>
       </c>
       <c r="L7" s="37">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="M7" s="37">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N7" s="37">
-        <v>9484</v>
+        <v>12184</v>
       </c>
       <c r="O7" s="37">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="P7" s="38">
-        <f>ROUND(IMDIV(B7,O7),2)</f>
-        <v>0.51</v>
+        <f t="shared" si="0"/>
+        <v>0.52</v>
       </c>
       <c r="Q7" s="55">
         <f>(D7/O7)</f>
-        <v>0.24</v>
-      </c>
-      <c r="R7" s="55">
+        <v>0.22564102564102564</v>
+      </c>
+      <c r="R7" s="38">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="S7" s="55">
         <f>(E7/O7)*100</f>
-        <v>52</v>
-      </c>
-      <c r="S7" s="38">
+        <v>48.717948717948715</v>
+      </c>
+      <c r="T7" s="38">
         <f>ROUND((D7/E7)*100,2)</f>
-        <v>46.15</v>
-      </c>
-      <c r="T7" s="55">
+        <v>46.32</v>
+      </c>
+      <c r="U7" s="55">
         <f>F7/O7</f>
-        <v>0.12</v>
-      </c>
-      <c r="U7" s="55">
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="V7" s="55">
         <f>G7/O7</f>
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="V7" s="55">
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="W7" s="55">
         <f>H7/O7</f>
-        <v>0.04</v>
-      </c>
-      <c r="W7" s="38">
+        <v>4.6153846153846156E-2</v>
+      </c>
+      <c r="X7" s="38">
         <f>ROUND(IMDIV(I7,O7),2)</f>
         <v>0.59</v>
       </c>
-      <c r="X7" s="38">
+      <c r="Y7" s="38">
         <f>ROUND(IMDIV(J7,O7),2)</f>
-        <v>0.06</v>
-      </c>
-      <c r="Y7" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="Z7" s="38">
         <f>ROUND(IMDIV(K7,O7),2)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="38">
+      <c r="AA7" s="38">
         <f>ROUND(IMDIV(L7,O7),2)</f>
-        <v>1.08</v>
-      </c>
-      <c r="AA7" s="38">
+        <v>1.17</v>
+      </c>
+      <c r="AB7" s="38">
         <f>ROUND(IMDIV(M7,O7),2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="AB7" s="38">
+        <v>0.13</v>
+      </c>
+      <c r="AC7" s="38">
         <f>ROUND(IMDIV(B7,I7),2)</f>
-        <v>0.86</v>
-      </c>
-      <c r="AC7" s="38">
+        <v>0.89</v>
+      </c>
+      <c r="AD7" s="38">
         <f>ROUND(IMDIV(C7,B7),4)*100</f>
-        <v>50</v>
-      </c>
-      <c r="AD7" s="38">
+        <v>47.06</v>
+      </c>
+      <c r="AE7" s="38">
         <f>ROUND(IMDIV(N7,O7),2)</f>
-        <v>63.23</v>
-      </c>
-      <c r="AE7" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF7" s="37" t="s">
+        <v>62.48</v>
+      </c>
+      <c r="AF7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AG7" s="73">
-        <f t="shared" si="0"/>
-        <v>1.0032533333333333</v>
-      </c>
-      <c r="AH7" s="66">
-        <f>(((P7-Q7+1.25*Q7)/2)+(T7/3)-(W7-0.2*X7+0.5*Y7)+(AD7/250)+(AA7/20))+1</f>
-        <v>1.00492</v>
-      </c>
-      <c r="AI7" s="62">
-        <f>(((P7-Q7+1.25*Q7+T7)/2)+(1-(W7-0.25*X7+0.5*Y7))+(AD7/200)+(AA7/18))</f>
-        <v>1.0917055555555555</v>
-      </c>
-      <c r="AJ7" s="23">
-        <f>((P7/2)+(1-(W7-0.25*X7+0.5*Y7))+(AD7/200)+(AA7/18))</f>
-        <v>1.0017055555555556</v>
-      </c>
-      <c r="AK7" s="20">
-        <f>(((P7/2)+(1-W7)+(AD7/200)+(AA7/9)))/1.06</f>
-        <v>0.9360953878406707</v>
-      </c>
-      <c r="AL7" s="18">
-        <f>((P7/2)+(1-W7)+(AD7/200)+(AA7/9))</f>
-        <v>0.99226111111111104</v>
-      </c>
-      <c r="AM7" s="15">
-        <f>((P7/2)+(1-W7)+(AD7/200))</f>
-        <v>0.98114999999999997</v>
-      </c>
-      <c r="AN7" s="68">
-        <f>(((P7-Q7+1.25*Q7)/2)+(T7/3)-(W7-0.2*X7+0.5*Y7)+(AD7/250)+(AA7/18))*10</f>
-        <v>5.475555555555587E-2</v>
-      </c>
-      <c r="AO7" s="10">
-        <f>(((P7-P13)-(W7-W13)+((AD7-AD13)/100))/2)*10</f>
-        <v>3.5314999999999994</v>
-      </c>
-      <c r="AP7" s="2">
-        <f>(((P7-P13)-(W7-W13)+(AD7-AD13))/100)+1</f>
-        <v>1.3103</v>
-      </c>
-      <c r="AQ7" s="12">
-        <f>((P7-P13)-(W7-W13)+((AD7-AD13)/100))*10</f>
-        <v>7.0629999999999988</v>
+      <c r="AH7" s="73">
+        <f t="shared" si="2"/>
+        <v>0.98228824786324787</v>
+      </c>
+      <c r="AI7" s="66">
+        <f>(((P7-Q7+1.25*Q7)/2)+(U7/3)-(X7-0.2*Y7+0.5*Z7)+(AE7/250)+(AB7/20))+1</f>
+        <v>1.0056507692307692</v>
+      </c>
+      <c r="AJ7" s="62">
+        <f>(((P7-Q7+1.25*Q7+U7)/2)+(1-(X7-0.25*Y7+0.5*Z7))+(AE7/200)+(AB7/18))</f>
+        <v>1.091865811965812</v>
+      </c>
+      <c r="AK7" s="23">
+        <f>((P7/2)+(1-(X7-0.25*Y7+0.5*Z7))+(AE7/200)+(AB7/18))</f>
+        <v>1.0021222222222221</v>
+      </c>
+      <c r="AL7" s="20">
+        <f>(((P7/2)+(1-X7)+(AE7/200)+(AB7/9)))/1.06</f>
+        <v>0.94041928721174006</v>
+      </c>
+      <c r="AM7" s="18">
+        <f>((P7/2)+(1-X7)+(AE7/200)+(AB7/9))</f>
+        <v>0.99684444444444453</v>
+      </c>
+      <c r="AN7" s="15">
+        <f>((P7/2)+(1-X7)+(AE7/200))</f>
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="AO7" s="68">
+        <f>(((P7-Q7+1.25*Q7)/2)+(U7/3)-(X7-0.2*Y7+0.5*Z7)+(AE7/250)+(AB7/18))*10</f>
+        <v>6.3729914529915097E-2</v>
+      </c>
+      <c r="AP7" s="10">
+        <f>(((P7-P13)-(X7-X13)+((AE7-AE13)/100))/2)*10</f>
+        <v>3.544</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f>(((P7-P13)-(X7-X13)+(AE7-AE13))/100)+1</f>
+        <v>1.3028999999999999</v>
       </c>
       <c r="AR7" s="12">
-        <f>((P7-P13)-(W7-W13)+((AD7-AD13)/116))+1</f>
-        <v>1.6640517241379311</v>
-      </c>
-      <c r="AS7" s="5">
-        <f>(((P7-P13)-(W7-W13)+((AD7-AD13)/100))/2)+1</f>
-        <v>1.3531499999999999</v>
+        <f>((P7-P13)-(X7-X13)+((AE7-AE13)/100))*10</f>
+        <v>7.0880000000000001</v>
+      </c>
+      <c r="AS7" s="12">
+        <f>((P7-P13)-(X7-X13)+((AE7-AE13)/116))+1</f>
+        <v>1.6675862068965517</v>
+      </c>
+      <c r="AT7" s="5">
+        <f>(((P7-P13)-(X7-X13)+((AE7-AE13)/100))/2)+1</f>
+        <v>1.3544</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="31">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C8" s="31">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D8" s="31">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E8" s="31">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F8" s="31">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G8" s="31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H8" s="31">
+        <v>8</v>
+      </c>
+      <c r="I8" s="31">
+        <v>106</v>
+      </c>
+      <c r="J8" s="31">
         <v>6</v>
-      </c>
-      <c r="I8" s="31">
-        <v>78</v>
-      </c>
-      <c r="J8" s="31">
-        <v>4</v>
       </c>
       <c r="K8" s="31">
         <v>0</v>
       </c>
       <c r="L8" s="31">
-        <v>1160</v>
+        <v>1379</v>
       </c>
       <c r="M8" s="31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N8" s="31">
-        <v>12319</v>
+        <v>15561</v>
       </c>
       <c r="O8" s="31">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="P8" s="32">
-        <f>ROUND(IMDIV(B8,O8),2)</f>
-        <v>0.76</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="Q8" s="53">
         <f>(D8/O8)</f>
-        <v>0.37410071942446044</v>
-      </c>
-      <c r="R8" s="53">
+        <v>0.36956521739130432</v>
+      </c>
+      <c r="R8" s="32">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="S8" s="53">
         <f>(E8/O8)*100</f>
-        <v>61.151079136690647</v>
-      </c>
-      <c r="S8" s="32">
+        <v>61.413043478260867</v>
+      </c>
+      <c r="T8" s="32">
         <f>ROUND((D8/E8)*100,2)</f>
-        <v>61.18</v>
-      </c>
-      <c r="T8" s="53">
+        <v>60.18</v>
+      </c>
+      <c r="U8" s="53">
         <f>F8/O8</f>
-        <v>0.18705035971223022</v>
-      </c>
-      <c r="U8" s="53">
+        <v>0.18478260869565216</v>
+      </c>
+      <c r="V8" s="53">
         <f>G8/O8</f>
-        <v>0.1079136690647482</v>
-      </c>
-      <c r="V8" s="53">
+        <v>0.10326086956521739</v>
+      </c>
+      <c r="W8" s="53">
         <f>H8/O8</f>
-        <v>4.3165467625899283E-2</v>
-      </c>
-      <c r="W8" s="32">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="X8" s="32">
         <f>ROUND(IMDIV(I8,O8),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="X8" s="32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y8" s="32">
         <f>ROUND(IMDIV(J8,O8),2)</f>
         <v>0.03</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Z8" s="32">
         <f>ROUND(IMDIV(K8,O8),2)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="32">
+      <c r="AA8" s="32">
         <f>ROUND(IMDIV(L8,O8),2)</f>
-        <v>8.35</v>
-      </c>
-      <c r="AA8" s="32">
+        <v>7.49</v>
+      </c>
+      <c r="AB8" s="32">
         <f>ROUND(IMDIV(M8,O8),2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="AB8" s="32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC8" s="32">
         <f>ROUND(IMDIV(B8,I8),2)</f>
-        <v>1.35</v>
-      </c>
-      <c r="AC8" s="32">
+        <v>1.3</v>
+      </c>
+      <c r="AD8" s="32">
         <f>ROUND(IMDIV(C8,B8),4)*100</f>
-        <v>49.519999999999996</v>
-      </c>
-      <c r="AD8" s="32">
+        <v>55.800000000000004</v>
+      </c>
+      <c r="AE8" s="32">
         <f>ROUND(IMDIV(N8,O8),2)</f>
-        <v>88.63</v>
-      </c>
-      <c r="AE8" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF8" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG8" s="73">
-        <f t="shared" si="0"/>
-        <v>1.2984161630695443</v>
-      </c>
-      <c r="AH8" s="66">
-        <f>(((P8-Q8+1.25*Q8)/2)+(T8/3)-(W8-0.2*X8+0.5*Y8)+(AD8/250)+(AA8/20))+1</f>
-        <v>1.2986327098321342</v>
-      </c>
-      <c r="AI8" s="62">
-        <f>(((P8-Q8+1.25*Q8+T8)/2)+(1-(W8-0.25*X8+0.5*Y8))+(AD8/200)+(AA8/18))</f>
-        <v>1.4209377697841725</v>
-      </c>
-      <c r="AJ8" s="23">
-        <f>((P8/2)+(1-(W8-0.25*X8+0.5*Y8))+(AD8/200)+(AA8/18))</f>
-        <v>1.2806499999999998</v>
-      </c>
-      <c r="AK8" s="20">
-        <f>(((P8/2)+(1-W8)+(AD8/200)+(AA8/9)))/1.06</f>
-        <v>1.2105188679245282</v>
-      </c>
-      <c r="AL8" s="18">
-        <f>((P8/2)+(1-W8)+(AD8/200)+(AA8/9))</f>
-        <v>1.28315</v>
-      </c>
-      <c r="AM8" s="15">
-        <f>((P8/2)+(1-W8)+(AD8/200))</f>
-        <v>1.26315</v>
-      </c>
-      <c r="AN8" s="68">
-        <f>(((P8-Q8+1.25*Q8)/2)+(T8/3)-(W8-0.2*X8+0.5*Y8)+(AD8/250)+(AA8/18))*10</f>
-        <v>2.9963270983213426</v>
-      </c>
-      <c r="AO8" s="10">
-        <f>(((P8-P17)-(W8-W17)+((AD8-AD17)/100))/2)*10</f>
-        <v>2.8864999999999998</v>
-      </c>
-      <c r="AP8" s="2">
-        <f>(((P8-P17)-(W8-W17)+(AD8-AD17))/100)+1</f>
-        <v>1.2258499999999999</v>
-      </c>
-      <c r="AQ8" s="12">
-        <f>((P8-P17)-(W8-W17)+((AD8-AD17)/100))*10</f>
-        <v>5.7729999999999997</v>
+        <v>84.57</v>
+      </c>
+      <c r="AF8" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH8" s="73">
+        <f t="shared" si="2"/>
+        <v>1.2492298913043478</v>
+      </c>
+      <c r="AI8" s="66">
+        <f>(((P8-Q8+1.25*Q8)/2)+(U8/3)-(X8-0.2*Y8+0.5*Z8)+(AE8/250)+(AB8/20))+1</f>
+        <v>1.2540698550724638</v>
+      </c>
+      <c r="AJ8" s="62">
+        <f>(((P8-Q8+1.25*Q8+U8)/2)+(1-(X8-0.25*Y8+0.5*Z8))+(AE8/200)+(AB8/18))</f>
+        <v>1.3717147342995168</v>
+      </c>
+      <c r="AK8" s="23">
+        <f>((P8/2)+(1-(X8-0.25*Y8+0.5*Z8))+(AE8/200)+(AB8/18))</f>
+        <v>1.2331277777777778</v>
+      </c>
+      <c r="AL8" s="20">
+        <f>(((P8/2)+(1-X8)+(AE8/200)+(AB8/9)))/1.06</f>
+        <v>1.1635901467505239</v>
+      </c>
+      <c r="AM8" s="18">
+        <f>((P8/2)+(1-X8)+(AE8/200)+(AB8/9))</f>
+        <v>1.2334055555555554</v>
+      </c>
+      <c r="AN8" s="15">
+        <f>((P8/2)+(1-X8)+(AE8/200))</f>
+        <v>1.2178499999999999</v>
+      </c>
+      <c r="AO8" s="68">
+        <f>(((P8-Q8+1.25*Q8)/2)+(U8/3)-(X8-0.2*Y8+0.5*Z8)+(AE8/250)+(AB8/18))*10</f>
+        <v>2.5484763285024155</v>
+      </c>
+      <c r="AP8" s="10">
+        <f>(((P8-P17)-(X8-X17)+((AE8-AE17)/100))/2)*10</f>
+        <v>2.5860000000000003</v>
+      </c>
+      <c r="AQ8" s="2">
+        <f>(((P8-P17)-(X8-X17)+(AE8-AE17))/100)+1</f>
+        <v>1.1855500000000001</v>
       </c>
       <c r="AR8" s="12">
-        <f>((P8-P17)-(W8-W17)+((AD8-AD17)/116))+1</f>
-        <v>1.5466379310344827</v>
-      </c>
-      <c r="AS8" s="5">
-        <f>(((P8-P17)-(W8-W17)+((AD8-AD17)/100))/2)+1</f>
-        <v>1.2886500000000001</v>
+        <f>((P8-P17)-(X8-X17)+((AE8-AE17)/100))*10</f>
+        <v>5.1720000000000006</v>
+      </c>
+      <c r="AS8" s="12">
+        <f>((P8-P17)-(X8-X17)+((AE8-AE17)/116))+1</f>
+        <v>1.4920689655172414</v>
+      </c>
+      <c r="AT8" s="5">
+        <f>(((P8-P17)-(X8-X17)+((AE8-AE17)/100))/2)+1</f>
+        <v>1.2585999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="31">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C9" s="31">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D9" s="31">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E9" s="31">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F9" s="31">
+        <v>14</v>
+      </c>
+      <c r="G9" s="31">
         <v>10</v>
       </c>
-      <c r="G9" s="31">
+      <c r="H9" s="31">
         <v>7</v>
       </c>
-      <c r="H9" s="31">
-        <v>6</v>
-      </c>
       <c r="I9" s="31">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="J9" s="31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="31">
         <v>0</v>
       </c>
       <c r="L9" s="31">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M9" s="31">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N9" s="31">
-        <v>7930</v>
+        <v>10654</v>
       </c>
       <c r="O9" s="31">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="P9" s="32">
-        <f>ROUND(IMDIV(B9,O9),2)</f>
-        <v>0.53</v>
+        <f t="shared" si="0"/>
+        <v>0.51</v>
       </c>
       <c r="Q9" s="53">
         <f>(D9/O9)</f>
-        <v>0.19424460431654678</v>
-      </c>
-      <c r="R9" s="53">
+        <v>0.19021739130434784</v>
+      </c>
+      <c r="R9" s="32">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="S9" s="53">
         <f>(E9/O9)*100</f>
-        <v>38.848920863309353</v>
-      </c>
-      <c r="S9" s="32">
+        <v>38.586956521739133</v>
+      </c>
+      <c r="T9" s="32">
         <f>ROUND((D9/E9)*100,2)</f>
-        <v>50</v>
-      </c>
-      <c r="T9" s="53">
+        <v>49.3</v>
+      </c>
+      <c r="U9" s="53">
         <f>F9/O9</f>
-        <v>7.1942446043165464E-2</v>
-      </c>
-      <c r="U9" s="53">
+        <v>7.6086956521739135E-2</v>
+      </c>
+      <c r="V9" s="53">
         <f>G9/O9</f>
-        <v>5.0359712230215826E-2</v>
-      </c>
-      <c r="V9" s="53">
+        <v>5.434782608695652E-2</v>
+      </c>
+      <c r="W9" s="53">
         <f>H9/O9</f>
-        <v>4.3165467625899283E-2</v>
-      </c>
-      <c r="W9" s="32">
+        <v>3.8043478260869568E-2</v>
+      </c>
+      <c r="X9" s="32">
         <f>ROUND(IMDIV(I9,O9),2)</f>
-        <v>0.62</v>
-      </c>
-      <c r="X9" s="32">
+        <v>0.64</v>
+      </c>
+      <c r="Y9" s="32">
         <f>ROUND(IMDIV(J9,O9),2)</f>
         <v>0.04</v>
       </c>
-      <c r="Y9" s="32">
+      <c r="Z9" s="32">
         <f>ROUND(IMDIV(K9,O9),2)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="32">
+      <c r="AA9" s="32">
         <f>ROUND(IMDIV(L9,O9),2)</f>
-        <v>2.54</v>
-      </c>
-      <c r="AA9" s="32">
+        <v>1.96</v>
+      </c>
+      <c r="AB9" s="32">
         <f>ROUND(IMDIV(M9,O9),2)</f>
-        <v>0.19</v>
-      </c>
-      <c r="AB9" s="32">
+        <v>0.17</v>
+      </c>
+      <c r="AC9" s="32">
         <f>ROUND(IMDIV(B9,I9),2)</f>
-        <v>0.85</v>
-      </c>
-      <c r="AC9" s="32">
+        <v>0.79</v>
+      </c>
+      <c r="AD9" s="32">
         <f>ROUND(IMDIV(C9,B9),4)*100</f>
-        <v>50.68</v>
-      </c>
-      <c r="AD9" s="32">
+        <v>51.61</v>
+      </c>
+      <c r="AE9" s="32">
         <f>ROUND(IMDIV(N9,O9),2)</f>
-        <v>57.05</v>
-      </c>
-      <c r="AE9" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF9" s="31" t="s">
+        <v>57.9</v>
+      </c>
+      <c r="AF9" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AG9" s="73">
-        <f t="shared" si="0"/>
-        <v>0.93834412470023987</v>
-      </c>
-      <c r="AH9" s="66">
-        <f>(((P9-Q9+1.25*Q9)/2)+(T9/3)-(W9-0.2*X9+0.5*Y9)+(AD9/250)+(AA9/20))+1</f>
-        <v>0.93896139088729025</v>
-      </c>
-      <c r="AI9" s="62">
-        <f>(((P9-Q9+1.25*Q9+T9)/2)+(1-(W9-0.25*X9+0.5*Y9))+(AD9/200)+(AA9/18))</f>
-        <v>1.0110573541167067</v>
-      </c>
-      <c r="AJ9" s="23">
-        <f>((P9/2)+(1-(W9-0.25*X9+0.5*Y9))+(AD9/200)+(AA9/18))</f>
-        <v>0.95080555555555557</v>
-      </c>
-      <c r="AK9" s="20">
-        <f>(((P9/2)+(1-W9)+(AD9/200)+(AA9/9)))/1.06</f>
-        <v>0.8975104821802935</v>
-      </c>
-      <c r="AL9" s="18">
-        <f>((P9/2)+(1-W9)+(AD9/200)+(AA9/9))</f>
-        <v>0.9513611111111111</v>
-      </c>
-      <c r="AM9" s="15">
-        <f>((P9/2)+(1-W9)+(AD9/200))</f>
-        <v>0.93025000000000002</v>
-      </c>
-      <c r="AN9" s="68">
-        <f>(((P9-Q9+1.25*Q9)/2)+(T9/3)-(W9-0.2*X9+0.5*Y9)+(AD9/250)+(AA9/18))*10</f>
-        <v>-0.59983053557154231</v>
-      </c>
-      <c r="AO9" s="10">
-        <f>(((P9-P13)-(W9-W13)+((AD9-AD13)/100))/2)*10</f>
-        <v>3.1724999999999999</v>
-      </c>
-      <c r="AP9" s="2">
-        <f>(((P9-P13)-(W9-W13)+(AD9-AD13))/100)+1</f>
-        <v>1.2484</v>
-      </c>
-      <c r="AQ9" s="12">
-        <f>((P9-P13)-(W9-W13)+((AD9-AD13)/100))*10</f>
-        <v>6.3449999999999998</v>
+      <c r="AH9" s="73">
+        <f t="shared" si="2"/>
+        <v>0.90100543478260864</v>
+      </c>
+      <c r="AI9" s="66">
+        <f>(((P9-Q9+1.25*Q9)/2)+(U9/3)-(X9-0.2*Y9+0.5*Z9)+(AE9/250)+(AB9/20))+1</f>
+        <v>0.91223949275362315</v>
+      </c>
+      <c r="AJ9" s="62">
+        <f>(((P9-Q9+1.25*Q9+U9)/2)+(1-(X9-0.25*Y9+0.5*Z9))+(AE9/200)+(AB9/18))</f>
+        <v>0.98576509661835754</v>
+      </c>
+      <c r="AK9" s="23">
+        <f>((P9/2)+(1-(X9-0.25*Y9+0.5*Z9))+(AE9/200)+(AB9/18))</f>
+        <v>0.92394444444444446</v>
+      </c>
+      <c r="AL9" s="20">
+        <f>(((P9/2)+(1-X9)+(AE9/200)+(AB9/9)))/1.06</f>
+        <v>0.87112159329140448</v>
+      </c>
+      <c r="AM9" s="18">
+        <f>((P9/2)+(1-X9)+(AE9/200)+(AB9/9))</f>
+        <v>0.92338888888888881</v>
+      </c>
+      <c r="AN9" s="15">
+        <f>((P9/2)+(1-X9)+(AE9/200))</f>
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="AO9" s="68">
+        <f>(((P9-Q9+1.25*Q9)/2)+(U9/3)-(X9-0.2*Y9+0.5*Z9)+(AE9/250)+(AB9/18))*10</f>
+        <v>-0.86816062801932381</v>
+      </c>
+      <c r="AP9" s="10">
+        <f>(((P9-P13)-(X9-X13)+((AE9-AE13)/100))/2)*10</f>
+        <v>3.0149999999999997</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f>(((P9-P13)-(X9-X13)+(AE9-AE13))/100)+1</f>
+        <v>1.2565</v>
       </c>
       <c r="AR9" s="12">
-        <f>((P9-P13)-(W9-W13)+((AD9-AD13)/116))+1</f>
-        <v>1.6007758620689656</v>
-      </c>
-      <c r="AS9" s="5">
-        <f>(((P9-P13)-(W9-W13)+((AD9-AD13)/100))/2)+1</f>
-        <v>1.31725</v>
+        <f>((P9-P13)-(X9-X13)+((AE9-AE13)/100))*10</f>
+        <v>6.0299999999999994</v>
+      </c>
+      <c r="AS9" s="12">
+        <f>((P9-P13)-(X9-X13)+((AE9-AE13)/116))+1</f>
+        <v>1.568103448275862</v>
+      </c>
+      <c r="AT9" s="5">
+        <f>(((P9-P13)-(X9-X13)+((AE9-AE13)/100))/2)+1</f>
+        <v>1.3014999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>17</v>
       </c>
@@ -3796,125 +3736,129 @@
         <v>78</v>
       </c>
       <c r="P10" s="42">
-        <f>ROUND(IMDIV(B10,O10),2)</f>
+        <f t="shared" si="0"/>
         <v>0.73</v>
       </c>
       <c r="Q10" s="56">
         <f>(D10/O10)</f>
         <v>0.26923076923076922</v>
       </c>
-      <c r="R10" s="56">
+      <c r="R10" s="42">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="S10" s="56">
         <f>(E10/O10)*100</f>
         <v>51.282051282051277</v>
       </c>
-      <c r="S10" s="42">
+      <c r="T10" s="42">
         <f>ROUND((D10/E10)*100,2)</f>
         <v>52.5</v>
       </c>
-      <c r="T10" s="56">
+      <c r="U10" s="56">
         <f>F10/O10</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="U10" s="56">
+      <c r="V10" s="56">
         <f>G10/O10</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="V10" s="56">
+      <c r="W10" s="56">
         <f>H10/O10</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="W10" s="42">
+      <c r="X10" s="42">
         <f>ROUND(IMDIV(I10,O10),2)</f>
         <v>0.6</v>
       </c>
-      <c r="X10" s="42">
+      <c r="Y10" s="42">
         <f>ROUND(IMDIV(J10,O10),2)</f>
         <v>0.05</v>
       </c>
-      <c r="Y10" s="42">
+      <c r="Z10" s="42">
         <f>ROUND(IMDIV(K10,O10),2)</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="42">
+      <c r="AA10" s="42">
         <f>ROUND(IMDIV(L10,O10),2)</f>
         <v>2.04</v>
       </c>
-      <c r="AA10" s="42">
+      <c r="AB10" s="42">
         <f>ROUND(IMDIV(M10,O10),2)</f>
         <v>0.13</v>
       </c>
-      <c r="AB10" s="42">
+      <c r="AC10" s="42">
         <f>ROUND(IMDIV(B10,I10),2)</f>
         <v>1.21</v>
       </c>
-      <c r="AC10" s="42">
+      <c r="AD10" s="42">
         <f>ROUND(IMDIV(C10,B10),4)*100</f>
         <v>47.370000000000005</v>
       </c>
-      <c r="AD10" s="42">
+      <c r="AE10" s="42">
         <f>ROUND(IMDIV(N10,O10),2)</f>
         <v>80.36</v>
       </c>
-      <c r="AE10" s="41" t="s">
+      <c r="AF10" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="AF10" s="41" t="s">
+      <c r="AG10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AG10" s="73">
-        <f t="shared" si="0"/>
-        <v>1.1962835897435897</v>
-      </c>
-      <c r="AH10" s="66">
-        <f>(((P10-Q10+1.25*Q10)/2)+(T10/3)-(W10-0.2*X10+0.5*Y10)+(AD10/250)+(AA10/20))+1</f>
+      <c r="AH10" s="73">
+        <f t="shared" si="2"/>
+        <v>1.1867549145299146</v>
+      </c>
+      <c r="AI10" s="66">
+        <f>(((P10-Q10+1.25*Q10)/2)+(U10/3)-(X10-0.2*Y10+0.5*Z10)+(AE10/250)+(AB10/20))+1</f>
         <v>1.1878758974358974</v>
       </c>
-      <c r="AI10" s="62">
-        <f>(((P10-Q10+1.25*Q10+T10)/2)+(1-(W10-0.25*X10+0.5*Y10))+(AD10/200)+(AA10/18))</f>
+      <c r="AJ10" s="62">
+        <f>(((P10-Q10+1.25*Q10+U10)/2)+(1-(X10-0.25*Y10+0.5*Z10))+(AE10/200)+(AB10/18))</f>
         <v>1.2970991452991452</v>
       </c>
-      <c r="AJ10" s="23">
-        <f>((P10/2)+(1-(W10-0.25*X10+0.5*Y10))+(AD10/200)+(AA10/18))</f>
+      <c r="AK10" s="23">
+        <f>((P10/2)+(1-(X10-0.25*Y10+0.5*Z10))+(AE10/200)+(AB10/18))</f>
         <v>1.1865222222222223</v>
       </c>
-      <c r="AK10" s="20">
-        <f>(((P10/2)+(1-W10)+(AD10/200)+(AA10/9)))/1.06</f>
+      <c r="AL10" s="20">
+        <f>(((P10/2)+(1-X10)+(AE10/200)+(AB10/9)))/1.06</f>
         <v>1.1143815513626836</v>
       </c>
-      <c r="AL10" s="18">
-        <f>((P10/2)+(1-W10)+(AD10/200)+(AA10/9))</f>
+      <c r="AM10" s="18">
+        <f>((P10/2)+(1-X10)+(AE10/200)+(AB10/9))</f>
         <v>1.1812444444444445</v>
       </c>
-      <c r="AM10" s="15">
-        <f>((P10/2)+(1-W10)+(AD10/200))</f>
+      <c r="AN10" s="15">
+        <f>((P10/2)+(1-X10)+(AE10/200))</f>
         <v>1.1668000000000001</v>
       </c>
-      <c r="AN10" s="68">
-        <f>(((P10-Q10+1.25*Q10)/2)+(T10/3)-(W10-0.2*X10+0.5*Y10)+(AD10/250)+(AA10/18))*10</f>
+      <c r="AO10" s="68">
+        <f>(((P10-Q10+1.25*Q10)/2)+(U10/3)-(X10-0.2*Y10+0.5*Z10)+(AE10/250)+(AB10/18))*10</f>
         <v>1.8859811965811966</v>
       </c>
-      <c r="AO10" s="10">
-        <f>(((P10-P22)-(W10-W22)+((AD10-AD22)/100))/2)*10</f>
-        <v>0.55800000000000016</v>
-      </c>
-      <c r="AP10" s="2">
-        <f>(((P10-P22)-(W10-W22)+(AD10-AD22))/100)+1</f>
-        <v>1.0423</v>
-      </c>
-      <c r="AQ10" s="12">
-        <f>((P10-P22)-(W10-W22)+((AD10-AD22)/100))*10</f>
-        <v>1.1160000000000003</v>
+      <c r="AP10" s="10">
+        <f>(((P10-P22)-(X10-X22)+((AE10-AE22)/100))/2)*10</f>
+        <v>3.4474999999999998</v>
+      </c>
+      <c r="AQ10" s="2">
+        <f>(((P10-P22)-(X10-X22)+(AE10-AE22))/100)+1</f>
+        <v>1.2341</v>
       </c>
       <c r="AR10" s="12">
-        <f>((P10-P22)-(W10-W22)+((AD10-AD22)/116))+1</f>
-        <v>1.1058620689655172</v>
-      </c>
-      <c r="AS10" s="5">
-        <f>(((P10-P22)-(W10-W22)+((AD10-AD22)/100))/2)+1</f>
-        <v>1.0558000000000001</v>
+        <f>((P10-P22)-(X10-X22)+((AE10-AE22)/100))*10</f>
+        <v>6.8949999999999996</v>
+      </c>
+      <c r="AS10" s="12">
+        <f>((P10-P22)-(X10-X22)+((AE10-AE22)/116))+1</f>
+        <v>1.657844827586207</v>
+      </c>
+      <c r="AT10" s="5">
+        <f>(((P10-P22)-(X10-X22)+((AE10-AE22)/100))/2)+1</f>
+        <v>1.3447499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>18</v>
       </c>
@@ -3961,125 +3905,129 @@
         <v>78</v>
       </c>
       <c r="P11" s="42">
-        <f>ROUND(IMDIV(B11,O11),2)</f>
+        <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="Q11" s="56">
         <f>(D11/O11)</f>
         <v>0.17948717948717949</v>
       </c>
-      <c r="R11" s="56">
+      <c r="R11" s="42">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="S11" s="56">
         <f>(E11/O11)*100</f>
         <v>48.717948717948715</v>
       </c>
-      <c r="S11" s="42">
+      <c r="T11" s="42">
         <f>ROUND((D11/E11)*100,2)</f>
         <v>36.840000000000003</v>
       </c>
-      <c r="T11" s="56">
+      <c r="U11" s="56">
         <f>F11/O11</f>
         <v>8.9743589743589744E-2</v>
       </c>
-      <c r="U11" s="56">
+      <c r="V11" s="56">
         <f>G11/O11</f>
         <v>5.128205128205128E-2</v>
       </c>
-      <c r="V11" s="56">
+      <c r="W11" s="56">
         <f>H11/O11</f>
         <v>6.4102564102564097E-2</v>
       </c>
-      <c r="W11" s="42">
+      <c r="X11" s="42">
         <f>ROUND(IMDIV(I11,O11),2)</f>
         <v>0.65</v>
       </c>
-      <c r="X11" s="42">
+      <c r="Y11" s="42">
         <f>ROUND(IMDIV(J11,O11),2)</f>
         <v>0.08</v>
       </c>
-      <c r="Y11" s="42">
+      <c r="Z11" s="42">
         <f>ROUND(IMDIV(K11,O11),2)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="42">
+      <c r="AA11" s="42">
         <f>ROUND(IMDIV(L11,O11),2)</f>
         <v>1.47</v>
       </c>
-      <c r="AA11" s="42">
+      <c r="AB11" s="42">
         <f>ROUND(IMDIV(M11,O11),2)</f>
         <v>0.19</v>
       </c>
-      <c r="AB11" s="42">
+      <c r="AC11" s="42">
         <f>ROUND(IMDIV(B11,I11),2)</f>
         <v>0.84</v>
       </c>
-      <c r="AC11" s="42">
+      <c r="AD11" s="42">
         <f>ROUND(IMDIV(C11,B11),4)*100</f>
         <v>46.51</v>
       </c>
-      <c r="AD11" s="42">
+      <c r="AE11" s="42">
         <f>ROUND(IMDIV(N11,O11),2)</f>
         <v>63.87</v>
       </c>
-      <c r="AE11" s="41" t="s">
+      <c r="AF11" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="AF11" s="41" t="s">
+      <c r="AG11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AG11" s="73">
-        <f t="shared" si="0"/>
-        <v>0.95937401709401704</v>
-      </c>
-      <c r="AH11" s="66">
-        <f>(((P11-Q11+1.25*Q11)/2)+(T11/3)-(W11-0.2*X11+0.5*Y11)+(AD11/250)+(AA11/20))+1</f>
+      <c r="AH11" s="73">
+        <f t="shared" si="2"/>
+        <v>0.92682286324786323</v>
+      </c>
+      <c r="AI11" s="66">
+        <f>(((P11-Q11+1.25*Q11)/2)+(U11/3)-(X11-0.2*Y11+0.5*Z11)+(AE11/250)+(AB11/20))+1</f>
         <v>0.95833042735042728</v>
       </c>
-      <c r="AI11" s="62">
-        <f>(((P11-Q11+1.25*Q11+T11)/2)+(1-(W11-0.25*X11+0.5*Y11))+(AD11/200)+(AA11/18))</f>
+      <c r="AJ11" s="62">
+        <f>(((P11-Q11+1.25*Q11+U11)/2)+(1-(X11-0.25*Y11+0.5*Z11))+(AE11/200)+(AB11/18))</f>
         <v>1.042213247863248</v>
       </c>
-      <c r="AJ11" s="23">
-        <f>((P11/2)+(1-(W11-0.25*X11+0.5*Y11))+(AD11/200)+(AA11/18))</f>
+      <c r="AK11" s="23">
+        <f>((P11/2)+(1-(X11-0.25*Y11+0.5*Z11))+(AE11/200)+(AB11/18))</f>
         <v>0.97490555555555558</v>
       </c>
-      <c r="AK11" s="20">
-        <f>(((P11/2)+(1-W11)+(AD11/200)+(AA11/9)))/1.06</f>
+      <c r="AL11" s="20">
+        <f>(((P11/2)+(1-X11)+(AE11/200)+(AB11/9)))/1.06</f>
         <v>0.91081236897274631</v>
       </c>
-      <c r="AL11" s="18">
-        <f>((P11/2)+(1-W11)+(AD11/200)+(AA11/9))</f>
+      <c r="AM11" s="18">
+        <f>((P11/2)+(1-X11)+(AE11/200)+(AB11/9))</f>
         <v>0.9654611111111111</v>
       </c>
-      <c r="AM11" s="15">
-        <f>((P11/2)+(1-W11)+(AD11/200))</f>
+      <c r="AN11" s="15">
+        <f>((P11/2)+(1-X11)+(AE11/200))</f>
         <v>0.94435000000000002</v>
       </c>
-      <c r="AN11" s="68">
-        <f>(((P11-Q11+1.25*Q11)/2)+(T11/3)-(W11-0.2*X11+0.5*Y11)+(AD11/250)+(AA11/18))*10</f>
+      <c r="AO11" s="68">
+        <f>(((P11-Q11+1.25*Q11)/2)+(U11/3)-(X11-0.2*Y11+0.5*Z11)+(AE11/250)+(AB11/18))*10</f>
         <v>-0.40614017094017119</v>
       </c>
-      <c r="AO11" s="10">
-        <f>(((P11-P16)-(W11-W16)+((AD11-AD16)/100))/2)*10</f>
-        <v>-0.55435714285714344</v>
-      </c>
-      <c r="AP11" s="2">
-        <f>(((P11-P16)-(W11-W16)+(AD11-AD16))/100)+1</f>
-        <v>0.94287142857142847</v>
-      </c>
-      <c r="AQ11" s="12">
-        <f>((P11-P16)-(W11-W16)+((AD11-AD16)/100))*10</f>
-        <v>-1.1087142857142869</v>
+      <c r="AP11" s="10">
+        <f>(((P11-P16)-(X11-X16)+((AE11-AE16)/100))/2)*10</f>
+        <v>-0.46803571428571528</v>
+      </c>
+      <c r="AQ11" s="2">
+        <f>(((P11-P16)-(X11-X16)+(AE11-AE16))/100)+1</f>
+        <v>0.94599285714285697</v>
       </c>
       <c r="AR11" s="12">
-        <f>((P11-P16)-(W11-W16)+((AD11-AD16)/116))+1</f>
-        <v>0.89693349753694573</v>
-      </c>
-      <c r="AS11" s="5">
-        <f>(((P11-P16)-(W11-W16)+((AD11-AD16)/100))/2)+1</f>
-        <v>0.94456428571428563</v>
+        <f>((P11-P16)-(X11-X16)+((AE11-AE16)/100))*10</f>
+        <v>-0.93607142857143055</v>
+      </c>
+      <c r="AS11" s="12">
+        <f>((P11-P16)-(X11-X16)+((AE11-AE16)/116))+1</f>
+        <v>0.91378694581280773</v>
+      </c>
+      <c r="AT11" s="5">
+        <f>(((P11-P16)-(X11-X16)+((AE11-AE16)/100))/2)+1</f>
+        <v>0.9531964285714285</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>23</v>
       </c>
@@ -4126,125 +4074,129 @@
         <v>73</v>
       </c>
       <c r="P12" s="45">
-        <f>ROUND(IMDIV(B12,O12),2)</f>
+        <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
       <c r="Q12" s="57">
         <f>(D12/O12)</f>
         <v>0.42465753424657532</v>
       </c>
-      <c r="R12" s="57">
+      <c r="R12" s="45">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="S12" s="57">
         <f>(E12/O12)*100</f>
         <v>76.712328767123282</v>
       </c>
-      <c r="S12" s="45">
+      <c r="T12" s="45">
         <f>ROUND((D12/E12)*100,2)</f>
         <v>55.36</v>
       </c>
-      <c r="T12" s="57">
+      <c r="U12" s="57">
         <f>F12/O12</f>
         <v>0.21917808219178081</v>
       </c>
-      <c r="U12" s="57">
+      <c r="V12" s="57">
         <f>G12/O12</f>
         <v>4.1095890410958902E-2</v>
       </c>
-      <c r="V12" s="57">
+      <c r="W12" s="57">
         <f>H12/O12</f>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="W12" s="45">
+      <c r="X12" s="45">
         <f>ROUND(IMDIV(I12,O12),2)</f>
         <v>0.68</v>
       </c>
-      <c r="X12" s="45">
+      <c r="Y12" s="45">
         <f>ROUND(IMDIV(J12,O12),2)</f>
         <v>0.03</v>
       </c>
-      <c r="Y12" s="45">
+      <c r="Z12" s="45">
         <f>ROUND(IMDIV(K12,O12),2)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="45">
+      <c r="AA12" s="45">
         <f>ROUND(IMDIV(L12,O12),2)</f>
         <v>5.48</v>
       </c>
-      <c r="AA12" s="45">
+      <c r="AB12" s="45">
         <f>ROUND(IMDIV(M12,O12),2)</f>
         <v>0.4</v>
       </c>
-      <c r="AB12" s="45">
+      <c r="AC12" s="45">
         <f>ROUND(IMDIV(B12,I12),2)</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="AC12" s="45">
+      <c r="AD12" s="45">
         <f>ROUND(IMDIV(C12,B12),4)*100</f>
         <v>67.86</v>
       </c>
-      <c r="AD12" s="45">
+      <c r="AE12" s="45">
         <f>ROUND(IMDIV(N12,O12),2)</f>
         <v>95.84</v>
       </c>
-      <c r="AE12" s="46" t="s">
+      <c r="AF12" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AF12" s="43" t="s">
+      <c r="AG12" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="73">
-        <f t="shared" si="0"/>
-        <v>1.2208782648401826</v>
-      </c>
-      <c r="AH12" s="66">
-        <f>(((P12-Q12+1.25*Q12)/2)+(T12/3)-(W12-0.2*X12+0.5*Y12)+(AD12/250)+(AA12/20))+1</f>
+      <c r="AH12" s="73">
+        <f t="shared" si="2"/>
+        <v>1.2075902587519027</v>
+      </c>
+      <c r="AI12" s="66">
+        <f>(((P12-Q12+1.25*Q12)/2)+(U12/3)-(X12-0.2*Y12+0.5*Z12)+(AE12/250)+(AB12/20))+1</f>
         <v>1.2405015525114156</v>
       </c>
-      <c r="AI12" s="62">
-        <f>(((P12-Q12+1.25*Q12+T12)/2)+(1-(W12-0.25*X12+0.5*Y12))+(AD12/200)+(AA12/18))</f>
+      <c r="AJ12" s="62">
+        <f>(((P12-Q12+1.25*Q12+U12)/2)+(1-(X12-0.25*Y12+0.5*Z12))+(AE12/200)+(AB12/18))</f>
         <v>1.3765934550989345</v>
       </c>
-      <c r="AJ12" s="23">
-        <f>((P12/2)+(1-(W12-0.25*X12+0.5*Y12))+(AD12/200)+(AA12/18))</f>
+      <c r="AK12" s="23">
+        <f>((P12/2)+(1-(X12-0.25*Y12+0.5*Z12))+(AE12/200)+(AB12/18))</f>
         <v>1.2139222222222221</v>
       </c>
-      <c r="AK12" s="20">
-        <f>(((P12/2)+(1-W12)+(AD12/200)+(AA12/9)))/1.06</f>
+      <c r="AL12" s="20">
+        <f>(((P12/2)+(1-X12)+(AE12/200)+(AB12/9)))/1.06</f>
         <v>1.1590985324947589</v>
       </c>
-      <c r="AL12" s="18">
-        <f>((P12/2)+(1-W12)+(AD12/200)+(AA12/9))</f>
+      <c r="AM12" s="18">
+        <f>((P12/2)+(1-X12)+(AE12/200)+(AB12/9))</f>
         <v>1.2286444444444444</v>
       </c>
-      <c r="AM12" s="15">
-        <f>((P12/2)+(1-W12)+(AD12/200))</f>
+      <c r="AN12" s="15">
+        <f>((P12/2)+(1-X12)+(AE12/200))</f>
         <v>1.1841999999999999</v>
       </c>
-      <c r="AN12" s="68">
-        <f>(((P12-Q12+1.25*Q12)/2)+(T12/3)-(W12-0.2*X12+0.5*Y12)+(AD12/250)+(AA12/18))*10</f>
+      <c r="AO12" s="68">
+        <f>(((P12-Q12+1.25*Q12)/2)+(U12/3)-(X12-0.2*Y12+0.5*Z12)+(AE12/250)+(AB12/18))*10</f>
         <v>2.427237747336378</v>
       </c>
-      <c r="AO12" s="10">
-        <f>(((P12-P19)-(W12-W19)+((AD12-AD19)/100))/2)*10</f>
-        <v>-0.27299999999999935</v>
-      </c>
-      <c r="AP12" s="2">
-        <f>(((P12-P19)-(W12-W19)+(AD12-AD19))/100)+1</f>
-        <v>1.1335000000000002</v>
-      </c>
-      <c r="AQ12" s="12">
-        <f>((P12-P19)-(W12-W19)+((AD12-AD19)/100))*10</f>
-        <v>-0.54599999999999871</v>
+      <c r="AP12" s="10">
+        <f>(((P12-P19)-(X12-X19)+((AE12-AE19)/100))/2)*10</f>
+        <v>-0.14699999999999974</v>
+      </c>
+      <c r="AQ12" s="2">
+        <f>(((P12-P19)-(X12-X19)+(AE12-AE19))/100)+1</f>
+        <v>1.0597000000000001</v>
       </c>
       <c r="AR12" s="12">
-        <f>((P12-P19)-(W12-W19)+((AD12-AD19)/116))+1</f>
-        <v>0.92672413793103459</v>
-      </c>
-      <c r="AS12" s="5">
-        <f>(((P12-P19)-(W12-W19)+((AD12-AD19)/100))/2)+1</f>
-        <v>0.97270000000000012</v>
+        <f>((P12-P19)-(X12-X19)+((AE12-AE19)/100))*10</f>
+        <v>-0.29399999999999948</v>
+      </c>
+      <c r="AS12" s="12">
+        <f>((P12-P19)-(X12-X19)+((AE12-AE19)/116))+1</f>
+        <v>0.96224137931034492</v>
+      </c>
+      <c r="AT12" s="5">
+        <f>(((P12-P19)-(X12-X19)+((AE12-AE19)/100))/2)+1</f>
+        <v>0.98530000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>24</v>
       </c>
@@ -4291,125 +4243,129 @@
         <v>73</v>
       </c>
       <c r="P13" s="45">
-        <f>ROUND(IMDIV(B13,O13),2)</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="Q13" s="57">
         <f>(D13/O13)</f>
         <v>6.8493150684931503E-2</v>
       </c>
-      <c r="R13" s="57">
+      <c r="R13" s="45">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="S13" s="57">
         <f>(E13/O13)*100</f>
         <v>23.287671232876711</v>
       </c>
-      <c r="S13" s="45">
+      <c r="T13" s="45">
         <f>ROUND((D13/E13)*100,2)</f>
         <v>29.41</v>
       </c>
-      <c r="T13" s="57">
+      <c r="U13" s="57">
         <f>F13/O13</f>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="U13" s="57">
+      <c r="V13" s="57">
         <f>G13/O13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="57">
+      <c r="W13" s="57">
         <f>H13/O13</f>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="W13" s="45">
+      <c r="X13" s="45">
         <f>ROUND(IMDIV(I13,O13),2)</f>
         <v>0.73</v>
       </c>
-      <c r="X13" s="45">
+      <c r="Y13" s="45">
         <f>ROUND(IMDIV(J13,O13),2)</f>
         <v>0.01</v>
       </c>
-      <c r="Y13" s="45">
+      <c r="Z13" s="45">
         <f>ROUND(IMDIV(K13,O13),2)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="45">
+      <c r="AA13" s="45">
         <f>ROUND(IMDIV(L13,O13),2)</f>
         <v>1.52</v>
       </c>
-      <c r="AA13" s="45">
+      <c r="AB13" s="45">
         <f>ROUND(IMDIV(M13,O13),2)</f>
         <v>0.22</v>
       </c>
-      <c r="AB13" s="45">
+      <c r="AC13" s="45">
         <f>ROUND(IMDIV(B13,I13),2)</f>
         <v>0.34</v>
       </c>
-      <c r="AC13" s="45">
+      <c r="AD13" s="45">
         <f>ROUND(IMDIV(C13,B13),4)*100</f>
         <v>50</v>
       </c>
-      <c r="AD13" s="45">
+      <c r="AE13" s="45">
         <f>ROUND(IMDIV(N13,O13),2)</f>
         <v>32.6</v>
       </c>
-      <c r="AE13" s="46" t="s">
+      <c r="AF13" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AF13" s="43" t="s">
+      <c r="AG13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AG13" s="73">
-        <f t="shared" si="0"/>
-        <v>0.54564018264840186</v>
-      </c>
-      <c r="AH13" s="66">
-        <f>(((P13-Q13+1.25*Q13)/2)+(T13/3)-(W13-0.2*X13+0.5*Y13)+(AD13/250)+(AA13/20))+1</f>
+      <c r="AH13" s="73">
+        <f t="shared" si="2"/>
+        <v>0.53169140030441386</v>
+      </c>
+      <c r="AI13" s="66">
+        <f>(((P13-Q13+1.25*Q13)/2)+(U13/3)-(X13-0.2*Y13+0.5*Z13)+(AE13/250)+(AB13/20))+1</f>
         <v>0.55152785388127867</v>
       </c>
-      <c r="AI13" s="62">
-        <f>(((P13-Q13+1.25*Q13+T13)/2)+(1-(W13-0.25*X13+0.5*Y13))+(AD13/200)+(AA13/18))</f>
+      <c r="AJ13" s="62">
+        <f>(((P13-Q13+1.25*Q13+U13)/2)+(1-(X13-0.25*Y13+0.5*Z13))+(AE13/200)+(AB13/18))</f>
         <v>0.58813318112633184</v>
       </c>
-      <c r="AJ13" s="23">
-        <f>((P13/2)+(1-(W13-0.25*X13+0.5*Y13))+(AD13/200)+(AA13/18))</f>
+      <c r="AK13" s="23">
+        <f>((P13/2)+(1-(X13-0.25*Y13+0.5*Z13))+(AE13/200)+(AB13/18))</f>
         <v>0.57272222222222224</v>
       </c>
-      <c r="AK13" s="20">
-        <f>(((P13/2)+(1-W13)+(AD13/200)+(AA13/9)))/1.06</f>
+      <c r="AL13" s="20">
+        <f>(((P13/2)+(1-X13)+(AE13/200)+(AB13/9)))/1.06</f>
         <v>0.54947589098532501</v>
       </c>
-      <c r="AL13" s="18">
-        <f>((P13/2)+(1-W13)+(AD13/200)+(AA13/9))</f>
+      <c r="AM13" s="18">
+        <f>((P13/2)+(1-X13)+(AE13/200)+(AB13/9))</f>
         <v>0.58244444444444454</v>
       </c>
-      <c r="AM13" s="15">
-        <f>((P13/2)+(1-W13)+(AD13/200))</f>
+      <c r="AN13" s="15">
+        <f>((P13/2)+(1-X13)+(AE13/200))</f>
         <v>0.55800000000000005</v>
       </c>
-      <c r="AN13" s="68">
-        <f>(((P13-Q13+1.25*Q13)/2)+(T13/3)-(W13-0.2*X13+0.5*Y13)+(AD13/250)+(AA13/18))*10</f>
+      <c r="AO13" s="68">
+        <f>(((P13-Q13+1.25*Q13)/2)+(U13/3)-(X13-0.2*Y13+0.5*Z13)+(AE13/250)+(AB13/18))*10</f>
         <v>-4.4724992389649918</v>
       </c>
-      <c r="AO13" s="10">
-        <f>(((P13-P16)-(W13-W16)+((AD13-AD16)/100))/2)*10</f>
-        <v>-4.0178571428571432</v>
-      </c>
-      <c r="AP13" s="2">
-        <f>(((P13-P16)-(W13-W16)+(AD13-AD16))/100)+1</f>
-        <v>0.62637142857142847</v>
-      </c>
-      <c r="AQ13" s="12">
-        <f>((P13-P16)-(W13-W16)+((AD13-AD16)/100))*10</f>
-        <v>-8.0357142857142865</v>
+      <c r="AP13" s="10">
+        <f>(((P13-P16)-(X13-X16)+((AE13-AE16)/100))/2)*10</f>
+        <v>-3.9315357142857152</v>
+      </c>
+      <c r="AQ13" s="2">
+        <f>(((P13-P16)-(X13-X16)+(AE13-AE16))/100)+1</f>
+        <v>0.62949285714285708</v>
       </c>
       <c r="AR13" s="12">
-        <f>((P13-P16)-(W13-W16)+((AD13-AD16)/116))+1</f>
-        <v>0.24736453201970443</v>
-      </c>
-      <c r="AS13" s="5">
-        <f>(((P13-P16)-(W13-W16)+((AD13-AD16)/100))/2)+1</f>
-        <v>0.5982142857142857</v>
+        <f>((P13-P16)-(X13-X16)+((AE13-AE16)/100))*10</f>
+        <v>-7.8630714285714305</v>
+      </c>
+      <c r="AS13" s="12">
+        <f>((P13-P16)-(X13-X16)+((AE13-AE16)/116))+1</f>
+        <v>0.26421798029556642</v>
+      </c>
+      <c r="AT13" s="5">
+        <f>(((P13-P16)-(X13-X16)+((AE13-AE16)/100))/2)+1</f>
+        <v>0.60684642857142845</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>29</v>
       </c>
@@ -4456,125 +4412,129 @@
         <v>66</v>
       </c>
       <c r="P14" s="47">
-        <f>ROUND(IMDIV(B14,O14),2)</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="Q14" s="58">
         <f>(D14/O14)</f>
         <v>7.575757575757576E-2</v>
       </c>
-      <c r="R14" s="58">
+      <c r="R14" s="47">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+      <c r="S14" s="58">
         <f>(E14/O14)*100</f>
         <v>46.969696969696969</v>
       </c>
-      <c r="S14" s="47">
+      <c r="T14" s="47">
         <f>ROUND((D14/E14)*100,2)</f>
         <v>16.13</v>
       </c>
-      <c r="T14" s="58">
+      <c r="U14" s="58">
         <f>F14/O14</f>
         <v>6.0606060606060608E-2</v>
       </c>
-      <c r="U14" s="58">
+      <c r="V14" s="58">
         <f>G14/O14</f>
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="V14" s="58">
+      <c r="W14" s="58">
         <f>H14/O14</f>
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="W14" s="47">
+      <c r="X14" s="47">
         <f>ROUND(IMDIV(I14,O14),2)</f>
         <v>0.86</v>
       </c>
-      <c r="X14" s="47">
+      <c r="Y14" s="47">
         <f>ROUND(IMDIV(J14,O14),2)</f>
         <v>0.02</v>
       </c>
-      <c r="Y14" s="47">
+      <c r="Z14" s="47">
         <f>ROUND(IMDIV(K14,O14),2)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="47">
+      <c r="AA14" s="47">
         <f>ROUND(IMDIV(L14,O14),2)</f>
         <v>0.12</v>
       </c>
-      <c r="AA14" s="47">
+      <c r="AB14" s="47">
         <f>ROUND(IMDIV(M14,O14),2)</f>
         <v>0.03</v>
       </c>
-      <c r="AB14" s="47">
+      <c r="AC14" s="47">
         <f>ROUND(IMDIV(B14,I14),2)</f>
         <v>0.4</v>
       </c>
-      <c r="AC14" s="47">
+      <c r="AD14" s="47">
         <f>ROUND(IMDIV(C14,B14),4)*100</f>
         <v>34.78</v>
       </c>
-      <c r="AD14" s="47">
+      <c r="AE14" s="47">
         <f>ROUND(IMDIV(N14,O14),2)</f>
         <v>43.97</v>
       </c>
-      <c r="AE14" s="47" t="s">
+      <c r="AF14" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AF14" s="47" t="s">
+      <c r="AG14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AG14" s="73">
-        <f t="shared" si="0"/>
-        <v>0.53072747474747484</v>
-      </c>
-      <c r="AH14" s="66">
-        <f>(((P14-Q14+1.25*Q14)/2)+(T14/3)-(W14-0.2*X14+0.5*Y14)+(AD14/250)+(AA14/20))+1</f>
+      <c r="AH14" s="73">
+        <f t="shared" si="2"/>
+        <v>0.45693863636363619</v>
+      </c>
+      <c r="AI14" s="66">
+        <f>(((P14-Q14+1.25*Q14)/2)+(U14/3)-(X14-0.2*Y14+0.5*Z14)+(AE14/250)+(AB14/20))+1</f>
         <v>0.52605171717171717</v>
       </c>
-      <c r="AI14" s="62">
-        <f>(((P14-Q14+1.25*Q14+T14)/2)+(1-(W14-0.25*X14+0.5*Y14))+(AD14/200)+(AA14/18))</f>
+      <c r="AJ14" s="62">
+        <f>(((P14-Q14+1.25*Q14+U14)/2)+(1-(X14-0.25*Y14+0.5*Z14))+(AE14/200)+(AB14/18))</f>
         <v>0.58128939393939394</v>
       </c>
-      <c r="AJ14" s="23">
-        <f>((P14/2)+(1-(W14-0.25*X14+0.5*Y14))+(AD14/200)+(AA14/18))</f>
+      <c r="AK14" s="23">
+        <f>((P14/2)+(1-(X14-0.25*Y14+0.5*Z14))+(AE14/200)+(AB14/18))</f>
         <v>0.54151666666666665</v>
       </c>
-      <c r="AK14" s="20">
-        <f>(((P14/2)+(1-W14)+(AD14/200)+(AA14/9)))/1.06</f>
+      <c r="AL14" s="20">
+        <f>(((P14/2)+(1-X14)+(AE14/200)+(AB14/9)))/1.06</f>
         <v>0.50772012578616355</v>
       </c>
-      <c r="AL14" s="18">
-        <f>((P14/2)+(1-W14)+(AD14/200)+(AA14/9))</f>
+      <c r="AM14" s="18">
+        <f>((P14/2)+(1-X14)+(AE14/200)+(AB14/9))</f>
         <v>0.53818333333333335</v>
       </c>
-      <c r="AM14" s="15">
-        <f>((P14/2)+(1-W14)+(AD14/200))</f>
+      <c r="AN14" s="15">
+        <f>((P14/2)+(1-X14)+(AE14/200))</f>
         <v>0.53485000000000005</v>
       </c>
-      <c r="AN14" s="68">
-        <f>(((P14-Q14+1.25*Q14)/2)+(T14/3)-(W14-0.2*X14+0.5*Y14)+(AD14/250)+(AA14/18))*10</f>
+      <c r="AO14" s="68">
+        <f>(((P14-Q14+1.25*Q14)/2)+(U14/3)-(X14-0.2*Y14+0.5*Z14)+(AE14/250)+(AB14/18))*10</f>
         <v>-4.7378161616161609</v>
       </c>
-      <c r="AO14" s="10">
-        <f>(((P14-P16)-(W14-W16)+((AD14-AD16)/100))/2)*10</f>
-        <v>-3.5993571428571434</v>
-      </c>
-      <c r="AP14" s="2">
-        <f>(((P14-P16)-(W14-W16)+(AD14-AD16))/100)+1</f>
-        <v>0.73977142857142852</v>
-      </c>
-      <c r="AQ14" s="12">
-        <f>((P14-P16)-(W14-W16)+((AD14-AD16)/100))*10</f>
-        <v>-7.1987142857142867</v>
+      <c r="AP14" s="10">
+        <f>(((P14-P16)-(X14-X16)+((AE14-AE16)/100))/2)*10</f>
+        <v>-3.5130357142857154</v>
+      </c>
+      <c r="AQ14" s="2">
+        <f>(((P14-P16)-(X14-X16)+(AE14-AE16))/100)+1</f>
+        <v>0.74289285714285702</v>
       </c>
       <c r="AR14" s="12">
-        <f>((P14-P16)-(W14-W16)+((AD14-AD16)/116))+1</f>
-        <v>0.31538177339901463</v>
-      </c>
-      <c r="AS14" s="5">
-        <f>(((P14-P16)-(W14-W16)+((AD14-AD16)/100))/2)+1</f>
-        <v>0.64006428571428564</v>
+        <f>((P14-P16)-(X14-X16)+((AE14-AE16)/100))*10</f>
+        <v>-7.0260714285714307</v>
+      </c>
+      <c r="AS14" s="12">
+        <f>((P14-P16)-(X14-X16)+((AE14-AE16)/116))+1</f>
+        <v>0.33223522167487662</v>
+      </c>
+      <c r="AT14" s="5">
+        <f>(((P14-P16)-(X14-X16)+((AE14-AE16)/100))/2)+1</f>
+        <v>0.64869642857142851</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>25</v>
       </c>
@@ -4621,125 +4581,129 @@
         <v>66</v>
       </c>
       <c r="P15" s="47">
-        <f>ROUND(IMDIV(B15,O15),2)</f>
+        <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
       <c r="Q15" s="58">
         <f>(D15/O15)</f>
         <v>0.12121212121212122</v>
       </c>
-      <c r="R15" s="58">
+      <c r="R15" s="47">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+      <c r="S15" s="58">
         <f>(E15/O15)*100</f>
         <v>53.030303030303031</v>
       </c>
-      <c r="S15" s="47">
+      <c r="T15" s="47">
         <f>ROUND((D15/E15)*100,2)</f>
         <v>22.86</v>
       </c>
-      <c r="T15" s="58">
+      <c r="U15" s="58">
         <f>F15/O15</f>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="U15" s="58">
+      <c r="V15" s="58">
         <f>G15/O15</f>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="V15" s="58">
+      <c r="W15" s="58">
         <f>H15/O15</f>
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="W15" s="47">
+      <c r="X15" s="47">
         <f>ROUND(IMDIV(I15,O15),2)</f>
         <v>0.86</v>
       </c>
-      <c r="X15" s="47">
+      <c r="Y15" s="47">
         <f>ROUND(IMDIV(J15,O15),2)</f>
         <v>0.02</v>
       </c>
-      <c r="Y15" s="47">
+      <c r="Z15" s="47">
         <f>ROUND(IMDIV(K15,O15),2)</f>
         <v>0.03</v>
       </c>
-      <c r="Z15" s="47">
+      <c r="AA15" s="47">
         <f>ROUND(IMDIV(L15,O15),2)</f>
         <v>1.67</v>
       </c>
-      <c r="AA15" s="47">
+      <c r="AB15" s="47">
         <f>ROUND(IMDIV(M15,O15),2)</f>
         <v>0.33</v>
       </c>
-      <c r="AB15" s="47">
+      <c r="AC15" s="47">
         <f>ROUND(IMDIV(B15,I15),2)</f>
         <v>0.3</v>
       </c>
-      <c r="AC15" s="47">
+      <c r="AD15" s="47">
         <f>ROUND(IMDIV(C15,B15),4)*100</f>
         <v>23.53</v>
       </c>
-      <c r="AD15" s="47">
+      <c r="AE15" s="47">
         <f>ROUND(IMDIV(N15,O15),2)</f>
         <v>52.26</v>
       </c>
-      <c r="AE15" s="47" t="s">
+      <c r="AF15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AF15" s="47" t="s">
+      <c r="AG15" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AG15" s="73">
-        <f t="shared" si="0"/>
-        <v>0.50843545454545458</v>
-      </c>
-      <c r="AH15" s="66">
-        <f>(((P15-Q15+1.25*Q15)/2)+(T15/3)-(W15-0.2*X15+0.5*Y15)+(AD15/250)+(AA15/20))+1</f>
+      <c r="AH15" s="73">
+        <f t="shared" si="2"/>
+        <v>0.44721742424242417</v>
+      </c>
+      <c r="AI15" s="66">
+        <f>(((P15-Q15+1.25*Q15)/2)+(U15/3)-(X15-0.2*Y15+0.5*Z15)+(AE15/250)+(AB15/20))+1</f>
         <v>0.51484303030303025</v>
       </c>
-      <c r="AI15" s="62">
-        <f>(((P15-Q15+1.25*Q15+T15)/2)+(1-(W15-0.25*X15+0.5*Y15))+(AD15/200)+(AA15/18))</f>
+      <c r="AJ15" s="62">
+        <f>(((P15-Q15+1.25*Q15+U15)/2)+(1-(X15-0.25*Y15+0.5*Z15))+(AE15/200)+(AB15/18))</f>
         <v>0.57751212121212114</v>
       </c>
-      <c r="AJ15" s="23">
-        <f>((P15/2)+(1-(W15-0.25*X15+0.5*Y15))+(AD15/200)+(AA15/18))</f>
+      <c r="AK15" s="23">
+        <f>((P15/2)+(1-(X15-0.25*Y15+0.5*Z15))+(AE15/200)+(AB15/18))</f>
         <v>0.5396333333333333</v>
       </c>
-      <c r="AK15" s="20">
-        <f>(((P15/2)+(1-W15)+(AD15/200)+(AA15/9)))/1.06</f>
+      <c r="AL15" s="20">
+        <f>(((P15/2)+(1-X15)+(AE15/200)+(AB15/9)))/1.06</f>
         <v>0.53581761006289297</v>
       </c>
-      <c r="AL15" s="18">
-        <f>((P15/2)+(1-W15)+(AD15/200)+(AA15/9))</f>
+      <c r="AM15" s="18">
+        <f>((P15/2)+(1-X15)+(AE15/200)+(AB15/9))</f>
         <v>0.56796666666666662</v>
       </c>
-      <c r="AM15" s="15">
-        <f>((P15/2)+(1-W15)+(AD15/200))</f>
+      <c r="AN15" s="15">
+        <f>((P15/2)+(1-X15)+(AE15/200))</f>
         <v>0.53129999999999999</v>
       </c>
-      <c r="AN15" s="68">
-        <f>(((P15-Q15+1.25*Q15)/2)+(T15/3)-(W15-0.2*X15+0.5*Y15)+(AD15/250)+(AA15/18))*10</f>
+      <c r="AO15" s="68">
+        <f>(((P15-Q15+1.25*Q15)/2)+(U15/3)-(X15-0.2*Y15+0.5*Z15)+(AE15/250)+(AB15/18))*10</f>
         <v>-4.833236363636364</v>
       </c>
-      <c r="AO15" s="10">
-        <f>(((P15-P16)-(W15-W16)+((AD15-AD16)/100))/2)*10</f>
-        <v>-3.6348571428571437</v>
-      </c>
-      <c r="AP15" s="2">
-        <f>(((P15-P16)-(W15-W16)+(AD15-AD16))/100)+1</f>
-        <v>0.82177142857142838</v>
-      </c>
-      <c r="AQ15" s="12">
-        <f>((P15-P16)-(W15-W16)+((AD15-AD16)/100))*10</f>
-        <v>-7.2697142857142873</v>
+      <c r="AP15" s="10">
+        <f>(((P15-P16)-(X15-X16)+((AE15-AE16)/100))/2)*10</f>
+        <v>-3.5485357142857152</v>
+      </c>
+      <c r="AQ15" s="2">
+        <f>(((P15-P16)-(X15-X16)+(AE15-AE16))/100)+1</f>
+        <v>0.82489285714285698</v>
       </c>
       <c r="AR15" s="12">
-        <f>((P15-P16)-(W15-W16)+((AD15-AD16)/116))+1</f>
-        <v>0.29684729064039406</v>
-      </c>
-      <c r="AS15" s="5">
-        <f>(((P15-P16)-(W15-W16)+((AD15-AD16)/100))/2)+1</f>
-        <v>0.63651428571428559</v>
+        <f>((P15-P16)-(X15-X16)+((AE15-AE16)/100))*10</f>
+        <v>-7.0970714285714305</v>
+      </c>
+      <c r="AS15" s="12">
+        <f>((P15-P16)-(X15-X16)+((AE15-AE16)/116))+1</f>
+        <v>0.31370073891625605</v>
+      </c>
+      <c r="AT15" s="5">
+        <f>(((P15-P16)-(X15-X16)+((AE15-AE16)/100))/2)+1</f>
+        <v>0.64514642857142845</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -4760,118 +4724,122 @@
         <v>33</v>
       </c>
       <c r="P16" s="74">
-        <f>AVERAGE(P2:P15)</f>
-        <v>0.59071428571428564</v>
+        <f t="shared" ref="P16:Y16" si="3">AVERAGE(P2:P15)</f>
+        <v>0.58357142857142852</v>
       </c>
       <c r="Q16" s="74">
-        <f>AVERAGE(Q2:Q15)</f>
-        <v>0.23728827267482974</v>
+        <f t="shared" si="3"/>
+        <v>0.234607572608863</v>
       </c>
       <c r="R16" s="74">
-        <f>AVERAGE(R2:R15)</f>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>0.26428571428571429</v>
       </c>
       <c r="S16" s="74">
-        <f>AVERAGE(S2:S15)</f>
-        <v>46.305714285714281</v>
+        <f t="shared" si="3"/>
+        <v>49.963369963369971</v>
       </c>
       <c r="T16" s="74">
-        <f>AVERAGE(T2:T15)</f>
-        <v>0.13454678171337398</v>
+        <f t="shared" si="3"/>
+        <v>45.789285714285718</v>
       </c>
       <c r="U16" s="74">
-        <f>AVERAGE(U2:U15)</f>
-        <v>5.7693788659011647E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.13403708659813482</v>
       </c>
       <c r="V16" s="74">
-        <f>AVERAGE(V2:V15)</f>
-        <v>5.2591066416943666E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.5241633986422553E-2</v>
       </c>
       <c r="W16" s="74">
-        <f>AVERAGE(W2:W15)</f>
-        <v>0.63642857142857134</v>
+        <f t="shared" si="3"/>
+        <v>5.2706944688779123E-2</v>
       </c>
       <c r="X16" s="74">
-        <f>AVERAGE(X2:X15)</f>
+        <f t="shared" si="3"/>
+        <v>0.64357142857142846</v>
+      </c>
+      <c r="Y16" s="74">
+        <f t="shared" si="3"/>
         <v>3.3571428571428578E-2</v>
       </c>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="74">
-        <f>AVERAGE(Z2:Z15)</f>
-        <v>2.7749999999999995</v>
-      </c>
+      <c r="Z16" s="75"/>
       <c r="AA16" s="74">
         <f>AVERAGE(AA2:AA15)</f>
-        <v>0.18571428571428572</v>
+        <v>2.6671428571428573</v>
       </c>
       <c r="AB16" s="74">
         <f>AVERAGE(AB2:AB15)</f>
-        <v>0.98571428571428588</v>
+        <v>0.18857142857142858</v>
       </c>
       <c r="AC16" s="74">
         <f>AVERAGE(AC2:AC15)</f>
-        <v>46.616428571428564</v>
+        <v>0.96071428571428608</v>
       </c>
       <c r="AD16" s="74">
         <f>AVERAGE(AD2:AD15)</f>
-        <v>69.528571428571439</v>
-      </c>
-      <c r="AE16" s="1"/>
+        <v>47.124285714285705</v>
+      </c>
+      <c r="AE16" s="74">
+        <f>AVERAGE(AE2:AE15)</f>
+        <v>69.230714285714299</v>
+      </c>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="72">
-        <f>AVERAGE(AG2:AG15)</f>
-        <v>1.0280170971864129</v>
-      </c>
-      <c r="AH16" s="66">
-        <f>AVERAGE(AH2:AH15)</f>
-        <v>1.0261242470364309</v>
-      </c>
-      <c r="AI16" s="62">
-        <f>AVERAGE(AI2:AI15)</f>
-        <v>1.1207875995442154</v>
-      </c>
-      <c r="AJ16" s="23">
-        <f>AVERAGE(AJ2:AJ15)</f>
-        <v>1.0238531746031745</v>
-      </c>
-      <c r="AK16" s="20">
-        <f>AVERAGE(AK2:AK15)</f>
-        <v>0.96906259359089542</v>
-      </c>
-      <c r="AL16" s="18">
-        <f>AVERAGE(AL2:AL15)</f>
-        <v>1.0272063492063492</v>
-      </c>
-      <c r="AM16" s="15">
-        <f>AVERAGE(AM2:AM15)</f>
-        <v>1.0065714285714287</v>
-      </c>
-      <c r="AN16" s="68">
-        <f>AVERAGE(AN2:AN15)</f>
-        <v>0.27155993068176804</v>
-      </c>
-      <c r="AO16" s="10">
-        <f>AVERAGE(AO2:AO15)</f>
-        <v>0.70414795918367312</v>
-      </c>
-      <c r="AP16" s="2">
-        <f>AVERAGE(AP2:AP15)</f>
-        <v>1.0614275510204083</v>
-      </c>
-      <c r="AQ16" s="12">
-        <f>AVERAGE(AQ2:AQ15)</f>
-        <v>1.4082959183673462</v>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="72">
+        <f t="shared" ref="AH16:AT16" si="4">AVERAGE(AH2:AH15)</f>
+        <v>0.9958620915162768</v>
+      </c>
+      <c r="AI16" s="66">
+        <f t="shared" si="4"/>
+        <v>1.0138564040135816</v>
+      </c>
+      <c r="AJ16" s="62">
+        <f t="shared" si="4"/>
+        <v>1.1081528232085087</v>
+      </c>
+      <c r="AK16" s="23">
+        <f t="shared" si="4"/>
+        <v>1.0118083333333334</v>
+      </c>
+      <c r="AL16" s="20">
+        <f t="shared" si="4"/>
+        <v>0.95784928122192259</v>
+      </c>
+      <c r="AM16" s="18">
+        <f t="shared" si="4"/>
+        <v>1.0153202380952382</v>
+      </c>
+      <c r="AN16" s="15">
+        <f t="shared" si="4"/>
+        <v>0.99436785714285725</v>
+      </c>
+      <c r="AO16" s="68">
+        <f t="shared" si="4"/>
+        <v>0.14904023061200464</v>
+      </c>
+      <c r="AP16" s="10">
+        <f t="shared" si="4"/>
+        <v>0.89241836734693814</v>
+      </c>
+      <c r="AQ16" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0688765306122447</v>
       </c>
       <c r="AR16" s="12">
-        <f>AVERAGE(AR2:AR15)</f>
-        <v>1.1324674524982405</v>
-      </c>
-      <c r="AS16" s="5">
-        <f>AVERAGE(AS2:AS15)</f>
-        <v>1.0704147959183674</v>
+        <f t="shared" si="4"/>
+        <v>1.7848367346938763</v>
+      </c>
+      <c r="AS16" s="12">
+        <f t="shared" si="4"/>
+        <v>1.1691361717100632</v>
+      </c>
+      <c r="AT16" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0892418367346939</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
@@ -4892,127 +4860,143 @@
         <v>34</v>
       </c>
       <c r="P17" s="74">
-        <f>MEDIAN(P2,P15)</f>
-        <v>0.52</v>
+        <f t="shared" ref="P17:Y17" si="5">MEDIAN(P2,P15)</f>
+        <v>0.51</v>
       </c>
       <c r="Q17" s="74">
-        <f>MEDIAN(Q2,Q15)</f>
-        <v>0.20134680134680136</v>
+        <f t="shared" si="5"/>
+        <v>0.20566778900112234</v>
       </c>
       <c r="R17" s="74">
-        <f>MEDIAN(R2,R15)</f>
-        <v>47.996632996632997</v>
+        <f t="shared" si="5"/>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S17" s="74">
-        <f>MEDIAN(S2,S15)</f>
-        <v>44.19</v>
+        <f t="shared" si="5"/>
+        <v>49.663299663299668</v>
       </c>
       <c r="T17" s="74">
-        <f>MEDIAN(T2,T15)</f>
-        <v>0.11531986531986531</v>
+        <f t="shared" si="5"/>
+        <v>42.765000000000001</v>
       </c>
       <c r="U17" s="74">
-        <f>MEDIAN(U2,U15)</f>
-        <v>7.053872053872054E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.12149270482603815</v>
       </c>
       <c r="V17" s="74">
-        <f>MEDIAN(V2,V15)</f>
+        <f t="shared" si="5"/>
+        <v>7.2390572390572394E-2</v>
+      </c>
+      <c r="W17" s="74">
+        <f t="shared" si="5"/>
         <v>5.2188552188552187E-2</v>
       </c>
-      <c r="W17" s="74">
-        <f>MEDIAN(W2,W15)</f>
+      <c r="X17" s="74">
+        <f t="shared" si="5"/>
         <v>0.67500000000000004</v>
       </c>
-      <c r="X17" s="74">
-        <f>MEDIAN(X2,X15)</f>
+      <c r="Y17" s="74">
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="74">
-        <f>MEDIAN(Z2,Z15)</f>
-        <v>2.31</v>
-      </c>
+      <c r="Z17" s="75"/>
       <c r="AA17" s="74">
         <f>MEDIAN(AA2,AA15)</f>
-        <v>0.27500000000000002</v>
+        <v>2.1950000000000003</v>
       </c>
       <c r="AB17" s="74">
         <f>MEDIAN(AB2,AB15)</f>
-        <v>0.94500000000000006</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AC17" s="74">
         <f>MEDIAN(AC2,AC15)</f>
-        <v>36.524999999999999</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="AD17" s="74">
         <f>MEDIAN(AD2,AD15)</f>
-        <v>66.400000000000006</v>
-      </c>
-      <c r="AE17" s="1"/>
+        <v>36.97</v>
+      </c>
+      <c r="AE17" s="74">
+        <f>MEDIAN(AE2,AE15)</f>
+        <v>66.349999999999994</v>
+      </c>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="79">
-        <f>MEDIAN(AG2:AG15)</f>
-        <v>1.1279178442545108</v>
-      </c>
-      <c r="AH17" s="66">
-        <f>MEDIAN(AH2:AH15)</f>
-        <v>1.1263065906932574</v>
-      </c>
-      <c r="AI17" s="62">
-        <f>MEDIAN(AI2:AI15)</f>
-        <v>1.2281153133903133</v>
-      </c>
-      <c r="AJ17" s="23">
-        <f>MEDIAN(AJ2:AJ15)</f>
-        <v>1.1251416666666667</v>
-      </c>
-      <c r="AK17" s="20">
-        <f>MEDIAN(AK2:AK15)</f>
-        <v>1.0594889937106919</v>
-      </c>
-      <c r="AL17" s="18">
-        <f>MEDIAN(AL2:AL15)</f>
-        <v>1.1230583333333333</v>
-      </c>
-      <c r="AM17" s="15">
-        <f>MEDIAN(AM2:AM15)</f>
-        <v>1.1047250000000002</v>
-      </c>
-      <c r="AN17" s="68">
-        <f>MEDIAN(AN2:AN15)</f>
-        <v>1.2722325735992404</v>
-      </c>
-      <c r="AO17" s="10">
-        <f>MEDIAN(AO2:AO15)</f>
-        <v>0.3965000000000003</v>
-      </c>
-      <c r="AP17" s="2">
-        <f>MEDIAN(AP2:AP15)</f>
-        <v>1.0879000000000001</v>
-      </c>
-      <c r="AQ17" s="12">
-        <f>MEDIAN(AQ2:AQ15)</f>
-        <v>0.79300000000000059</v>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="78">
+        <f t="shared" ref="AH17:AT17" si="6">MEDIAN(AH2:AH15)</f>
+        <v>1.1300312397824004</v>
+      </c>
+      <c r="AI17" s="66">
+        <f t="shared" si="6"/>
+        <v>1.1343585089351147</v>
+      </c>
+      <c r="AJ17" s="62">
+        <f t="shared" si="6"/>
+        <v>1.2402290038897343</v>
+      </c>
+      <c r="AK17" s="23">
+        <f t="shared" si="6"/>
+        <v>1.125561111111111</v>
+      </c>
+      <c r="AL17" s="20">
+        <f t="shared" si="6"/>
+        <v>1.0652568134171907</v>
+      </c>
+      <c r="AM17" s="18">
+        <f t="shared" si="6"/>
+        <v>1.129172222222222</v>
+      </c>
+      <c r="AN17" s="15">
+        <f t="shared" si="6"/>
+        <v>1.1069499999999999</v>
+      </c>
+      <c r="AO17" s="68">
+        <f t="shared" si="6"/>
+        <v>1.3546962004622589</v>
+      </c>
+      <c r="AP17" s="10">
+        <f t="shared" si="6"/>
+        <v>1.1095000000000002</v>
+      </c>
+      <c r="AQ17" s="2">
+        <f t="shared" si="6"/>
+        <v>1.093925</v>
       </c>
       <c r="AR17" s="12">
-        <f>MEDIAN(AR2:AR15)</f>
-        <v>1.0869827586206897</v>
-      </c>
-      <c r="AS17" s="5">
-        <f>MEDIAN(AS2:AS15)</f>
-        <v>1.03965</v>
+        <f t="shared" si="6"/>
+        <v>2.2190000000000003</v>
+      </c>
+      <c r="AS17" s="12">
+        <f t="shared" si="6"/>
+        <v>1.2095689655172415</v>
+      </c>
+      <c r="AT17" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1109499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AF18" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG18" s="78"/>
+      <c r="M18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="84"/>
+      <c r="AK18" s="84"/>
+      <c r="AL18" s="84"/>
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
+      <c r="AS18" s="84"/>
     </row>
-    <row r="19" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
@@ -5029,78 +5013,78 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O19" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="O19" s="1">
+        <v>27</v>
+      </c>
       <c r="P19" s="1">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="Q19" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="R19" s="49">
+        <v>0</v>
+      </c>
+      <c r="S19" s="79">
+        <v>37.04</v>
+      </c>
+      <c r="T19" s="1">
+        <v>60</v>
+      </c>
+      <c r="U19" s="79">
+        <v>0.22</v>
+      </c>
+      <c r="V19" s="79">
+        <v>0</v>
+      </c>
+      <c r="W19" s="79">
         <v>0.15</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="1">
-        <v>0.54</v>
-      </c>
       <c r="X19" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="Z19" s="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y19" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
       <c r="AA19" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+        <v>2.44</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AC19" s="79">
+        <v>1.33</v>
+      </c>
       <c r="AD19" s="1">
-        <v>82.3</v>
-      </c>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1">
-        <v>1.32</v>
-      </c>
-      <c r="AG19" s="73">
-        <f>(((P19-Q19+1.2*Q19)/2)+(T19/3)+0.25*((U19/4)+V19)-(W19-0.1*X19+0.5*Y19)+(AD19/250)+(AA19/50))+1</f>
-        <v>1.2761666666666667</v>
-      </c>
-      <c r="AH19" s="66">
-        <f>(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/20))+1</f>
-        <v>1.2901166666666666</v>
-      </c>
-      <c r="AI19" s="62">
-        <f>(((P19-Q19+1.25*Q19+T19)/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
-        <v>1.4104722222222219</v>
-      </c>
-      <c r="AJ19" s="23">
-        <f>((P19/2)+(1-(W19-0.25*X19+0.5*Y19))+(AD19/200)+(AA19/18))</f>
-        <v>1.291722222222222</v>
-      </c>
-      <c r="AK19" s="20">
-        <f>(((P19/2)+(1-W19)+(AD19/200)+(AA19/9)))/1.06</f>
-        <v>1.2131551362683437</v>
-      </c>
-      <c r="AL19" s="18">
-        <f>((P19/2)+(1-W19)+(AD19/200)+(AA19/9))</f>
-        <v>1.2859444444444443</v>
-      </c>
-      <c r="AM19" s="15">
-        <f>((P19/2)+(1-W19)+(AD19/200))</f>
-        <v>1.2814999999999999</v>
-      </c>
-      <c r="AN19" s="68">
-        <f>(((P19-Q19+1.25*Q19)/2)+(T19/3)-(W19-0.2*X19+0.5*Y19)+(AD19/250)+(AA19/18))*10</f>
-        <v>2.9033888888888888</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AE19" s="79">
+        <v>89.78</v>
+      </c>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="73">
+        <f>(((P19+0.25*Q19)/2)+(U19/3)+0.25*((V19/4)+W19)-(X19+0.25*R19-0.15*Y19+0.5*Z19)+(AE19/225)+(AB19/16))+1</f>
+        <v>1.3661055555555555</v>
+      </c>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="84"/>
+      <c r="AQ19" s="84"/>
+      <c r="AR19" s="84"/>
+      <c r="AS19" s="84"/>
     </row>
-    <row r="20" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
@@ -5117,212 +5101,241 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="O20" s="1">
+        <v>27</v>
+      </c>
       <c r="P20" s="1">
-        <v>0.81</v>
+        <v>0.67</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="R20" s="49">
+        <v>0</v>
+      </c>
+      <c r="S20" s="79">
+        <v>62.96</v>
+      </c>
       <c r="T20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1">
-        <v>0.56000000000000005</v>
+        <v>52.94</v>
+      </c>
+      <c r="U20" s="79">
+        <v>0.26</v>
+      </c>
+      <c r="V20" s="79">
+        <v>0.15</v>
+      </c>
+      <c r="W20" s="79">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="X20" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="Z20" s="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="Y20" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
       <c r="AA20" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="AC20" s="79">
+        <v>1.38</v>
+      </c>
       <c r="AD20" s="1">
-        <v>81.5</v>
-      </c>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="AG20" s="73">
-        <f t="shared" ref="AG20:AG36" si="1">(((P20-Q20+1.2*Q20)/2)+(T20/3)+0.25*((U20/4)+V20)-(W20-0.1*X20+0.5*Y20)+(AD20/250)+(AA20/50))+1</f>
-        <v>1.2421666666666666</v>
-      </c>
-      <c r="AH20" s="66">
-        <f>(((P20-Q20+1.25*Q20)/2)+(T20/3)-(W20-0.2*X20+0.5*Y20)+(AD20/250)+(AA20/20))+1</f>
-        <v>1.2591666666666668</v>
-      </c>
-      <c r="AI20" s="62">
-        <f>(((P20-Q20+1.25*Q20+T20)/2)+(1-(W20-0.25*X20+0.5*Y20))+(AD20/200)+(AA20/18))</f>
-        <v>1.3802777777777777</v>
-      </c>
-      <c r="AJ20" s="23">
-        <f>((P20/2)+(1-(W20-0.25*X20+0.5*Y20))+(AD20/200)+(AA20/18))</f>
-        <v>1.2627777777777778</v>
-      </c>
-      <c r="AK20" s="20">
-        <f>(((P20/2)+(1-W20)+(AD20/200)+(AA20/9)))/1.06</f>
-        <v>1.186844863731656</v>
-      </c>
-      <c r="AL20" s="18">
-        <f>((P20/2)+(1-W20)+(AD20/200)+(AA20/9))</f>
-        <v>1.2580555555555555</v>
-      </c>
-      <c r="AM20" s="15">
-        <f>((P20/2)+(1-W20)+(AD20/200))</f>
-        <v>1.2524999999999999</v>
-      </c>
-      <c r="AN20" s="68">
-        <f>(((P20-Q20+1.25*Q20)/2)+(T20/3)-(W20-0.2*X20+0.5*Y20)+(AD20/250)+(AA20/18))*10</f>
-        <v>2.594444444444445</v>
-      </c>
+        <v>55.56</v>
+      </c>
+      <c r="AE20" s="79">
+        <v>79.930000000000007</v>
+      </c>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="73">
+        <f t="shared" ref="AH20:AH30" si="7">(((P20+0.25*Q20)/2)+(U20/3)+0.25*((V20/4)+W20)-(X20+0.25*R20-0.15*Y20+0.5*Z20)+(AE20/225)+(AB20/16))+1</f>
+        <v>1.3975361111111111</v>
+      </c>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="84"/>
+      <c r="AS20" s="84"/>
     </row>
-    <row r="21" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>48</v>
       </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
       <c r="N21" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21">
-        <v>0.81</v>
-      </c>
-      <c r="Q21">
-        <v>0.09</v>
-      </c>
-      <c r="T21">
-        <v>0.21</v>
-      </c>
-      <c r="W21">
-        <v>0.69</v>
-      </c>
-      <c r="X21">
+        <v>94</v>
+      </c>
+      <c r="O21" s="1">
+        <v>27</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="R21" s="49">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>44.44</v>
+      </c>
+      <c r="T21" s="1">
+        <v>75</v>
+      </c>
+      <c r="U21" s="79">
         <v>0.15</v>
       </c>
+      <c r="V21" s="79">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.7</v>
+      </c>
       <c r="Y21" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AA21">
-        <v>0.05</v>
-      </c>
-      <c r="AD21">
-        <v>91.1</v>
-      </c>
-      <c r="AF21">
-        <v>1.2</v>
-      </c>
-      <c r="AG21" s="73">
-        <f t="shared" si="1"/>
-        <v>1.1569000000000003</v>
-      </c>
-      <c r="AH21" s="66">
-        <f>(((P21-Q21+1.25*Q21)/2)+(T21/3)-(W21-0.2*X21+0.5*Y21)+(AD21/250)+(AA21/20))+1</f>
-        <v>1.1756500000000001</v>
-      </c>
-      <c r="AI21" s="62">
-        <f>(((P21-Q21+1.25*Q21+T21)/2)+(1-(W21-0.25*X21+0.5*Y21))+(AD21/200)+(AA21/18))</f>
-        <v>1.3095277777777778</v>
-      </c>
-      <c r="AJ21" s="23">
-        <f>((P21/2)+(1-(W21-0.25*X21+0.5*Y21))+(AD21/200)+(AA21/18))</f>
-        <v>1.1932777777777779</v>
-      </c>
-      <c r="AK21" s="20">
-        <f>(((P21/2)+(1-W21)+(AD21/200)+(AA21/9)))/1.06</f>
-        <v>1.1094863731656184</v>
-      </c>
-      <c r="AL21" s="18">
-        <f>((P21/2)+(1-W21)+(AD21/200)+(AA21/9))</f>
-        <v>1.1760555555555556</v>
-      </c>
-      <c r="AM21" s="15">
-        <f>((P21/2)+(1-W21)+(AD21/200))</f>
-        <v>1.1705000000000001</v>
-      </c>
-      <c r="AN21" s="68">
-        <f>(((P21-Q21+1.25*Q21)/2)+(T21/3)-(W21-0.2*X21+0.5*Y21)+(AD21/250)+(AA21/18))*10</f>
-        <v>1.7592777777777791</v>
-      </c>
+        <v>0.04</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AC21" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>55.56</v>
+      </c>
+      <c r="AE21" s="79">
+        <v>75</v>
+      </c>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="73">
+        <f t="shared" si="7"/>
+        <v>1.0887083333333334</v>
+      </c>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="84"/>
+      <c r="AS21" s="84"/>
     </row>
-    <row r="22" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="N22" t="s">
-        <v>70</v>
-      </c>
-      <c r="P22">
-        <v>0.69</v>
+      <c r="N22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O22" s="79">
+        <v>27</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.37</v>
       </c>
       <c r="Q22">
-        <v>0.1</v>
-      </c>
-      <c r="T22">
-        <v>0.17</v>
+        <v>0.15</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>55.56</v>
+      </c>
+      <c r="T22" s="1">
+        <v>26.67</v>
+      </c>
+      <c r="U22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V22" s="79">
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.63</v>
-      </c>
-      <c r="X22">
-        <v>0.11</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="AA22">
-        <v>0.03</v>
-      </c>
-      <c r="AD22">
-        <v>76.2</v>
-      </c>
-      <c r="AF22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AG22" s="73">
-        <f t="shared" si="1"/>
-        <v>1.0740666666666667</v>
-      </c>
-      <c r="AH22" s="66">
-        <f>(((P22-Q22+1.25*Q22)/2)+(T22/3)-(W22-0.2*X22+0.5*Y22)+(AD22/250)+(AA22/20))+1</f>
-        <v>1.0884666666666667</v>
-      </c>
-      <c r="AI22" s="62">
-        <f>(((P22-Q22+1.25*Q22+T22)/2)+(1-(W22-0.25*X22+0.5*Y22))+(AD22/200)+(AA22/18))</f>
-        <v>1.1986666666666668</v>
-      </c>
-      <c r="AJ22" s="23">
-        <f>((P22/2)+(1-(W22-0.25*X22+0.5*Y22))+(AD22/200)+(AA22/18))</f>
-        <v>1.1011666666666666</v>
-      </c>
-      <c r="AK22" s="20">
-        <f>(((P22/2)+(1-W22)+(AD22/200)+(AA22/9)))/1.06</f>
-        <v>1.0371069182389938</v>
-      </c>
-      <c r="AL22" s="18">
-        <f>((P22/2)+(1-W22)+(AD22/200)+(AA22/9))</f>
-        <v>1.0993333333333335</v>
-      </c>
-      <c r="AM22" s="15">
-        <f>((P22/2)+(1-W22)+(AD22/200))</f>
-        <v>1.0960000000000001</v>
-      </c>
-      <c r="AN22" s="68">
-        <f>(((P22-Q22+1.25*Q22)/2)+(T22/3)-(W22-0.2*X22+0.5*Y22)+(AD22/250)+(AA22/18))*10</f>
-        <v>0.88633333333333353</v>
-      </c>
+        <v>0.04</v>
+      </c>
+      <c r="X22" s="79">
+        <v>0.7</v>
+      </c>
+      <c r="Y22" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="79">
+        <v>1.74</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AC22" s="79">
+        <v>0.53</v>
+      </c>
+      <c r="AD22" s="79">
+        <v>40</v>
+      </c>
+      <c r="AE22">
+        <v>57.41</v>
+      </c>
+      <c r="AG22" s="84"/>
+      <c r="AH22" s="73">
+        <f t="shared" si="7"/>
+        <v>0.80161388888888885</v>
+      </c>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="84"/>
+      <c r="AQ22" s="84"/>
+      <c r="AR22" s="84"/>
+      <c r="AS22" s="84"/>
     </row>
-    <row r="23" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>56</v>
       </c>
@@ -5338,81 +5351,42 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1">
-        <v>63.9</v>
-      </c>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="AG23" s="73">
-        <f t="shared" si="1"/>
-        <v>0.93753333333333333</v>
-      </c>
-      <c r="AH23" s="66">
-        <f>(((P23-Q23+1.25*Q23)/2)+(T23/3)-(W23-0.2*X23+0.5*Y23)+(AD23/250)+(AA23/20))+1</f>
-        <v>0.95468333333333333</v>
-      </c>
-      <c r="AI23" s="62">
-        <f>(((P23-Q23+1.25*Q23+T23)/2)+(1-(W23-0.25*X23+0.5*Y23))+(AD23/200)+(AA23/18))</f>
-        <v>1.0474166666666667</v>
-      </c>
-      <c r="AJ23" s="23">
-        <f>((P23/2)+(1-(W23-0.25*X23+0.5*Y23))+(AD23/200)+(AA23/18))</f>
-        <v>0.97116666666666662</v>
-      </c>
-      <c r="AK23" s="20">
-        <f>(((P23/2)+(1-W23)+(AD23/200)+(AA23/9)))/1.06</f>
-        <v>0.91776729559748416</v>
-      </c>
-      <c r="AL23" s="18">
-        <f>((P23/2)+(1-W23)+(AD23/200)+(AA23/9))</f>
-        <v>0.97283333333333322</v>
-      </c>
-      <c r="AM23" s="15">
-        <f>((P23/2)+(1-W23)+(AD23/200))</f>
-        <v>0.96949999999999992</v>
-      </c>
-      <c r="AN23" s="68">
-        <f>(((P23-Q23+1.25*Q23)/2)+(T23/3)-(W23-0.2*X23+0.5*Y23)+(AD23/250)+(AA23/18))*10</f>
-        <v>-0.45150000000000012</v>
-      </c>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="81"/>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="84"/>
+      <c r="AS23" s="84"/>
     </row>
-    <row r="24" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5426,83 +5400,42 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P24" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>1</v>
-      </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1">
-        <v>1</v>
-      </c>
-      <c r="U24" s="1">
-        <v>1</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1">
-        <v>200</v>
-      </c>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="73">
-        <f t="shared" si="1"/>
-        <v>3.2958333333333334</v>
-      </c>
-      <c r="AH24" s="66">
-        <f>(((P24-Q24+1.25*Q24)/2)+(T24/3)-(W24-0.2*X24+0.5*Y24)+(AD24/250)+(AA24/20))+1</f>
-        <v>3.2583333333333333</v>
-      </c>
-      <c r="AI24" s="62">
-        <f>(((P24-Q24+1.25*Q24+T24)/2)+(1-(W24-0.25*X24+0.5*Y24))+(AD24/200)+(AA24/18))</f>
-        <v>3.625</v>
-      </c>
-      <c r="AJ24" s="23">
-        <f>((P24/2)+(1-(W24-0.25*X24+0.5*Y24))+(AD24/200)+(AA24/18))</f>
-        <v>3</v>
-      </c>
-      <c r="AK24" s="20">
-        <f>(((P24/2)+(1-W24)+(AD24/200)+(AA24/9)))/1.06</f>
-        <v>2.8301886792452828</v>
-      </c>
-      <c r="AL24" s="18">
-        <f>((P24/2)+(1-W24)+(AD24/200)+(AA24/9))</f>
-        <v>3</v>
-      </c>
-      <c r="AM24" s="15">
-        <f>((P24/2)+(1-W24)+(AD24/200))</f>
-        <v>3</v>
-      </c>
-      <c r="AN24" s="68">
-        <f>(((P24-Q24+1.25*Q24)/2)+(T24/3)-(W24-0.2*X24+0.5*Y24)+(AD24/250)+(AA24/18))*10</f>
-        <v>22.583333333333332</v>
-      </c>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="79"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="85"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="84"/>
+      <c r="AQ24" s="84"/>
+      <c r="AR24" s="84"/>
+      <c r="AS24" s="84"/>
     </row>
-    <row r="25" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5516,83 +5449,42 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1">
-        <v>1</v>
-      </c>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="66">
-        <f>(((P25-Q25+1.25*Q25)/2)+(T25/3)-(W25-0.2*X25+0.5*Y25)+(AD25/250)+(AA25/20))+1</f>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="62">
-        <f>(((P25-Q25+1.25*Q25+T25)/2)+(1-(W25-0.25*X25+0.5*Y25))+(AD25/200)+(AA25/18))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="23">
-        <f>((P25/2)+(1-(W25-0.25*X25+0.5*Y25))+(AD25/200)+(AA25/18))</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="20">
-        <f>(((P25/2)+(1-W25)+(AD25/200)+(AA25/9)))/1.06</f>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="18">
-        <f>((P25/2)+(1-W25)+(AD25/200)+(AA25/9))</f>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="15">
-        <f>((P25/2)+(1-W25)+(AD25/200))</f>
-        <v>0</v>
-      </c>
-      <c r="AN25" s="68">
-        <f>(((P25-Q25+1.25*Q25)/2)+(T25/3)-(W25-0.2*X25+0.5*Y25)+(AD25/250)+(AA25/18))*10</f>
-        <v>-10</v>
-      </c>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="81"/>
+      <c r="AH25" s="85"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="84"/>
+      <c r="AQ25" s="84"/>
+      <c r="AR25" s="84"/>
+      <c r="AS25" s="84"/>
     </row>
-    <row r="26" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5606,77 +5498,42 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>1</v>
-      </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1">
-        <v>1</v>
-      </c>
-      <c r="X26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="73">
-        <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AH26" s="66">
-        <f>(((P26-Q26+1.25*Q26)/2)+(T26/3)-(W26-0.2*X26+0.5*Y26)+(AD26/250)+(AA26/20))+1</f>
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="AI26" s="62">
-        <f>(((P26-Q26+1.25*Q26+T26)/2)+(1-(W26-0.25*X26+0.5*Y26))+(AD26/200)+(AA26/18))</f>
-        <v>1.375</v>
-      </c>
-      <c r="AJ26" s="23">
-        <f>((P26/2)+(1-(W26-0.25*X26+0.5*Y26))+(AD26/200)+(AA26/18))</f>
-        <v>1.25</v>
-      </c>
-      <c r="AK26" s="20">
-        <f>(((P26/2)+(1-W26)+(AD26/200)+(AA26/9)))/1.06</f>
-        <v>0.94339622641509424</v>
-      </c>
-      <c r="AL26" s="18">
-        <f>((P26/2)+(1-W26)+(AD26/200)+(AA26/9))</f>
-        <v>1</v>
-      </c>
-      <c r="AM26" s="15">
-        <f>((P26/2)+(1-W26)+(AD26/200))</f>
-        <v>1</v>
-      </c>
-      <c r="AN26" s="68">
-        <f>(((P26-Q26+1.25*Q26)/2)+(T26/3)-(W26-0.2*X26+0.5*Y26)+(AD26/250)+(AA26/18))*10</f>
-        <v>2.25</v>
-      </c>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="81"/>
+      <c r="AH26" s="85"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="84"/>
+      <c r="AQ26" s="84"/>
+      <c r="AR26" s="84"/>
+      <c r="AS26" s="84"/>
     </row>
-    <row r="27" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5690,77 +5547,42 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1">
-        <v>1</v>
-      </c>
-      <c r="X27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1">
-        <v>99</v>
-      </c>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="73">
-        <f t="shared" si="1"/>
-        <v>0.496</v>
-      </c>
-      <c r="AH27" s="66">
-        <f>(((P27-Q27+1.25*Q27)/2)+(T27/3)-(W27-0.2*X27+0.5*Y27)+(AD27/250)+(AA27/20))+1</f>
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="AI27" s="62">
-        <f>(((P27-Q27+1.25*Q27+T27)/2)+(1-(W27-0.25*X27+0.5*Y27))+(AD27/200)+(AA27/18))</f>
-        <v>0.745</v>
-      </c>
-      <c r="AJ27" s="23">
-        <f>((P27/2)+(1-(W27-0.25*X27+0.5*Y27))+(AD27/200)+(AA27/18))</f>
-        <v>0.745</v>
-      </c>
-      <c r="AK27" s="20">
-        <f>(((P27/2)+(1-W27)+(AD27/200)+(AA27/9)))/1.06</f>
-        <v>0.46698113207547165</v>
-      </c>
-      <c r="AL27" s="18">
-        <f>((P27/2)+(1-W27)+(AD27/200)+(AA27/9))</f>
-        <v>0.495</v>
-      </c>
-      <c r="AM27" s="15">
-        <f>((P27/2)+(1-W27)+(AD27/200))</f>
-        <v>0.495</v>
-      </c>
-      <c r="AN27" s="68">
-        <f>(((P27-Q27+1.25*Q27)/2)+(T27/3)-(W27-0.2*X27+0.5*Y27)+(AD27/250)+(AA27/18))*10</f>
-        <v>-4.04</v>
-      </c>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="81"/>
+      <c r="AG27" s="81"/>
+      <c r="AH27" s="85"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="84"/>
+      <c r="AQ27" s="84"/>
+      <c r="AR27" s="84"/>
+      <c r="AS27" s="84"/>
     </row>
-    <row r="28" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5774,135 +5596,89 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>1</v>
-      </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1">
-        <v>1</v>
-      </c>
-      <c r="X28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1">
-        <v>150</v>
-      </c>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="73">
-        <f t="shared" si="1"/>
-        <v>1.2999999999999998</v>
-      </c>
-      <c r="AH28" s="66">
-        <f>(((P28-Q28+1.25*Q28)/2)+(T28/3)-(W28-0.2*X28+0.5*Y28)+(AD28/250)+(AA28/20))+1</f>
-        <v>1.4249999999999998</v>
-      </c>
-      <c r="AI28" s="62">
-        <f>(((P28-Q28+1.25*Q28+T28)/2)+(1-(W28-0.25*X28+0.5*Y28))+(AD28/200)+(AA28/18))</f>
-        <v>1.625</v>
-      </c>
-      <c r="AJ28" s="23">
-        <f>((P28/2)+(1-(W28-0.25*X28+0.5*Y28))+(AD28/200)+(AA28/18))</f>
-        <v>1.5</v>
-      </c>
-      <c r="AK28" s="20">
-        <f>(((P28/2)+(1-W28)+(AD28/200)+(AA28/9)))/1.06</f>
-        <v>1.1792452830188678</v>
-      </c>
-      <c r="AL28" s="18">
-        <f>((P28/2)+(1-W28)+(AD28/200)+(AA28/9))</f>
-        <v>1.25</v>
-      </c>
-      <c r="AM28" s="15">
-        <f>((P28/2)+(1-W28)+(AD28/200))</f>
-        <v>1.25</v>
-      </c>
-      <c r="AN28" s="68">
-        <f>(((P28-Q28+1.25*Q28)/2)+(T28/3)-(W28-0.2*X28+0.5*Y28)+(AD28/250)+(AA28/18))*10</f>
-        <v>4.2499999999999991</v>
-      </c>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="85"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="84"/>
+      <c r="AQ28" s="84"/>
+      <c r="AR28" s="84"/>
+      <c r="AS28" s="84"/>
     </row>
-    <row r="29" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>100</v>
-      </c>
-      <c r="AG29" s="73">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="AH29" s="66">
-        <f>(((P29-Q29+1.25*Q29)/2)+(T29/3)-(W29-0.2*X29+0.5*Y29)+(AD29/250)+(AA29/20))+1</f>
-        <v>0.9</v>
-      </c>
-      <c r="AI29" s="62">
-        <f>(((P29-Q29+1.25*Q29+T29)/2)+(1-(W29-0.25*X29+0.5*Y29))+(AD29/200)+(AA29/18))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="23">
-        <f>((P29/2)+(1-(W29-0.25*X29+0.5*Y29))+(AD29/200)+(AA29/18))</f>
-        <v>1</v>
-      </c>
-      <c r="AK29" s="20">
-        <f>(((P29/2)+(1-W29)+(AD29/200)+(AA29/9)))/1.06</f>
-        <v>0.94339622641509424</v>
-      </c>
-      <c r="AL29" s="18">
-        <f>((P29/2)+(1-W29)+(AD29/200)+(AA29/9))</f>
-        <v>1</v>
-      </c>
-      <c r="AM29" s="15">
-        <f>((P29/2)+(1-W29)+(AD29/200))</f>
-        <v>1</v>
-      </c>
-      <c r="AN29" s="68">
-        <f>(((P29-Q29+1.25*Q29)/2)+(T29/3)-(W29-0.2*X29+0.5*Y29)+(AD29/250)+(AA29/18))*10</f>
-        <v>-0.99999999999999978</v>
-      </c>
+    <row r="29" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="81"/>
+      <c r="AG29" s="81"/>
+      <c r="AH29" s="85"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="84"/>
+      <c r="AQ29" s="84"/>
+      <c r="AR29" s="84"/>
+      <c r="AS29" s="84"/>
     </row>
-    <row r="30" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+    <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -5916,78 +5692,41 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1">
-        <v>1</v>
-      </c>
-      <c r="U30" s="1">
-        <v>0</v>
-      </c>
-      <c r="V30" s="1">
-        <v>1</v>
-      </c>
-      <c r="W30" s="1">
-        <v>0</v>
-      </c>
-      <c r="X30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1">
-        <v>200</v>
-      </c>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="73">
-        <f t="shared" si="1"/>
-        <v>3.3833333333333333</v>
-      </c>
-      <c r="AH30" s="66">
-        <f>(((P30-Q30+1.25*Q30)/2)+(T30/3)-(W30-0.2*X30+0.5*Y30)+(AD30/250)+(AA30/20))+1</f>
-        <v>3.1333333333333333</v>
-      </c>
-      <c r="AI30" s="62">
-        <f>(((P30-Q30+1.25*Q30+T30)/2)+(1-(W30-0.25*X30+0.5*Y30))+(AD30/200)+(AA30/18))</f>
-        <v>3.5</v>
-      </c>
-      <c r="AJ30" s="23">
-        <f>((P30/2)+(1-(W30-0.25*X30+0.5*Y30))+(AD30/200)+(AA30/18))</f>
-        <v>3</v>
-      </c>
-      <c r="AK30" s="20">
-        <f>(((P30/2)+(1-W30)+(AD30/200)+(AA30/9)))/1.06</f>
-        <v>2.8301886792452828</v>
-      </c>
-      <c r="AL30" s="18">
-        <f>((P30/2)+(1-W30)+(AD30/200)+(AA30/9))</f>
-        <v>3</v>
-      </c>
-      <c r="AM30" s="15">
-        <f>((P30/2)+(1-W30)+(AD30/200))</f>
-        <v>3</v>
-      </c>
-      <c r="AN30" s="68">
-        <f>(((P30-Q30+1.25*Q30)/2)+(T30/3)-(W30-0.2*X30+0.5*Y30)+(AD30/250)+(AA30/18))*10</f>
-        <v>21.333333333333332</v>
-      </c>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="85"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="84"/>
+      <c r="AQ30" s="84"/>
+      <c r="AR30" s="84"/>
+      <c r="AS30" s="84"/>
     </row>
-    <row r="31" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -6002,481 +5741,88 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>1</v>
-      </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1">
-        <v>1</v>
-      </c>
-      <c r="U31" s="1">
-        <v>0</v>
-      </c>
-      <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="1">
-        <v>0</v>
-      </c>
-      <c r="X31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1">
-        <v>200</v>
-      </c>
-      <c r="AE31" s="1"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="73">
-        <f t="shared" si="1"/>
-        <v>3.2333333333333334</v>
-      </c>
-      <c r="AH31" s="66">
-        <f>(((P31-Q31+1.25*Q31)/2)+(T31/3)-(W31-0.2*X31+0.5*Y31)+(AD31/250)+(AA31/20))+1</f>
-        <v>3.2583333333333333</v>
-      </c>
-      <c r="AI31" s="62">
-        <f>(((P31-Q31+1.25*Q31+T31)/2)+(1-(W31-0.25*X31+0.5*Y31))+(AD31/200)+(AA31/18))</f>
-        <v>3.625</v>
-      </c>
-      <c r="AJ31" s="23">
-        <f>((P31/2)+(1-(W31-0.25*X31+0.5*Y31))+(AD31/200)+(AA31/18))</f>
-        <v>3</v>
-      </c>
-      <c r="AK31" s="20">
-        <f>(((P31/2)+(1-W31)+(AD31/200)+(AA31/9)))/1.06</f>
-        <v>2.8301886792452828</v>
-      </c>
-      <c r="AL31" s="18">
-        <f>((P31/2)+(1-W31)+(AD31/200)+(AA31/9))</f>
-        <v>3</v>
-      </c>
-      <c r="AM31" s="15">
-        <f>((P31/2)+(1-W31)+(AD31/200))</f>
-        <v>3</v>
-      </c>
-      <c r="AN31" s="68">
-        <f>(((P31-Q31+1.25*Q31)/2)+(T31/3)-(W31-0.2*X31+0.5*Y31)+(AD31/250)+(AA31/18))*10</f>
-        <v>22.583333333333332</v>
-      </c>
+      <c r="AG31" s="81"/>
+      <c r="AH31" s="85"/>
+      <c r="AI31" s="84"/>
+      <c r="AJ31" s="84"/>
+      <c r="AK31" s="84"/>
+      <c r="AL31" s="84"/>
+      <c r="AM31" s="84"/>
+      <c r="AN31" s="84"/>
+      <c r="AO31" s="84"/>
+      <c r="AP31" s="84"/>
+      <c r="AQ31" s="84"/>
+      <c r="AR31" s="84"/>
+      <c r="AS31" s="84"/>
     </row>
-    <row r="32" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>100</v>
-      </c>
-      <c r="AG32" s="73">
-        <f t="shared" si="1"/>
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="AH32" s="66">
-        <f>(((P32-Q32+1.25*Q32)/2)+(T32/3)-(W32-0.2*X32+0.5*Y32)+(AD32/250)+(AA32/20))+1</f>
-        <v>0.9</v>
-      </c>
-      <c r="AI32" s="62">
-        <f>(((P32-Q32+1.25*Q32+T32)/2)+(1-(W32-0.25*X32+0.5*Y32))+(AD32/200)+(AA32/18))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="23">
-        <f>((P32/2)+(1-(W32-0.25*X32+0.5*Y32))+(AD32/200)+(AA32/18))</f>
-        <v>1</v>
-      </c>
-      <c r="AK32" s="20">
-        <f>(((P32/2)+(1-W32)+(AD32/200)+(AA32/9)))/1.06</f>
-        <v>0.94339622641509424</v>
-      </c>
-      <c r="AL32" s="18">
-        <f>((P32/2)+(1-W32)+(AD32/200)+(AA32/9))</f>
-        <v>1</v>
-      </c>
-      <c r="AM32" s="15">
-        <f>((P32/2)+(1-W32)+(AD32/200))</f>
-        <v>1</v>
-      </c>
-      <c r="AN32" s="68">
-        <f>(((P32-Q32+1.25*Q32)/2)+(T32/3)-(W32-0.2*X32+0.5*Y32)+(AD32/250)+(AA32/18))*10</f>
-        <v>-0.99999999999999978</v>
-      </c>
+    <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1">
-        <v>0</v>
-      </c>
-      <c r="U33" s="1">
-        <v>1</v>
-      </c>
-      <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="1">
-        <v>0</v>
-      </c>
-      <c r="X33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="73">
-        <f t="shared" si="1"/>
-        <v>1.9624999999999999</v>
-      </c>
-      <c r="AH33" s="66">
-        <f>(((P33-Q33+1.25*Q33)/2)+(T33/3)-(W33-0.2*X33+0.5*Y33)+(AD33/250)+(AA33/20))+1</f>
-        <v>1.9</v>
-      </c>
-      <c r="AI33" s="62">
-        <f>(((P33-Q33+1.25*Q33+T33)/2)+(1-(W33-0.25*X33+0.5*Y33))+(AD33/200)+(AA33/18))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ33" s="23">
-        <f>((P33/2)+(1-(W33-0.25*X33+0.5*Y33))+(AD33/200)+(AA33/18))</f>
-        <v>2</v>
-      </c>
-      <c r="AK33" s="20">
-        <f>(((P33/2)+(1-W33)+(AD33/200)+(AA33/9)))/1.06</f>
-        <v>1.8867924528301885</v>
-      </c>
-      <c r="AL33" s="18">
-        <f>((P33/2)+(1-W33)+(AD33/200)+(AA33/9))</f>
-        <v>2</v>
-      </c>
-      <c r="AM33" s="15">
-        <f>((P33/2)+(1-W33)+(AD33/200))</f>
-        <v>2</v>
-      </c>
-      <c r="AN33" s="68">
-        <f>(((P33-Q33+1.25*Q33)/2)+(T33/3)-(W33-0.2*X33+0.5*Y33)+(AD33/250)+(AA33/18))*10</f>
-        <v>9</v>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>100</v>
-      </c>
-      <c r="AG34" s="73">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH34" s="66">
-        <f>(((P34-Q34+1.25*Q34)/2)+(T34/3)-(W34-0.2*X34+0.5*Y34)+(AD34/250)+(AA34/20))+1</f>
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="AI34" s="62">
-        <f>(((P34-Q34+1.25*Q34+T34)/2)+(1-(W34-0.25*X34+0.5*Y34))+(AD34/200)+(AA34/18))</f>
-        <v>1.125</v>
-      </c>
-      <c r="AJ34" s="23">
-        <f>((P34/2)+(1-(W34-0.25*X34+0.5*Y34))+(AD34/200)+(AA34/18))</f>
-        <v>1</v>
-      </c>
-      <c r="AK34" s="20">
-        <f>(((P34/2)+(1-W34)+(AD34/200)+(AA34/9)))/1.06</f>
-        <v>0.94339622641509424</v>
-      </c>
-      <c r="AL34" s="18">
-        <f>((P34/2)+(1-W34)+(AD34/200)+(AA34/9))</f>
-        <v>1</v>
-      </c>
-      <c r="AM34" s="15">
-        <f>((P34/2)+(1-W34)+(AD34/200))</f>
-        <v>1</v>
-      </c>
-      <c r="AN34" s="68">
-        <f>(((P34-Q34+1.25*Q34)/2)+(T34/3)-(W34-0.2*X34+0.5*Y34)+(AD34/250)+(AA34/18))*10</f>
-        <v>0.25000000000000022</v>
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="74">
-        <v>0.59071428571428564</v>
-      </c>
-      <c r="Q35" s="74">
-        <v>0.20548933087588797</v>
-      </c>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74">
-        <v>0.13</v>
-      </c>
-      <c r="U35" s="74">
-        <v>0.06</v>
-      </c>
-      <c r="V35" s="74">
-        <v>0.05</v>
-      </c>
-      <c r="W35" s="74">
-        <v>0.63642857142857134</v>
-      </c>
-      <c r="X35" s="74">
-        <v>3.3571428571428578E-2</v>
-      </c>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74">
-        <v>0.18571428571428572</v>
-      </c>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="74">
-        <v>69.528571428571439</v>
-      </c>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="73">
-        <f t="shared" si="1"/>
-        <v>1.024246552135208</v>
-      </c>
-      <c r="AH35" s="66">
-        <f>(((P35-Q35+1.25*Q35)/2)+(T35/3)-(W35-0.2*X35+0.5*Y35)+(AD35/250)+(AA35/20))+1</f>
-        <v>1.0220623568356766</v>
-      </c>
-      <c r="AI35" s="62">
-        <f>(((P35-Q35+1.25*Q35+T35)/2)+(1-(W35-0.25*X35+0.5*Y35))+(AD35/200)+(AA35/18))</f>
-        <v>1.1159679123912321</v>
-      </c>
-      <c r="AJ35" s="23">
-        <f>((P35/2)+(1-(W35-0.25*X35+0.5*Y35))+(AD35/200)+(AA35/18))</f>
-        <v>1.025281746031746</v>
-      </c>
-      <c r="AK35" s="20">
-        <f>(((P35/2)+(1-W35)+(AD35/200)+(AA35/9)))/1.06</f>
-        <v>0.96906259359089542</v>
-      </c>
-      <c r="AL35" s="18">
-        <f>((P35/2)+(1-W35)+(AD35/200)+(AA35/9))</f>
-        <v>1.0272063492063492</v>
-      </c>
-      <c r="AM35" s="15">
-        <f>((P35/2)+(1-W35)+(AD35/200))</f>
-        <v>1.0065714285714287</v>
-      </c>
-      <c r="AN35" s="68">
-        <f>(((P35-Q35+1.25*Q35)/2)+(T35/3)-(W35-0.2*X35+0.5*Y35)+(AD35/250)+(AA35/18))*10</f>
-        <v>0.23094102867422561</v>
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="74">
-        <v>0.52</v>
-      </c>
-      <c r="Q36" s="74">
-        <v>0.13871912401324166</v>
-      </c>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="74">
-        <v>0.13534504710975298</v>
-      </c>
-      <c r="U36" s="74">
-        <v>4.8764960529666411E-2</v>
-      </c>
-      <c r="V36" s="74">
-        <v>5.2966641201935317E-2</v>
-      </c>
-      <c r="W36" s="74">
-        <v>0.71</v>
-      </c>
-      <c r="X36" s="74">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74">
-        <v>0.105</v>
-      </c>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="74"/>
-      <c r="AD36" s="74">
-        <v>61.884999999999998</v>
-      </c>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="73">
-        <f t="shared" si="1"/>
-        <v>0.8774163984381631</v>
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>55</v>
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="69" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
-        <v>62</v>
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="69" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21" t="s">
-        <v>60</v>
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="76" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS44">
-    <sortCondition sortBy="cellColor" ref="AE12:AE44" dxfId="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT39">
+    <sortCondition sortBy="cellColor" ref="AF12:AF39" dxfId="0"/>
   </sortState>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/StatsTest.xlsx
+++ b/StatsTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C6766F-A128-4C33-8081-1A26604B9ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FFD008-CD3D-4790-8426-32B35A4A06B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="3315" windowWidth="28800" windowHeight="15345" tabRatio="387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="19170" windowHeight="10080" tabRatio="387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>player</t>
   </si>
@@ -227,9 +227,6 @@
     <t>TD</t>
   </si>
   <si>
-    <t>TDPR</t>
-  </si>
-  <si>
     <t>SPR</t>
   </si>
   <si>
@@ -332,24 +329,31 @@
     <t>PadRating1.1</t>
   </si>
   <si>
-    <t>PadRating1.1=[0.5*(kpr+.25okpr)+(mkpr/3)+((.25*1v1PR+1v2PR)/4)-(dpr+.2odpr-.15tdpr+.5spr)+(adr/225)+(efr/16)]+1</t>
-  </si>
-  <si>
     <t>ethan</t>
   </si>
   <si>
     <t>FINALS</t>
+  </si>
+  <si>
+    <t>PadRating1.1=[(kpr/2)+(mkpr/4)+(1v2PR/5)-(dpr+.5spr)+(adr/215)+(efr/20)]+1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,100 +638,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -737,74 +741,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="15" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,7 +847,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -897,7 +900,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -950,7 +953,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1003,7 +1006,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1056,7 +1059,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1109,7 +1112,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1162,7 +1165,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1215,7 +1218,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1268,7 +1271,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1321,7 +1324,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1374,7 +1377,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1427,7 +1430,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1480,7 +1483,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1533,7 +1536,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1586,7 +1589,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1639,7 +1642,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1692,7 +1695,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1745,7 +1748,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1798,7 +1801,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1851,7 +1854,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1904,7 +1907,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2156,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT40"/>
+  <dimension ref="A1:AS40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2184,10 +2187,10 @@
     <col min="25" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="8.5703125" customWidth="1"/>
+    <col min="28" max="30" width="8.5703125" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10.28515625" customWidth="1"/>
-    <col min="33" max="33" width="8.5703125" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="39" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -2197,7 +2200,7 @@
     <col min="46" max="46" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2208,19 +2211,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="60" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>81</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>82</v>
       </c>
       <c r="I1" s="26" t="s">
         <v>3</v>
@@ -2247,25 +2250,25 @@
         <v>8</v>
       </c>
       <c r="Q1" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="59" t="s">
+      <c r="T1" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="61" t="s">
-        <v>72</v>
-      </c>
       <c r="U1" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V1" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="51" t="s">
         <v>83</v>
-      </c>
-      <c r="W1" s="51" t="s">
-        <v>84</v>
       </c>
       <c r="X1" s="28" t="s">
         <v>9</v>
@@ -2273,71 +2276,68 @@
       <c r="Y1" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="51" t="s">
-        <v>64</v>
+      <c r="Z1" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="AA1" s="28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB1" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC1" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE1" s="28" t="s">
         <v>14</v>
       </c>
+      <c r="AE1" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="AF1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI1" s="65" t="s">
+      <c r="AG1" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="AJ1" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO1" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AQ1" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="AR1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>21</v>
       </c>
@@ -2384,129 +2384,125 @@
         <v>162</v>
       </c>
       <c r="P2" s="30">
-        <f t="shared" ref="P2:R15" si="0">ROUND(IMDIV(B2,O2),2)</f>
+        <f t="shared" ref="P2:P15" si="0">ROUND(IMDIV(B2,O2),2)</f>
         <v>0.76</v>
       </c>
       <c r="Q2" s="52">
-        <f>(D2/O2)</f>
+        <f t="shared" ref="Q2:Q15" si="1">(D2/O2)</f>
         <v>0.29012345679012347</v>
       </c>
       <c r="R2" s="30">
-        <f>ROUND(IMDIV((E2-D2),O2),2)</f>
+        <f t="shared" ref="R2:R15" si="2">ROUND(IMDIV((E2-D2),O2),2)</f>
         <v>0.17</v>
       </c>
       <c r="S2" s="52">
-        <f>(E2/O2)*100</f>
+        <f t="shared" ref="S2:S15" si="3">(E2/O2)*100</f>
         <v>46.296296296296298</v>
       </c>
       <c r="T2" s="30">
-        <f>ROUND((D2/E2)*100,2)</f>
+        <f t="shared" ref="T2:T15" si="4">ROUND((D2/E2)*100,2)</f>
         <v>62.67</v>
       </c>
       <c r="U2" s="52">
-        <f>F2/O2</f>
+        <f t="shared" ref="U2:U15" si="5">F2/O2</f>
         <v>0.19753086419753085</v>
       </c>
       <c r="V2" s="52">
-        <f>G2/O2</f>
+        <f t="shared" ref="V2:V15" si="6">G2/O2</f>
         <v>0.12962962962962962</v>
       </c>
       <c r="W2" s="52">
-        <f>H2/O2</f>
+        <f t="shared" ref="W2:W15" si="7">H2/O2</f>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="X2" s="30">
-        <f>ROUND(IMDIV(I2,O2),2)</f>
+        <f t="shared" ref="X2:X15" si="8">ROUND(IMDIV(I2,O2),2)</f>
         <v>0.49</v>
       </c>
       <c r="Y2" s="30">
-        <f>ROUND(IMDIV(J2,O2),2)</f>
+        <f t="shared" ref="Y2:Y15" si="9">ROUND(IMDIV(K2,O2),2)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="30">
-        <f>ROUND(IMDIV(K2,O2),2)</f>
-        <v>0</v>
+        <f t="shared" ref="Z2:Z15" si="10">ROUND(IMDIV(L2,O2),2)</f>
+        <v>2.72</v>
       </c>
       <c r="AA2" s="30">
-        <f>ROUND(IMDIV(L2,O2),2)</f>
-        <v>2.72</v>
+        <f t="shared" ref="AA2:AA15" si="11">ROUND(IMDIV(M2,O2),2)</f>
+        <v>0.27</v>
       </c>
       <c r="AB2" s="30">
-        <f>ROUND(IMDIV(M2,O2),2)</f>
-        <v>0.27</v>
+        <f t="shared" ref="AB2:AB15" si="12">ROUND(IMDIV(B2,I2),2)</f>
+        <v>1.56</v>
       </c>
       <c r="AC2" s="30">
-        <f>ROUND(IMDIV(B2,I2),2)</f>
-        <v>1.56</v>
+        <f t="shared" ref="AC2:AC15" si="13">ROUND(IMDIV(C2,B2),4)*100</f>
+        <v>50.41</v>
       </c>
       <c r="AD2" s="30">
-        <f>ROUND(IMDIV(C2,B2),4)*100</f>
-        <v>50.41</v>
-      </c>
-      <c r="AE2" s="30">
-        <f>ROUND(IMDIV(N2,O2),2)</f>
+        <f t="shared" ref="AD2:AD15" si="14">ROUND(IMDIV(N2,O2),2)</f>
         <v>80.44</v>
       </c>
+      <c r="AE2" s="29" t="s">
+        <v>89</v>
+      </c>
       <c r="AF2" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG2" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH2" s="73">
-        <f>(((P2+0.25*Q2)/2)+(U2/3)+0.25*((V2/4)+W2)-(X2+0.25*R2-0.15*Y2+0.5*Z2)+(AE2/225)+(AB2/16))+1</f>
-        <v>1.3506155349794238</v>
-      </c>
-      <c r="AI2" s="66">
-        <f>(((P2-Q2+1.25*Q2)/2)+(U2/3)-(X2-0.2*Y2+0.5*Z2)+(AE2/250)+(AB2/20))+1</f>
-        <v>1.3273690534979423</v>
-      </c>
-      <c r="AJ2" s="62">
-        <f>(((P2-Q2+1.25*Q2+U2)/2)+(1-(X2-0.25*Y2+0.5*Z2))+(AE2/200)+(AB2/18))</f>
-        <v>1.442230864197531</v>
-      </c>
-      <c r="AK2" s="23">
-        <f>((P2/2)+(1-(X2-0.25*Y2+0.5*Z2))+(AE2/200)+(AB2/18))</f>
-        <v>1.3071999999999999</v>
-      </c>
-      <c r="AL2" s="20">
-        <f>(((P2/2)+(1-X2)+(AE2/200)+(AB2/9)))/1.06</f>
+        <v>94</v>
+      </c>
+      <c r="AG2" s="73">
+        <f>((P2/2)+(U2/4)+(W2/5)-(X2+0.5*Y2)+(AD2/215)+(AA2/20))+1</f>
+        <v>1.3418370657479186</v>
+      </c>
+      <c r="AH2" s="66" t="e">
+        <f>(((P2-Q2+1.25*Q2)/2)+(U2/3)-(X2-0.2*#REF!+0.5*Y2)+(AD2/250)+(AA2/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI2" s="62" t="e">
+        <f>(((P2-Q2+1.25*Q2+U2)/2)+(1-(X2-0.25*#REF!+0.5*Y2))+(AD2/200)+(AA2/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ2" s="23" t="e">
+        <f>((P2/2)+(1-(X2-0.25*#REF!+0.5*Y2))+(AD2/200)+(AA2/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK2" s="20">
+        <f t="shared" ref="AK2:AK15" si="15">(((P2/2)+(1-X2)+(AD2/200)+(AA2/9)))/1.06</f>
         <v>1.2473584905660378</v>
       </c>
-      <c r="AM2" s="18">
-        <f>((P2/2)+(1-X2)+(AE2/200)+(AB2/9))</f>
+      <c r="AL2" s="18">
+        <f t="shared" ref="AL2:AL15" si="16">((P2/2)+(1-X2)+(AD2/200)+(AA2/9))</f>
         <v>1.3222</v>
       </c>
-      <c r="AN2" s="15">
-        <f>((P2/2)+(1-X2)+(AE2/200))</f>
+      <c r="AM2" s="15">
+        <f t="shared" ref="AM2:AM15" si="17">((P2/2)+(1-X2)+(AD2/200))</f>
         <v>1.2922</v>
       </c>
-      <c r="AO2" s="68">
-        <f>(((P2-Q2+1.25*Q2)/2)+(U2/3)-(X2-0.2*Y2+0.5*Z2)+(AE2/250)+(AB2/18))*10</f>
-        <v>3.2886905349794238</v>
-      </c>
-      <c r="AP2" s="10">
-        <f>(((P2-P12)-(X2-X12)+((AE2-AE12)/100))/2)*10</f>
+      <c r="AN2" s="68" t="e">
+        <f>(((P2-Q2+1.25*Q2)/2)+(U2/3)-(X2-0.2*#REF!+0.5*Y2)+(AD2/250)+(AA2/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO2" s="10">
+        <f>(((P2-P12)-(X2-X12)+((AD2-AD12)/100))/2)*10</f>
         <v>0.12999999999999998</v>
       </c>
-      <c r="AQ2" s="2">
-        <f>(((P2-P12)-(X2-X12)+(AE2-AE12))/100)+1</f>
+      <c r="AP2" s="2">
+        <f>(((P2-P12)-(X2-X12)+(AD2-AD12))/100)+1</f>
         <v>0.84779999999999989</v>
       </c>
+      <c r="AQ2" s="12">
+        <f>((P2-P12)-(X2-X12)+((AD2-AD12)/100))*10</f>
+        <v>0.25999999999999995</v>
+      </c>
       <c r="AR2" s="12">
-        <f>((P2-P12)-(X2-X12)+((AE2-AE12)/100))*10</f>
-        <v>0.25999999999999995</v>
-      </c>
-      <c r="AS2" s="12">
-        <f>((P2-P12)-(X2-X12)+((AE2-AE12)/116))+1</f>
+        <f>((P2-P12)-(X2-X12)+((AD2-AD12)/116))+1</f>
         <v>1.0472413793103448</v>
       </c>
-      <c r="AT2" s="5">
-        <f>(((P2-P12)-(X2-X12)+((AE2-AE12)/100))/2)+1</f>
+      <c r="AS2" s="5">
+        <f>(((P2-P12)-(X2-X12)+((AD2-AD12)/100))/2)+1</f>
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>22</v>
       </c>
@@ -2557,125 +2553,121 @@
         <v>0.62</v>
       </c>
       <c r="Q3" s="52">
-        <f>(D3/O3)</f>
+        <f t="shared" si="1"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="R3" s="30">
-        <f t="shared" ref="R3:R15" si="1">ROUND(IMDIV((E3-D3),O3),2)</f>
+        <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
       <c r="S3" s="52">
-        <f>(E3/O3)*100</f>
+        <f t="shared" si="3"/>
         <v>53.703703703703709</v>
       </c>
       <c r="T3" s="30">
-        <f>ROUND((D3/E3)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>51.72</v>
       </c>
       <c r="U3" s="52">
-        <f>F3/O3</f>
+        <f t="shared" si="5"/>
         <v>0.13580246913580246</v>
       </c>
       <c r="V3" s="52">
-        <f>G3/O3</f>
+        <f t="shared" si="6"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="W3" s="52">
-        <f>H3/O3</f>
+        <f t="shared" si="7"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="X3" s="30">
-        <f>ROUND(IMDIV(I3,O3),2)</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="Y3" s="30">
-        <f>ROUND(IMDIV(J3,O3),2)</f>
-        <v>0.03</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z3" s="30">
-        <f>ROUND(IMDIV(K3,O3),2)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.52</v>
       </c>
       <c r="AA3" s="30">
-        <f>ROUND(IMDIV(L3,O3),2)</f>
-        <v>2.52</v>
+        <f t="shared" si="11"/>
+        <v>0.22</v>
       </c>
       <c r="AB3" s="30">
-        <f>ROUND(IMDIV(M3,O3),2)</f>
-        <v>0.22</v>
+        <f t="shared" si="12"/>
+        <v>1.03</v>
       </c>
       <c r="AC3" s="30">
-        <f>ROUND(IMDIV(B3,I3),2)</f>
-        <v>1.03</v>
+        <f t="shared" si="13"/>
+        <v>42</v>
       </c>
       <c r="AD3" s="30">
-        <f>ROUND(IMDIV(C3,B3),4)*100</f>
-        <v>42</v>
-      </c>
-      <c r="AE3" s="30">
-        <f>ROUND(IMDIV(N3,O3),2)</f>
+        <f t="shared" si="14"/>
         <v>74.569999999999993</v>
       </c>
+      <c r="AE3" s="29" t="s">
+        <v>89</v>
+      </c>
       <c r="AF3" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG3" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH3" s="73">
-        <f t="shared" ref="AH3:AH15" si="2">(((P3+0.25*Q3)/2)+(U3/3)+0.25*((V3/4)+W3)-(X3+0.25*R3-0.15*Y3+0.5*Z3)+(AE3/225)+(AB3/16))+1</f>
-        <v>1.0908656378600823</v>
-      </c>
-      <c r="AI3" s="66">
-        <f>(((P3-Q3+1.25*Q3)/2)+(U3/3)-(X3-0.2*Y3+0.5*Z3)+(AE3/250)+(AB3/20))+1</f>
-        <v>1.1052697119341564</v>
-      </c>
-      <c r="AJ3" s="62">
-        <f>(((P3-Q3+1.25*Q3+U3)/2)+(1-(X3-0.25*Y3+0.5*Z3))+(AE3/200)+(AB3/18))</f>
-        <v>1.2051956790123455</v>
-      </c>
-      <c r="AK3" s="23">
-        <f>((P3/2)+(1-(X3-0.25*Y3+0.5*Z3))+(AE3/200)+(AB3/18))</f>
-        <v>1.1025722222222221</v>
-      </c>
-      <c r="AL3" s="20">
-        <f>(((P3/2)+(1-X3)+(AE3/200)+(AB3/9)))/1.06</f>
+        <v>84</v>
+      </c>
+      <c r="AG3" s="73">
+        <f t="shared" ref="AG3:AG15" si="18">((P3/2)+(U3/4)+(W3/5)-(X3+0.5*Y3)+(AD3/215)+(AA3/20))+1</f>
+        <v>1.1128989376973872</v>
+      </c>
+      <c r="AH3" s="66" t="e">
+        <f>(((P3-Q3+1.25*Q3)/2)+(U3/3)-(X3-0.2*#REF!+0.5*Y3)+(AD3/250)+(AA3/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI3" s="62" t="e">
+        <f>(((P3-Q3+1.25*Q3+U3)/2)+(1-(X3-0.25*#REF!+0.5*Y3))+(AD3/200)+(AA3/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ3" s="23" t="e">
+        <f>((P3/2)+(1-(X3-0.25*#REF!+0.5*Y3))+(AD3/200)+(AA3/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK3" s="20">
+        <f t="shared" si="15"/>
         <v>1.044617400419287</v>
       </c>
-      <c r="AM3" s="18">
-        <f>((P3/2)+(1-X3)+(AE3/200)+(AB3/9))</f>
+      <c r="AL3" s="18">
+        <f t="shared" si="16"/>
         <v>1.1072944444444444</v>
       </c>
-      <c r="AN3" s="15">
-        <f>((P3/2)+(1-X3)+(AE3/200))</f>
+      <c r="AM3" s="15">
+        <f t="shared" si="17"/>
         <v>1.0828499999999999</v>
       </c>
-      <c r="AO3" s="68">
-        <f>(((P3-Q3+1.25*Q3)/2)+(U3/3)-(X3-0.2*Y3+0.5*Z3)+(AE3/250)+(AB3/18))*10</f>
-        <v>1.0649193415637861</v>
-      </c>
-      <c r="AP3" s="10">
-        <f>(((P3-P14)-(X3-X14)+((AE3-AE14)/100))/2)*10</f>
+      <c r="AN3" s="68" t="e">
+        <f>(((P3-Q3+1.25*Q3)/2)+(U3/3)-(X3-0.2*#REF!+0.5*Y3)+(AD3/250)+(AA3/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO3" s="10">
+        <f>(((P3-P14)-(X3-X14)+((AD3-AD14)/100))/2)*10</f>
         <v>4.18</v>
       </c>
-      <c r="AQ3" s="2">
-        <f>(((P3-P14)-(X3-X14)+(AE3-AE14))/100)+1</f>
+      <c r="AP3" s="2">
+        <f>(((P3-P14)-(X3-X14)+(AD3-AD14))/100)+1</f>
         <v>1.3112999999999999</v>
       </c>
+      <c r="AQ3" s="12">
+        <f>((P3-P14)-(X3-X14)+((AD3-AD14)/100))*10</f>
+        <v>8.36</v>
+      </c>
       <c r="AR3" s="12">
-        <f>((P3-P14)-(X3-X14)+((AE3-AE14)/100))*10</f>
-        <v>8.36</v>
-      </c>
-      <c r="AS3" s="12">
-        <f>((P3-P14)-(X3-X14)+((AE3-AE14)/116))+1</f>
+        <f>((P3-P14)-(X3-X14)+((AD3-AD14)/116))+1</f>
         <v>1.7937931034482759</v>
       </c>
-      <c r="AT3" s="5">
-        <f>(((P3-P14)-(X3-X14)+((AE3-AE14)/100))/2)+1</f>
+      <c r="AS3" s="5">
+        <f>(((P3-P14)-(X3-X14)+((AD3-AD14)/100))/2)+1</f>
         <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>30</v>
       </c>
@@ -2726,125 +2718,121 @@
         <v>0.68</v>
       </c>
       <c r="Q4" s="54">
-        <f>(D4/O4)</f>
+        <f t="shared" si="1"/>
         <v>0.30136986301369861</v>
       </c>
       <c r="R4" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="S4" s="54">
-        <f>(E4/O4)*100</f>
+        <f t="shared" si="3"/>
         <v>58.219178082191782</v>
       </c>
       <c r="T4" s="35">
-        <f>ROUND((D4/E4)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>51.76</v>
       </c>
       <c r="U4" s="54">
-        <f>F4/O4</f>
+        <f t="shared" si="5"/>
         <v>0.17808219178082191</v>
       </c>
       <c r="V4" s="54">
-        <f>G4/O4</f>
+        <f t="shared" si="6"/>
         <v>4.1095890410958902E-2</v>
       </c>
       <c r="W4" s="54">
-        <f>H4/O4</f>
+        <f t="shared" si="7"/>
         <v>8.9041095890410954E-2</v>
       </c>
       <c r="X4" s="35">
-        <f>ROUND(IMDIV(I4,O4),2)</f>
+        <f t="shared" si="8"/>
         <v>0.59</v>
       </c>
       <c r="Y4" s="35">
-        <f>ROUND(IMDIV(J4,O4),2)</f>
-        <v>0.04</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z4" s="35">
-        <f>ROUND(IMDIV(K4,O4),2)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3.51</v>
       </c>
       <c r="AA4" s="35">
-        <f>ROUND(IMDIV(L4,O4),2)</f>
-        <v>3.51</v>
+        <f t="shared" si="11"/>
+        <v>0.17</v>
       </c>
       <c r="AB4" s="35">
-        <f>ROUND(IMDIV(M4,O4),2)</f>
-        <v>0.17</v>
+        <f t="shared" si="12"/>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AC4" s="35">
-        <f>ROUND(IMDIV(B4,I4),2)</f>
-        <v>1.1599999999999999</v>
+        <f t="shared" si="13"/>
+        <v>61</v>
       </c>
       <c r="AD4" s="35">
-        <f>ROUND(IMDIV(C4,B4),4)*100</f>
-        <v>61</v>
-      </c>
-      <c r="AE4" s="35">
-        <f>ROUND(IMDIV(N4,O4),2)</f>
+        <f t="shared" si="14"/>
         <v>78.91</v>
       </c>
-      <c r="AF4" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG4" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH4" s="73">
-        <f t="shared" si="2"/>
-        <v>1.1691968417047185</v>
-      </c>
-      <c r="AI4" s="66">
-        <f>(((P4-Q4+1.25*Q4)/2)+(U4/3)-(X4-0.2*Y4+0.5*Z4)+(AE4/250)+(AB4/20))+1</f>
-        <v>1.1791719634703197</v>
-      </c>
-      <c r="AJ4" s="62">
-        <f>(((P4-Q4+1.25*Q4+U4)/2)+(1-(X4-0.25*Y4+0.5*Z4))+(AE4/200)+(AB4/18))</f>
-        <v>1.2907067732115676</v>
-      </c>
-      <c r="AK4" s="23">
-        <f>((P4/2)+(1-(X4-0.25*Y4+0.5*Z4))+(AE4/200)+(AB4/18))</f>
-        <v>1.1639944444444443</v>
-      </c>
-      <c r="AL4" s="20">
-        <f>(((P4/2)+(1-X4)+(AE4/200)+(AB4/9)))/1.06</f>
+      <c r="AE4" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG4" s="73">
+        <f t="shared" si="18"/>
+        <v>1.1878520229372411</v>
+      </c>
+      <c r="AH4" s="66" t="e">
+        <f>(((P4-Q4+1.25*Q4)/2)+(U4/3)-(X4-0.2*#REF!+0.5*Y4)+(AD4/250)+(AA4/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI4" s="62" t="e">
+        <f>(((P4-Q4+1.25*Q4+U4)/2)+(1-(X4-0.25*#REF!+0.5*Y4))+(AD4/200)+(AA4/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ4" s="23" t="e">
+        <f>((P4/2)+(1-(X4-0.25*#REF!+0.5*Y4))+(AD4/200)+(AA4/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK4" s="20">
+        <f t="shared" si="15"/>
         <v>1.097583857442348</v>
       </c>
-      <c r="AM4" s="18">
-        <f>((P4/2)+(1-X4)+(AE4/200)+(AB4/9))</f>
+      <c r="AL4" s="18">
+        <f t="shared" si="16"/>
         <v>1.1634388888888889</v>
       </c>
-      <c r="AN4" s="15">
-        <f>((P4/2)+(1-X4)+(AE4/200))</f>
+      <c r="AM4" s="15">
+        <f t="shared" si="17"/>
         <v>1.14455</v>
       </c>
-      <c r="AO4" s="68">
-        <f>(((P4-Q4+1.25*Q4)/2)+(U4/3)-(X4-0.2*Y4+0.5*Z4)+(AE4/250)+(AB4/18))*10</f>
-        <v>1.8011640791476411</v>
-      </c>
-      <c r="AP4" s="10">
-        <f>(((P4-P17)-(X4-X17)+((AE4-AE17)/100))/2)*10</f>
-        <v>1.9030000000000009</v>
-      </c>
-      <c r="AQ4" s="2">
-        <f>(((P4-P17)-(X4-X17)+(AE4-AE17))/100)+1</f>
-        <v>1.12815</v>
+      <c r="AN4" s="68" t="e">
+        <f>(((P4-Q4+1.25*Q4)/2)+(U4/3)-(X4-0.2*#REF!+0.5*Y4)+(AD4/250)+(AA4/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO4" s="10">
+        <f>(((P4-P17)-(X4-X17)+((AD4-AD17)/100))/2)*10</f>
+        <v>0.42600000000000071</v>
+      </c>
+      <c r="AP4" s="2">
+        <f>(((P4-P17)-(X4-X17)+(AD4-AD17))/100)+1</f>
+        <v>1.0357000000000001</v>
+      </c>
+      <c r="AQ4" s="12">
+        <f>((P4-P17)-(X4-X17)+((AD4-AD17)/100))*10</f>
+        <v>0.85200000000000142</v>
       </c>
       <c r="AR4" s="12">
-        <f>((P4-P17)-(X4-X17)+((AE4-AE17)/100))*10</f>
-        <v>3.8060000000000018</v>
-      </c>
-      <c r="AS4" s="12">
-        <f>((P4-P17)-(X4-X17)+((AE4-AE17)/116))+1</f>
-        <v>1.3632758620689658</v>
-      </c>
-      <c r="AT4" s="5">
-        <f>(((P4-P17)-(X4-X17)+((AE4-AE17)/100))/2)+1</f>
-        <v>1.1903000000000001</v>
+        <f>((P4-P17)-(X4-X17)+((AD4-AD17)/116))+1</f>
+        <v>1.0803448275862071</v>
+      </c>
+      <c r="AS4" s="5">
+        <f>(((P4-P17)-(X4-X17)+((AD4-AD17)/100))/2)+1</f>
+        <v>1.0426</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>31</v>
       </c>
@@ -2895,125 +2883,121 @@
         <v>0.66</v>
       </c>
       <c r="Q5" s="54">
-        <f>(D5/O5)</f>
+        <f t="shared" si="1"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="R5" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="S5" s="54">
-        <f>(E5/O5)*100</f>
+        <f t="shared" si="3"/>
         <v>41.780821917808218</v>
       </c>
       <c r="T5" s="35">
-        <f>ROUND((D5/E5)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>52.46</v>
       </c>
       <c r="U5" s="54">
-        <f>F5/O5</f>
+        <f t="shared" si="5"/>
         <v>0.19863013698630136</v>
       </c>
       <c r="V5" s="54">
-        <f>G5/O5</f>
+        <f t="shared" si="6"/>
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="W5" s="54">
-        <f>H5/O5</f>
+        <f t="shared" si="7"/>
         <v>7.5342465753424653E-2</v>
       </c>
       <c r="X5" s="35">
-        <f>ROUND(IMDIV(I5,O5),2)</f>
+        <f t="shared" si="8"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="Y5" s="35">
-        <f>ROUND(IMDIV(J5,O5),2)</f>
-        <v>0.03</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z5" s="35">
-        <f>ROUND(IMDIV(K5,O5),2)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.95</v>
       </c>
       <c r="AA5" s="35">
-        <f>ROUND(IMDIV(L5,O5),2)</f>
-        <v>2.95</v>
+        <f t="shared" si="11"/>
+        <v>0.18</v>
       </c>
       <c r="AB5" s="35">
-        <f>ROUND(IMDIV(M5,O5),2)</f>
-        <v>0.18</v>
+        <f t="shared" si="12"/>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AC5" s="35">
-        <f>ROUND(IMDIV(B5,I5),2)</f>
-        <v>1.1499999999999999</v>
+        <f t="shared" si="13"/>
+        <v>43.3</v>
       </c>
       <c r="AD5" s="35">
-        <f>ROUND(IMDIV(C5,B5),4)*100</f>
-        <v>43.3</v>
-      </c>
-      <c r="AE5" s="35">
-        <f>ROUND(IMDIV(N5,O5),2)</f>
+        <f t="shared" si="14"/>
         <v>76.209999999999994</v>
       </c>
-      <c r="AF5" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG5" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH5" s="73">
-        <f t="shared" si="2"/>
-        <v>1.1703286910197868</v>
-      </c>
-      <c r="AI5" s="66">
-        <f>(((P5-Q5+1.25*Q5)/2)+(U5/3)-(X5-0.2*Y5+0.5*Z5)+(AE5/250)+(AB5/20))+1</f>
-        <v>1.163447305936073</v>
-      </c>
-      <c r="AJ5" s="62">
-        <f>(((P5-Q5+1.25*Q5+U5)/2)+(1-(X5-0.25*Y5+0.5*Z5))+(AE5/200)+(AB5/18))</f>
-        <v>1.2752623287671232</v>
-      </c>
-      <c r="AK5" s="23">
-        <f>((P5/2)+(1-(X5-0.25*Y5+0.5*Z5))+(AE5/200)+(AB5/18))</f>
-        <v>1.14855</v>
-      </c>
-      <c r="AL5" s="20">
-        <f>(((P5/2)+(1-X5)+(AE5/200)+(AB5/9)))/1.06</f>
+      <c r="AE5" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF5" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG5" s="73">
+        <f t="shared" si="18"/>
+        <v>1.1781911436763299</v>
+      </c>
+      <c r="AH5" s="66" t="e">
+        <f>(((P5-Q5+1.25*Q5)/2)+(U5/3)-(X5-0.2*#REF!+0.5*Y5)+(AD5/250)+(AA5/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI5" s="62" t="e">
+        <f>(((P5-Q5+1.25*Q5+U5)/2)+(1-(X5-0.25*#REF!+0.5*Y5))+(AD5/200)+(AA5/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ5" s="23" t="e">
+        <f>((P5/2)+(1-(X5-0.25*#REF!+0.5*Y5))+(AD5/200)+(AA5/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK5" s="20">
+        <f t="shared" si="15"/>
         <v>1.0858962264150942</v>
       </c>
-      <c r="AM5" s="18">
-        <f>((P5/2)+(1-X5)+(AE5/200)+(AB5/9))</f>
+      <c r="AL5" s="18">
+        <f t="shared" si="16"/>
         <v>1.1510499999999999</v>
       </c>
-      <c r="AN5" s="15">
-        <f>((P5/2)+(1-X5)+(AE5/200))</f>
+      <c r="AM5" s="15">
+        <f t="shared" si="17"/>
         <v>1.1310499999999999</v>
       </c>
-      <c r="AO5" s="68">
-        <f>(((P5-Q5+1.25*Q5)/2)+(U5/3)-(X5-0.2*Y5+0.5*Z5)+(AE5/250)+(AB5/18))*10</f>
-        <v>1.6444730593607315</v>
-      </c>
-      <c r="AP5" s="10">
-        <f>(((P5-P13)-(X5-X13)+((AE5-AE13)/100))/2)*10</f>
+      <c r="AN5" s="68" t="e">
+        <f>(((P5-Q5+1.25*Q5)/2)+(U5/3)-(X5-0.2*#REF!+0.5*Y5)+(AD5/250)+(AA5/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO5" s="10">
+        <f>(((P5-P13)-(X5-X13)+((AD5-AD13)/100))/2)*10</f>
         <v>4.9805000000000001</v>
       </c>
-      <c r="AQ5" s="2">
-        <f>(((P5-P13)-(X5-X13)+(AE5-AE13))/100)+1</f>
+      <c r="AP5" s="2">
+        <f>(((P5-P13)-(X5-X13)+(AD5-AD13))/100)+1</f>
         <v>1.4417</v>
       </c>
+      <c r="AQ5" s="12">
+        <f>((P5-P13)-(X5-X13)+((AD5-AD13)/100))*10</f>
+        <v>9.9610000000000003</v>
+      </c>
       <c r="AR5" s="12">
-        <f>((P5-P13)-(X5-X13)+((AE5-AE13)/100))*10</f>
-        <v>9.9610000000000003</v>
-      </c>
-      <c r="AS5" s="12">
-        <f>((P5-P13)-(X5-X13)+((AE5-AE13)/116))+1</f>
+        <f>((P5-P13)-(X5-X13)+((AD5-AD13)/116))+1</f>
         <v>1.935948275862069</v>
       </c>
-      <c r="AT5" s="5">
-        <f>(((P5-P13)-(X5-X13)+((AE5-AE13)/100))/2)+1</f>
+      <c r="AS5" s="5">
+        <f>(((P5-P13)-(X5-X13)+((AD5-AD13)/100))/2)+1</f>
         <v>1.4980500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>26</v>
       </c>
@@ -3064,125 +3048,121 @@
         <v>0.76</v>
       </c>
       <c r="Q6" s="55">
-        <f>(D6/O6)</f>
+        <f t="shared" si="1"/>
         <v>0.27179487179487177</v>
       </c>
       <c r="R6" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="S6" s="55">
-        <f>(E6/O6)*100</f>
+        <f t="shared" si="3"/>
         <v>50.769230769230766</v>
       </c>
       <c r="T6" s="38">
-        <f>ROUND((D6/E6)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>53.54</v>
       </c>
       <c r="U6" s="55">
-        <f>F6/O6</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="V6" s="55">
-        <f>G6/O6</f>
+        <f t="shared" si="6"/>
         <v>8.7179487179487175E-2</v>
       </c>
       <c r="W6" s="55">
-        <f>H6/O6</f>
+        <f t="shared" si="7"/>
         <v>8.7179487179487175E-2</v>
       </c>
       <c r="X6" s="38">
-        <f>ROUND(IMDIV(I6,O6),2)</f>
+        <f t="shared" si="8"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="Y6" s="38">
-        <f>ROUND(IMDIV(J6,O6),2)</f>
-        <v>0.04</v>
+        <f t="shared" si="9"/>
+        <v>0.01</v>
       </c>
       <c r="Z6" s="38">
-        <f>ROUND(IMDIV(K6,O6),2)</f>
-        <v>0.01</v>
+        <f t="shared" si="10"/>
+        <v>2.72</v>
       </c>
       <c r="AA6" s="38">
-        <f>ROUND(IMDIV(L6,O6),2)</f>
-        <v>2.72</v>
+        <f t="shared" si="11"/>
+        <v>0.06</v>
       </c>
       <c r="AB6" s="38">
-        <f>ROUND(IMDIV(M6,O6),2)</f>
-        <v>0.06</v>
+        <f t="shared" si="12"/>
+        <v>1.36</v>
       </c>
       <c r="AC6" s="38">
-        <f>ROUND(IMDIV(B6,I6),2)</f>
-        <v>1.36</v>
+        <f t="shared" si="13"/>
+        <v>38.51</v>
       </c>
       <c r="AD6" s="38">
-        <f>ROUND(IMDIV(C6,B6),4)*100</f>
-        <v>38.51</v>
-      </c>
-      <c r="AE6" s="38">
-        <f>ROUND(IMDIV(N6,O6),2)</f>
+        <f t="shared" si="14"/>
         <v>85.25</v>
       </c>
-      <c r="AF6" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG6" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH6" s="73">
-        <f t="shared" si="2"/>
-        <v>1.271523504273504</v>
-      </c>
-      <c r="AI6" s="66">
-        <f>(((P6-Q6+1.25*Q6)/2)+(U6/3)-(X6-0.2*Y6+0.5*Z6)+(AE6/250)+(AB6/20))+1</f>
-        <v>1.2676410256410255</v>
-      </c>
-      <c r="AJ6" s="62">
-        <f>(((P6-Q6+1.25*Q6+U6)/2)+(1-(X6-0.25*Y6+0.5*Z6))+(AE6/200)+(AB6/18))</f>
-        <v>1.3885576923076923</v>
-      </c>
-      <c r="AK6" s="23">
-        <f>((P6/2)+(1-(X6-0.25*Y6+0.5*Z6))+(AE6/200)+(AB6/18))</f>
-        <v>1.2545833333333334</v>
-      </c>
-      <c r="AL6" s="20">
-        <f>(((P6/2)+(1-X6)+(AE6/200)+(AB6/9)))/1.06</f>
+      <c r="AE6" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF6" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG6" s="73">
+        <f t="shared" si="18"/>
+        <v>1.281947525342874</v>
+      </c>
+      <c r="AH6" s="66" t="e">
+        <f>(((P6-Q6+1.25*Q6)/2)+(U6/3)-(X6-0.2*#REF!+0.5*Y6)+(AD6/250)+(AA6/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI6" s="62" t="e">
+        <f>(((P6-Q6+1.25*Q6+U6)/2)+(1-(X6-0.25*#REF!+0.5*Y6))+(AD6/200)+(AA6/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ6" s="23" t="e">
+        <f>((P6/2)+(1-(X6-0.25*#REF!+0.5*Y6))+(AD6/200)+(AA6/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK6" s="20">
+        <f t="shared" si="15"/>
         <v>1.1819968553459117</v>
       </c>
-      <c r="AM6" s="18">
-        <f>((P6/2)+(1-X6)+(AE6/200)+(AB6/9))</f>
+      <c r="AL6" s="18">
+        <f t="shared" si="16"/>
         <v>1.2529166666666665</v>
       </c>
-      <c r="AN6" s="15">
-        <f>((P6/2)+(1-X6)+(AE6/200))</f>
+      <c r="AM6" s="15">
+        <f t="shared" si="17"/>
         <v>1.2462499999999999</v>
       </c>
-      <c r="AO6" s="68">
-        <f>(((P6-Q6+1.25*Q6)/2)+(U6/3)-(X6-0.2*Y6+0.5*Z6)+(AE6/250)+(AB6/18))*10</f>
-        <v>2.6797435897435893</v>
-      </c>
-      <c r="AP6" s="10">
-        <f>(((P6-P20)-(X6-X20)+((AE6-AE20)/100))/2)*10</f>
+      <c r="AN6" s="68" t="e">
+        <f>(((P6-Q6+1.25*Q6)/2)+(U6/3)-(X6-0.2*#REF!+0.5*Y6)+(AD6/250)+(AA6/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO6" s="10">
+        <f>(((P6-P20)-(X6-X20)+((AD6-AD20)/100))/2)*10</f>
         <v>0.31599999999999917</v>
       </c>
-      <c r="AQ6" s="2">
-        <f>(((P6-P20)-(X6-X20)+(AE6-AE20))/100)+1</f>
+      <c r="AP6" s="2">
+        <f>(((P6-P20)-(X6-X20)+(AD6-AD20))/100)+1</f>
         <v>1.0532999999999999</v>
       </c>
+      <c r="AQ6" s="12">
+        <f>((P6-P20)-(X6-X20)+((AD6-AD20)/100))*10</f>
+        <v>0.63199999999999834</v>
+      </c>
       <c r="AR6" s="12">
-        <f>((P6-P20)-(X6-X20)+((AE6-AE20)/100))*10</f>
-        <v>0.63199999999999834</v>
-      </c>
-      <c r="AS6" s="12">
-        <f>((P6-P20)-(X6-X20)+((AE6-AE20)/116))+1</f>
+        <f>((P6-P20)-(X6-X20)+((AD6-AD20)/116))+1</f>
         <v>1.0558620689655172</v>
       </c>
-      <c r="AT6" s="5">
-        <f>(((P6-P20)-(X6-X20)+((AE6-AE20)/100))/2)+1</f>
+      <c r="AS6" s="5">
+        <f>(((P6-P20)-(X6-X20)+((AD6-AD20)/100))/2)+1</f>
         <v>1.0315999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>19</v>
       </c>
@@ -3233,125 +3213,121 @@
         <v>0.52</v>
       </c>
       <c r="Q7" s="55">
-        <f>(D7/O7)</f>
+        <f t="shared" si="1"/>
         <v>0.22564102564102564</v>
       </c>
       <c r="R7" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
       <c r="S7" s="55">
-        <f>(E7/O7)*100</f>
+        <f t="shared" si="3"/>
         <v>48.717948717948715</v>
       </c>
       <c r="T7" s="38">
-        <f>ROUND((D7/E7)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>46.32</v>
       </c>
       <c r="U7" s="55">
-        <f>F7/O7</f>
+        <f t="shared" si="5"/>
         <v>0.12307692307692308</v>
       </c>
       <c r="V7" s="55">
-        <f>G7/O7</f>
+        <f t="shared" si="6"/>
         <v>5.128205128205128E-2</v>
       </c>
       <c r="W7" s="55">
-        <f>H7/O7</f>
+        <f t="shared" si="7"/>
         <v>4.6153846153846156E-2</v>
       </c>
       <c r="X7" s="38">
-        <f>ROUND(IMDIV(I7,O7),2)</f>
+        <f t="shared" si="8"/>
         <v>0.59</v>
       </c>
       <c r="Y7" s="38">
-        <f>ROUND(IMDIV(J7,O7),2)</f>
-        <v>0.05</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z7" s="38">
-        <f>ROUND(IMDIV(K7,O7),2)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1.17</v>
       </c>
       <c r="AA7" s="38">
-        <f>ROUND(IMDIV(L7,O7),2)</f>
-        <v>1.17</v>
+        <f t="shared" si="11"/>
+        <v>0.13</v>
       </c>
       <c r="AB7" s="38">
-        <f>ROUND(IMDIV(M7,O7),2)</f>
-        <v>0.13</v>
+        <f t="shared" si="12"/>
+        <v>0.89</v>
       </c>
       <c r="AC7" s="38">
-        <f>ROUND(IMDIV(B7,I7),2)</f>
-        <v>0.89</v>
+        <f t="shared" si="13"/>
+        <v>47.06</v>
       </c>
       <c r="AD7" s="38">
-        <f>ROUND(IMDIV(C7,B7),4)*100</f>
-        <v>47.06</v>
-      </c>
-      <c r="AE7" s="38">
-        <f>ROUND(IMDIV(N7,O7),2)</f>
+        <f t="shared" si="14"/>
         <v>62.48</v>
       </c>
-      <c r="AF7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG7" s="37" t="s">
+      <c r="AE7" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AH7" s="73">
-        <f t="shared" si="2"/>
-        <v>0.98228824786324787</v>
-      </c>
-      <c r="AI7" s="66">
-        <f>(((P7-Q7+1.25*Q7)/2)+(U7/3)-(X7-0.2*Y7+0.5*Z7)+(AE7/250)+(AB7/20))+1</f>
-        <v>1.0056507692307692</v>
-      </c>
-      <c r="AJ7" s="62">
-        <f>(((P7-Q7+1.25*Q7+U7)/2)+(1-(X7-0.25*Y7+0.5*Z7))+(AE7/200)+(AB7/18))</f>
-        <v>1.091865811965812</v>
-      </c>
-      <c r="AK7" s="23">
-        <f>((P7/2)+(1-(X7-0.25*Y7+0.5*Z7))+(AE7/200)+(AB7/18))</f>
-        <v>1.0021222222222221</v>
-      </c>
-      <c r="AL7" s="20">
-        <f>(((P7/2)+(1-X7)+(AE7/200)+(AB7/9)))/1.06</f>
+      <c r="AG7" s="73">
+        <f t="shared" si="18"/>
+        <v>1.0071046511627906</v>
+      </c>
+      <c r="AH7" s="66" t="e">
+        <f>(((P7-Q7+1.25*Q7)/2)+(U7/3)-(X7-0.2*#REF!+0.5*Y7)+(AD7/250)+(AA7/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI7" s="62" t="e">
+        <f>(((P7-Q7+1.25*Q7+U7)/2)+(1-(X7-0.25*#REF!+0.5*Y7))+(AD7/200)+(AA7/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ7" s="23" t="e">
+        <f>((P7/2)+(1-(X7-0.25*#REF!+0.5*Y7))+(AD7/200)+(AA7/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK7" s="20">
+        <f t="shared" si="15"/>
         <v>0.94041928721174006</v>
       </c>
-      <c r="AM7" s="18">
-        <f>((P7/2)+(1-X7)+(AE7/200)+(AB7/9))</f>
+      <c r="AL7" s="18">
+        <f t="shared" si="16"/>
         <v>0.99684444444444453</v>
       </c>
-      <c r="AN7" s="15">
-        <f>((P7/2)+(1-X7)+(AE7/200))</f>
+      <c r="AM7" s="15">
+        <f t="shared" si="17"/>
         <v>0.98240000000000005</v>
       </c>
-      <c r="AO7" s="68">
-        <f>(((P7-Q7+1.25*Q7)/2)+(U7/3)-(X7-0.2*Y7+0.5*Z7)+(AE7/250)+(AB7/18))*10</f>
-        <v>6.3729914529915097E-2</v>
-      </c>
-      <c r="AP7" s="10">
-        <f>(((P7-P13)-(X7-X13)+((AE7-AE13)/100))/2)*10</f>
+      <c r="AN7" s="68" t="e">
+        <f>(((P7-Q7+1.25*Q7)/2)+(U7/3)-(X7-0.2*#REF!+0.5*Y7)+(AD7/250)+(AA7/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO7" s="10">
+        <f>(((P7-P13)-(X7-X13)+((AD7-AD13)/100))/2)*10</f>
         <v>3.544</v>
       </c>
-      <c r="AQ7" s="2">
-        <f>(((P7-P13)-(X7-X13)+(AE7-AE13))/100)+1</f>
+      <c r="AP7" s="2">
+        <f>(((P7-P13)-(X7-X13)+(AD7-AD13))/100)+1</f>
         <v>1.3028999999999999</v>
       </c>
+      <c r="AQ7" s="12">
+        <f>((P7-P13)-(X7-X13)+((AD7-AD13)/100))*10</f>
+        <v>7.0880000000000001</v>
+      </c>
       <c r="AR7" s="12">
-        <f>((P7-P13)-(X7-X13)+((AE7-AE13)/100))*10</f>
-        <v>7.0880000000000001</v>
-      </c>
-      <c r="AS7" s="12">
-        <f>((P7-P13)-(X7-X13)+((AE7-AE13)/116))+1</f>
+        <f>((P7-P13)-(X7-X13)+((AD7-AD13)/116))+1</f>
         <v>1.6675862068965517</v>
       </c>
-      <c r="AT7" s="5">
-        <f>(((P7-P13)-(X7-X13)+((AE7-AE13)/100))/2)+1</f>
+      <c r="AS7" s="5">
+        <f>(((P7-P13)-(X7-X13)+((AD7-AD13)/100))/2)+1</f>
         <v>1.3544</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>27</v>
       </c>
@@ -3402,125 +3378,121 @@
         <v>0.75</v>
       </c>
       <c r="Q8" s="53">
-        <f>(D8/O8)</f>
+        <f t="shared" si="1"/>
         <v>0.36956521739130432</v>
       </c>
       <c r="R8" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="S8" s="53">
-        <f>(E8/O8)*100</f>
+        <f t="shared" si="3"/>
         <v>61.413043478260867</v>
       </c>
       <c r="T8" s="32">
-        <f>ROUND((D8/E8)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>60.18</v>
       </c>
       <c r="U8" s="53">
-        <f>F8/O8</f>
+        <f t="shared" si="5"/>
         <v>0.18478260869565216</v>
       </c>
       <c r="V8" s="53">
-        <f>G8/O8</f>
+        <f t="shared" si="6"/>
         <v>0.10326086956521739</v>
       </c>
       <c r="W8" s="53">
-        <f>H8/O8</f>
+        <f t="shared" si="7"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="X8" s="32">
-        <f>ROUND(IMDIV(I8,O8),2)</f>
+        <f t="shared" si="8"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="Y8" s="32">
-        <f>ROUND(IMDIV(J8,O8),2)</f>
-        <v>0.03</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z8" s="32">
-        <f>ROUND(IMDIV(K8,O8),2)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>7.49</v>
       </c>
       <c r="AA8" s="32">
-        <f>ROUND(IMDIV(L8,O8),2)</f>
-        <v>7.49</v>
+        <f t="shared" si="11"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AB8" s="32">
-        <f>ROUND(IMDIV(M8,O8),2)</f>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="12"/>
+        <v>1.3</v>
       </c>
       <c r="AC8" s="32">
-        <f>ROUND(IMDIV(B8,I8),2)</f>
-        <v>1.3</v>
+        <f t="shared" si="13"/>
+        <v>55.800000000000004</v>
       </c>
       <c r="AD8" s="32">
-        <f>ROUND(IMDIV(C8,B8),4)*100</f>
-        <v>55.800000000000004</v>
-      </c>
-      <c r="AE8" s="32">
-        <f>ROUND(IMDIV(N8,O8),2)</f>
+        <f t="shared" si="14"/>
         <v>84.57</v>
       </c>
-      <c r="AF8" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG8" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH8" s="73">
-        <f t="shared" si="2"/>
-        <v>1.2492298913043478</v>
-      </c>
-      <c r="AI8" s="66">
-        <f>(((P8-Q8+1.25*Q8)/2)+(U8/3)-(X8-0.2*Y8+0.5*Z8)+(AE8/250)+(AB8/20))+1</f>
-        <v>1.2540698550724638</v>
-      </c>
-      <c r="AJ8" s="62">
-        <f>(((P8-Q8+1.25*Q8+U8)/2)+(1-(X8-0.25*Y8+0.5*Z8))+(AE8/200)+(AB8/18))</f>
-        <v>1.3717147342995168</v>
-      </c>
-      <c r="AK8" s="23">
-        <f>((P8/2)+(1-(X8-0.25*Y8+0.5*Z8))+(AE8/200)+(AB8/18))</f>
-        <v>1.2331277777777778</v>
-      </c>
-      <c r="AL8" s="20">
-        <f>(((P8/2)+(1-X8)+(AE8/200)+(AB8/9)))/1.06</f>
+      <c r="AE8" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF8" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG8" s="73">
+        <f t="shared" si="18"/>
+        <v>1.2502401415571285</v>
+      </c>
+      <c r="AH8" s="66" t="e">
+        <f>(((P8-Q8+1.25*Q8)/2)+(U8/3)-(X8-0.2*#REF!+0.5*Y8)+(AD8/250)+(AA8/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI8" s="62" t="e">
+        <f>(((P8-Q8+1.25*Q8+U8)/2)+(1-(X8-0.25*#REF!+0.5*Y8))+(AD8/200)+(AA8/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ8" s="23" t="e">
+        <f>((P8/2)+(1-(X8-0.25*#REF!+0.5*Y8))+(AD8/200)+(AA8/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK8" s="20">
+        <f t="shared" si="15"/>
         <v>1.1635901467505239</v>
       </c>
-      <c r="AM8" s="18">
-        <f>((P8/2)+(1-X8)+(AE8/200)+(AB8/9))</f>
+      <c r="AL8" s="18">
+        <f t="shared" si="16"/>
         <v>1.2334055555555554</v>
       </c>
-      <c r="AN8" s="15">
-        <f>((P8/2)+(1-X8)+(AE8/200))</f>
+      <c r="AM8" s="15">
+        <f t="shared" si="17"/>
         <v>1.2178499999999999</v>
       </c>
-      <c r="AO8" s="68">
-        <f>(((P8-Q8+1.25*Q8)/2)+(U8/3)-(X8-0.2*Y8+0.5*Z8)+(AE8/250)+(AB8/18))*10</f>
-        <v>2.5484763285024155</v>
-      </c>
-      <c r="AP8" s="10">
-        <f>(((P8-P17)-(X8-X17)+((AE8-AE17)/100))/2)*10</f>
-        <v>2.5860000000000003</v>
-      </c>
-      <c r="AQ8" s="2">
-        <f>(((P8-P17)-(X8-X17)+(AE8-AE17))/100)+1</f>
-        <v>1.1855500000000001</v>
+      <c r="AN8" s="68" t="e">
+        <f>(((P8-Q8+1.25*Q8)/2)+(U8/3)-(X8-0.2*#REF!+0.5*Y8)+(AD8/250)+(AA8/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO8" s="10">
+        <f>(((P8-P17)-(X8-X17)+((AD8-AD17)/100))/2)*10</f>
+        <v>1.1090000000000002</v>
+      </c>
+      <c r="AP8" s="2">
+        <f>(((P8-P17)-(X8-X17)+(AD8-AD17))/100)+1</f>
+        <v>1.0931000000000002</v>
+      </c>
+      <c r="AQ8" s="12">
+        <f>((P8-P17)-(X8-X17)+((AD8-AD17)/100))*10</f>
+        <v>2.2180000000000004</v>
       </c>
       <c r="AR8" s="12">
-        <f>((P8-P17)-(X8-X17)+((AE8-AE17)/100))*10</f>
-        <v>5.1720000000000006</v>
-      </c>
-      <c r="AS8" s="12">
-        <f>((P8-P17)-(X8-X17)+((AE8-AE17)/116))+1</f>
-        <v>1.4920689655172414</v>
-      </c>
-      <c r="AT8" s="5">
-        <f>(((P8-P17)-(X8-X17)+((AE8-AE17)/100))/2)+1</f>
-        <v>1.2585999999999999</v>
+        <f>((P8-P17)-(X8-X17)+((AD8-AD17)/116))+1</f>
+        <v>1.2091379310344827</v>
+      </c>
+      <c r="AS8" s="5">
+        <f>(((P8-P17)-(X8-X17)+((AD8-AD17)/100))/2)+1</f>
+        <v>1.1109</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>20</v>
       </c>
@@ -3571,125 +3543,121 @@
         <v>0.51</v>
       </c>
       <c r="Q9" s="53">
-        <f>(D9/O9)</f>
+        <f t="shared" si="1"/>
         <v>0.19021739130434784</v>
       </c>
       <c r="R9" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="S9" s="53">
-        <f>(E9/O9)*100</f>
+        <f t="shared" si="3"/>
         <v>38.586956521739133</v>
       </c>
       <c r="T9" s="32">
-        <f>ROUND((D9/E9)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>49.3</v>
       </c>
       <c r="U9" s="53">
-        <f>F9/O9</f>
+        <f t="shared" si="5"/>
         <v>7.6086956521739135E-2</v>
       </c>
       <c r="V9" s="53">
-        <f>G9/O9</f>
+        <f t="shared" si="6"/>
         <v>5.434782608695652E-2</v>
       </c>
       <c r="W9" s="53">
-        <f>H9/O9</f>
+        <f t="shared" si="7"/>
         <v>3.8043478260869568E-2</v>
       </c>
       <c r="X9" s="32">
-        <f>ROUND(IMDIV(I9,O9),2)</f>
+        <f t="shared" si="8"/>
         <v>0.64</v>
       </c>
       <c r="Y9" s="32">
-        <f>ROUND(IMDIV(J9,O9),2)</f>
-        <v>0.04</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z9" s="32">
-        <f>ROUND(IMDIV(K9,O9),2)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1.96</v>
       </c>
       <c r="AA9" s="32">
-        <f>ROUND(IMDIV(L9,O9),2)</f>
-        <v>1.96</v>
+        <f t="shared" si="11"/>
+        <v>0.17</v>
       </c>
       <c r="AB9" s="32">
-        <f>ROUND(IMDIV(M9,O9),2)</f>
-        <v>0.17</v>
+        <f t="shared" si="12"/>
+        <v>0.79</v>
       </c>
       <c r="AC9" s="32">
-        <f>ROUND(IMDIV(B9,I9),2)</f>
-        <v>0.79</v>
+        <f t="shared" si="13"/>
+        <v>51.61</v>
       </c>
       <c r="AD9" s="32">
-        <f>ROUND(IMDIV(C9,B9),4)*100</f>
-        <v>51.61</v>
-      </c>
-      <c r="AE9" s="32">
-        <f>ROUND(IMDIV(N9,O9),2)</f>
+        <f t="shared" si="14"/>
         <v>57.9</v>
       </c>
-      <c r="AF9" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG9" s="31" t="s">
+      <c r="AE9" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AH9" s="73">
-        <f t="shared" si="2"/>
-        <v>0.90100543478260864</v>
-      </c>
-      <c r="AI9" s="66">
-        <f>(((P9-Q9+1.25*Q9)/2)+(U9/3)-(X9-0.2*Y9+0.5*Z9)+(AE9/250)+(AB9/20))+1</f>
-        <v>0.91223949275362315</v>
-      </c>
-      <c r="AJ9" s="62">
-        <f>(((P9-Q9+1.25*Q9+U9)/2)+(1-(X9-0.25*Y9+0.5*Z9))+(AE9/200)+(AB9/18))</f>
-        <v>0.98576509661835754</v>
-      </c>
-      <c r="AK9" s="23">
-        <f>((P9/2)+(1-(X9-0.25*Y9+0.5*Z9))+(AE9/200)+(AB9/18))</f>
-        <v>0.92394444444444446</v>
-      </c>
-      <c r="AL9" s="20">
-        <f>(((P9/2)+(1-X9)+(AE9/200)+(AB9/9)))/1.06</f>
+      <c r="AG9" s="73">
+        <f t="shared" si="18"/>
+        <v>0.91943276036400401</v>
+      </c>
+      <c r="AH9" s="66" t="e">
+        <f>(((P9-Q9+1.25*Q9)/2)+(U9/3)-(X9-0.2*#REF!+0.5*Y9)+(AD9/250)+(AA9/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI9" s="62" t="e">
+        <f>(((P9-Q9+1.25*Q9+U9)/2)+(1-(X9-0.25*#REF!+0.5*Y9))+(AD9/200)+(AA9/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ9" s="23" t="e">
+        <f>((P9/2)+(1-(X9-0.25*#REF!+0.5*Y9))+(AD9/200)+(AA9/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK9" s="20">
+        <f t="shared" si="15"/>
         <v>0.87112159329140448</v>
       </c>
-      <c r="AM9" s="18">
-        <f>((P9/2)+(1-X9)+(AE9/200)+(AB9/9))</f>
+      <c r="AL9" s="18">
+        <f t="shared" si="16"/>
         <v>0.92338888888888881</v>
       </c>
-      <c r="AN9" s="15">
-        <f>((P9/2)+(1-X9)+(AE9/200))</f>
+      <c r="AM9" s="15">
+        <f t="shared" si="17"/>
         <v>0.90449999999999997</v>
       </c>
-      <c r="AO9" s="68">
-        <f>(((P9-Q9+1.25*Q9)/2)+(U9/3)-(X9-0.2*Y9+0.5*Z9)+(AE9/250)+(AB9/18))*10</f>
-        <v>-0.86816062801932381</v>
-      </c>
-      <c r="AP9" s="10">
-        <f>(((P9-P13)-(X9-X13)+((AE9-AE13)/100))/2)*10</f>
+      <c r="AN9" s="68" t="e">
+        <f>(((P9-Q9+1.25*Q9)/2)+(U9/3)-(X9-0.2*#REF!+0.5*Y9)+(AD9/250)+(AA9/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO9" s="10">
+        <f>(((P9-P13)-(X9-X13)+((AD9-AD13)/100))/2)*10</f>
         <v>3.0149999999999997</v>
       </c>
-      <c r="AQ9" s="2">
-        <f>(((P9-P13)-(X9-X13)+(AE9-AE13))/100)+1</f>
+      <c r="AP9" s="2">
+        <f>(((P9-P13)-(X9-X13)+(AD9-AD13))/100)+1</f>
         <v>1.2565</v>
       </c>
+      <c r="AQ9" s="12">
+        <f>((P9-P13)-(X9-X13)+((AD9-AD13)/100))*10</f>
+        <v>6.0299999999999994</v>
+      </c>
       <c r="AR9" s="12">
-        <f>((P9-P13)-(X9-X13)+((AE9-AE13)/100))*10</f>
-        <v>6.0299999999999994</v>
-      </c>
-      <c r="AS9" s="12">
-        <f>((P9-P13)-(X9-X13)+((AE9-AE13)/116))+1</f>
+        <f>((P9-P13)-(X9-X13)+((AD9-AD13)/116))+1</f>
         <v>1.568103448275862</v>
       </c>
-      <c r="AT9" s="5">
-        <f>(((P9-P13)-(X9-X13)+((AE9-AE13)/100))/2)+1</f>
+      <c r="AS9" s="5">
+        <f>(((P9-P13)-(X9-X13)+((AD9-AD13)/100))/2)+1</f>
         <v>1.3014999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>17</v>
       </c>
@@ -3740,125 +3708,121 @@
         <v>0.73</v>
       </c>
       <c r="Q10" s="56">
-        <f>(D10/O10)</f>
+        <f t="shared" si="1"/>
         <v>0.26923076923076922</v>
       </c>
       <c r="R10" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="S10" s="56">
-        <f>(E10/O10)*100</f>
+        <f t="shared" si="3"/>
         <v>51.282051282051277</v>
       </c>
       <c r="T10" s="42">
-        <f>ROUND((D10/E10)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="U10" s="56">
-        <f>F10/O10</f>
+        <f t="shared" si="5"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="V10" s="56">
-        <f>G10/O10</f>
+        <f t="shared" si="6"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="W10" s="56">
-        <f>H10/O10</f>
+        <f t="shared" si="7"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="X10" s="42">
-        <f>ROUND(IMDIV(I10,O10),2)</f>
+        <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="Y10" s="42">
-        <f>ROUND(IMDIV(J10,O10),2)</f>
-        <v>0.05</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z10" s="42">
-        <f>ROUND(IMDIV(K10,O10),2)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.04</v>
       </c>
       <c r="AA10" s="42">
-        <f>ROUND(IMDIV(L10,O10),2)</f>
-        <v>2.04</v>
+        <f t="shared" si="11"/>
+        <v>0.13</v>
       </c>
       <c r="AB10" s="42">
-        <f>ROUND(IMDIV(M10,O10),2)</f>
-        <v>0.13</v>
+        <f t="shared" si="12"/>
+        <v>1.21</v>
       </c>
       <c r="AC10" s="42">
-        <f>ROUND(IMDIV(B10,I10),2)</f>
-        <v>1.21</v>
+        <f t="shared" si="13"/>
+        <v>47.370000000000005</v>
       </c>
       <c r="AD10" s="42">
-        <f>ROUND(IMDIV(C10,B10),4)*100</f>
-        <v>47.370000000000005</v>
-      </c>
-      <c r="AE10" s="42">
-        <f>ROUND(IMDIV(N10,O10),2)</f>
+        <f t="shared" si="14"/>
         <v>80.36</v>
       </c>
+      <c r="AE10" s="41" t="s">
+        <v>51</v>
+      </c>
       <c r="AF10" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AH10" s="73">
-        <f t="shared" si="2"/>
-        <v>1.1867549145299146</v>
-      </c>
-      <c r="AI10" s="66">
-        <f>(((P10-Q10+1.25*Q10)/2)+(U10/3)-(X10-0.2*Y10+0.5*Z10)+(AE10/250)+(AB10/20))+1</f>
-        <v>1.1878758974358974</v>
-      </c>
-      <c r="AJ10" s="62">
-        <f>(((P10-Q10+1.25*Q10+U10)/2)+(1-(X10-0.25*Y10+0.5*Z10))+(AE10/200)+(AB10/18))</f>
-        <v>1.2970991452991452</v>
-      </c>
-      <c r="AK10" s="23">
-        <f>((P10/2)+(1-(X10-0.25*Y10+0.5*Z10))+(AE10/200)+(AB10/18))</f>
-        <v>1.1865222222222223</v>
-      </c>
-      <c r="AL10" s="20">
-        <f>(((P10/2)+(1-X10)+(AE10/200)+(AB10/9)))/1.06</f>
+      <c r="AG10" s="73">
+        <f t="shared" si="18"/>
+        <v>1.199113595706619</v>
+      </c>
+      <c r="AH10" s="66" t="e">
+        <f>(((P10-Q10+1.25*Q10)/2)+(U10/3)-(X10-0.2*#REF!+0.5*Y10)+(AD10/250)+(AA10/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI10" s="62" t="e">
+        <f>(((P10-Q10+1.25*Q10+U10)/2)+(1-(X10-0.25*#REF!+0.5*Y10))+(AD10/200)+(AA10/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ10" s="23" t="e">
+        <f>((P10/2)+(1-(X10-0.25*#REF!+0.5*Y10))+(AD10/200)+(AA10/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK10" s="20">
+        <f t="shared" si="15"/>
         <v>1.1143815513626836</v>
       </c>
-      <c r="AM10" s="18">
-        <f>((P10/2)+(1-X10)+(AE10/200)+(AB10/9))</f>
+      <c r="AL10" s="18">
+        <f t="shared" si="16"/>
         <v>1.1812444444444445</v>
       </c>
-      <c r="AN10" s="15">
-        <f>((P10/2)+(1-X10)+(AE10/200))</f>
+      <c r="AM10" s="15">
+        <f t="shared" si="17"/>
         <v>1.1668000000000001</v>
       </c>
-      <c r="AO10" s="68">
-        <f>(((P10-Q10+1.25*Q10)/2)+(U10/3)-(X10-0.2*Y10+0.5*Z10)+(AE10/250)+(AB10/18))*10</f>
-        <v>1.8859811965811966</v>
-      </c>
-      <c r="AP10" s="10">
-        <f>(((P10-P22)-(X10-X22)+((AE10-AE22)/100))/2)*10</f>
+      <c r="AN10" s="68" t="e">
+        <f>(((P10-Q10+1.25*Q10)/2)+(U10/3)-(X10-0.2*#REF!+0.5*Y10)+(AD10/250)+(AA10/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO10" s="10">
+        <f>(((P10-P22)-(X10-X22)+((AD10-AD22)/100))/2)*10</f>
         <v>3.4474999999999998</v>
       </c>
-      <c r="AQ10" s="2">
-        <f>(((P10-P22)-(X10-X22)+(AE10-AE22))/100)+1</f>
+      <c r="AP10" s="2">
+        <f>(((P10-P22)-(X10-X22)+(AD10-AD22))/100)+1</f>
         <v>1.2341</v>
       </c>
+      <c r="AQ10" s="12">
+        <f>((P10-P22)-(X10-X22)+((AD10-AD22)/100))*10</f>
+        <v>6.8949999999999996</v>
+      </c>
       <c r="AR10" s="12">
-        <f>((P10-P22)-(X10-X22)+((AE10-AE22)/100))*10</f>
-        <v>6.8949999999999996</v>
-      </c>
-      <c r="AS10" s="12">
-        <f>((P10-P22)-(X10-X22)+((AE10-AE22)/116))+1</f>
+        <f>((P10-P22)-(X10-X22)+((AD10-AD22)/116))+1</f>
         <v>1.657844827586207</v>
       </c>
-      <c r="AT10" s="5">
-        <f>(((P10-P22)-(X10-X22)+((AE10-AE22)/100))/2)+1</f>
+      <c r="AS10" s="5">
+        <f>(((P10-P22)-(X10-X22)+((AD10-AD22)/100))/2)+1</f>
         <v>1.3447499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>18</v>
       </c>
@@ -3909,125 +3873,121 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="Q11" s="56">
-        <f>(D11/O11)</f>
+        <f t="shared" si="1"/>
         <v>0.17948717948717949</v>
       </c>
       <c r="R11" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31</v>
       </c>
       <c r="S11" s="56">
-        <f>(E11/O11)*100</f>
+        <f t="shared" si="3"/>
         <v>48.717948717948715</v>
       </c>
       <c r="T11" s="42">
-        <f>ROUND((D11/E11)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>36.840000000000003</v>
       </c>
       <c r="U11" s="56">
-        <f>F11/O11</f>
+        <f t="shared" si="5"/>
         <v>8.9743589743589744E-2</v>
       </c>
       <c r="V11" s="56">
-        <f>G11/O11</f>
+        <f t="shared" si="6"/>
         <v>5.128205128205128E-2</v>
       </c>
       <c r="W11" s="56">
-        <f>H11/O11</f>
+        <f t="shared" si="7"/>
         <v>6.4102564102564097E-2</v>
       </c>
       <c r="X11" s="42">
-        <f>ROUND(IMDIV(I11,O11),2)</f>
+        <f t="shared" si="8"/>
         <v>0.65</v>
       </c>
       <c r="Y11" s="42">
-        <f>ROUND(IMDIV(J11,O11),2)</f>
-        <v>0.08</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z11" s="42">
-        <f>ROUND(IMDIV(K11,O11),2)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1.47</v>
       </c>
       <c r="AA11" s="42">
-        <f>ROUND(IMDIV(L11,O11),2)</f>
-        <v>1.47</v>
+        <f t="shared" si="11"/>
+        <v>0.19</v>
       </c>
       <c r="AB11" s="42">
-        <f>ROUND(IMDIV(M11,O11),2)</f>
-        <v>0.19</v>
+        <f t="shared" si="12"/>
+        <v>0.84</v>
       </c>
       <c r="AC11" s="42">
-        <f>ROUND(IMDIV(B11,I11),2)</f>
-        <v>0.84</v>
+        <f t="shared" si="13"/>
+        <v>46.51</v>
       </c>
       <c r="AD11" s="42">
-        <f>ROUND(IMDIV(C11,B11),4)*100</f>
-        <v>46.51</v>
-      </c>
-      <c r="AE11" s="42">
-        <f>ROUND(IMDIV(N11,O11),2)</f>
+        <f t="shared" si="14"/>
         <v>63.87</v>
       </c>
+      <c r="AE11" s="41" t="s">
+        <v>51</v>
+      </c>
       <c r="AF11" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AH11" s="73">
-        <f t="shared" si="2"/>
-        <v>0.92682286324786323</v>
-      </c>
-      <c r="AI11" s="66">
-        <f>(((P11-Q11+1.25*Q11)/2)+(U11/3)-(X11-0.2*Y11+0.5*Z11)+(AE11/250)+(AB11/20))+1</f>
-        <v>0.95833042735042728</v>
-      </c>
-      <c r="AJ11" s="62">
-        <f>(((P11-Q11+1.25*Q11+U11)/2)+(1-(X11-0.25*Y11+0.5*Z11))+(AE11/200)+(AB11/18))</f>
-        <v>1.042213247863248</v>
-      </c>
-      <c r="AK11" s="23">
-        <f>((P11/2)+(1-(X11-0.25*Y11+0.5*Z11))+(AE11/200)+(AB11/18))</f>
-        <v>0.97490555555555558</v>
-      </c>
-      <c r="AL11" s="20">
-        <f>(((P11/2)+(1-X11)+(AE11/200)+(AB11/9)))/1.06</f>
+      <c r="AG11" s="73">
+        <f t="shared" si="18"/>
+        <v>0.96682617769827073</v>
+      </c>
+      <c r="AH11" s="66" t="e">
+        <f>(((P11-Q11+1.25*Q11)/2)+(U11/3)-(X11-0.2*#REF!+0.5*Y11)+(AD11/250)+(AA11/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI11" s="62" t="e">
+        <f>(((P11-Q11+1.25*Q11+U11)/2)+(1-(X11-0.25*#REF!+0.5*Y11))+(AD11/200)+(AA11/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ11" s="23" t="e">
+        <f>((P11/2)+(1-(X11-0.25*#REF!+0.5*Y11))+(AD11/200)+(AA11/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK11" s="20">
+        <f t="shared" si="15"/>
         <v>0.91081236897274631</v>
       </c>
-      <c r="AM11" s="18">
-        <f>((P11/2)+(1-X11)+(AE11/200)+(AB11/9))</f>
+      <c r="AL11" s="18">
+        <f t="shared" si="16"/>
         <v>0.9654611111111111</v>
       </c>
-      <c r="AN11" s="15">
-        <f>((P11/2)+(1-X11)+(AE11/200))</f>
+      <c r="AM11" s="15">
+        <f t="shared" si="17"/>
         <v>0.94435000000000002</v>
       </c>
-      <c r="AO11" s="68">
-        <f>(((P11-Q11+1.25*Q11)/2)+(U11/3)-(X11-0.2*Y11+0.5*Z11)+(AE11/250)+(AB11/18))*10</f>
-        <v>-0.40614017094017119</v>
-      </c>
-      <c r="AP11" s="10">
-        <f>(((P11-P16)-(X11-X16)+((AE11-AE16)/100))/2)*10</f>
+      <c r="AN11" s="68" t="e">
+        <f>(((P11-Q11+1.25*Q11)/2)+(U11/3)-(X11-0.2*#REF!+0.5*Y11)+(AD11/250)+(AA11/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO11" s="10">
+        <f>(((P11-P16)-(X11-X16)+((AD11-AD16)/100))/2)*10</f>
         <v>-0.46803571428571528</v>
       </c>
-      <c r="AQ11" s="2">
-        <f>(((P11-P16)-(X11-X16)+(AE11-AE16))/100)+1</f>
+      <c r="AP11" s="2">
+        <f>(((P11-P16)-(X11-X16)+(AD11-AD16))/100)+1</f>
         <v>0.94599285714285697</v>
       </c>
+      <c r="AQ11" s="12">
+        <f>((P11-P16)-(X11-X16)+((AD11-AD16)/100))*10</f>
+        <v>-0.93607142857143055</v>
+      </c>
       <c r="AR11" s="12">
-        <f>((P11-P16)-(X11-X16)+((AE11-AE16)/100))*10</f>
-        <v>-0.93607142857143055</v>
-      </c>
-      <c r="AS11" s="12">
-        <f>((P11-P16)-(X11-X16)+((AE11-AE16)/116))+1</f>
+        <f>((P11-P16)-(X11-X16)+((AD11-AD16)/116))+1</f>
         <v>0.91378694581280773</v>
       </c>
-      <c r="AT11" s="5">
-        <f>(((P11-P16)-(X11-X16)+((AE11-AE16)/100))/2)+1</f>
+      <c r="AS11" s="5">
+        <f>(((P11-P16)-(X11-X16)+((AD11-AD16)/100))/2)+1</f>
         <v>0.9531964285714285</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>23</v>
       </c>
@@ -4078,125 +4038,121 @@
         <v>0.77</v>
       </c>
       <c r="Q12" s="57">
-        <f>(D12/O12)</f>
+        <f t="shared" si="1"/>
         <v>0.42465753424657532</v>
       </c>
       <c r="R12" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34</v>
       </c>
       <c r="S12" s="57">
-        <f>(E12/O12)*100</f>
+        <f t="shared" si="3"/>
         <v>76.712328767123282</v>
       </c>
       <c r="T12" s="45">
-        <f>ROUND((D12/E12)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>55.36</v>
       </c>
       <c r="U12" s="57">
-        <f>F12/O12</f>
+        <f t="shared" si="5"/>
         <v>0.21917808219178081</v>
       </c>
       <c r="V12" s="57">
-        <f>G12/O12</f>
+        <f t="shared" si="6"/>
         <v>4.1095890410958902E-2</v>
       </c>
       <c r="W12" s="57">
-        <f>H12/O12</f>
+        <f t="shared" si="7"/>
         <v>1.3698630136986301E-2</v>
       </c>
       <c r="X12" s="45">
-        <f>ROUND(IMDIV(I12,O12),2)</f>
+        <f t="shared" si="8"/>
         <v>0.68</v>
       </c>
       <c r="Y12" s="45">
-        <f>ROUND(IMDIV(J12,O12),2)</f>
-        <v>0.03</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z12" s="45">
-        <f>ROUND(IMDIV(K12,O12),2)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>5.48</v>
       </c>
       <c r="AA12" s="45">
-        <f>ROUND(IMDIV(L12,O12),2)</f>
-        <v>5.48</v>
+        <f t="shared" si="11"/>
+        <v>0.4</v>
       </c>
       <c r="AB12" s="45">
-        <f>ROUND(IMDIV(M12,O12),2)</f>
-        <v>0.4</v>
+        <f t="shared" si="12"/>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AC12" s="45">
-        <f>ROUND(IMDIV(B12,I12),2)</f>
-        <v>1.1200000000000001</v>
+        <f t="shared" si="13"/>
+        <v>67.86</v>
       </c>
       <c r="AD12" s="45">
-        <f>ROUND(IMDIV(C12,B12),4)*100</f>
-        <v>67.86</v>
-      </c>
-      <c r="AE12" s="45">
-        <f>ROUND(IMDIV(N12,O12),2)</f>
+        <f t="shared" si="14"/>
         <v>95.84</v>
       </c>
-      <c r="AF12" s="46" t="s">
+      <c r="AE12" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AG12" s="43" t="s">
+      <c r="AF12" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AH12" s="73">
-        <f t="shared" si="2"/>
-        <v>1.2075902587519027</v>
-      </c>
-      <c r="AI12" s="66">
-        <f>(((P12-Q12+1.25*Q12)/2)+(U12/3)-(X12-0.2*Y12+0.5*Z12)+(AE12/250)+(AB12/20))+1</f>
-        <v>1.2405015525114156</v>
-      </c>
-      <c r="AJ12" s="62">
-        <f>(((P12-Q12+1.25*Q12+U12)/2)+(1-(X12-0.25*Y12+0.5*Z12))+(AE12/200)+(AB12/18))</f>
-        <v>1.3765934550989345</v>
-      </c>
-      <c r="AK12" s="23">
-        <f>((P12/2)+(1-(X12-0.25*Y12+0.5*Z12))+(AE12/200)+(AB12/18))</f>
-        <v>1.2139222222222221</v>
-      </c>
-      <c r="AL12" s="20">
-        <f>(((P12/2)+(1-X12)+(AE12/200)+(AB12/9)))/1.06</f>
+      <c r="AG12" s="73">
+        <f t="shared" si="18"/>
+        <v>1.2283016884358076</v>
+      </c>
+      <c r="AH12" s="66" t="e">
+        <f>(((P12-Q12+1.25*Q12)/2)+(U12/3)-(X12-0.2*#REF!+0.5*Y12)+(AD12/250)+(AA12/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI12" s="62" t="e">
+        <f>(((P12-Q12+1.25*Q12+U12)/2)+(1-(X12-0.25*#REF!+0.5*Y12))+(AD12/200)+(AA12/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ12" s="23" t="e">
+        <f>((P12/2)+(1-(X12-0.25*#REF!+0.5*Y12))+(AD12/200)+(AA12/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK12" s="20">
+        <f t="shared" si="15"/>
         <v>1.1590985324947589</v>
       </c>
-      <c r="AM12" s="18">
-        <f>((P12/2)+(1-X12)+(AE12/200)+(AB12/9))</f>
+      <c r="AL12" s="18">
+        <f t="shared" si="16"/>
         <v>1.2286444444444444</v>
       </c>
-      <c r="AN12" s="15">
-        <f>((P12/2)+(1-X12)+(AE12/200))</f>
+      <c r="AM12" s="15">
+        <f t="shared" si="17"/>
         <v>1.1841999999999999</v>
       </c>
-      <c r="AO12" s="68">
-        <f>(((P12-Q12+1.25*Q12)/2)+(U12/3)-(X12-0.2*Y12+0.5*Z12)+(AE12/250)+(AB12/18))*10</f>
-        <v>2.427237747336378</v>
-      </c>
-      <c r="AP12" s="10">
-        <f>(((P12-P19)-(X12-X19)+((AE12-AE19)/100))/2)*10</f>
+      <c r="AN12" s="68" t="e">
+        <f>(((P12-Q12+1.25*Q12)/2)+(U12/3)-(X12-0.2*#REF!+0.5*Y12)+(AD12/250)+(AA12/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO12" s="10">
+        <f>(((P12-P19)-(X12-X19)+((AD12-AD19)/100))/2)*10</f>
         <v>-0.14699999999999974</v>
       </c>
-      <c r="AQ12" s="2">
-        <f>(((P12-P19)-(X12-X19)+(AE12-AE19))/100)+1</f>
+      <c r="AP12" s="2">
+        <f>(((P12-P19)-(X12-X19)+(AD12-AD19))/100)+1</f>
         <v>1.0597000000000001</v>
       </c>
+      <c r="AQ12" s="12">
+        <f>((P12-P19)-(X12-X19)+((AD12-AD19)/100))*10</f>
+        <v>-0.29399999999999948</v>
+      </c>
       <c r="AR12" s="12">
-        <f>((P12-P19)-(X12-X19)+((AE12-AE19)/100))*10</f>
-        <v>-0.29399999999999948</v>
-      </c>
-      <c r="AS12" s="12">
-        <f>((P12-P19)-(X12-X19)+((AE12-AE19)/116))+1</f>
+        <f>((P12-P19)-(X12-X19)+((AD12-AD19)/116))+1</f>
         <v>0.96224137931034492</v>
       </c>
-      <c r="AT12" s="5">
-        <f>(((P12-P19)-(X12-X19)+((AE12-AE19)/100))/2)+1</f>
+      <c r="AS12" s="5">
+        <f>(((P12-P19)-(X12-X19)+((AD12-AD19)/100))/2)+1</f>
         <v>0.98530000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>24</v>
       </c>
@@ -4247,125 +4203,121 @@
         <v>0.25</v>
       </c>
       <c r="Q13" s="57">
-        <f>(D13/O13)</f>
+        <f t="shared" si="1"/>
         <v>6.8493150684931503E-2</v>
       </c>
       <c r="R13" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="S13" s="57">
-        <f>(E13/O13)*100</f>
+        <f t="shared" si="3"/>
         <v>23.287671232876711</v>
       </c>
       <c r="T13" s="45">
-        <f>ROUND((D13/E13)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>29.41</v>
       </c>
       <c r="U13" s="57">
-        <f>F13/O13</f>
+        <f t="shared" si="5"/>
         <v>1.3698630136986301E-2</v>
       </c>
       <c r="V13" s="57">
-        <f>G13/O13</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W13" s="57">
-        <f>H13/O13</f>
+        <f t="shared" si="7"/>
         <v>1.3698630136986301E-2</v>
       </c>
       <c r="X13" s="45">
-        <f>ROUND(IMDIV(I13,O13),2)</f>
+        <f t="shared" si="8"/>
         <v>0.73</v>
       </c>
       <c r="Y13" s="45">
-        <f>ROUND(IMDIV(J13,O13),2)</f>
-        <v>0.01</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z13" s="45">
-        <f>ROUND(IMDIV(K13,O13),2)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1.52</v>
       </c>
       <c r="AA13" s="45">
-        <f>ROUND(IMDIV(L13,O13),2)</f>
-        <v>1.52</v>
+        <f t="shared" si="11"/>
+        <v>0.22</v>
       </c>
       <c r="AB13" s="45">
-        <f>ROUND(IMDIV(M13,O13),2)</f>
-        <v>0.22</v>
+        <f t="shared" si="12"/>
+        <v>0.34</v>
       </c>
       <c r="AC13" s="45">
-        <f>ROUND(IMDIV(B13,I13),2)</f>
-        <v>0.34</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="AD13" s="45">
-        <f>ROUND(IMDIV(C13,B13),4)*100</f>
-        <v>50</v>
-      </c>
-      <c r="AE13" s="45">
-        <f>ROUND(IMDIV(N13,O13),2)</f>
+        <f t="shared" si="14"/>
         <v>32.6</v>
       </c>
-      <c r="AF13" s="46" t="s">
+      <c r="AE13" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AG13" s="43" t="s">
+      <c r="AF13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AH13" s="73">
-        <f t="shared" si="2"/>
-        <v>0.53169140030441386</v>
-      </c>
-      <c r="AI13" s="66">
-        <f>(((P13-Q13+1.25*Q13)/2)+(U13/3)-(X13-0.2*Y13+0.5*Z13)+(AE13/250)+(AB13/20))+1</f>
-        <v>0.55152785388127867</v>
-      </c>
-      <c r="AJ13" s="62">
-        <f>(((P13-Q13+1.25*Q13+U13)/2)+(1-(X13-0.25*Y13+0.5*Z13))+(AE13/200)+(AB13/18))</f>
-        <v>0.58813318112633184</v>
-      </c>
-      <c r="AK13" s="23">
-        <f>((P13/2)+(1-(X13-0.25*Y13+0.5*Z13))+(AE13/200)+(AB13/18))</f>
-        <v>0.57272222222222224</v>
-      </c>
-      <c r="AL13" s="20">
-        <f>(((P13/2)+(1-X13)+(AE13/200)+(AB13/9)))/1.06</f>
+      <c r="AG13" s="73">
+        <f t="shared" si="18"/>
+        <v>0.56379229053838809</v>
+      </c>
+      <c r="AH13" s="66" t="e">
+        <f>(((P13-Q13+1.25*Q13)/2)+(U13/3)-(X13-0.2*#REF!+0.5*Y13)+(AD13/250)+(AA13/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI13" s="62" t="e">
+        <f>(((P13-Q13+1.25*Q13+U13)/2)+(1-(X13-0.25*#REF!+0.5*Y13))+(AD13/200)+(AA13/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ13" s="23" t="e">
+        <f>((P13/2)+(1-(X13-0.25*#REF!+0.5*Y13))+(AD13/200)+(AA13/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK13" s="20">
+        <f t="shared" si="15"/>
         <v>0.54947589098532501</v>
       </c>
-      <c r="AM13" s="18">
-        <f>((P13/2)+(1-X13)+(AE13/200)+(AB13/9))</f>
+      <c r="AL13" s="18">
+        <f t="shared" si="16"/>
         <v>0.58244444444444454</v>
       </c>
-      <c r="AN13" s="15">
-        <f>((P13/2)+(1-X13)+(AE13/200))</f>
+      <c r="AM13" s="15">
+        <f t="shared" si="17"/>
         <v>0.55800000000000005</v>
       </c>
-      <c r="AO13" s="68">
-        <f>(((P13-Q13+1.25*Q13)/2)+(U13/3)-(X13-0.2*Y13+0.5*Z13)+(AE13/250)+(AB13/18))*10</f>
-        <v>-4.4724992389649918</v>
-      </c>
-      <c r="AP13" s="10">
-        <f>(((P13-P16)-(X13-X16)+((AE13-AE16)/100))/2)*10</f>
+      <c r="AN13" s="68" t="e">
+        <f>(((P13-Q13+1.25*Q13)/2)+(U13/3)-(X13-0.2*#REF!+0.5*Y13)+(AD13/250)+(AA13/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO13" s="10">
+        <f>(((P13-P16)-(X13-X16)+((AD13-AD16)/100))/2)*10</f>
         <v>-3.9315357142857152</v>
       </c>
-      <c r="AQ13" s="2">
-        <f>(((P13-P16)-(X13-X16)+(AE13-AE16))/100)+1</f>
+      <c r="AP13" s="2">
+        <f>(((P13-P16)-(X13-X16)+(AD13-AD16))/100)+1</f>
         <v>0.62949285714285708</v>
       </c>
+      <c r="AQ13" s="12">
+        <f>((P13-P16)-(X13-X16)+((AD13-AD16)/100))*10</f>
+        <v>-7.8630714285714305</v>
+      </c>
       <c r="AR13" s="12">
-        <f>((P13-P16)-(X13-X16)+((AE13-AE16)/100))*10</f>
-        <v>-7.8630714285714305</v>
-      </c>
-      <c r="AS13" s="12">
-        <f>((P13-P16)-(X13-X16)+((AE13-AE16)/116))+1</f>
+        <f>((P13-P16)-(X13-X16)+((AD13-AD16)/116))+1</f>
         <v>0.26421798029556642</v>
       </c>
-      <c r="AT13" s="5">
-        <f>(((P13-P16)-(X13-X16)+((AE13-AE16)/100))/2)+1</f>
+      <c r="AS13" s="5">
+        <f>(((P13-P16)-(X13-X16)+((AD13-AD16)/100))/2)+1</f>
         <v>0.60684642857142845</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>29</v>
       </c>
@@ -4416,125 +4368,121 @@
         <v>0.35</v>
       </c>
       <c r="Q14" s="58">
-        <f>(D14/O14)</f>
+        <f t="shared" si="1"/>
         <v>7.575757575757576E-2</v>
       </c>
       <c r="R14" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39</v>
       </c>
       <c r="S14" s="58">
-        <f>(E14/O14)*100</f>
+        <f t="shared" si="3"/>
         <v>46.969696969696969</v>
       </c>
       <c r="T14" s="47">
-        <f>ROUND((D14/E14)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>16.13</v>
       </c>
       <c r="U14" s="58">
-        <f>F14/O14</f>
+        <f t="shared" si="5"/>
         <v>6.0606060606060608E-2</v>
       </c>
       <c r="V14" s="58">
-        <f>G14/O14</f>
+        <f t="shared" si="6"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="W14" s="58">
-        <f>H14/O14</f>
+        <f t="shared" si="7"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="X14" s="47">
-        <f>ROUND(IMDIV(I14,O14),2)</f>
+        <f t="shared" si="8"/>
         <v>0.86</v>
       </c>
       <c r="Y14" s="47">
-        <f>ROUND(IMDIV(J14,O14),2)</f>
-        <v>0.02</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z14" s="47">
-        <f>ROUND(IMDIV(K14,O14),2)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.12</v>
       </c>
       <c r="AA14" s="47">
-        <f>ROUND(IMDIV(L14,O14),2)</f>
-        <v>0.12</v>
+        <f t="shared" si="11"/>
+        <v>0.03</v>
       </c>
       <c r="AB14" s="47">
-        <f>ROUND(IMDIV(M14,O14),2)</f>
-        <v>0.03</v>
+        <f t="shared" si="12"/>
+        <v>0.4</v>
       </c>
       <c r="AC14" s="47">
-        <f>ROUND(IMDIV(B14,I14),2)</f>
-        <v>0.4</v>
+        <f t="shared" si="13"/>
+        <v>34.78</v>
       </c>
       <c r="AD14" s="47">
-        <f>ROUND(IMDIV(C14,B14),4)*100</f>
-        <v>34.78</v>
-      </c>
-      <c r="AE14" s="47">
-        <f>ROUND(IMDIV(N14,O14),2)</f>
+        <f t="shared" si="14"/>
         <v>43.97</v>
       </c>
+      <c r="AE14" s="47" t="s">
+        <v>45</v>
+      </c>
       <c r="AF14" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AH14" s="73">
-        <f t="shared" si="2"/>
-        <v>0.45693863636363619</v>
-      </c>
-      <c r="AI14" s="66">
-        <f>(((P14-Q14+1.25*Q14)/2)+(U14/3)-(X14-0.2*Y14+0.5*Z14)+(AE14/250)+(AB14/20))+1</f>
-        <v>0.52605171717171717</v>
-      </c>
-      <c r="AJ14" s="62">
-        <f>(((P14-Q14+1.25*Q14+U14)/2)+(1-(X14-0.25*Y14+0.5*Z14))+(AE14/200)+(AB14/18))</f>
-        <v>0.58128939393939394</v>
-      </c>
-      <c r="AK14" s="23">
-        <f>((P14/2)+(1-(X14-0.25*Y14+0.5*Z14))+(AE14/200)+(AB14/18))</f>
-        <v>0.54151666666666665</v>
-      </c>
-      <c r="AL14" s="20">
-        <f>(((P14/2)+(1-X14)+(AE14/200)+(AB14/9)))/1.06</f>
+      <c r="AG14" s="73">
+        <f t="shared" si="18"/>
+        <v>0.54222374911909799</v>
+      </c>
+      <c r="AH14" s="66" t="e">
+        <f>(((P14-Q14+1.25*Q14)/2)+(U14/3)-(X14-0.2*#REF!+0.5*Y14)+(AD14/250)+(AA14/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI14" s="62" t="e">
+        <f>(((P14-Q14+1.25*Q14+U14)/2)+(1-(X14-0.25*#REF!+0.5*Y14))+(AD14/200)+(AA14/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ14" s="23" t="e">
+        <f>((P14/2)+(1-(X14-0.25*#REF!+0.5*Y14))+(AD14/200)+(AA14/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK14" s="20">
+        <f t="shared" si="15"/>
         <v>0.50772012578616355</v>
       </c>
-      <c r="AM14" s="18">
-        <f>((P14/2)+(1-X14)+(AE14/200)+(AB14/9))</f>
+      <c r="AL14" s="18">
+        <f t="shared" si="16"/>
         <v>0.53818333333333335</v>
       </c>
-      <c r="AN14" s="15">
-        <f>((P14/2)+(1-X14)+(AE14/200))</f>
+      <c r="AM14" s="15">
+        <f t="shared" si="17"/>
         <v>0.53485000000000005</v>
       </c>
-      <c r="AO14" s="68">
-        <f>(((P14-Q14+1.25*Q14)/2)+(U14/3)-(X14-0.2*Y14+0.5*Z14)+(AE14/250)+(AB14/18))*10</f>
-        <v>-4.7378161616161609</v>
-      </c>
-      <c r="AP14" s="10">
-        <f>(((P14-P16)-(X14-X16)+((AE14-AE16)/100))/2)*10</f>
+      <c r="AN14" s="68" t="e">
+        <f>(((P14-Q14+1.25*Q14)/2)+(U14/3)-(X14-0.2*#REF!+0.5*Y14)+(AD14/250)+(AA14/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO14" s="10">
+        <f>(((P14-P16)-(X14-X16)+((AD14-AD16)/100))/2)*10</f>
         <v>-3.5130357142857154</v>
       </c>
-      <c r="AQ14" s="2">
-        <f>(((P14-P16)-(X14-X16)+(AE14-AE16))/100)+1</f>
+      <c r="AP14" s="2">
+        <f>(((P14-P16)-(X14-X16)+(AD14-AD16))/100)+1</f>
         <v>0.74289285714285702</v>
       </c>
+      <c r="AQ14" s="12">
+        <f>((P14-P16)-(X14-X16)+((AD14-AD16)/100))*10</f>
+        <v>-7.0260714285714307</v>
+      </c>
       <c r="AR14" s="12">
-        <f>((P14-P16)-(X14-X16)+((AE14-AE16)/100))*10</f>
-        <v>-7.0260714285714307</v>
-      </c>
-      <c r="AS14" s="12">
-        <f>((P14-P16)-(X14-X16)+((AE14-AE16)/116))+1</f>
+        <f>((P14-P16)-(X14-X16)+((AD14-AD16)/116))+1</f>
         <v>0.33223522167487662</v>
       </c>
-      <c r="AT14" s="5">
-        <f>(((P14-P16)-(X14-X16)+((AE14-AE16)/100))/2)+1</f>
+      <c r="AS14" s="5">
+        <f>(((P14-P16)-(X14-X16)+((AD14-AD16)/100))/2)+1</f>
         <v>0.64869642857142851</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>25</v>
       </c>
@@ -4585,125 +4533,121 @@
         <v>0.26</v>
       </c>
       <c r="Q15" s="58">
-        <f>(D15/O15)</f>
+        <f t="shared" si="1"/>
         <v>0.12121212121212122</v>
       </c>
       <c r="R15" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41</v>
       </c>
       <c r="S15" s="58">
-        <f>(E15/O15)*100</f>
+        <f t="shared" si="3"/>
         <v>53.030303030303031</v>
       </c>
       <c r="T15" s="47">
-        <f>ROUND((D15/E15)*100,2)</f>
+        <f t="shared" si="4"/>
         <v>22.86</v>
       </c>
       <c r="U15" s="58">
-        <f>F15/O15</f>
+        <f t="shared" si="5"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="V15" s="58">
-        <f>G15/O15</f>
+        <f t="shared" si="6"/>
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="W15" s="58">
-        <f>H15/O15</f>
+        <f t="shared" si="7"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="X15" s="47">
-        <f>ROUND(IMDIV(I15,O15),2)</f>
+        <f t="shared" si="8"/>
         <v>0.86</v>
       </c>
       <c r="Y15" s="47">
-        <f>ROUND(IMDIV(J15,O15),2)</f>
-        <v>0.02</v>
+        <f t="shared" si="9"/>
+        <v>0.03</v>
       </c>
       <c r="Z15" s="47">
-        <f>ROUND(IMDIV(K15,O15),2)</f>
-        <v>0.03</v>
+        <f t="shared" si="10"/>
+        <v>1.67</v>
       </c>
       <c r="AA15" s="47">
-        <f>ROUND(IMDIV(L15,O15),2)</f>
-        <v>1.67</v>
+        <f t="shared" si="11"/>
+        <v>0.33</v>
       </c>
       <c r="AB15" s="47">
-        <f>ROUND(IMDIV(M15,O15),2)</f>
-        <v>0.33</v>
+        <f t="shared" si="12"/>
+        <v>0.3</v>
       </c>
       <c r="AC15" s="47">
-        <f>ROUND(IMDIV(B15,I15),2)</f>
-        <v>0.3</v>
+        <f t="shared" si="13"/>
+        <v>23.53</v>
       </c>
       <c r="AD15" s="47">
-        <f>ROUND(IMDIV(C15,B15),4)*100</f>
-        <v>23.53</v>
-      </c>
-      <c r="AE15" s="47">
-        <f>ROUND(IMDIV(N15,O15),2)</f>
+        <f t="shared" si="14"/>
         <v>52.26</v>
       </c>
+      <c r="AE15" s="47" t="s">
+        <v>45</v>
+      </c>
       <c r="AF15" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG15" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AH15" s="73">
-        <f t="shared" si="2"/>
-        <v>0.44721742424242417</v>
-      </c>
-      <c r="AI15" s="66">
-        <f>(((P15-Q15+1.25*Q15)/2)+(U15/3)-(X15-0.2*Y15+0.5*Z15)+(AE15/250)+(AB15/20))+1</f>
-        <v>0.51484303030303025</v>
-      </c>
-      <c r="AJ15" s="62">
-        <f>(((P15-Q15+1.25*Q15+U15)/2)+(1-(X15-0.25*Y15+0.5*Z15))+(AE15/200)+(AB15/18))</f>
-        <v>0.57751212121212114</v>
-      </c>
-      <c r="AK15" s="23">
-        <f>((P15/2)+(1-(X15-0.25*Y15+0.5*Z15))+(AE15/200)+(AB15/18))</f>
-        <v>0.5396333333333333</v>
-      </c>
-      <c r="AL15" s="20">
-        <f>(((P15/2)+(1-X15)+(AE15/200)+(AB15/9)))/1.06</f>
+      <c r="AG15" s="73">
+        <f t="shared" si="18"/>
+        <v>0.5319940098661029</v>
+      </c>
+      <c r="AH15" s="66" t="e">
+        <f>(((P15-Q15+1.25*Q15)/2)+(U15/3)-(X15-0.2*#REF!+0.5*Y15)+(AD15/250)+(AA15/20))+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AI15" s="62" t="e">
+        <f>(((P15-Q15+1.25*Q15+U15)/2)+(1-(X15-0.25*#REF!+0.5*Y15))+(AD15/200)+(AA15/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ15" s="23" t="e">
+        <f>((P15/2)+(1-(X15-0.25*#REF!+0.5*Y15))+(AD15/200)+(AA15/18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK15" s="20">
+        <f t="shared" si="15"/>
         <v>0.53581761006289297</v>
       </c>
-      <c r="AM15" s="18">
-        <f>((P15/2)+(1-X15)+(AE15/200)+(AB15/9))</f>
+      <c r="AL15" s="18">
+        <f t="shared" si="16"/>
         <v>0.56796666666666662</v>
       </c>
-      <c r="AN15" s="15">
-        <f>((P15/2)+(1-X15)+(AE15/200))</f>
+      <c r="AM15" s="15">
+        <f t="shared" si="17"/>
         <v>0.53129999999999999</v>
       </c>
-      <c r="AO15" s="68">
-        <f>(((P15-Q15+1.25*Q15)/2)+(U15/3)-(X15-0.2*Y15+0.5*Z15)+(AE15/250)+(AB15/18))*10</f>
-        <v>-4.833236363636364</v>
-      </c>
-      <c r="AP15" s="10">
-        <f>(((P15-P16)-(X15-X16)+((AE15-AE16)/100))/2)*10</f>
+      <c r="AN15" s="68" t="e">
+        <f>(((P15-Q15+1.25*Q15)/2)+(U15/3)-(X15-0.2*#REF!+0.5*Y15)+(AD15/250)+(AA15/18))*10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO15" s="10">
+        <f>(((P15-P16)-(X15-X16)+((AD15-AD16)/100))/2)*10</f>
         <v>-3.5485357142857152</v>
       </c>
-      <c r="AQ15" s="2">
-        <f>(((P15-P16)-(X15-X16)+(AE15-AE16))/100)+1</f>
+      <c r="AP15" s="2">
+        <f>(((P15-P16)-(X15-X16)+(AD15-AD16))/100)+1</f>
         <v>0.82489285714285698</v>
       </c>
+      <c r="AQ15" s="12">
+        <f>((P15-P16)-(X15-X16)+((AD15-AD16)/100))*10</f>
+        <v>-7.0970714285714305</v>
+      </c>
       <c r="AR15" s="12">
-        <f>((P15-P16)-(X15-X16)+((AE15-AE16)/100))*10</f>
-        <v>-7.0970714285714305</v>
-      </c>
-      <c r="AS15" s="12">
-        <f>((P15-P16)-(X15-X16)+((AE15-AE16)/116))+1</f>
+        <f>((P15-P16)-(X15-X16)+((AD15-AD16)/116))+1</f>
         <v>0.31370073891625605</v>
       </c>
-      <c r="AT15" s="5">
-        <f>(((P15-P16)-(X15-X16)+((AE15-AE16)/100))/2)+1</f>
+      <c r="AS15" s="5">
+        <f>(((P15-P16)-(X15-X16)+((AD15-AD16)/100))/2)+1</f>
         <v>0.64514642857142845</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -4724,122 +4668,118 @@
         <v>33</v>
       </c>
       <c r="P16" s="74">
-        <f t="shared" ref="P16:Y16" si="3">AVERAGE(P2:P15)</f>
+        <f t="shared" ref="P16:X16" si="19">AVERAGE(P2:P15)</f>
         <v>0.58357142857142852</v>
       </c>
       <c r="Q16" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>0.234607572608863</v>
       </c>
       <c r="R16" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>0.26428571428571429</v>
       </c>
       <c r="S16" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>49.963369963369971</v>
       </c>
       <c r="T16" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>45.789285714285718</v>
       </c>
       <c r="U16" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>0.13403708659813482</v>
       </c>
       <c r="V16" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>5.5241633986422553E-2</v>
       </c>
       <c r="W16" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>5.2706944688779123E-2</v>
       </c>
       <c r="X16" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>0.64357142857142846</v>
       </c>
-      <c r="Y16" s="74">
-        <f t="shared" si="3"/>
-        <v>3.3571428571428578E-2</v>
-      </c>
-      <c r="Z16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="74">
+        <f>AVERAGE(Z2:Z15)</f>
+        <v>2.6671428571428573</v>
+      </c>
       <c r="AA16" s="74">
         <f>AVERAGE(AA2:AA15)</f>
-        <v>2.6671428571428573</v>
+        <v>0.18857142857142858</v>
       </c>
       <c r="AB16" s="74">
         <f>AVERAGE(AB2:AB15)</f>
-        <v>0.18857142857142858</v>
+        <v>0.96071428571428608</v>
       </c>
       <c r="AC16" s="74">
         <f>AVERAGE(AC2:AC15)</f>
-        <v>0.96071428571428608</v>
+        <v>47.124285714285705</v>
       </c>
       <c r="AD16" s="74">
         <f>AVERAGE(AD2:AD15)</f>
-        <v>47.124285714285705</v>
-      </c>
-      <c r="AE16" s="74">
-        <f>AVERAGE(AE2:AE15)</f>
         <v>69.230714285714299</v>
       </c>
+      <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="72">
-        <f t="shared" ref="AH16:AT16" si="4">AVERAGE(AH2:AH15)</f>
-        <v>0.9958620915162768</v>
-      </c>
-      <c r="AI16" s="66">
-        <f t="shared" si="4"/>
-        <v>1.0138564040135816</v>
-      </c>
-      <c r="AJ16" s="62">
-        <f t="shared" si="4"/>
-        <v>1.1081528232085087</v>
-      </c>
-      <c r="AK16" s="23">
-        <f t="shared" si="4"/>
-        <v>1.0118083333333334</v>
-      </c>
-      <c r="AL16" s="20">
-        <f t="shared" si="4"/>
+      <c r="AG16" s="72">
+        <f t="shared" ref="AG16:AS16" si="20">AVERAGE(AG2:AG15)</f>
+        <v>1.0222682685607114</v>
+      </c>
+      <c r="AH16" s="66" t="e">
+        <f t="shared" si="20"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AI16" s="62" t="e">
+        <f t="shared" si="20"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ16" s="23" t="e">
+        <f t="shared" si="20"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AK16" s="20">
+        <f t="shared" si="20"/>
         <v>0.95784928122192259</v>
       </c>
-      <c r="AM16" s="18">
-        <f t="shared" si="4"/>
+      <c r="AL16" s="18">
+        <f t="shared" si="20"/>
         <v>1.0153202380952382</v>
       </c>
-      <c r="AN16" s="15">
-        <f t="shared" si="4"/>
+      <c r="AM16" s="15">
+        <f t="shared" si="20"/>
         <v>0.99436785714285725</v>
       </c>
-      <c r="AO16" s="68">
-        <f t="shared" si="4"/>
-        <v>0.14904023061200464</v>
-      </c>
-      <c r="AP16" s="10">
-        <f t="shared" si="4"/>
-        <v>0.89241836734693814</v>
-      </c>
-      <c r="AQ16" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0688765306122447</v>
+      <c r="AN16" s="68" t="e">
+        <f t="shared" si="20"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AO16" s="10">
+        <f t="shared" si="20"/>
+        <v>0.68141836734693839</v>
+      </c>
+      <c r="AP16" s="2">
+        <f t="shared" si="20"/>
+        <v>1.055669387755102</v>
+      </c>
+      <c r="AQ16" s="12">
+        <f t="shared" si="20"/>
+        <v>1.3628367346938768</v>
       </c>
       <c r="AR16" s="12">
-        <f t="shared" si="4"/>
-        <v>1.7848367346938763</v>
-      </c>
-      <c r="AS16" s="12">
-        <f t="shared" si="4"/>
-        <v>1.1691361717100632</v>
-      </c>
-      <c r="AT16" s="5">
-        <f t="shared" si="4"/>
-        <v>1.0892418367346939</v>
+        <f t="shared" si="20"/>
+        <v>1.1287174524982408</v>
+      </c>
+      <c r="AS16" s="5">
+        <f t="shared" si="20"/>
+        <v>1.068141836734694</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
@@ -4860,130 +4800,127 @@
         <v>34</v>
       </c>
       <c r="P17" s="74">
-        <f t="shared" ref="P17:Y17" si="5">MEDIAN(P2,P15)</f>
-        <v>0.51</v>
+        <f>MEDIAN(P2:P15)</f>
+        <v>0.64</v>
       </c>
       <c r="Q17" s="74">
-        <f t="shared" si="5"/>
-        <v>0.20566778900112234</v>
+        <f t="shared" ref="Q17:AD17" si="21">MEDIAN(Q2:Q15)</f>
+        <v>0.24743589743589745</v>
       </c>
       <c r="R17" s="74">
-        <f t="shared" si="5"/>
-        <v>0.28999999999999998</v>
+        <f t="shared" si="21"/>
+        <v>0.25</v>
       </c>
       <c r="S17" s="74">
-        <f t="shared" si="5"/>
-        <v>49.663299663299668</v>
+        <f t="shared" si="21"/>
+        <v>49.743589743589737</v>
       </c>
       <c r="T17" s="74">
-        <f t="shared" si="5"/>
-        <v>42.765000000000001</v>
+        <f t="shared" si="21"/>
+        <v>51.739999999999995</v>
       </c>
       <c r="U17" s="74">
-        <f t="shared" si="5"/>
-        <v>0.12149270482603815</v>
+        <f t="shared" si="21"/>
+        <v>0.14482431149097816</v>
       </c>
       <c r="V17" s="74">
-        <f t="shared" si="5"/>
-        <v>7.2390572390572394E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="W17" s="74">
-        <f t="shared" si="5"/>
-        <v>5.2188552188552187E-2</v>
+        <f t="shared" si="21"/>
+        <v>5.0854700854700854E-2</v>
       </c>
       <c r="X17" s="74">
-        <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="Y17" s="74">
-        <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-      <c r="Z17" s="75"/>
+        <f t="shared" si="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74">
+        <f t="shared" si="21"/>
+        <v>2.2800000000000002</v>
+      </c>
       <c r="AA17" s="74">
-        <f>MEDIAN(AA2,AA15)</f>
-        <v>2.1950000000000003</v>
+        <f t="shared" si="21"/>
+        <v>0.17499999999999999</v>
       </c>
       <c r="AB17" s="74">
-        <f>MEDIAN(AB2,AB15)</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="21"/>
+        <v>1.0750000000000002</v>
       </c>
       <c r="AC17" s="74">
-        <f>MEDIAN(AC2,AC15)</f>
-        <v>0.92999999999999994</v>
+        <f t="shared" si="21"/>
+        <v>47.215000000000003</v>
       </c>
       <c r="AD17" s="74">
-        <f>MEDIAN(AD2,AD15)</f>
-        <v>36.97</v>
-      </c>
-      <c r="AE17" s="74">
-        <f>MEDIAN(AE2,AE15)</f>
-        <v>66.349999999999994</v>
-      </c>
+        <f t="shared" si="21"/>
+        <v>75.389999999999986</v>
+      </c>
+      <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="78">
-        <f t="shared" ref="AH17:AT17" si="6">MEDIAN(AH2:AH15)</f>
-        <v>1.1300312397824004</v>
-      </c>
-      <c r="AI17" s="66">
-        <f t="shared" si="6"/>
-        <v>1.1343585089351147</v>
-      </c>
-      <c r="AJ17" s="62">
-        <f t="shared" si="6"/>
-        <v>1.2402290038897343</v>
-      </c>
-      <c r="AK17" s="23">
-        <f t="shared" si="6"/>
-        <v>1.125561111111111</v>
-      </c>
-      <c r="AL17" s="20">
-        <f t="shared" si="6"/>
+      <c r="AG17" s="78">
+        <f t="shared" ref="AG17:AS17" si="22">MEDIAN(AG2:AG15)</f>
+        <v>1.1455450406868586</v>
+      </c>
+      <c r="AH17" s="66" t="e">
+        <f t="shared" si="22"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AI17" s="62" t="e">
+        <f t="shared" si="22"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AJ17" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AK17" s="20">
+        <f t="shared" si="22"/>
         <v>1.0652568134171907</v>
       </c>
-      <c r="AM17" s="18">
-        <f t="shared" si="6"/>
+      <c r="AL17" s="18">
+        <f t="shared" si="22"/>
         <v>1.129172222222222</v>
       </c>
-      <c r="AN17" s="15">
-        <f t="shared" si="6"/>
+      <c r="AM17" s="15">
+        <f t="shared" si="22"/>
         <v>1.1069499999999999</v>
       </c>
-      <c r="AO17" s="68">
-        <f t="shared" si="6"/>
-        <v>1.3546962004622589</v>
-      </c>
-      <c r="AP17" s="10">
-        <f t="shared" si="6"/>
-        <v>1.1095000000000002</v>
-      </c>
-      <c r="AQ17" s="2">
-        <f t="shared" si="6"/>
-        <v>1.093925</v>
+      <c r="AN17" s="68" t="e">
+        <f t="shared" si="22"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AO17" s="10">
+        <f t="shared" si="22"/>
+        <v>0.37099999999999994</v>
+      </c>
+      <c r="AP17" s="2">
+        <f t="shared" si="22"/>
+        <v>1.0565</v>
+      </c>
+      <c r="AQ17" s="12">
+        <f t="shared" si="22"/>
+        <v>0.74199999999999988</v>
       </c>
       <c r="AR17" s="12">
-        <f t="shared" si="6"/>
-        <v>2.2190000000000003</v>
-      </c>
-      <c r="AS17" s="12">
-        <f t="shared" si="6"/>
-        <v>1.2095689655172415</v>
-      </c>
-      <c r="AT17" s="5">
-        <f t="shared" si="6"/>
-        <v>1.1109499999999999</v>
+        <f t="shared" si="22"/>
+        <v>1.068103448275862</v>
+      </c>
+      <c r="AS17" s="5">
+        <f t="shared" si="22"/>
+        <v>1.0370999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG18" s="82"/>
-      <c r="AH18" s="83"/>
+        <v>98</v>
+      </c>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="84"/>
       <c r="AI18" s="84"/>
       <c r="AJ18" s="84"/>
       <c r="AK18" s="84"/>
@@ -4994,9 +4931,8 @@
       <c r="AP18" s="84"/>
       <c r="AQ18" s="84"/>
       <c r="AR18" s="84"/>
-      <c r="AS18" s="84"/>
     </row>
-    <row r="19" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
@@ -5013,7 +4949,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O19" s="1">
         <v>27</v>
@@ -5045,46 +4981,43 @@
       <c r="X19" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Y19" s="79">
+      <c r="Y19" s="1">
         <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.44</v>
-      </c>
-      <c r="AB19" s="1">
         <v>0.3</v>
       </c>
-      <c r="AC19" s="79">
+      <c r="AB19" s="79">
         <v>1.33</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AC19" s="1">
         <v>40</v>
       </c>
-      <c r="AE19" s="79">
+      <c r="AD19" s="79">
         <v>89.78</v>
       </c>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="73">
-        <f>(((P19+0.25*Q19)/2)+(U19/3)+0.25*((V19/4)+W19)-(X19+0.25*R19-0.15*Y19+0.5*Z19)+(AE19/225)+(AB19/16))+1</f>
-        <v>1.3661055555555555</v>
-      </c>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="73">
+        <f>((P19/2)+(U19/4)+(W19/5)-(X19+0.5*Y19)+(AD19/215)+(AA19/20))+1</f>
+        <v>1.3275813953488371</v>
+      </c>
+      <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="12"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AO19" s="12"/>
+      <c r="AO19" s="84"/>
       <c r="AP19" s="84"/>
       <c r="AQ19" s="84"/>
       <c r="AR19" s="84"/>
-      <c r="AS19" s="84"/>
     </row>
-    <row r="20" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
@@ -5101,7 +5034,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O20" s="1">
         <v>27</v>
@@ -5133,46 +5066,43 @@
       <c r="X20" s="1">
         <v>0.48</v>
       </c>
-      <c r="Y20" s="79">
+      <c r="Y20" s="1">
         <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.56</v>
-      </c>
-      <c r="AB20" s="1">
         <v>0.52</v>
       </c>
-      <c r="AC20" s="79">
+      <c r="AB20" s="79">
         <v>1.38</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AC20" s="1">
         <v>55.56</v>
       </c>
-      <c r="AE20" s="79">
+      <c r="AD20" s="79">
         <v>79.930000000000007</v>
       </c>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="81"/>
-      <c r="AH20" s="73">
-        <f t="shared" ref="AH20:AH30" si="7">(((P20+0.25*Q20)/2)+(U20/3)+0.25*((V20/4)+W20)-(X20+0.25*R20-0.15*Y20+0.5*Z20)+(AE20/225)+(AB20/16))+1</f>
-        <v>1.3975361111111111</v>
-      </c>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="73">
+        <f t="shared" ref="AG20:AG28" si="23">((P20/2)+(U20/4)+(W20/5)-(X20+0.5*Y20)+(AD20/215)+(AA20/20))+1</f>
+        <v>1.3317674418604653</v>
+      </c>
+      <c r="AH20" s="12"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="12"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
       <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
+      <c r="AO20" s="84"/>
       <c r="AP20" s="84"/>
       <c r="AQ20" s="84"/>
       <c r="AR20" s="84"/>
-      <c r="AS20" s="84"/>
     </row>
-    <row r="21" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>48</v>
       </c>
@@ -5189,7 +5119,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O21" s="1">
         <v>27</v>
@@ -5210,7 +5140,7 @@
         <v>75</v>
       </c>
       <c r="U21" s="79">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V21" s="79">
         <v>0</v>
@@ -5222,50 +5152,47 @@
         <v>0.7</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="AB21" s="1">
         <v>0.15</v>
       </c>
-      <c r="AC21" s="79">
+      <c r="AB21" s="79">
         <v>0.95</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AC21" s="1">
         <v>55.56</v>
       </c>
-      <c r="AE21" s="79">
+      <c r="AD21" s="79">
         <v>75</v>
       </c>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="73">
-        <f t="shared" si="7"/>
-        <v>1.0887083333333334</v>
-      </c>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="73">
+        <f t="shared" si="23"/>
+        <v>1.0053372093023256</v>
+      </c>
+      <c r="AH21" s="12"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="12"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
       <c r="AM21" s="12"/>
       <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
+      <c r="AO21" s="84"/>
       <c r="AP21" s="84"/>
       <c r="AQ21" s="84"/>
       <c r="AR21" s="84"/>
-      <c r="AS21" s="84"/>
     </row>
-    <row r="22" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>53</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O22" s="79">
         <v>27</v>
@@ -5301,41 +5228,38 @@
         <v>0</v>
       </c>
       <c r="Z22" s="79">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="79">
         <v>1.74</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AA22" s="1">
         <v>0.15</v>
       </c>
+      <c r="AB22" s="79">
+        <v>0.53</v>
+      </c>
       <c r="AC22" s="79">
-        <v>0.53</v>
-      </c>
-      <c r="AD22" s="79">
         <v>40</v>
       </c>
-      <c r="AE22">
+      <c r="AD22">
         <v>57.41</v>
       </c>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="73">
-        <f t="shared" si="7"/>
-        <v>0.80161388888888885</v>
-      </c>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="73">
+        <f t="shared" si="23"/>
+        <v>0.7850232558139536</v>
+      </c>
+      <c r="AH22" s="12"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="12"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
       <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
+      <c r="AO22" s="84"/>
       <c r="AP22" s="84"/>
       <c r="AQ22" s="84"/>
       <c r="AR22" s="84"/>
-      <c r="AS22" s="84"/>
     </row>
-    <row r="23" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>56</v>
       </c>
@@ -5353,40 +5277,64 @@
       <c r="M23" s="1"/>
       <c r="N23" s="81"/>
       <c r="O23" s="81"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="79"/>
+      <c r="P23" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="81">
+        <v>0</v>
+      </c>
+      <c r="R23" s="79">
+        <v>0</v>
+      </c>
       <c r="S23" s="81"/>
       <c r="T23" s="81"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
+      <c r="U23" s="79">
+        <v>0</v>
+      </c>
+      <c r="V23" s="79">
+        <v>0</v>
+      </c>
+      <c r="W23" s="79">
+        <v>0</v>
+      </c>
+      <c r="X23" s="79">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="79">
+        <v>0</v>
+      </c>
       <c r="AB23" s="79"/>
       <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
+      <c r="AD23" s="79">
+        <v>100</v>
+      </c>
+      <c r="AE23" s="81"/>
       <c r="AF23" s="81"/>
-      <c r="AG23" s="81"/>
-      <c r="AH23" s="85"/>
+      <c r="AG23" s="73">
+        <f t="shared" si="23"/>
+        <v>0.96511627906976738</v>
+      </c>
+      <c r="AH23" s="12"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="12"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AO23" s="12"/>
+      <c r="AO23" s="84"/>
       <c r="AP23" s="84"/>
       <c r="AQ23" s="84"/>
       <c r="AR23" s="84"/>
-      <c r="AS23" s="84"/>
     </row>
-    <row r="24" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5402,40 +5350,64 @@
       <c r="M24" s="1"/>
       <c r="N24" s="81"/>
       <c r="O24" s="81"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
+      <c r="P24" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="79">
+        <v>0</v>
+      </c>
+      <c r="R24" s="79">
+        <v>0</v>
+      </c>
       <c r="S24" s="81"/>
       <c r="T24" s="81"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
+      <c r="U24" s="79">
+        <v>0</v>
+      </c>
+      <c r="V24" s="79">
+        <v>0</v>
+      </c>
+      <c r="W24" s="79">
+        <v>0</v>
+      </c>
+      <c r="X24" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="79">
+        <v>0</v>
+      </c>
       <c r="AB24" s="79"/>
       <c r="AC24" s="79"/>
-      <c r="AD24" s="79"/>
+      <c r="AD24" s="79">
+        <v>100</v>
+      </c>
       <c r="AE24" s="79"/>
       <c r="AF24" s="81"/>
-      <c r="AG24" s="81"/>
-      <c r="AH24" s="85"/>
+      <c r="AG24" s="73">
+        <f t="shared" si="23"/>
+        <v>1.9651162790697674</v>
+      </c>
+      <c r="AH24" s="12"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="12"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
       <c r="AN24" s="12"/>
-      <c r="AO24" s="12"/>
+      <c r="AO24" s="84"/>
       <c r="AP24" s="84"/>
       <c r="AQ24" s="84"/>
       <c r="AR24" s="84"/>
-      <c r="AS24" s="84"/>
     </row>
-    <row r="25" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5451,40 +5423,64 @@
       <c r="M25" s="1"/>
       <c r="N25" s="81"/>
       <c r="O25" s="81"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
+      <c r="P25" s="79">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="79">
+        <v>0</v>
+      </c>
+      <c r="R25" s="79">
+        <v>0</v>
+      </c>
       <c r="S25" s="81"/>
       <c r="T25" s="81"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
+      <c r="U25" s="79">
+        <v>1</v>
+      </c>
+      <c r="V25" s="79">
+        <v>0</v>
+      </c>
+      <c r="W25" s="79">
+        <v>0</v>
+      </c>
+      <c r="X25" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="79">
+        <v>0</v>
+      </c>
       <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="79">
+        <v>200</v>
+      </c>
       <c r="AE25" s="79"/>
       <c r="AF25" s="81"/>
-      <c r="AG25" s="81"/>
-      <c r="AH25" s="85"/>
+      <c r="AG25" s="73">
+        <f t="shared" si="23"/>
+        <v>3.1802325581395348</v>
+      </c>
+      <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="12"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AO25" s="12"/>
+      <c r="AO25" s="84"/>
       <c r="AP25" s="84"/>
       <c r="AQ25" s="84"/>
       <c r="AR25" s="84"/>
-      <c r="AS25" s="84"/>
     </row>
-    <row r="26" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5500,24 +5496,49 @@
       <c r="M26" s="1"/>
       <c r="N26" s="81"/>
       <c r="O26" s="81"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
+      <c r="P26" s="79">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="79">
+        <v>0</v>
+      </c>
+      <c r="R26" s="79">
+        <v>0</v>
+      </c>
       <c r="S26" s="81"/>
       <c r="T26" s="81"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
+      <c r="U26" s="79">
+        <v>1</v>
+      </c>
+      <c r="V26" s="79">
+        <v>0</v>
+      </c>
+      <c r="W26" s="79">
+        <v>1</v>
+      </c>
+      <c r="X26" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="79">
+        <v>0</v>
+      </c>
       <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="79">
+        <v>200</v>
+      </c>
+      <c r="AE26" s="87"/>
       <c r="AF26" s="81"/>
-      <c r="AG26" s="81"/>
+      <c r="AG26" s="73">
+        <f t="shared" si="23"/>
+        <v>3.3802325581395349</v>
+      </c>
       <c r="AH26" s="85"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="12"/>
@@ -5531,9 +5552,9 @@
       <c r="AR26" s="84"/>
       <c r="AS26" s="84"/>
     </row>
-    <row r="27" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5549,24 +5570,49 @@
       <c r="M27" s="1"/>
       <c r="N27" s="81"/>
       <c r="O27" s="81"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
+      <c r="P27" s="79">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="79">
+        <v>0</v>
+      </c>
+      <c r="R27" s="79">
+        <v>0</v>
+      </c>
       <c r="S27" s="81"/>
       <c r="T27" s="81"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
+      <c r="U27" s="79">
+        <v>1</v>
+      </c>
+      <c r="V27" s="79">
+        <v>0</v>
+      </c>
+      <c r="W27" s="79">
+        <v>0</v>
+      </c>
+      <c r="X27" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="79">
+        <v>4</v>
+      </c>
       <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="81"/>
-      <c r="AG27" s="81"/>
+      <c r="AC27" s="81"/>
+      <c r="AD27" s="79">
+        <v>200</v>
+      </c>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="73">
+        <f t="shared" si="23"/>
+        <v>3.3802325581395349</v>
+      </c>
       <c r="AH27" s="85"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="12"/>
@@ -5580,9 +5626,9 @@
       <c r="AR27" s="84"/>
       <c r="AS27" s="84"/>
     </row>
-    <row r="28" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5598,24 +5644,47 @@
       <c r="M28" s="1"/>
       <c r="N28" s="81"/>
       <c r="O28" s="81"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
+      <c r="P28" s="79">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="79">
+        <v>0</v>
+      </c>
+      <c r="R28" s="79">
+        <v>0</v>
+      </c>
       <c r="S28" s="81"/>
       <c r="T28" s="81"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
+      <c r="U28" s="79">
+        <v>1</v>
+      </c>
+      <c r="V28" s="79">
+        <v>0</v>
+      </c>
+      <c r="W28" s="79">
+        <v>1</v>
+      </c>
+      <c r="X28" s="79">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="79">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="79">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="79">
+        <v>4</v>
+      </c>
       <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="81"/>
-      <c r="AG28" s="81"/>
+      <c r="AC28" s="81"/>
+      <c r="AD28" s="79">
+        <v>200</v>
+      </c>
+      <c r="AG28" s="73">
+        <f t="shared" si="23"/>
+        <v>3.5802325581395351</v>
+      </c>
       <c r="AH28" s="85"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="12"/>
@@ -5629,9 +5698,9 @@
       <c r="AR28" s="84"/>
       <c r="AS28" s="84"/>
     </row>
-    <row r="29" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
-        <v>98</v>
+    <row r="29" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5648,23 +5717,14 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
       <c r="U29" s="79"/>
       <c r="V29" s="79"/>
       <c r="W29" s="79"/>
       <c r="X29" s="79"/>
       <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
       <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="81"/>
-      <c r="AG29" s="81"/>
+      <c r="AD29" s="79"/>
+      <c r="AG29" s="73"/>
       <c r="AH29" s="85"/>
       <c r="AI29" s="12"/>
       <c r="AJ29" s="12"/>
@@ -5678,7 +5738,7 @@
       <c r="AR29" s="84"/>
       <c r="AS29" s="84"/>
     </row>
-    <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -5692,24 +5752,15 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="88"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="88"/>
-      <c r="AA30" s="88"/>
-      <c r="AB30" s="88"/>
-      <c r="AC30" s="88"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="88"/>
-      <c r="AF30" s="81"/>
-      <c r="AG30" s="81"/>
+      <c r="P30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AG30" s="73"/>
       <c r="AH30" s="85"/>
       <c r="AI30" s="12"/>
       <c r="AJ30" s="12"/>
@@ -5723,7 +5774,7 @@
       <c r="AR30" s="84"/>
       <c r="AS30" s="84"/>
     </row>
-    <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>47</v>
       </c>
@@ -5743,7 +5794,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="74"/>
       <c r="Q31" s="74"/>
-      <c r="R31" s="75"/>
+      <c r="R31" s="74"/>
       <c r="S31" s="74"/>
       <c r="T31" s="74"/>
       <c r="U31" s="74"/>
@@ -5756,9 +5807,7 @@
       <c r="AB31" s="74"/>
       <c r="AC31" s="74"/>
       <c r="AD31" s="74"/>
-      <c r="AE31" s="74"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="81"/>
+      <c r="AG31" s="73"/>
       <c r="AH31" s="85"/>
       <c r="AI31" s="84"/>
       <c r="AJ31" s="84"/>
@@ -5772,7 +5821,7 @@
       <c r="AR31" s="84"/>
       <c r="AS31" s="84"/>
     </row>
-    <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>49</v>
       </c>
@@ -5800,17 +5849,17 @@
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5822,7 +5871,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT39">
     <sortCondition sortBy="cellColor" ref="AF12:AF39" dxfId="0"/>
   </sortState>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
